--- a/public/assets/updated-excels/qr-feeder-pillar.xlsx
+++ b/public/assets/updated-excels/qr-feeder-pillar.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
   <si>
     <t>Visual Check</t>
   </si>
@@ -68,46 +68,100 @@
     <t>Pembersihan Iklan haram/ banner</t>
   </si>
   <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>PETALING JAYA</t>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>BANGI</t>
   </si>
   <si>
     <t>aero</t>
   </si>
   <si>
-    <t>2023-10-04</t>
-  </si>
-  <si>
-    <t>13:46:00</t>
-  </si>
-  <si>
-    <t>feeder_involved</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Size</t>
-  </si>
-  <si>
-    <t>3.1315412081207867 , 101.60453801430455</t>
-  </si>
-  <si>
-    <t>Gate Status</t>
-  </si>
-  <si>
-    <t>Vandalism Status</t>
-  </si>
-  <si>
-    <t>Leaning Staus</t>
-  </si>
-  <si>
-    <t>Rust Status</t>
-  </si>
-  <si>
-    <t>Advertise Poster Status</t>
+    <t>2023-10-18</t>
+  </si>
+  <si>
+    <t>05:16:00</t>
+  </si>
+  <si>
+    <t>2.9071675680888496 , 101.80343948683465</t>
+  </si>
+  <si>
+    <t>{"locked":"true","unlocked":"false","demaged":"false","other":"false","other_value":null}</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>2023-10-21</t>
+  </si>
+  <si>
+    <t>12:04:24</t>
+  </si>
+  <si>
+    <t>400A</t>
+  </si>
+  <si>
+    <t>74.38322173431516 , 31.579942283289938</t>
+  </si>
+  <si>
+    <t>{"locked":false,"unlocked":true,"demaged":true,"other":false,"other_value":""}</t>
+  </si>
+  <si>
+    <t>ya</t>
+  </si>
+  <si>
+    <t>tidak</t>
+  </si>
+  <si>
+    <t>2023-10-22</t>
+  </si>
+  <si>
+    <t>19:43:00</t>
+  </si>
+  <si>
+    <t>2.9240971854836393 , 101.79934078555796</t>
+  </si>
+  <si>
+    <t>{"locked":"false","unlocked":"false","demaged":"false","other":"true","other_value":"jtgj"}</t>
+  </si>
+  <si>
+    <t>2023-10-23</t>
+  </si>
+  <si>
+    <t>19:49:00</t>
+  </si>
+  <si>
+    <t>2.9515269086102744 , 101.79934078555796</t>
+  </si>
+  <si>
+    <t>Aerosynergy</t>
+  </si>
+  <si>
+    <t>08:09:00</t>
+  </si>
+  <si>
+    <t>1600A</t>
+  </si>
+  <si>
+    <t>101.7843739874661 , 2.9548006669850757</t>
+  </si>
+  <si>
+    <t>2023-10-20</t>
+  </si>
+  <si>
+    <t>19:39:08</t>
+  </si>
+  <si>
+    <t>800A</t>
+  </si>
+  <si>
+    <t>101.8091475404799 , 3.010648938143917</t>
+  </si>
+  <si>
+    <t>{"locked":true,"unlocked":false,"demaged":true,"other":false,"other_value":""}</t>
   </si>
 </sst>
 </file>
@@ -499,7 +553,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="E5" sqref="E5"/>
@@ -598,32 +652,243 @@
       <c r="F3" t="s">
         <v>21</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3">
+        <v>400</v>
+      </c>
+      <c r="J3" t="s">
         <v>22</v>
       </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
         <v>23</v>
       </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>24</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="s">
         <v>25</v>
       </c>
-      <c r="K3" t="s">
+      <c r="N3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
         <v>26</v>
       </c>
-      <c r="L3" t="s">
+      <c r="F4" t="s">
         <v>27</v>
       </c>
-      <c r="M3" t="s">
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4" t="s">
         <v>28</v>
       </c>
-      <c r="N3" t="s">
+      <c r="J4" t="s">
         <v>29</v>
       </c>
-      <c r="O3" t="s">
+      <c r="K4" t="s">
         <v>30</v>
+      </c>
+      <c r="L4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5">
+        <v>400</v>
+      </c>
+      <c r="J5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6">
+        <v>400</v>
+      </c>
+      <c r="J6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O8" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/public/assets/updated-excels/qr-feeder-pillar.xlsx
+++ b/public/assets/updated-excels/qr-feeder-pillar.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
   <si>
     <t>Visual Check</t>
   </si>
@@ -86,15 +86,30 @@
     <t>2.9071675680888496 , 101.80343948683465</t>
   </si>
   <si>
-    <t>{"locked":"true","unlocked":"false","demaged":"false","other":"false","other_value":null}</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
     <t>Yes</t>
   </si>
   <si>
+    <t>2023-11-01</t>
+  </si>
+  <si>
+    <t>01:25:44</t>
+  </si>
+  <si>
+    <t>1600A</t>
+  </si>
+  <si>
+    <t>101.78446250036359 , 2.9999047242641184</t>
+  </si>
+  <si>
+    <t>ya</t>
+  </si>
+  <si>
+    <t>tidak</t>
+  </si>
+  <si>
     <t>2023-10-21</t>
   </si>
   <si>
@@ -107,15 +122,6 @@
     <t>74.38322173431516 , 31.579942283289938</t>
   </si>
   <si>
-    <t>{"locked":false,"unlocked":true,"demaged":true,"other":false,"other_value":""}</t>
-  </si>
-  <si>
-    <t>ya</t>
-  </si>
-  <si>
-    <t>tidak</t>
-  </si>
-  <si>
     <t>2023-10-22</t>
   </si>
   <si>
@@ -125,9 +131,6 @@
     <t>2.9240971854836393 , 101.79934078555796</t>
   </si>
   <si>
-    <t>{"locked":"false","unlocked":"false","demaged":"false","other":"true","other_value":"jtgj"}</t>
-  </si>
-  <si>
     <t>2023-10-23</t>
   </si>
   <si>
@@ -137,31 +140,40 @@
     <t>2.9515269086102744 , 101.79934078555796</t>
   </si>
   <si>
-    <t>Aerosynergy</t>
-  </si>
-  <si>
-    <t>08:09:00</t>
-  </si>
-  <si>
-    <t>1600A</t>
+    <t>2023-10-20</t>
+  </si>
+  <si>
+    <t>19:39:08</t>
+  </si>
+  <si>
+    <t>800A</t>
+  </si>
+  <si>
+    <t>101.8091475404799 , 3.010648938143917</t>
+  </si>
+  <si>
+    <t>21:31:23</t>
   </si>
   <si>
     <t>101.7843739874661 , 2.9548006669850757</t>
   </si>
   <si>
-    <t>2023-10-20</t>
-  </si>
-  <si>
-    <t>19:39:08</t>
-  </si>
-  <si>
-    <t>800A</t>
-  </si>
-  <si>
-    <t>101.8091475404799 , 3.010648938143917</t>
-  </si>
-  <si>
-    <t>{"locked":true,"unlocked":false,"demaged":true,"other":false,"other_value":""}</t>
+    <t>2023-10-30</t>
+  </si>
+  <si>
+    <t>23:25:50</t>
+  </si>
+  <si>
+    <t>101.49540485814214 , 2.7734209117567596</t>
+  </si>
+  <si>
+    <t>PETALING JAYA</t>
+  </si>
+  <si>
+    <t>1970-01-01</t>
+  </si>
+  <si>
+    <t>02:23:24</t>
   </si>
 </sst>
 </file>
@@ -553,7 +565,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="E5" sqref="E5"/>
@@ -660,20 +672,17 @@
       <c r="J3" t="s">
         <v>22</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>23</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>24</v>
       </c>
-      <c r="M3" t="s">
-        <v>25</v>
-      </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -690,33 +699,30 @@
         <v>19</v>
       </c>
       <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
         <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
         <v>28</v>
       </c>
-      <c r="J4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" t="s">
         <v>30</v>
       </c>
-      <c r="L4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" t="s">
-        <v>32</v>
-      </c>
       <c r="N4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -733,33 +739,30 @@
         <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
-      <c r="I5">
-        <v>400</v>
+      <c r="I5" t="s">
+        <v>33</v>
       </c>
       <c r="J5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="O5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -776,10 +779,10 @@
         <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G6"/>
       <c r="H6"/>
@@ -787,22 +790,19 @@
         <v>400</v>
       </c>
       <c r="J6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" t="s">
         <v>23</v>
       </c>
-      <c r="L6" t="s">
-        <v>25</v>
-      </c>
-      <c r="M6" t="s">
-        <v>25</v>
-      </c>
-      <c r="N6" t="s">
-        <v>25</v>
-      </c>
       <c r="O6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -816,36 +816,33 @@
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G7"/>
       <c r="H7"/>
-      <c r="I7" t="s">
-        <v>42</v>
+      <c r="I7">
+        <v>400</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K7" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="N7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="O7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -862,34 +859,135 @@
         <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" t="s">
         <v>46</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
         <v>47</v>
       </c>
-      <c r="K8" t="s">
+      <c r="F10" t="s">
         <v>48</v>
       </c>
-      <c r="L8" t="s">
-        <v>31</v>
-      </c>
-      <c r="M8" t="s">
-        <v>31</v>
-      </c>
-      <c r="N8" t="s">
-        <v>31</v>
-      </c>
-      <c r="O8" t="s">
-        <v>31</v>
-      </c>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11"/>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/public/assets/updated-excels/qr-feeder-pillar.xlsx
+++ b/public/assets/updated-excels/qr-feeder-pillar.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
   <si>
     <t>Visual Check</t>
   </si>
@@ -92,88 +92,73 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>2023-11-01</t>
-  </si>
-  <si>
-    <t>01:25:44</t>
+    <t>2023-10-21</t>
+  </si>
+  <si>
+    <t>12:04:24</t>
+  </si>
+  <si>
+    <t>400A</t>
+  </si>
+  <si>
+    <t>74.38322173431516 , 31.579942283289938</t>
+  </si>
+  <si>
+    <t>ya</t>
+  </si>
+  <si>
+    <t>tidak</t>
+  </si>
+  <si>
+    <t>2023-10-22</t>
+  </si>
+  <si>
+    <t>19:43:00</t>
+  </si>
+  <si>
+    <t>2.9240971854836393 , 101.79934078555796</t>
+  </si>
+  <si>
+    <t>2023-10-23</t>
+  </si>
+  <si>
+    <t>19:49:00</t>
+  </si>
+  <si>
+    <t>2.9515269086102744 , 101.79934078555796</t>
+  </si>
+  <si>
+    <t>1981-05-27</t>
+  </si>
+  <si>
+    <t>05:59:00</t>
+  </si>
+  <si>
+    <t>2.98 , 101.83</t>
+  </si>
+  <si>
+    <t>Aerosynergy</t>
+  </si>
+  <si>
+    <t>03:09:00</t>
   </si>
   <si>
     <t>1600A</t>
   </si>
   <si>
-    <t>101.78446250036359 , 2.9999047242641184</t>
-  </si>
-  <si>
-    <t>ya</t>
-  </si>
-  <si>
-    <t>tidak</t>
-  </si>
-  <si>
-    <t>2023-10-21</t>
-  </si>
-  <si>
-    <t>12:04:24</t>
-  </si>
-  <si>
-    <t>400A</t>
-  </si>
-  <si>
-    <t>74.38322173431516 , 31.579942283289938</t>
-  </si>
-  <si>
-    <t>2023-10-22</t>
-  </si>
-  <si>
-    <t>19:43:00</t>
-  </si>
-  <si>
-    <t>2.9240971854836393 , 101.79934078555796</t>
-  </si>
-  <si>
-    <t>2023-10-23</t>
-  </si>
-  <si>
-    <t>19:49:00</t>
-  </si>
-  <si>
-    <t>2.9515269086102744 , 101.79934078555796</t>
+    <t>101.7843739874661 , 2.9548006669850757</t>
   </si>
   <si>
     <t>2023-10-20</t>
   </si>
   <si>
-    <t>19:39:08</t>
+    <t>14:39:08</t>
   </si>
   <si>
     <t>800A</t>
   </si>
   <si>
     <t>101.8091475404799 , 3.010648938143917</t>
-  </si>
-  <si>
-    <t>21:31:23</t>
-  </si>
-  <si>
-    <t>101.7843739874661 , 2.9548006669850757</t>
-  </si>
-  <si>
-    <t>2023-10-30</t>
-  </si>
-  <si>
-    <t>23:25:50</t>
-  </si>
-  <si>
-    <t>101.49540485814214 , 2.7734209117567596</t>
-  </si>
-  <si>
-    <t>PETALING JAYA</t>
-  </si>
-  <si>
-    <t>1970-01-01</t>
-  </si>
-  <si>
-    <t>02:23:24</t>
   </si>
 </sst>
 </file>
@@ -565,7 +550,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="E5" sqref="E5"/>
@@ -719,10 +704,10 @@
         <v>30</v>
       </c>
       <c r="N4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -746,23 +731,23 @@
       </c>
       <c r="G5"/>
       <c r="H5"/>
-      <c r="I5" t="s">
+      <c r="I5">
+        <v>400</v>
+      </c>
+      <c r="J5" t="s">
         <v>33</v>
       </c>
-      <c r="J5" t="s">
-        <v>34</v>
-      </c>
       <c r="L5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="M5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -779,10 +764,10 @@
         <v>19</v>
       </c>
       <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
         <v>35</v>
-      </c>
-      <c r="F6" t="s">
-        <v>36</v>
       </c>
       <c r="G6"/>
       <c r="H6"/>
@@ -790,7 +775,7 @@
         <v>400</v>
       </c>
       <c r="J6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L6" t="s">
         <v>24</v>
@@ -799,7 +784,7 @@
         <v>24</v>
       </c>
       <c r="N6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O6" t="s">
         <v>24</v>
@@ -819,30 +804,30 @@
         <v>19</v>
       </c>
       <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
         <v>38</v>
-      </c>
-      <c r="F7" t="s">
-        <v>39</v>
       </c>
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" t="s">
         <v>24</v>
       </c>
       <c r="M7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N7" t="s">
         <v>24</v>
       </c>
       <c r="O7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -856,21 +841,21 @@
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
         <v>41</v>
-      </c>
-      <c r="F8" t="s">
-        <v>42</v>
       </c>
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" t="s">
         <v>43</v>
-      </c>
-      <c r="J8" t="s">
-        <v>44</v>
       </c>
       <c r="L8" t="s">
         <v>29</v>
@@ -899,7 +884,7 @@
         <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
         <v>45</v>
@@ -907,10 +892,10 @@
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L9" t="s">
         <v>29</v>
@@ -924,70 +909,6 @@
       <c r="O9" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10" t="s">
-        <v>43</v>
-      </c>
-      <c r="J10" t="s">
-        <v>49</v>
-      </c>
-      <c r="L10" t="s">
-        <v>30</v>
-      </c>
-      <c r="M10" t="s">
-        <v>30</v>
-      </c>
-      <c r="N10" t="s">
-        <v>30</v>
-      </c>
-      <c r="O10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11"/>
-      <c r="C11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11"/>
-      <c r="E11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/public/assets/updated-excels/qr-feeder-pillar.xlsx
+++ b/public/assets/updated-excels/qr-feeder-pillar.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
     <t>Visual Check</t>
   </si>
@@ -77,88 +77,37 @@
     <t>aero</t>
   </si>
   <si>
-    <t>2023-10-18</t>
-  </si>
-  <si>
-    <t>05:16:00</t>
-  </si>
-  <si>
-    <t>2.9071675680888496 , 101.80343948683465</t>
+    <t>2023-10-21</t>
+  </si>
+  <si>
+    <t>12:04:24</t>
+  </si>
+  <si>
+    <t>400A</t>
+  </si>
+  <si>
+    <t>74.38322173431516 , 31.579942283289938</t>
+  </si>
+  <si>
+    <t>ya</t>
+  </si>
+  <si>
+    <t>tidak</t>
+  </si>
+  <si>
+    <t>2023-10-22</t>
+  </si>
+  <si>
+    <t>19:43:00</t>
+  </si>
+  <si>
+    <t>2.9240971854836393 , 101.79934078555796</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>2023-10-21</t>
-  </si>
-  <si>
-    <t>12:04:24</t>
-  </si>
-  <si>
-    <t>400A</t>
-  </si>
-  <si>
-    <t>74.38322173431516 , 31.579942283289938</t>
-  </si>
-  <si>
-    <t>ya</t>
-  </si>
-  <si>
-    <t>tidak</t>
-  </si>
-  <si>
-    <t>2023-10-22</t>
-  </si>
-  <si>
-    <t>19:43:00</t>
-  </si>
-  <si>
-    <t>2.9240971854836393 , 101.79934078555796</t>
-  </si>
-  <si>
-    <t>2023-10-23</t>
-  </si>
-  <si>
-    <t>19:49:00</t>
-  </si>
-  <si>
-    <t>2.9515269086102744 , 101.79934078555796</t>
-  </si>
-  <si>
-    <t>1981-05-27</t>
-  </si>
-  <si>
-    <t>05:59:00</t>
-  </si>
-  <si>
-    <t>2.98 , 101.83</t>
-  </si>
-  <si>
-    <t>Aerosynergy</t>
-  </si>
-  <si>
-    <t>03:09:00</t>
-  </si>
-  <si>
-    <t>1600A</t>
-  </si>
-  <si>
-    <t>101.7843739874661 , 2.9548006669850757</t>
-  </si>
-  <si>
-    <t>2023-10-20</t>
-  </si>
-  <si>
-    <t>14:39:08</t>
-  </si>
-  <si>
-    <t>800A</t>
-  </si>
-  <si>
-    <t>101.8091475404799 , 3.010648938143917</t>
   </si>
 </sst>
 </file>
@@ -550,7 +499,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="E5" sqref="E5"/>
@@ -651,17 +600,17 @@
       </c>
       <c r="G3"/>
       <c r="H3"/>
-      <c r="I3">
-        <v>400</v>
+      <c r="I3" t="s">
+        <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N3" t="s">
         <v>24</v>
@@ -684,15 +633,15 @@
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
-      <c r="I4" t="s">
-        <v>27</v>
+      <c r="I4">
+        <v>400</v>
       </c>
       <c r="J4" t="s">
         <v>28</v>
@@ -701,212 +650,12 @@
         <v>29</v>
       </c>
       <c r="M4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" t="s">
         <v>30</v>
       </c>
-      <c r="N4" t="s">
-        <v>29</v>
-      </c>
       <c r="O4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5">
-        <v>400</v>
-      </c>
-      <c r="J5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" t="s">
-        <v>23</v>
-      </c>
-      <c r="O5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6">
-        <v>400</v>
-      </c>
-      <c r="J6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N6" t="s">
-        <v>24</v>
-      </c>
-      <c r="O6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7">
-        <v>800</v>
-      </c>
-      <c r="J7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M8" t="s">
-        <v>29</v>
-      </c>
-      <c r="N8" t="s">
-        <v>29</v>
-      </c>
-      <c r="O8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9" t="s">
-        <v>47</v>
-      </c>
-      <c r="L9" t="s">
-        <v>29</v>
-      </c>
-      <c r="M9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N9" t="s">
-        <v>29</v>
-      </c>
-      <c r="O9" t="s">
         <v>29</v>
       </c>
     </row>

--- a/public/assets/updated-excels/qr-feeder-pillar.xlsx
+++ b/public/assets/updated-excels/qr-feeder-pillar.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
-  <si>
-    <t>Visual Check</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+  <si>
+    <t>Pintu</t>
   </si>
   <si>
     <t>Pembersihan</t>
@@ -53,7 +53,13 @@
     <t>Coordinate</t>
   </si>
   <si>
-    <t>Pintu Tidak berkunci/Rosak</t>
+    <t>Tidak Berkunci</t>
+  </si>
+  <si>
+    <t>Rosak</t>
+  </si>
+  <si>
+    <t>Others</t>
   </si>
   <si>
     <t>Vandalism</t>
@@ -68,46 +74,34 @@
     <t>Pembersihan Iklan haram/ banner</t>
   </si>
   <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>BANGI</t>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>PETALING JAYA</t>
   </si>
   <si>
     <t>aero</t>
   </si>
   <si>
-    <t>2023-10-21</t>
-  </si>
-  <si>
-    <t>12:04:24</t>
-  </si>
-  <si>
-    <t>400A</t>
-  </si>
-  <si>
-    <t>74.38322173431516 , 31.579942283289938</t>
-  </si>
-  <si>
-    <t>ya</t>
-  </si>
-  <si>
-    <t>tidak</t>
-  </si>
-  <si>
-    <t>2023-10-22</t>
-  </si>
-  <si>
-    <t>19:43:00</t>
-  </si>
-  <si>
-    <t>2.9240971854836393 , 101.79934078555796</t>
+    <t>2023-12-04</t>
+  </si>
+  <si>
+    <t>22:30:00</t>
+  </si>
+  <si>
+    <t>3.09 , 101.61</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
   <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
 </sst>
 </file>
@@ -115,7 +109,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -126,19 +120,23 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFBE5D6"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -155,6 +153,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC5E0B4"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBE5D6"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8CBAD"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -186,18 +196,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="6" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="6" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -499,10 +515,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -514,154 +530,134 @@
     <col min="7" max="7" width="18.85546875" customWidth="true" style="0"/>
     <col min="9" max="9" width="10.42578125" customWidth="true" style="0"/>
     <col min="10" max="10" width="20.85546875" customWidth="true" style="0"/>
-    <col min="11" max="11" width="17.5703125" customWidth="true" style="0"/>
-    <col min="12" max="12" width="15.140625" customWidth="true" style="0"/>
-    <col min="13" max="13" width="13.5703125" customWidth="true" style="0"/>
-    <col min="14" max="14" width="26.42578125" customWidth="true" style="0"/>
-    <col min="15" max="15" width="48.28515625" customWidth="true" style="0"/>
+    <col min="11" max="11" width="8.85546875" customWidth="true" style="0"/>
+    <col min="12" max="12" width="10.42578125" customWidth="true" style="0"/>
+    <col min="13" max="13" width="13" customWidth="true" style="0"/>
+    <col min="14" max="14" width="15.140625" customWidth="true" style="0"/>
+    <col min="15" max="15" width="13.5703125" customWidth="true" style="0"/>
+    <col min="16" max="16" width="26.42578125" customWidth="true" style="0"/>
+    <col min="17" max="17" width="48.28515625" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="K1" s="1" t="s">
+    <row r="1" spans="1:17">
+      <c r="K1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="2" t="s">
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:15" customHeight="1" ht="75">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:17" customHeight="1" ht="30">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="P2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:17">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
-      <c r="I3" t="s">
-        <v>22</v>
+      <c r="I3">
+        <v>800</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
       </c>
       <c r="L3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="O3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4">
-        <v>400</v>
-      </c>
-      <c r="J4" t="s">
         <v>28</v>
       </c>
-      <c r="L4" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4" t="s">
-        <v>29</v>
+      <c r="P3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="K1:M1"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/assets/updated-excels/qr-feeder-pillar.xlsx
+++ b/public/assets/updated-excels/qr-feeder-pillar.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="144">
   <si>
     <t>Pintu</t>
   </si>
@@ -74,34 +74,379 @@
     <t>Pembersihan Iklan haram/ banner</t>
   </si>
   <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>PETALING JAYA</t>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>PELABUHAN KLANG</t>
   </si>
   <si>
     <t>aero</t>
   </si>
   <si>
-    <t>2023-12-04</t>
-  </si>
-  <si>
-    <t>22:30:00</t>
-  </si>
-  <si>
-    <t>3.09 , 101.61</t>
+    <t>2023-12-07</t>
+  </si>
+  <si>
+    <t>11:32:24</t>
+  </si>
+  <si>
+    <t>1600A</t>
+  </si>
+  <si>
+    <t>101.4389001019299 , 3.011586153377806</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>tidak</t>
+  </si>
+  <si>
+    <t>ya</t>
+  </si>
+  <si>
+    <t>12:14:54</t>
+  </si>
+  <si>
+    <t>101.4387465454638 , 3.010184959705607</t>
   </si>
   <si>
     <t>yes</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Yes</t>
+    <t>13:14:29</t>
+  </si>
+  <si>
+    <t>101.4353565685451 , 3.01021609736235</t>
+  </si>
+  <si>
+    <t>14:44:20</t>
+  </si>
+  <si>
+    <t>101.43592720851302 , 3.0076976272411775</t>
+  </si>
+  <si>
+    <t>15:06:45</t>
+  </si>
+  <si>
+    <t>101.439029853791 , 3.0085112256127737</t>
+  </si>
+  <si>
+    <t>14:57:09</t>
+  </si>
+  <si>
+    <t>101.43756436184049 , 3.0078837839356987</t>
+  </si>
+  <si>
+    <t>12:55:13</t>
+  </si>
+  <si>
+    <t>101.43621386960149 , 3.0099669959997275</t>
+  </si>
+  <si>
+    <t>13:29:39</t>
+  </si>
+  <si>
+    <t>101.43537702038884 , 3.007757558996037</t>
+  </si>
+  <si>
+    <t>13:27:53</t>
+  </si>
+  <si>
+    <t>101.43536830320954 , 3.008278195051849</t>
+  </si>
+  <si>
+    <t>13:24:46</t>
+  </si>
+  <si>
+    <t>101.43536863848567 , 3.0086655749011917</t>
+  </si>
+  <si>
+    <t>12:45:10</t>
+  </si>
+  <si>
+    <t>101.43807264044881 , 3.0095832995944685</t>
+  </si>
+  <si>
+    <t>13:16:03</t>
+  </si>
+  <si>
+    <t>101.43537299707532 , 3.0096157765761404</t>
+  </si>
+  <si>
+    <t>13:06:37</t>
+  </si>
+  <si>
+    <t>101.43622996285558 , 3.010816752353758</t>
+  </si>
+  <si>
+    <t>13:00:38</t>
+  </si>
+  <si>
+    <t>101.43720528110862 , 3.0104953317926926</t>
+  </si>
+  <si>
+    <t>12:42:57</t>
+  </si>
+  <si>
+    <t>101.43821714445949 , 3.0095705767266554</t>
+  </si>
+  <si>
+    <t>13:02:35</t>
+  </si>
+  <si>
+    <t>101.43714493140578 , 3.0100547171839436</t>
+  </si>
+  <si>
+    <t>12:57:13</t>
+  </si>
+  <si>
+    <t>101.43620984628797 , 3.0102720112058554</t>
+  </si>
+  <si>
+    <t>12:50:22</t>
+  </si>
+  <si>
+    <t>101.43647974357009 , 3.0098514853686296</t>
+  </si>
+  <si>
+    <t>12:47:34</t>
+  </si>
+  <si>
+    <t>101.437385994941 , 3.0095642152662103</t>
+  </si>
+  <si>
+    <t>12:39:52</t>
+  </si>
+  <si>
+    <t>101.43877035006881 , 3.00957258560889</t>
+  </si>
+  <si>
+    <t>12:31:02</t>
+  </si>
+  <si>
+    <t>101.43913144245744 , 3.0094882125516493</t>
+  </si>
+  <si>
+    <t>12:28:20</t>
+  </si>
+  <si>
+    <t>101.43919749185443 , 3.010201700377272</t>
+  </si>
+  <si>
+    <t>12:25:36</t>
+  </si>
+  <si>
+    <t>101.43794288858771 , 3.0108411940034756</t>
+  </si>
+  <si>
+    <t>12:23:45</t>
+  </si>
+  <si>
+    <t>101.43849508836865 , 3.0108267970307763</t>
+  </si>
+  <si>
+    <t>12:21:30</t>
+  </si>
+  <si>
+    <t>101.43901476636529 , 3.0108368414303603</t>
+  </si>
+  <si>
+    <t>12:07:27</t>
+  </si>
+  <si>
+    <t>101.43817087635398 , 3.0101893122533543</t>
+  </si>
+  <si>
+    <t>12:05:47</t>
+  </si>
+  <si>
+    <t>101.4381799288094 , 3.010215762548838</t>
+  </si>
+  <si>
+    <t>12:01:10</t>
+  </si>
+  <si>
+    <t>101.43799820914865 , 3.010188642652907</t>
+  </si>
+  <si>
+    <t>11:59:36</t>
+  </si>
+  <si>
+    <t>101.4379314891994 , 3.010188642654294</t>
+  </si>
+  <si>
+    <t>11:55:44</t>
+  </si>
+  <si>
+    <t>101.43753016367555 , 3.0102114099732167</t>
+  </si>
+  <si>
+    <t>11:54:00</t>
+  </si>
+  <si>
+    <t>101.43738431856036 , 3.0101859641461615</t>
+  </si>
+  <si>
+    <t>11:50:16</t>
+  </si>
+  <si>
+    <t>101.43769143149257 , 3.0108284710576365</t>
+  </si>
+  <si>
+    <t>11:46:15</t>
+  </si>
+  <si>
+    <t>101.43850581720471 , 3.0110491130531383</t>
+  </si>
+  <si>
+    <t>11:44:13</t>
+  </si>
+  <si>
+    <t>101.43905902281404 , 3.0110467693603686</t>
+  </si>
+  <si>
+    <t>11:42:07</t>
+  </si>
+  <si>
+    <t>101.43966587260365 , 3.0110695366613593</t>
+  </si>
+  <si>
+    <t>11:35:57</t>
+  </si>
+  <si>
+    <t>101.43966285511851 , 3.0115915103610122</t>
+  </si>
+  <si>
+    <t>11:33:40</t>
+  </si>
+  <si>
+    <t>101.4389986731112 , 3.0116259961344767</t>
+  </si>
+  <si>
+    <t>11:29:46</t>
+  </si>
+  <si>
+    <t>101.43809778615832 , 3.011599880714309</t>
+  </si>
+  <si>
+    <t>11:28:26</t>
+  </si>
+  <si>
+    <t>101.43809309229255 , 3.0116393886418766</t>
+  </si>
+  <si>
+    <t>11:20:54</t>
+  </si>
+  <si>
+    <t>101.4386965893209 , 3.012212923297121</t>
+  </si>
+  <si>
+    <t>11:19:07</t>
+  </si>
+  <si>
+    <t>101.43933461979032 , 3.0122206239936746</t>
+  </si>
+  <si>
+    <t>11:17:01</t>
+  </si>
+  <si>
+    <t>101.43958339467645 , 3.0128185996552164</t>
+  </si>
+  <si>
+    <t>15:38:40</t>
+  </si>
+  <si>
+    <t>101.43718415871263 , 3.007183352297635</t>
+  </si>
+  <si>
+    <t>15:35:12</t>
+  </si>
+  <si>
+    <t>101.43744265660644 , 3.0072215212128333</t>
+  </si>
+  <si>
+    <t>15:32:20</t>
+  </si>
+  <si>
+    <t>101.43814438953996 , 3.0074133698786025</t>
+  </si>
+  <si>
+    <t>15:30:16</t>
+  </si>
+  <si>
+    <t>101.43831437453628 , 3.007467609805091</t>
+  </si>
+  <si>
+    <t>15:28:28</t>
+  </si>
+  <si>
+    <t>101.43888568505645 , 3.007730773854612</t>
+  </si>
+  <si>
+    <t>15:26:33</t>
+  </si>
+  <si>
+    <t>101.43911870196462 , 3.0078580032705333</t>
+  </si>
+  <si>
+    <t>15:23:34</t>
+  </si>
+  <si>
+    <t>101.43943017348647 , 3.0080538695791796</t>
+  </si>
+  <si>
+    <t>15:14:17</t>
+  </si>
+  <si>
+    <t>101.43994951620698 , 3.009105185574712</t>
+  </si>
+  <si>
+    <t>15:08:55</t>
+  </si>
+  <si>
+    <t>101.43933897837996 , 3.008908984634253</t>
+  </si>
+  <si>
+    <t>15:07:33</t>
+  </si>
+  <si>
+    <t>101.43930276855826 , 3.0086870029655453</t>
+  </si>
+  <si>
+    <t>15:05:27</t>
+  </si>
+  <si>
+    <t>101.43869826570153 , 3.0082935964700517</t>
+  </si>
+  <si>
+    <t>15:03:30</t>
+  </si>
+  <si>
+    <t>101.43810650333762 , 3.0080592265754706</t>
+  </si>
+  <si>
+    <t>14:59:06</t>
+  </si>
+  <si>
+    <t>101.43797708675265 , 3.008006325935153</t>
+  </si>
+  <si>
+    <t>14:55:09</t>
+  </si>
+  <si>
+    <t>101.43720963969827 , 3.0077950581929294</t>
+  </si>
+  <si>
+    <t>14:46:21</t>
+  </si>
+  <si>
+    <t>101.4364224113524 , 3.0076989664983094</t>
+  </si>
+  <si>
+    <t>12:10:08</t>
+  </si>
+  <si>
+    <t>101.43875392153859 , 3.0102167669893607</t>
   </si>
 </sst>
 </file>
@@ -158,13 +503,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFBE5D6"/>
+        <fgColor rgb="FFF8CBAD"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF8CBAD"/>
+        <fgColor rgb="FFFBE5D6"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -208,13 +553,13 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="6" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="6" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="5" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="6" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -515,10 +860,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -540,14 +885,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
       <c r="Q1" s="1" t="s">
         <v>1</v>
       </c>
@@ -583,13 +928,13 @@
       <c r="J2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="N2" s="2" t="s">
@@ -626,31 +971,2824 @@
       </c>
       <c r="G3"/>
       <c r="H3"/>
-      <c r="I3">
-        <v>800</v>
+      <c r="I3" t="s">
+        <v>24</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P8" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" t="s">
+        <v>27</v>
+      </c>
+      <c r="O9" t="s">
+        <v>27</v>
+      </c>
+      <c r="P9" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O11" t="s">
+        <v>27</v>
+      </c>
+      <c r="P11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" t="s">
+        <v>27</v>
+      </c>
+      <c r="O12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" t="s">
+        <v>27</v>
+      </c>
+      <c r="O13" t="s">
+        <v>28</v>
+      </c>
+      <c r="P13" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" t="s">
+        <v>27</v>
+      </c>
+      <c r="O14" t="s">
+        <v>27</v>
+      </c>
+      <c r="P14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" t="s">
+        <v>27</v>
+      </c>
+      <c r="O15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P15" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" t="s">
+        <v>55</v>
+      </c>
+      <c r="K16" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16" t="s">
+        <v>27</v>
+      </c>
+      <c r="O16" t="s">
+        <v>28</v>
+      </c>
+      <c r="P16" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" t="s">
+        <v>57</v>
+      </c>
+      <c r="K17" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" t="s">
+        <v>27</v>
+      </c>
+      <c r="O17" t="s">
+        <v>28</v>
+      </c>
+      <c r="P17" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" t="s">
+        <v>59</v>
+      </c>
+      <c r="K18" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" t="s">
+        <v>27</v>
+      </c>
+      <c r="O18" t="s">
+        <v>28</v>
+      </c>
+      <c r="P18" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" t="s">
+        <v>61</v>
+      </c>
+      <c r="K19" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" t="s">
+        <v>26</v>
+      </c>
+      <c r="M19" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19" t="s">
+        <v>27</v>
+      </c>
+      <c r="O19" t="s">
+        <v>28</v>
+      </c>
+      <c r="P19" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" t="s">
+        <v>63</v>
+      </c>
+      <c r="K20" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20" t="s">
+        <v>26</v>
+      </c>
+      <c r="N20" t="s">
+        <v>27</v>
+      </c>
+      <c r="O20" t="s">
+        <v>28</v>
+      </c>
+      <c r="P20" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" t="s">
+        <v>65</v>
+      </c>
+      <c r="K21" t="s">
+        <v>31</v>
+      </c>
+      <c r="L21" t="s">
+        <v>26</v>
+      </c>
+      <c r="M21" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21" t="s">
+        <v>27</v>
+      </c>
+      <c r="O21" t="s">
+        <v>27</v>
+      </c>
+      <c r="P21" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" t="s">
+        <v>67</v>
+      </c>
+      <c r="K22" t="s">
+        <v>31</v>
+      </c>
+      <c r="L22" t="s">
+        <v>26</v>
+      </c>
+      <c r="M22" t="s">
+        <v>26</v>
+      </c>
+      <c r="N22" t="s">
+        <v>27</v>
+      </c>
+      <c r="O22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P22" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" t="s">
+        <v>69</v>
+      </c>
+      <c r="K23" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" t="s">
+        <v>26</v>
+      </c>
+      <c r="M23" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23" t="s">
+        <v>27</v>
+      </c>
+      <c r="O23" t="s">
+        <v>27</v>
+      </c>
+      <c r="P23" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" t="s">
+        <v>71</v>
+      </c>
+      <c r="K24" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" t="s">
+        <v>26</v>
+      </c>
+      <c r="M24" t="s">
+        <v>26</v>
+      </c>
+      <c r="N24" t="s">
+        <v>27</v>
+      </c>
+      <c r="O24" t="s">
+        <v>27</v>
+      </c>
+      <c r="P24" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" t="s">
+        <v>72</v>
+      </c>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" t="s">
+        <v>73</v>
+      </c>
+      <c r="K25" t="s">
+        <v>26</v>
+      </c>
+      <c r="L25" t="s">
+        <v>26</v>
+      </c>
+      <c r="M25" t="s">
+        <v>26</v>
+      </c>
+      <c r="N25" t="s">
+        <v>27</v>
+      </c>
+      <c r="O25" t="s">
+        <v>28</v>
+      </c>
+      <c r="P25" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26" t="s">
+        <v>24</v>
+      </c>
+      <c r="J26" t="s">
+        <v>75</v>
+      </c>
+      <c r="K26" t="s">
+        <v>31</v>
+      </c>
+      <c r="L26" t="s">
+        <v>26</v>
+      </c>
+      <c r="M26" t="s">
+        <v>26</v>
+      </c>
+      <c r="N26" t="s">
+        <v>27</v>
+      </c>
+      <c r="O26" t="s">
+        <v>28</v>
+      </c>
+      <c r="P26" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27" t="s">
+        <v>77</v>
+      </c>
+      <c r="K27" t="s">
+        <v>31</v>
+      </c>
+      <c r="L27" t="s">
+        <v>26</v>
+      </c>
+      <c r="M27" t="s">
+        <v>26</v>
+      </c>
+      <c r="N27" t="s">
+        <v>27</v>
+      </c>
+      <c r="O27" t="s">
+        <v>27</v>
+      </c>
+      <c r="P27" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28">
         <v>25</v>
       </c>
-      <c r="L3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" t="s">
+        <v>78</v>
+      </c>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" t="s">
+        <v>79</v>
+      </c>
+      <c r="K28" t="s">
+        <v>31</v>
+      </c>
+      <c r="L28" t="s">
+        <v>26</v>
+      </c>
+      <c r="M28" t="s">
+        <v>26</v>
+      </c>
+      <c r="N28" t="s">
+        <v>27</v>
+      </c>
+      <c r="O28" t="s">
+        <v>27</v>
+      </c>
+      <c r="P28" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" t="s">
+        <v>80</v>
+      </c>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" t="s">
+        <v>81</v>
+      </c>
+      <c r="K29" t="s">
+        <v>31</v>
+      </c>
+      <c r="L29" t="s">
+        <v>26</v>
+      </c>
+      <c r="M29" t="s">
+        <v>26</v>
+      </c>
+      <c r="N29" t="s">
+        <v>27</v>
+      </c>
+      <c r="O29" t="s">
+        <v>27</v>
+      </c>
+      <c r="P29" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" t="s">
+        <v>82</v>
+      </c>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" t="s">
+        <v>83</v>
+      </c>
+      <c r="K30" t="s">
+        <v>31</v>
+      </c>
+      <c r="L30" t="s">
+        <v>26</v>
+      </c>
+      <c r="M30" t="s">
+        <v>26</v>
+      </c>
+      <c r="N30" t="s">
+        <v>27</v>
+      </c>
+      <c r="O30" t="s">
+        <v>28</v>
+      </c>
+      <c r="P30" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" t="s">
+        <v>84</v>
+      </c>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31" t="s">
+        <v>85</v>
+      </c>
+      <c r="K31" t="s">
+        <v>26</v>
+      </c>
+      <c r="L31" t="s">
+        <v>26</v>
+      </c>
+      <c r="M31" t="s">
+        <v>26</v>
+      </c>
+      <c r="N31" t="s">
+        <v>27</v>
+      </c>
+      <c r="O31" t="s">
+        <v>27</v>
+      </c>
+      <c r="P31" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" t="s">
+        <v>86</v>
+      </c>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32" t="s">
+        <v>87</v>
+      </c>
+      <c r="K32" t="s">
+        <v>31</v>
+      </c>
+      <c r="L32" t="s">
+        <v>26</v>
+      </c>
+      <c r="M32" t="s">
+        <v>26</v>
+      </c>
+      <c r="N32" t="s">
+        <v>28</v>
+      </c>
+      <c r="O32" t="s">
+        <v>28</v>
+      </c>
+      <c r="P32" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" t="s">
+        <v>88</v>
+      </c>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33" t="s">
+        <v>24</v>
+      </c>
+      <c r="J33" t="s">
+        <v>89</v>
+      </c>
+      <c r="K33" t="s">
+        <v>26</v>
+      </c>
+      <c r="L33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M33" t="s">
+        <v>26</v>
+      </c>
+      <c r="N33" t="s">
+        <v>27</v>
+      </c>
+      <c r="O33" t="s">
+        <v>28</v>
+      </c>
+      <c r="P33" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" t="s">
+        <v>90</v>
+      </c>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J34" t="s">
+        <v>91</v>
+      </c>
+      <c r="K34" t="s">
+        <v>31</v>
+      </c>
+      <c r="L34" t="s">
+        <v>26</v>
+      </c>
+      <c r="M34" t="s">
+        <v>26</v>
+      </c>
+      <c r="N34" t="s">
+        <v>27</v>
+      </c>
+      <c r="O34" t="s">
+        <v>27</v>
+      </c>
+      <c r="P34" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35" t="s">
+        <v>24</v>
+      </c>
+      <c r="J35" t="s">
+        <v>93</v>
+      </c>
+      <c r="K35" t="s">
+        <v>31</v>
+      </c>
+      <c r="L35" t="s">
+        <v>26</v>
+      </c>
+      <c r="M35" t="s">
+        <v>26</v>
+      </c>
+      <c r="N35" t="s">
+        <v>27</v>
+      </c>
+      <c r="O35" t="s">
+        <v>27</v>
+      </c>
+      <c r="P35" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" t="s">
+        <v>94</v>
+      </c>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36" t="s">
+        <v>24</v>
+      </c>
+      <c r="J36" t="s">
+        <v>95</v>
+      </c>
+      <c r="K36" t="s">
+        <v>31</v>
+      </c>
+      <c r="L36" t="s">
+        <v>26</v>
+      </c>
+      <c r="M36" t="s">
+        <v>26</v>
+      </c>
+      <c r="N36" t="s">
+        <v>27</v>
+      </c>
+      <c r="O36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P36" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" t="s">
+        <v>96</v>
+      </c>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" t="s">
+        <v>97</v>
+      </c>
+      <c r="K37" t="s">
+        <v>31</v>
+      </c>
+      <c r="L37" t="s">
+        <v>26</v>
+      </c>
+      <c r="M37" t="s">
+        <v>26</v>
+      </c>
+      <c r="N37" t="s">
+        <v>27</v>
+      </c>
+      <c r="O37" t="s">
+        <v>27</v>
+      </c>
+      <c r="P37" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" t="s">
+        <v>98</v>
+      </c>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38" t="s">
+        <v>24</v>
+      </c>
+      <c r="J38" t="s">
+        <v>99</v>
+      </c>
+      <c r="K38" t="s">
+        <v>26</v>
+      </c>
+      <c r="L38" t="s">
+        <v>26</v>
+      </c>
+      <c r="M38" t="s">
+        <v>26</v>
+      </c>
+      <c r="N38" t="s">
+        <v>27</v>
+      </c>
+      <c r="O38" t="s">
+        <v>27</v>
+      </c>
+      <c r="P38" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" t="s">
+        <v>100</v>
+      </c>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39" t="s">
+        <v>24</v>
+      </c>
+      <c r="J39" t="s">
+        <v>101</v>
+      </c>
+      <c r="K39" t="s">
+        <v>26</v>
+      </c>
+      <c r="L39" t="s">
+        <v>26</v>
+      </c>
+      <c r="M39" t="s">
+        <v>26</v>
+      </c>
+      <c r="N39" t="s">
+        <v>27</v>
+      </c>
+      <c r="O39" t="s">
+        <v>28</v>
+      </c>
+      <c r="P39" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" t="s">
+        <v>102</v>
+      </c>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40" t="s">
+        <v>24</v>
+      </c>
+      <c r="J40" t="s">
+        <v>103</v>
+      </c>
+      <c r="K40" t="s">
+        <v>31</v>
+      </c>
+      <c r="L40" t="s">
+        <v>26</v>
+      </c>
+      <c r="M40" t="s">
+        <v>26</v>
+      </c>
+      <c r="N40" t="s">
+        <v>27</v>
+      </c>
+      <c r="O40" t="s">
+        <v>27</v>
+      </c>
+      <c r="P40" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" t="s">
+        <v>104</v>
+      </c>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41" t="s">
+        <v>24</v>
+      </c>
+      <c r="J41" t="s">
+        <v>105</v>
+      </c>
+      <c r="K41" t="s">
+        <v>26</v>
+      </c>
+      <c r="L41" t="s">
+        <v>26</v>
+      </c>
+      <c r="M41" t="s">
+        <v>26</v>
+      </c>
+      <c r="N41" t="s">
+        <v>27</v>
+      </c>
+      <c r="O41" t="s">
+        <v>27</v>
+      </c>
+      <c r="P41" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" t="s">
+        <v>22</v>
+      </c>
+      <c r="F42" t="s">
+        <v>106</v>
+      </c>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42" t="s">
+        <v>24</v>
+      </c>
+      <c r="J42" t="s">
+        <v>107</v>
+      </c>
+      <c r="K42" t="s">
+        <v>26</v>
+      </c>
+      <c r="L42" t="s">
+        <v>26</v>
+      </c>
+      <c r="M42" t="s">
+        <v>26</v>
+      </c>
+      <c r="N42" t="s">
+        <v>27</v>
+      </c>
+      <c r="O42" t="s">
+        <v>28</v>
+      </c>
+      <c r="P42" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" t="s">
+        <v>108</v>
+      </c>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43" t="s">
+        <v>24</v>
+      </c>
+      <c r="J43" t="s">
+        <v>109</v>
+      </c>
+      <c r="K43" t="s">
+        <v>26</v>
+      </c>
+      <c r="L43" t="s">
+        <v>26</v>
+      </c>
+      <c r="M43" t="s">
+        <v>26</v>
+      </c>
+      <c r="N43" t="s">
+        <v>27</v>
+      </c>
+      <c r="O43" t="s">
+        <v>27</v>
+      </c>
+      <c r="P43" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="B44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" t="s">
+        <v>110</v>
+      </c>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44" t="s">
+        <v>24</v>
+      </c>
+      <c r="J44" t="s">
+        <v>111</v>
+      </c>
+      <c r="K44" t="s">
+        <v>26</v>
+      </c>
+      <c r="L44" t="s">
+        <v>26</v>
+      </c>
+      <c r="M44" t="s">
+        <v>26</v>
+      </c>
+      <c r="N44" t="s">
+        <v>27</v>
+      </c>
+      <c r="O44" t="s">
+        <v>27</v>
+      </c>
+      <c r="P44" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="B45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45" t="s">
+        <v>112</v>
+      </c>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45" t="s">
+        <v>24</v>
+      </c>
+      <c r="J45" t="s">
+        <v>113</v>
+      </c>
+      <c r="K45" t="s">
+        <v>31</v>
+      </c>
+      <c r="L45" t="s">
+        <v>26</v>
+      </c>
+      <c r="M45" t="s">
+        <v>26</v>
+      </c>
+      <c r="N45" t="s">
+        <v>27</v>
+      </c>
+      <c r="O45" t="s">
+        <v>27</v>
+      </c>
+      <c r="P45" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="B46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" t="s">
+        <v>114</v>
+      </c>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J46" t="s">
+        <v>115</v>
+      </c>
+      <c r="K46" t="s">
+        <v>31</v>
+      </c>
+      <c r="L46" t="s">
+        <v>26</v>
+      </c>
+      <c r="M46" t="s">
+        <v>26</v>
+      </c>
+      <c r="N46" t="s">
+        <v>27</v>
+      </c>
+      <c r="O46" t="s">
+        <v>27</v>
+      </c>
+      <c r="P46" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47">
+        <v>44</v>
+      </c>
+      <c r="B47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47" t="s">
+        <v>116</v>
+      </c>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47" t="s">
+        <v>24</v>
+      </c>
+      <c r="J47" t="s">
+        <v>117</v>
+      </c>
+      <c r="K47" t="s">
+        <v>31</v>
+      </c>
+      <c r="L47" t="s">
+        <v>26</v>
+      </c>
+      <c r="M47" t="s">
+        <v>26</v>
+      </c>
+      <c r="N47" t="s">
+        <v>27</v>
+      </c>
+      <c r="O47" t="s">
+        <v>27</v>
+      </c>
+      <c r="P47" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="B48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" t="s">
+        <v>118</v>
+      </c>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48" t="s">
+        <v>24</v>
+      </c>
+      <c r="J48" t="s">
+        <v>119</v>
+      </c>
+      <c r="K48" t="s">
+        <v>26</v>
+      </c>
+      <c r="L48" t="s">
+        <v>26</v>
+      </c>
+      <c r="M48" t="s">
+        <v>26</v>
+      </c>
+      <c r="N48" t="s">
+        <v>28</v>
+      </c>
+      <c r="O48" t="s">
+        <v>27</v>
+      </c>
+      <c r="P48" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49">
+        <v>46</v>
+      </c>
+      <c r="B49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" t="s">
+        <v>22</v>
+      </c>
+      <c r="F49" t="s">
+        <v>120</v>
+      </c>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49" t="s">
+        <v>24</v>
+      </c>
+      <c r="J49" t="s">
+        <v>121</v>
+      </c>
+      <c r="K49" t="s">
+        <v>26</v>
+      </c>
+      <c r="L49" t="s">
+        <v>31</v>
+      </c>
+      <c r="M49" t="s">
+        <v>26</v>
+      </c>
+      <c r="N49" t="s">
+        <v>27</v>
+      </c>
+      <c r="O49" t="s">
+        <v>27</v>
+      </c>
+      <c r="P49" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50">
+        <v>47</v>
+      </c>
+      <c r="B50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" t="s">
+        <v>22</v>
+      </c>
+      <c r="F50" t="s">
+        <v>122</v>
+      </c>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50" t="s">
+        <v>24</v>
+      </c>
+      <c r="J50" t="s">
+        <v>123</v>
+      </c>
+      <c r="K50" t="s">
+        <v>31</v>
+      </c>
+      <c r="L50" t="s">
+        <v>26</v>
+      </c>
+      <c r="M50" t="s">
+        <v>26</v>
+      </c>
+      <c r="N50" t="s">
+        <v>27</v>
+      </c>
+      <c r="O50" t="s">
+        <v>27</v>
+      </c>
+      <c r="P50" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51">
+        <v>48</v>
+      </c>
+      <c r="B51" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" t="s">
+        <v>22</v>
+      </c>
+      <c r="F51" t="s">
+        <v>124</v>
+      </c>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51" t="s">
+        <v>24</v>
+      </c>
+      <c r="J51" t="s">
+        <v>125</v>
+      </c>
+      <c r="K51" t="s">
+        <v>31</v>
+      </c>
+      <c r="L51" t="s">
+        <v>26</v>
+      </c>
+      <c r="M51" t="s">
+        <v>26</v>
+      </c>
+      <c r="N51" t="s">
+        <v>27</v>
+      </c>
+      <c r="O51" t="s">
+        <v>27</v>
+      </c>
+      <c r="P51" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52">
+        <v>49</v>
+      </c>
+      <c r="B52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52" t="s">
+        <v>126</v>
+      </c>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52" t="s">
+        <v>24</v>
+      </c>
+      <c r="J52" t="s">
+        <v>127</v>
+      </c>
+      <c r="K52" t="s">
+        <v>26</v>
+      </c>
+      <c r="L52" t="s">
+        <v>26</v>
+      </c>
+      <c r="M52" t="s">
+        <v>26</v>
+      </c>
+      <c r="N52" t="s">
+        <v>27</v>
+      </c>
+      <c r="O52" t="s">
+        <v>28</v>
+      </c>
+      <c r="P52" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53">
+        <v>50</v>
+      </c>
+      <c r="B53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" t="s">
+        <v>22</v>
+      </c>
+      <c r="F53" t="s">
+        <v>128</v>
+      </c>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53" t="s">
+        <v>24</v>
+      </c>
+      <c r="J53" t="s">
+        <v>129</v>
+      </c>
+      <c r="K53" t="s">
+        <v>26</v>
+      </c>
+      <c r="L53" t="s">
+        <v>26</v>
+      </c>
+      <c r="M53" t="s">
+        <v>26</v>
+      </c>
+      <c r="N53" t="s">
+        <v>28</v>
+      </c>
+      <c r="O53" t="s">
+        <v>28</v>
+      </c>
+      <c r="P53" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54">
+        <v>51</v>
+      </c>
+      <c r="B54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" t="s">
+        <v>22</v>
+      </c>
+      <c r="F54" t="s">
+        <v>130</v>
+      </c>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54" t="s">
+        <v>24</v>
+      </c>
+      <c r="J54" t="s">
+        <v>131</v>
+      </c>
+      <c r="K54" t="s">
+        <v>26</v>
+      </c>
+      <c r="L54" t="s">
+        <v>26</v>
+      </c>
+      <c r="M54" t="s">
+        <v>26</v>
+      </c>
+      <c r="N54" t="s">
+        <v>27</v>
+      </c>
+      <c r="O54" t="s">
+        <v>27</v>
+      </c>
+      <c r="P54" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55">
+        <v>52</v>
+      </c>
+      <c r="B55" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55" t="s">
+        <v>22</v>
+      </c>
+      <c r="F55" t="s">
+        <v>132</v>
+      </c>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55" t="s">
+        <v>24</v>
+      </c>
+      <c r="J55" t="s">
+        <v>133</v>
+      </c>
+      <c r="K55" t="s">
+        <v>26</v>
+      </c>
+      <c r="L55" t="s">
+        <v>26</v>
+      </c>
+      <c r="M55" t="s">
+        <v>26</v>
+      </c>
+      <c r="N55" t="s">
+        <v>27</v>
+      </c>
+      <c r="O55" t="s">
+        <v>27</v>
+      </c>
+      <c r="P55" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56">
+        <v>53</v>
+      </c>
+      <c r="B56" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" t="s">
+        <v>21</v>
+      </c>
+      <c r="E56" t="s">
+        <v>22</v>
+      </c>
+      <c r="F56" t="s">
+        <v>134</v>
+      </c>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56" t="s">
+        <v>24</v>
+      </c>
+      <c r="J56" t="s">
+        <v>135</v>
+      </c>
+      <c r="K56" t="s">
+        <v>31</v>
+      </c>
+      <c r="L56" t="s">
+        <v>26</v>
+      </c>
+      <c r="M56" t="s">
+        <v>26</v>
+      </c>
+      <c r="N56" t="s">
+        <v>27</v>
+      </c>
+      <c r="O56" t="s">
+        <v>27</v>
+      </c>
+      <c r="P56" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57">
+        <v>54</v>
+      </c>
+      <c r="B57" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" t="s">
+        <v>21</v>
+      </c>
+      <c r="E57" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57" t="s">
+        <v>136</v>
+      </c>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57" t="s">
+        <v>24</v>
+      </c>
+      <c r="J57" t="s">
+        <v>137</v>
+      </c>
+      <c r="K57" t="s">
+        <v>26</v>
+      </c>
+      <c r="L57" t="s">
+        <v>26</v>
+      </c>
+      <c r="M57" t="s">
+        <v>26</v>
+      </c>
+      <c r="N57" t="s">
+        <v>27</v>
+      </c>
+      <c r="O57" t="s">
+        <v>28</v>
+      </c>
+      <c r="P57" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58">
+        <v>55</v>
+      </c>
+      <c r="B58" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" t="s">
+        <v>21</v>
+      </c>
+      <c r="E58" t="s">
+        <v>22</v>
+      </c>
+      <c r="F58" t="s">
+        <v>138</v>
+      </c>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58" t="s">
+        <v>24</v>
+      </c>
+      <c r="J58" t="s">
+        <v>139</v>
+      </c>
+      <c r="K58" t="s">
+        <v>31</v>
+      </c>
+      <c r="L58" t="s">
+        <v>26</v>
+      </c>
+      <c r="M58" t="s">
+        <v>26</v>
+      </c>
+      <c r="N58" t="s">
+        <v>27</v>
+      </c>
+      <c r="O58" t="s">
+        <v>28</v>
+      </c>
+      <c r="P58" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59">
+        <v>56</v>
+      </c>
+      <c r="B59" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" t="s">
+        <v>21</v>
+      </c>
+      <c r="E59" t="s">
+        <v>22</v>
+      </c>
+      <c r="F59" t="s">
+        <v>140</v>
+      </c>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59" t="s">
+        <v>24</v>
+      </c>
+      <c r="J59" t="s">
+        <v>141</v>
+      </c>
+      <c r="K59" t="s">
+        <v>31</v>
+      </c>
+      <c r="L59" t="s">
+        <v>26</v>
+      </c>
+      <c r="M59" t="s">
+        <v>26</v>
+      </c>
+      <c r="N59" t="s">
+        <v>27</v>
+      </c>
+      <c r="O59" t="s">
+        <v>27</v>
+      </c>
+      <c r="P59" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60">
+        <v>57</v>
+      </c>
+      <c r="B60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" t="s">
+        <v>21</v>
+      </c>
+      <c r="E60" t="s">
+        <v>22</v>
+      </c>
+      <c r="F60" t="s">
+        <v>142</v>
+      </c>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60" t="s">
+        <v>24</v>
+      </c>
+      <c r="J60" t="s">
+        <v>143</v>
+      </c>
+      <c r="K60" t="s">
+        <v>31</v>
+      </c>
+      <c r="L60" t="s">
+        <v>26</v>
+      </c>
+      <c r="M60" t="s">
+        <v>26</v>
+      </c>
+      <c r="N60" t="s">
+        <v>27</v>
+      </c>
+      <c r="O60" t="s">
+        <v>27</v>
+      </c>
+      <c r="P60" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q60" t="s">
         <v>28</v>
       </c>
     </row>

--- a/public/assets/updated-excels/qr-feeder-pillar.xlsx
+++ b/public/assets/updated-excels/qr-feeder-pillar.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
   <si>
     <t>Pintu</t>
   </si>
@@ -74,25 +74,25 @@
     <t>Pembersihan Iklan haram/ banner</t>
   </si>
   <si>
-    <t>PK</t>
-  </si>
-  <si>
-    <t>PUCHONG</t>
+    <t>W1</t>
+  </si>
+  <si>
+    <t>KUALA LUMPUR PUSAT</t>
   </si>
   <si>
     <t>aero</t>
   </si>
   <si>
-    <t>2023-12-06</t>
-  </si>
-  <si>
-    <t>14:38:50</t>
-  </si>
-  <si>
-    <t>1600A</t>
-  </si>
-  <si>
-    <t>101.59080566838384 , 2.9778763170863574</t>
+    <t>2023-12-07</t>
+  </si>
+  <si>
+    <t>16:35:41</t>
+  </si>
+  <si>
+    <t>400A</t>
+  </si>
+  <si>
+    <t>101.74755228683352 , 3.1510337690060073</t>
   </si>
   <si>
     <t>no</t>
@@ -101,175 +101,82 @@
     <t>tidak</t>
   </si>
   <si>
+    <t>16:34:36</t>
+  </si>
+  <si>
+    <t>101.74755798652768 , 3.1512182268325373</t>
+  </si>
+  <si>
+    <t>09:58:19</t>
+  </si>
+  <si>
+    <t>101.73721304163337 , 3.1563713149686023</t>
+  </si>
+  <si>
+    <t>08:56:18</t>
+  </si>
+  <si>
+    <t>101.74236992374063 , 3.1552059888062995</t>
+  </si>
+  <si>
+    <t>14:26:17</t>
+  </si>
+  <si>
+    <t>101.74347264692187 , 3.1480332281043917</t>
+  </si>
+  <si>
+    <t>16:40:55</t>
+  </si>
+  <si>
+    <t>101.75024321302772 , 3.1506655225012405</t>
+  </si>
+  <si>
+    <t>12:21:45</t>
+  </si>
+  <si>
+    <t>101.73870736733079 , 3.14761945212027</t>
+  </si>
+  <si>
+    <t>09:47:46</t>
+  </si>
+  <si>
+    <t>101.73754462972283 , 3.1580900104457994</t>
+  </si>
+  <si>
+    <t>16:30:42</t>
+  </si>
+  <si>
+    <t>101.74699505791068 , 3.15106657641775</t>
+  </si>
+  <si>
     <t>ya</t>
   </si>
   <si>
-    <t>17:33:17</t>
-  </si>
-  <si>
-    <t>400A</t>
-  </si>
-  <si>
-    <t>101.58948568627238 , 2.9782312299071476</t>
+    <t>16:37:37</t>
+  </si>
+  <si>
+    <t>101.74755362793803 , 3.150743524159954</t>
+  </si>
+  <si>
+    <t>16:36:55</t>
+  </si>
+  <si>
+    <t>101.74760458990932 , 3.150742185082688</t>
+  </si>
+  <si>
+    <t>11:36:53</t>
+  </si>
+  <si>
+    <t>101.73739677295089 , 3.1485132881512756</t>
+  </si>
+  <si>
+    <t>09:03:50</t>
+  </si>
+  <si>
+    <t>101.74204939976335 , 3.1571292288481896</t>
   </si>
   <si>
     <t>yes</t>
-  </si>
-  <si>
-    <t>10:07:10</t>
-  </si>
-  <si>
-    <t>101.61755735054612 , 3.027297473717566</t>
-  </si>
-  <si>
-    <t>17:34:33</t>
-  </si>
-  <si>
-    <t>101.58876081928611 , 2.9782295557907164</t>
-  </si>
-  <si>
-    <t>17:36:55</t>
-  </si>
-  <si>
-    <t>101.58650508150458 , 2.9782178369756522</t>
-  </si>
-  <si>
-    <t>10:40:37</t>
-  </si>
-  <si>
-    <t>101.61655453965068 , 3.025966944938654</t>
-  </si>
-  <si>
-    <t>14:37:34</t>
-  </si>
-  <si>
-    <t>101.59073961898685 , 2.978425427390132</t>
-  </si>
-  <si>
-    <t>14:07:20</t>
-  </si>
-  <si>
-    <t>101.59198081120849 , 2.9779760944202986</t>
-  </si>
-  <si>
-    <t>14:11:25</t>
-  </si>
-  <si>
-    <t>101.59147353842854 , 2.9779436166187434</t>
-  </si>
-  <si>
-    <t>14:26:47</t>
-  </si>
-  <si>
-    <t>101.59202640876174 , 2.9784488650258707</t>
-  </si>
-  <si>
-    <t>16:25:15</t>
-  </si>
-  <si>
-    <t>101.58100252971053 , 2.974444706832995</t>
-  </si>
-  <si>
-    <t>16:33:58</t>
-  </si>
-  <si>
-    <t>101.58155372366309 , 2.973738227078459</t>
-  </si>
-  <si>
-    <t>17:39:47</t>
-  </si>
-  <si>
-    <t>101.58567963168025 , 2.978452213253174</t>
-  </si>
-  <si>
-    <t>13:59:59</t>
-  </si>
-  <si>
-    <t>101.59136524423957 , 2.977206670168164</t>
-  </si>
-  <si>
-    <t>14:01:09</t>
-  </si>
-  <si>
-    <t>101.59140413627028 , 2.9772056656973813</t>
-  </si>
-  <si>
-    <t>14:03:59</t>
-  </si>
-  <si>
-    <t>101.59130087122321 , 2.977477542434362</t>
-  </si>
-  <si>
-    <t>14:08:57</t>
-  </si>
-  <si>
-    <t>101.59135350957513 , 2.9777859148414407</t>
-  </si>
-  <si>
-    <t>14:09:36</t>
-  </si>
-  <si>
-    <t>101.59140413627028 , 2.977784240730741</t>
-  </si>
-  <si>
-    <t>14:13:28</t>
-  </si>
-  <si>
-    <t>101.59073458984494 , 2.9785590218545335</t>
-  </si>
-  <si>
-    <t>14:15:24</t>
-  </si>
-  <si>
-    <t>101.59146783873439 , 2.9786095801025785</t>
-  </si>
-  <si>
-    <t>14:22:26</t>
-  </si>
-  <si>
-    <t>101.59142123535275 , 2.978365828853896</t>
-  </si>
-  <si>
-    <t>14:32:12</t>
-  </si>
-  <si>
-    <t>101.59202171489596 , 2.9791061228002564</t>
-  </si>
-  <si>
-    <t>14:28:38</t>
-  </si>
-  <si>
-    <t>101.5920247323811 , 2.9785683969085737</t>
-  </si>
-  <si>
-    <t>14:33:48</t>
-  </si>
-  <si>
-    <t>101.59147320315242 , 2.979060586866889</t>
-  </si>
-  <si>
-    <t>14:36:21</t>
-  </si>
-  <si>
-    <t>101.59074062481523 , 2.9790806762486772</t>
-  </si>
-  <si>
-    <t>01:38:33</t>
-  </si>
-  <si>
-    <t>101.5856853313744 , 2.9784006504646037</t>
-  </si>
-  <si>
-    <t>00:30:46</t>
-  </si>
-  <si>
-    <t>101.58137636259198 , 2.974256200692189</t>
-  </si>
-  <si>
-    <t>00:36:09</t>
-  </si>
-  <si>
-    <t>101.58159529790282 , 2.9737673568226413</t>
   </si>
 </sst>
 </file>
@@ -683,7 +590,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="H1" sqref="H1:H1048576"/>
@@ -819,7 +726,7 @@
         <v>27</v>
       </c>
       <c r="Q3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -839,18 +746,18 @@
         <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
@@ -888,7 +795,7 @@
         <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
@@ -896,10 +803,10 @@
         <v>24</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="L5" t="s">
         <v>26</v>
@@ -937,18 +844,18 @@
         <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
@@ -986,18 +893,18 @@
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="L7" t="s">
         <v>26</v>
@@ -1035,7 +942,7 @@
         <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G8"/>
       <c r="H8"/>
@@ -1043,10 +950,10 @@
         <v>24</v>
       </c>
       <c r="J8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="L8" t="s">
         <v>26</v>
@@ -1084,7 +991,7 @@
         <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
@@ -1092,7 +999,7 @@
         <v>24</v>
       </c>
       <c r="J9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K9" t="s">
         <v>26</v>
@@ -1133,7 +1040,7 @@
         <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G10"/>
       <c r="H10"/>
@@ -1141,7 +1048,7 @@
         <v>24</v>
       </c>
       <c r="J10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K10" t="s">
         <v>26</v>
@@ -1182,7 +1089,7 @@
         <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G11"/>
       <c r="H11"/>
@@ -1190,7 +1097,7 @@
         <v>24</v>
       </c>
       <c r="J11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K11" t="s">
         <v>26</v>
@@ -1202,7 +1109,7 @@
         <v>26</v>
       </c>
       <c r="N11" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="O11" t="s">
         <v>27</v>
@@ -1211,7 +1118,7 @@
         <v>27</v>
       </c>
       <c r="Q11" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1231,7 +1138,7 @@
         <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G12"/>
       <c r="H12"/>
@@ -1239,7 +1146,7 @@
         <v>24</v>
       </c>
       <c r="J12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K12" t="s">
         <v>26</v>
@@ -1280,7 +1187,7 @@
         <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G13"/>
       <c r="H13"/>
@@ -1288,7 +1195,7 @@
         <v>24</v>
       </c>
       <c r="J13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K13" t="s">
         <v>26</v>
@@ -1329,7 +1236,7 @@
         <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
@@ -1337,7 +1244,7 @@
         <v>24</v>
       </c>
       <c r="J14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K14" t="s">
         <v>26</v>
@@ -1346,7 +1253,7 @@
         <v>26</v>
       </c>
       <c r="M14" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N14" t="s">
         <v>27</v>
@@ -1378,18 +1285,18 @@
         <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G15"/>
       <c r="H15"/>
       <c r="I15" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K15" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="L15" t="s">
         <v>26</v>
@@ -1404,744 +1311,9 @@
         <v>27</v>
       </c>
       <c r="P15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16" t="s">
-        <v>56</v>
-      </c>
-      <c r="K16" t="s">
-        <v>26</v>
-      </c>
-      <c r="L16" t="s">
-        <v>26</v>
-      </c>
-      <c r="M16" t="s">
-        <v>26</v>
-      </c>
-      <c r="N16" t="s">
-        <v>27</v>
-      </c>
-      <c r="O16" t="s">
-        <v>27</v>
-      </c>
-      <c r="P16" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" t="s">
-        <v>57</v>
-      </c>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17" t="s">
-        <v>24</v>
-      </c>
-      <c r="J17" t="s">
-        <v>58</v>
-      </c>
-      <c r="K17" t="s">
-        <v>26</v>
-      </c>
-      <c r="L17" t="s">
-        <v>26</v>
-      </c>
-      <c r="M17" t="s">
-        <v>26</v>
-      </c>
-      <c r="N17" t="s">
-        <v>27</v>
-      </c>
-      <c r="O17" t="s">
-        <v>27</v>
-      </c>
-      <c r="P17" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18">
-        <v>15</v>
-      </c>
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" t="s">
-        <v>60</v>
-      </c>
-      <c r="K18" t="s">
-        <v>26</v>
-      </c>
-      <c r="L18" t="s">
-        <v>32</v>
-      </c>
-      <c r="M18" t="s">
-        <v>26</v>
-      </c>
-      <c r="N18" t="s">
-        <v>27</v>
-      </c>
-      <c r="O18" t="s">
-        <v>27</v>
-      </c>
-      <c r="P18" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19">
-        <v>16</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" t="s">
-        <v>61</v>
-      </c>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19" t="s">
-        <v>24</v>
-      </c>
-      <c r="J19" t="s">
-        <v>62</v>
-      </c>
-      <c r="K19" t="s">
-        <v>26</v>
-      </c>
-      <c r="L19" t="s">
-        <v>26</v>
-      </c>
-      <c r="M19" t="s">
-        <v>26</v>
-      </c>
-      <c r="N19" t="s">
-        <v>27</v>
-      </c>
-      <c r="O19" t="s">
-        <v>27</v>
-      </c>
-      <c r="P19" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20">
-        <v>17</v>
-      </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" t="s">
-        <v>63</v>
-      </c>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J20" t="s">
-        <v>64</v>
-      </c>
-      <c r="K20" t="s">
-        <v>26</v>
-      </c>
-      <c r="L20" t="s">
-        <v>26</v>
-      </c>
-      <c r="M20" t="s">
-        <v>26</v>
-      </c>
-      <c r="N20" t="s">
-        <v>27</v>
-      </c>
-      <c r="O20" t="s">
-        <v>27</v>
-      </c>
-      <c r="P20" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21">
-        <v>18</v>
-      </c>
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" t="s">
-        <v>65</v>
-      </c>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21" t="s">
-        <v>24</v>
-      </c>
-      <c r="J21" t="s">
-        <v>66</v>
-      </c>
-      <c r="K21" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" t="s">
-        <v>26</v>
-      </c>
-      <c r="N21" t="s">
-        <v>27</v>
-      </c>
-      <c r="O21" t="s">
-        <v>27</v>
-      </c>
-      <c r="P21" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22">
-        <v>19</v>
-      </c>
-      <c r="B22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" t="s">
-        <v>67</v>
-      </c>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J22" t="s">
-        <v>68</v>
-      </c>
-      <c r="K22" t="s">
-        <v>26</v>
-      </c>
-      <c r="L22" t="s">
-        <v>26</v>
-      </c>
-      <c r="M22" t="s">
-        <v>26</v>
-      </c>
-      <c r="N22" t="s">
-        <v>27</v>
-      </c>
-      <c r="O22" t="s">
-        <v>27</v>
-      </c>
-      <c r="P22" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23">
-        <v>20</v>
-      </c>
-      <c r="B23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" t="s">
-        <v>69</v>
-      </c>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23" t="s">
-        <v>24</v>
-      </c>
-      <c r="J23" t="s">
-        <v>70</v>
-      </c>
-      <c r="K23" t="s">
-        <v>26</v>
-      </c>
-      <c r="L23" t="s">
-        <v>26</v>
-      </c>
-      <c r="M23" t="s">
-        <v>26</v>
-      </c>
-      <c r="N23" t="s">
-        <v>27</v>
-      </c>
-      <c r="O23" t="s">
-        <v>27</v>
-      </c>
-      <c r="P23" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24">
-        <v>21</v>
-      </c>
-      <c r="B24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" t="s">
-        <v>71</v>
-      </c>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24" t="s">
-        <v>24</v>
-      </c>
-      <c r="J24" t="s">
-        <v>72</v>
-      </c>
-      <c r="K24" t="s">
-        <v>26</v>
-      </c>
-      <c r="L24" t="s">
-        <v>26</v>
-      </c>
-      <c r="M24" t="s">
-        <v>26</v>
-      </c>
-      <c r="N24" t="s">
-        <v>27</v>
-      </c>
-      <c r="O24" t="s">
-        <v>27</v>
-      </c>
-      <c r="P24" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25">
-        <v>22</v>
-      </c>
-      <c r="B25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" t="s">
-        <v>73</v>
-      </c>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25" t="s">
-        <v>24</v>
-      </c>
-      <c r="J25" t="s">
-        <v>74</v>
-      </c>
-      <c r="K25" t="s">
-        <v>26</v>
-      </c>
-      <c r="L25" t="s">
-        <v>26</v>
-      </c>
-      <c r="M25" t="s">
-        <v>26</v>
-      </c>
-      <c r="N25" t="s">
-        <v>27</v>
-      </c>
-      <c r="O25" t="s">
-        <v>27</v>
-      </c>
-      <c r="P25" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26">
-        <v>23</v>
-      </c>
-      <c r="B26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" t="s">
-        <v>75</v>
-      </c>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26" t="s">
-        <v>24</v>
-      </c>
-      <c r="J26" t="s">
-        <v>76</v>
-      </c>
-      <c r="K26" t="s">
-        <v>26</v>
-      </c>
-      <c r="L26" t="s">
-        <v>26</v>
-      </c>
-      <c r="M26" t="s">
-        <v>26</v>
-      </c>
-      <c r="N26" t="s">
-        <v>27</v>
-      </c>
-      <c r="O26" t="s">
-        <v>27</v>
-      </c>
-      <c r="P26" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" t="s">
-        <v>77</v>
-      </c>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27" t="s">
-        <v>24</v>
-      </c>
-      <c r="J27" t="s">
-        <v>78</v>
-      </c>
-      <c r="K27" t="s">
-        <v>26</v>
-      </c>
-      <c r="L27" t="s">
-        <v>26</v>
-      </c>
-      <c r="M27" t="s">
-        <v>26</v>
-      </c>
-      <c r="N27" t="s">
-        <v>27</v>
-      </c>
-      <c r="O27" t="s">
-        <v>27</v>
-      </c>
-      <c r="P27" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28">
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" t="s">
-        <v>79</v>
-      </c>
-      <c r="G28"/>
-      <c r="H28"/>
-      <c r="I28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J28" t="s">
-        <v>80</v>
-      </c>
-      <c r="K28" t="s">
-        <v>32</v>
-      </c>
-      <c r="L28" t="s">
-        <v>26</v>
-      </c>
-      <c r="M28" t="s">
-        <v>26</v>
-      </c>
-      <c r="N28" t="s">
-        <v>27</v>
-      </c>
-      <c r="O28" t="s">
-        <v>27</v>
-      </c>
-      <c r="P28" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29">
-        <v>26</v>
-      </c>
-      <c r="B29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" t="s">
-        <v>81</v>
-      </c>
-      <c r="G29"/>
-      <c r="H29"/>
-      <c r="I29" t="s">
-        <v>24</v>
-      </c>
-      <c r="J29" t="s">
-        <v>82</v>
-      </c>
-      <c r="K29" t="s">
-        <v>26</v>
-      </c>
-      <c r="L29" t="s">
-        <v>26</v>
-      </c>
-      <c r="M29" t="s">
-        <v>26</v>
-      </c>
-      <c r="N29" t="s">
-        <v>27</v>
-      </c>
-      <c r="O29" t="s">
-        <v>27</v>
-      </c>
-      <c r="P29" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30">
-        <v>27</v>
-      </c>
-      <c r="B30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" t="s">
-        <v>83</v>
-      </c>
-      <c r="G30"/>
-      <c r="H30"/>
-      <c r="I30" t="s">
-        <v>24</v>
-      </c>
-      <c r="J30" t="s">
-        <v>84</v>
-      </c>
-      <c r="K30" t="s">
-        <v>26</v>
-      </c>
-      <c r="L30" t="s">
-        <v>26</v>
-      </c>
-      <c r="M30" t="s">
-        <v>26</v>
-      </c>
-      <c r="N30" t="s">
-        <v>27</v>
-      </c>
-      <c r="O30" t="s">
-        <v>27</v>
-      </c>
-      <c r="P30" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q30" t="s">
         <v>27</v>
       </c>
     </row>

--- a/public/assets/updated-excels/qr-feeder-pillar.xlsx
+++ b/public/assets/updated-excels/qr-feeder-pillar.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
   <si>
     <t>Pintu</t>
   </si>
@@ -74,109 +74,130 @@
     <t>Pembersihan Iklan haram/ banner</t>
   </si>
   <si>
-    <t>W1</t>
-  </si>
-  <si>
-    <t>KUALA LUMPUR PUSAT</t>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>BANGI</t>
   </si>
   <si>
     <t>aero</t>
   </si>
   <si>
-    <t>2023-12-07</t>
-  </si>
-  <si>
-    <t>16:35:41</t>
+    <t>2023-10-18</t>
+  </si>
+  <si>
+    <t>13:16:00</t>
+  </si>
+  <si>
+    <t>2.9071675680888496 , 101.80343948683465</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>2023-10-21</t>
+  </si>
+  <si>
+    <t>20:04:24</t>
   </si>
   <si>
     <t>400A</t>
   </si>
   <si>
-    <t>101.74755228683352 , 3.1510337690060073</t>
-  </si>
-  <si>
-    <t>no</t>
+    <t>74.38322173431516 , 31.579942283289938</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>ya</t>
   </si>
   <si>
     <t>tidak</t>
   </si>
   <si>
-    <t>16:34:36</t>
-  </si>
-  <si>
-    <t>101.74755798652768 , 3.1512182268325373</t>
-  </si>
-  <si>
-    <t>09:58:19</t>
-  </si>
-  <si>
-    <t>101.73721304163337 , 3.1563713149686023</t>
-  </si>
-  <si>
-    <t>08:56:18</t>
-  </si>
-  <si>
-    <t>101.74236992374063 , 3.1552059888062995</t>
-  </si>
-  <si>
-    <t>14:26:17</t>
-  </si>
-  <si>
-    <t>101.74347264692187 , 3.1480332281043917</t>
-  </si>
-  <si>
-    <t>16:40:55</t>
-  </si>
-  <si>
-    <t>101.75024321302772 , 3.1506655225012405</t>
-  </si>
-  <si>
-    <t>12:21:45</t>
-  </si>
-  <si>
-    <t>101.73870736733079 , 3.14761945212027</t>
-  </si>
-  <si>
-    <t>09:47:46</t>
-  </si>
-  <si>
-    <t>101.73754462972283 , 3.1580900104457994</t>
-  </si>
-  <si>
-    <t>16:30:42</t>
-  </si>
-  <si>
-    <t>101.74699505791068 , 3.15106657641775</t>
-  </si>
-  <si>
-    <t>ya</t>
-  </si>
-  <si>
-    <t>16:37:37</t>
-  </si>
-  <si>
-    <t>101.74755362793803 , 3.150743524159954</t>
-  </si>
-  <si>
-    <t>16:36:55</t>
-  </si>
-  <si>
-    <t>101.74760458990932 , 3.150742185082688</t>
-  </si>
-  <si>
-    <t>11:36:53</t>
-  </si>
-  <si>
-    <t>101.73739677295089 , 3.1485132881512756</t>
-  </si>
-  <si>
-    <t>09:03:50</t>
-  </si>
-  <si>
-    <t>101.74204939976335 , 3.1571292288481896</t>
-  </si>
-  <si>
-    <t>yes</t>
+    <t>2023-10-22</t>
+  </si>
+  <si>
+    <t>03:43:00</t>
+  </si>
+  <si>
+    <t>2.9240971854836393 , 101.79934078555796</t>
+  </si>
+  <si>
+    <t>2023-10-23</t>
+  </si>
+  <si>
+    <t>03:49:00</t>
+  </si>
+  <si>
+    <t>2.9515269086102744 , 101.79934078555796</t>
+  </si>
+  <si>
+    <t>1981-05-27</t>
+  </si>
+  <si>
+    <t>13:59:00</t>
+  </si>
+  <si>
+    <t>2.98 , 101.83</t>
+  </si>
+  <si>
+    <t>Aerosynergy</t>
+  </si>
+  <si>
+    <t>11:09:00</t>
+  </si>
+  <si>
+    <t>1600A</t>
+  </si>
+  <si>
+    <t>101.7843739874661 , 2.9548006669850757</t>
+  </si>
+  <si>
+    <t>2023-10-20</t>
+  </si>
+  <si>
+    <t>22:39:08</t>
+  </si>
+  <si>
+    <t>800A</t>
+  </si>
+  <si>
+    <t>101.8091475404799 , 3.010648938143917</t>
+  </si>
+  <si>
+    <t>2023-11-23</t>
+  </si>
+  <si>
+    <t>17:15:00</t>
+  </si>
+  <si>
+    <t>2.91 , 101.82</t>
+  </si>
+  <si>
+    <t>2016-10-17</t>
+  </si>
+  <si>
+    <t>17:03:00</t>
+  </si>
+  <si>
+    <t>2.90 , 101.87</t>
+  </si>
+  <si>
+    <t>1996-04-01</t>
+  </si>
+  <si>
+    <t>19:32:00</t>
+  </si>
+  <si>
+    <t>2.97 , 101.82</t>
   </si>
 </sst>
 </file>
@@ -590,7 +611,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="H1" sqref="H1:H1048576"/>
@@ -701,23 +722,23 @@
       </c>
       <c r="G3"/>
       <c r="H3"/>
-      <c r="I3" t="s">
+      <c r="I3">
+        <v>400</v>
+      </c>
+      <c r="J3" t="s">
         <v>24</v>
       </c>
-      <c r="J3" t="s">
-        <v>25</v>
-      </c>
       <c r="K3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" t="s">
         <v>26</v>
-      </c>
-      <c r="L3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" t="s">
-        <v>27</v>
       </c>
       <c r="O3" t="s">
         <v>27</v>
@@ -743,39 +764,39 @@
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="L4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="O4" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="P4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="Q4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -792,36 +813,36 @@
         <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
-      <c r="I5" t="s">
-        <v>24</v>
+      <c r="I5">
+        <v>400</v>
       </c>
       <c r="J5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" t="s">
         <v>26</v>
-      </c>
-      <c r="L5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O5" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" t="s">
-        <v>27</v>
       </c>
       <c r="Q5" t="s">
         <v>27</v>
@@ -841,27 +862,27 @@
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G6"/>
       <c r="H6"/>
-      <c r="I6" t="s">
-        <v>24</v>
+      <c r="I6">
+        <v>400</v>
       </c>
       <c r="J6" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="K6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N6" t="s">
         <v>27</v>
@@ -890,39 +911,39 @@
         <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G7"/>
       <c r="H7"/>
-      <c r="I7" t="s">
-        <v>24</v>
+      <c r="I7">
+        <v>800</v>
       </c>
       <c r="J7" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="K7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" t="s">
         <v>26</v>
       </c>
-      <c r="L7" t="s">
+      <c r="P7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" t="s">
         <v>26</v>
-      </c>
-      <c r="M7" t="s">
-        <v>26</v>
-      </c>
-      <c r="N7" t="s">
-        <v>27</v>
-      </c>
-      <c r="O7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -936,42 +957,42 @@
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="J8" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N8" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="O8" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="P8" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="Q8" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -988,39 +1009,39 @@
         <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="J9" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="K9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N9" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="O9" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="P9" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="Q9" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1037,33 +1058,33 @@
         <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G10"/>
       <c r="H10"/>
-      <c r="I10" t="s">
-        <v>24</v>
+      <c r="I10">
+        <v>800</v>
       </c>
       <c r="J10" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="K10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" t="s">
         <v>26</v>
-      </c>
-      <c r="L10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M10" t="s">
-        <v>26</v>
-      </c>
-      <c r="N10" t="s">
-        <v>27</v>
-      </c>
-      <c r="O10" t="s">
-        <v>27</v>
       </c>
       <c r="P10" t="s">
         <v>27</v>
@@ -1086,39 +1107,39 @@
         <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="G11"/>
       <c r="H11"/>
-      <c r="I11" t="s">
-        <v>24</v>
+      <c r="I11">
+        <v>400</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="K11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O11" t="s">
+        <v>27</v>
+      </c>
+      <c r="P11" t="s">
         <v>26</v>
       </c>
-      <c r="L11" t="s">
-        <v>26</v>
-      </c>
-      <c r="M11" t="s">
-        <v>26</v>
-      </c>
-      <c r="N11" t="s">
-        <v>44</v>
-      </c>
-      <c r="O11" t="s">
-        <v>27</v>
-      </c>
-      <c r="P11" t="s">
-        <v>27</v>
-      </c>
       <c r="Q11" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1135,186 +1156,39 @@
         <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="G12"/>
       <c r="H12"/>
-      <c r="I12" t="s">
-        <v>24</v>
+      <c r="I12">
+        <v>1600</v>
       </c>
       <c r="J12" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="K12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" t="s">
+        <v>27</v>
+      </c>
+      <c r="O12" t="s">
         <v>26</v>
       </c>
-      <c r="L12" t="s">
+      <c r="P12" t="s">
         <v>26</v>
       </c>
-      <c r="M12" t="s">
+      <c r="Q12" t="s">
         <v>26</v>
-      </c>
-      <c r="N12" t="s">
-        <v>27</v>
-      </c>
-      <c r="O12" t="s">
-        <v>27</v>
-      </c>
-      <c r="P12" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" t="s">
-        <v>48</v>
-      </c>
-      <c r="K13" t="s">
-        <v>26</v>
-      </c>
-      <c r="L13" t="s">
-        <v>26</v>
-      </c>
-      <c r="M13" t="s">
-        <v>26</v>
-      </c>
-      <c r="N13" t="s">
-        <v>27</v>
-      </c>
-      <c r="O13" t="s">
-        <v>27</v>
-      </c>
-      <c r="P13" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" t="s">
-        <v>50</v>
-      </c>
-      <c r="K14" t="s">
-        <v>26</v>
-      </c>
-      <c r="L14" t="s">
-        <v>26</v>
-      </c>
-      <c r="M14" t="s">
-        <v>26</v>
-      </c>
-      <c r="N14" t="s">
-        <v>27</v>
-      </c>
-      <c r="O14" t="s">
-        <v>27</v>
-      </c>
-      <c r="P14" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" t="s">
-        <v>52</v>
-      </c>
-      <c r="K15" t="s">
-        <v>53</v>
-      </c>
-      <c r="L15" t="s">
-        <v>26</v>
-      </c>
-      <c r="M15" t="s">
-        <v>26</v>
-      </c>
-      <c r="N15" t="s">
-        <v>27</v>
-      </c>
-      <c r="O15" t="s">
-        <v>27</v>
-      </c>
-      <c r="P15" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/public/assets/updated-excels/qr-feeder-pillar.xlsx
+++ b/public/assets/updated-excels/qr-feeder-pillar.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
   <si>
     <t>Pintu</t>
   </si>
@@ -74,25 +74,25 @@
     <t>Pembersihan Iklan haram/ banner</t>
   </si>
   <si>
-    <t>W1</t>
-  </si>
-  <si>
-    <t>KUALA LUMPUR PUSAT</t>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>PETALING JAYA</t>
   </si>
   <si>
     <t>aero</t>
   </si>
   <si>
-    <t>2023-12-07</t>
-  </si>
-  <si>
-    <t>16:35:41</t>
+    <t>2023-12-06</t>
+  </si>
+  <si>
+    <t>11:25:54</t>
   </si>
   <si>
     <t>400A</t>
   </si>
   <si>
-    <t>101.74755228683352 , 3.1510337690060073</t>
+    <t>101.63021167740226 , 3.083988731402166</t>
   </si>
   <si>
     <t>no</t>
@@ -101,82 +101,100 @@
     <t>tidak</t>
   </si>
   <si>
-    <t>16:34:36</t>
-  </si>
-  <si>
-    <t>101.74755798652768 , 3.1512182268325373</t>
-  </si>
-  <si>
-    <t>09:58:19</t>
-  </si>
-  <si>
-    <t>101.73721304163337 , 3.1563713149686023</t>
-  </si>
-  <si>
-    <t>08:56:18</t>
-  </si>
-  <si>
-    <t>101.74236992374063 , 3.1552059888062995</t>
-  </si>
-  <si>
-    <t>14:26:17</t>
-  </si>
-  <si>
-    <t>101.74347264692187 , 3.1480332281043917</t>
-  </si>
-  <si>
-    <t>16:40:55</t>
-  </si>
-  <si>
-    <t>101.75024321302772 , 3.1506655225012405</t>
-  </si>
-  <si>
-    <t>12:21:45</t>
-  </si>
-  <si>
-    <t>101.73870736733079 , 3.14761945212027</t>
-  </si>
-  <si>
-    <t>09:47:46</t>
-  </si>
-  <si>
-    <t>101.73754462972283 , 3.1580900104457994</t>
-  </si>
-  <si>
-    <t>16:30:42</t>
-  </si>
-  <si>
-    <t>101.74699505791068 , 3.15106657641775</t>
+    <t>11:35:00</t>
+  </si>
+  <si>
+    <t>101.63011813536286 , 3.0840168538345867</t>
+  </si>
+  <si>
+    <t>11:22:25</t>
+  </si>
+  <si>
+    <t>101.63075784221292 , 3.0836589627421125</t>
+  </si>
+  <si>
+    <t>11:23:52</t>
+  </si>
+  <si>
+    <t>101.63074912503362 , 3.083707172503039</t>
+  </si>
+  <si>
+    <t>11:26:55</t>
+  </si>
+  <si>
+    <t>101.63023447617888 , 3.083988731402166</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>11:34:00</t>
+  </si>
+  <si>
+    <t>101.63014395162463 , 3.084003797002972</t>
+  </si>
+  <si>
+    <t>11:40:03</t>
+  </si>
+  <si>
+    <t>101.62962393835187 , 3.0842358067261393</t>
+  </si>
+  <si>
+    <t>11:38:25</t>
+  </si>
+  <si>
+    <t>101.62965444847941 , 3.0842147149254835</t>
+  </si>
+  <si>
+    <t>13:24:50</t>
+  </si>
+  <si>
+    <t>101.63474595174193 , 3.0738083714293105</t>
   </si>
   <si>
     <t>ya</t>
   </si>
   <si>
-    <t>16:37:37</t>
-  </si>
-  <si>
-    <t>101.74755362793803 , 3.150743524159954</t>
-  </si>
-  <si>
-    <t>16:36:55</t>
-  </si>
-  <si>
-    <t>101.74760458990932 , 3.150742185082688</t>
-  </si>
-  <si>
-    <t>11:36:53</t>
-  </si>
-  <si>
-    <t>101.73739677295089 , 3.1485132881512756</t>
-  </si>
-  <si>
-    <t>09:03:50</t>
-  </si>
-  <si>
-    <t>101.74204939976335 , 3.1571292288481896</t>
-  </si>
-  <si>
-    <t>yes</t>
+    <t>13:27:06</t>
+  </si>
+  <si>
+    <t>101.63476238027215 , 3.073767861383489</t>
+  </si>
+  <si>
+    <t>13:22:39</t>
+  </si>
+  <si>
+    <t>101.6341089271009 , 3.0737283557174866</t>
+  </si>
+  <si>
+    <t>13:20:47</t>
+  </si>
+  <si>
+    <t>101.63409249857068 , 3.073759826332899</t>
+  </si>
+  <si>
+    <t>14:20:46</t>
+  </si>
+  <si>
+    <t>101.63694402202964 , 3.081758689230962</t>
+  </si>
+  <si>
+    <t>14:20:07</t>
+  </si>
+  <si>
+    <t>101.63694402202964 , 3.0817523281969526</t>
+  </si>
+  <si>
+    <t>14:46:31</t>
+  </si>
+  <si>
+    <t>101.65098370984197 , 3.079422178413995</t>
+  </si>
+  <si>
+    <t>14:42:48</t>
+  </si>
+  <si>
+    <t>101.6503875888884 , 3.079434565697966</t>
   </si>
 </sst>
 </file>
@@ -590,7 +608,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="H1" sqref="H1:H1048576"/>
@@ -904,7 +922,7 @@
         <v>35</v>
       </c>
       <c r="K7" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L7" t="s">
         <v>26</v>
@@ -942,7 +960,7 @@
         <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G8"/>
       <c r="H8"/>
@@ -950,7 +968,7 @@
         <v>24</v>
       </c>
       <c r="J8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K8" t="s">
         <v>26</v>
@@ -991,7 +1009,7 @@
         <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
@@ -999,10 +1017,10 @@
         <v>24</v>
       </c>
       <c r="J9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K9" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L9" t="s">
         <v>26</v>
@@ -1040,7 +1058,7 @@
         <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G10"/>
       <c r="H10"/>
@@ -1048,10 +1066,10 @@
         <v>24</v>
       </c>
       <c r="J10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K10" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L10" t="s">
         <v>26</v>
@@ -1089,7 +1107,7 @@
         <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G11"/>
       <c r="H11"/>
@@ -1097,7 +1115,7 @@
         <v>24</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K11" t="s">
         <v>26</v>
@@ -1109,16 +1127,16 @@
         <v>26</v>
       </c>
       <c r="N11" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="O11" t="s">
         <v>27</v>
       </c>
       <c r="P11" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="Q11" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1138,7 +1156,7 @@
         <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G12"/>
       <c r="H12"/>
@@ -1146,10 +1164,10 @@
         <v>24</v>
       </c>
       <c r="J12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K12" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L12" t="s">
         <v>26</v>
@@ -1164,7 +1182,7 @@
         <v>27</v>
       </c>
       <c r="P12" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="Q12" t="s">
         <v>27</v>
@@ -1187,7 +1205,7 @@
         <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G13"/>
       <c r="H13"/>
@@ -1195,7 +1213,7 @@
         <v>24</v>
       </c>
       <c r="J13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K13" t="s">
         <v>26</v>
@@ -1236,7 +1254,7 @@
         <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
@@ -1244,7 +1262,7 @@
         <v>24</v>
       </c>
       <c r="J14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K14" t="s">
         <v>26</v>
@@ -1262,7 +1280,7 @@
         <v>27</v>
       </c>
       <c r="P14" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="Q14" t="s">
         <v>27</v>
@@ -1285,7 +1303,7 @@
         <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G15"/>
       <c r="H15"/>
@@ -1293,10 +1311,10 @@
         <v>24</v>
       </c>
       <c r="J15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K15" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="L15" t="s">
         <v>26</v>
@@ -1314,6 +1332,153 @@
         <v>27</v>
       </c>
       <c r="Q15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" t="s">
+        <v>55</v>
+      </c>
+      <c r="K16" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16" t="s">
+        <v>27</v>
+      </c>
+      <c r="O16" t="s">
+        <v>27</v>
+      </c>
+      <c r="P16" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" t="s">
+        <v>57</v>
+      </c>
+      <c r="K17" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" t="s">
+        <v>27</v>
+      </c>
+      <c r="O17" t="s">
+        <v>27</v>
+      </c>
+      <c r="P17" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" t="s">
+        <v>59</v>
+      </c>
+      <c r="K18" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" t="s">
+        <v>27</v>
+      </c>
+      <c r="O18" t="s">
+        <v>27</v>
+      </c>
+      <c r="P18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q18" t="s">
         <v>27</v>
       </c>
     </row>

--- a/public/assets/updated-excels/qr-feeder-pillar.xlsx
+++ b/public/assets/updated-excels/qr-feeder-pillar.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
   <si>
     <t>Pintu</t>
   </si>
@@ -74,127 +74,124 @@
     <t>Pembersihan Iklan haram/ banner</t>
   </si>
   <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>PETALING JAYA</t>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>KLANG</t>
   </si>
   <si>
     <t>aero</t>
   </si>
   <si>
-    <t>2023-12-06</t>
-  </si>
-  <si>
-    <t>11:25:54</t>
+    <t>2023-12-08</t>
+  </si>
+  <si>
+    <t>12:50:44</t>
+  </si>
+  <si>
+    <t>1600A</t>
+  </si>
+  <si>
+    <t>101.42582902684808 , 3.1871105506302753</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>tidak</t>
+  </si>
+  <si>
+    <t>2023-12-07</t>
+  </si>
+  <si>
+    <t>16:03:19</t>
+  </si>
+  <si>
+    <t>800A</t>
+  </si>
+  <si>
+    <t>101.43610356375575 , 3.199917291149032</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>15:36:36</t>
+  </si>
+  <si>
+    <t>101.41674304381013 , 3.1733475716637285</t>
+  </si>
+  <si>
+    <t>16:32:36</t>
   </si>
   <si>
     <t>400A</t>
   </si>
   <si>
-    <t>101.63021167740226 , 3.083988731402166</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>tidak</t>
-  </si>
-  <si>
-    <t>11:35:00</t>
-  </si>
-  <si>
-    <t>101.63011813536286 , 3.0840168538345867</t>
-  </si>
-  <si>
-    <t>11:22:25</t>
-  </si>
-  <si>
-    <t>101.63075784221292 , 3.0836589627421125</t>
-  </si>
-  <si>
-    <t>11:23:52</t>
-  </si>
-  <si>
-    <t>101.63074912503362 , 3.083707172503039</t>
-  </si>
-  <si>
-    <t>11:26:55</t>
-  </si>
-  <si>
-    <t>101.63023447617888 , 3.083988731402166</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>11:34:00</t>
-  </si>
-  <si>
-    <t>101.63014395162463 , 3.084003797002972</t>
-  </si>
-  <si>
-    <t>11:40:03</t>
-  </si>
-  <si>
-    <t>101.62962393835187 , 3.0842358067261393</t>
-  </si>
-  <si>
-    <t>11:38:25</t>
-  </si>
-  <si>
-    <t>101.62965444847941 , 3.0842147149254835</t>
-  </si>
-  <si>
-    <t>13:24:50</t>
-  </si>
-  <si>
-    <t>101.63474595174193 , 3.0738083714293105</t>
+    <t>101.41586998477578 , 3.1829116770370947</t>
+  </si>
+  <si>
+    <t>17:24:10</t>
+  </si>
+  <si>
+    <t>101.42642548307776 , 3.162073393785821</t>
+  </si>
+  <si>
+    <t>16:37:19</t>
+  </si>
+  <si>
+    <t>101.41647985205054 , 3.1830044012638368</t>
+  </si>
+  <si>
+    <t>16:20:14</t>
+  </si>
+  <si>
+    <t>101.41523296013474 , 3.1830100941108377</t>
+  </si>
+  <si>
+    <t>16:17:05</t>
+  </si>
+  <si>
+    <t>101.41507202759385 , 3.1829150263312957</t>
+  </si>
+  <si>
+    <t>16:01:26</t>
+  </si>
+  <si>
+    <t>101.41385765746236 , 3.1719609864710208</t>
+  </si>
+  <si>
+    <t>14:09:17</t>
+  </si>
+  <si>
+    <t>101.42915463075042 , 3.175529213457761</t>
   </si>
   <si>
     <t>ya</t>
   </si>
   <si>
-    <t>13:27:06</t>
-  </si>
-  <si>
-    <t>101.63476238027215 , 3.073767861383489</t>
-  </si>
-  <si>
-    <t>13:22:39</t>
-  </si>
-  <si>
-    <t>101.6341089271009 , 3.0737283557174866</t>
-  </si>
-  <si>
-    <t>13:20:47</t>
-  </si>
-  <si>
-    <t>101.63409249857068 , 3.073759826332899</t>
-  </si>
-  <si>
-    <t>14:20:46</t>
-  </si>
-  <si>
-    <t>101.63694402202964 , 3.081758689230962</t>
-  </si>
-  <si>
-    <t>14:20:07</t>
-  </si>
-  <si>
-    <t>101.63694402202964 , 3.0817523281969526</t>
-  </si>
-  <si>
-    <t>14:46:31</t>
-  </si>
-  <si>
-    <t>101.65098370984197 , 3.079422178413995</t>
-  </si>
-  <si>
-    <t>14:42:48</t>
-  </si>
-  <si>
-    <t>101.6503875888884 , 3.079434565697966</t>
+    <t>13:54:58</t>
+  </si>
+  <si>
+    <t>101.42927264794707 , 3.1755362430590903</t>
+  </si>
+  <si>
+    <t>13:12:13</t>
+  </si>
+  <si>
+    <t>101.42585886642337 , 3.186536776314854</t>
+  </si>
+  <si>
+    <t>13:02:06</t>
+  </si>
+  <si>
+    <t>101.42648147419095 , 3.18701815822955</t>
+  </si>
+  <si>
+    <t>11:20:49</t>
+  </si>
+  <si>
+    <t>101.4494981803 , 3.177454083372092</t>
   </si>
 </sst>
 </file>
@@ -608,7 +605,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="H1" sqref="H1:H1048576"/>
@@ -761,24 +758,24 @@
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="L4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M4" t="s">
         <v>26</v>
@@ -813,15 +810,15 @@
         <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K5" t="s">
         <v>26</v>
@@ -862,15 +859,15 @@
         <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="J6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K6" t="s">
         <v>26</v>
@@ -911,7 +908,7 @@
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G7"/>
       <c r="H7"/>
@@ -919,10 +916,10 @@
         <v>24</v>
       </c>
       <c r="J7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K7" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="L7" t="s">
         <v>26</v>
@@ -960,15 +957,15 @@
         <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="J8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K8" t="s">
         <v>26</v>
@@ -1009,18 +1006,18 @@
         <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="J9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K9" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="L9" t="s">
         <v>26</v>
@@ -1058,18 +1055,18 @@
         <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J10" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K10" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="L10" t="s">
         <v>26</v>
@@ -1107,15 +1104,15 @@
         <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K11" t="s">
         <v>26</v>
@@ -1133,7 +1130,7 @@
         <v>27</v>
       </c>
       <c r="P11" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="Q11" t="s">
         <v>27</v>
@@ -1156,18 +1153,18 @@
         <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K12" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="L12" t="s">
         <v>26</v>
@@ -1182,7 +1179,7 @@
         <v>27</v>
       </c>
       <c r="P12" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Q12" t="s">
         <v>27</v>
@@ -1205,15 +1202,15 @@
         <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G13"/>
       <c r="H13"/>
       <c r="I13" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J13" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K13" t="s">
         <v>26</v>
@@ -1254,15 +1251,15 @@
         <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J14" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K14" t="s">
         <v>26</v>
@@ -1280,7 +1277,7 @@
         <v>27</v>
       </c>
       <c r="P14" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="Q14" t="s">
         <v>27</v>
@@ -1303,15 +1300,15 @@
         <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G15"/>
       <c r="H15"/>
       <c r="I15" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="J15" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K15" t="s">
         <v>26</v>
@@ -1352,15 +1349,15 @@
         <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J16" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K16" t="s">
         <v>26</v>
@@ -1378,107 +1375,9 @@
         <v>27</v>
       </c>
       <c r="P16" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="Q16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17" t="s">
-        <v>24</v>
-      </c>
-      <c r="J17" t="s">
-        <v>57</v>
-      </c>
-      <c r="K17" t="s">
-        <v>26</v>
-      </c>
-      <c r="L17" t="s">
-        <v>36</v>
-      </c>
-      <c r="M17" t="s">
-        <v>26</v>
-      </c>
-      <c r="N17" t="s">
-        <v>27</v>
-      </c>
-      <c r="O17" t="s">
-        <v>27</v>
-      </c>
-      <c r="P17" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18">
-        <v>15</v>
-      </c>
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" t="s">
-        <v>58</v>
-      </c>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" t="s">
-        <v>59</v>
-      </c>
-      <c r="K18" t="s">
-        <v>26</v>
-      </c>
-      <c r="L18" t="s">
-        <v>26</v>
-      </c>
-      <c r="M18" t="s">
-        <v>26</v>
-      </c>
-      <c r="N18" t="s">
-        <v>27</v>
-      </c>
-      <c r="O18" t="s">
-        <v>27</v>
-      </c>
-      <c r="P18" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q18" t="s">
         <v>27</v>
       </c>
     </row>

--- a/public/assets/updated-excels/qr-feeder-pillar.xlsx
+++ b/public/assets/updated-excels/qr-feeder-pillar.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="132">
   <si>
     <t>Pintu</t>
   </si>
@@ -77,22 +77,22 @@
     <t>B2</t>
   </si>
   <si>
-    <t>KLANG</t>
+    <t>PELABUHAN KLANG</t>
   </si>
   <si>
     <t>aero</t>
   </si>
   <si>
-    <t>2023-12-08</t>
-  </si>
-  <si>
-    <t>12:50:44</t>
+    <t>2023-12-12</t>
+  </si>
+  <si>
+    <t>11:41:31</t>
   </si>
   <si>
     <t>1600A</t>
   </si>
   <si>
-    <t>101.42582902684808 , 3.1871105506302753</t>
+    <t>101.42556617036462 , 3.004718780505672</t>
   </si>
   <si>
     <t>no</t>
@@ -101,97 +101,316 @@
     <t>tidak</t>
   </si>
   <si>
-    <t>2023-12-07</t>
-  </si>
-  <si>
-    <t>16:03:19</t>
+    <t>13:13:52</t>
+  </si>
+  <si>
+    <t>101.43103653565049 , 3.0132411332112996</t>
+  </si>
+  <si>
+    <t>ya</t>
+  </si>
+  <si>
+    <t>13:10:50</t>
+  </si>
+  <si>
+    <t>101.4309667982161 , 3.012933440408167</t>
+  </si>
+  <si>
+    <t>12:58:19</t>
+  </si>
+  <si>
+    <t>101.43084576353431 , 3.0122828991898745</t>
+  </si>
+  <si>
+    <t>14:09:53</t>
   </si>
   <si>
     <t>800A</t>
   </si>
   <si>
-    <t>101.43610356375575 , 3.199917291149032</t>
+    <t>101.43016146495938 , 3.014460854751278</t>
+  </si>
+  <si>
+    <t>13:54:31</t>
+  </si>
+  <si>
+    <t>101.42929444089532 , 3.0140282772961275</t>
+  </si>
+  <si>
+    <t>13:48:28</t>
+  </si>
+  <si>
+    <t>101.42970917746425 , 3.0128232869354856</t>
+  </si>
+  <si>
+    <t>13:39:18</t>
+  </si>
+  <si>
+    <t>101.43012391403317 , 3.011927327860465</t>
+  </si>
+  <si>
+    <t>13:31:28</t>
+  </si>
+  <si>
+    <t>101.4303039573133 , 3.0128728393126423</t>
+  </si>
+  <si>
+    <t>14:16:36</t>
+  </si>
+  <si>
+    <t>101.43109386786819 , 3.0143393178784423</t>
+  </si>
+  <si>
+    <t>14:25:41</t>
+  </si>
+  <si>
+    <t>101.43036933615804 , 3.0150293657238443</t>
+  </si>
+  <si>
+    <t>14:23:36</t>
+  </si>
+  <si>
+    <t>101.43104491755366 , 3.0149161992524016</t>
+  </si>
+  <si>
+    <t>14:15:15</t>
+  </si>
+  <si>
+    <t>101.43086018040776 , 3.0143419963763654</t>
+  </si>
+  <si>
+    <t>14:22:18</t>
+  </si>
+  <si>
+    <t>101.43162025138736 , 3.0148274740520504</t>
+  </si>
+  <si>
+    <t>14:19:11</t>
+  </si>
+  <si>
+    <t>101.4317094348371 , 3.014250592660204</t>
+  </si>
+  <si>
+    <t>14:17:51</t>
+  </si>
+  <si>
+    <t>101.43132923170924 , 3.014264654746226</t>
+  </si>
+  <si>
+    <t>14:13:54</t>
+  </si>
+  <si>
+    <t>101.43059095367789 , 3.0144300519918734</t>
+  </si>
+  <si>
+    <t>14:12:18</t>
+  </si>
+  <si>
+    <t>101.43054166808724 , 3.014388200464478</t>
+  </si>
+  <si>
+    <t>14:07:23</t>
+  </si>
+  <si>
+    <t>101.42940541729331 , 3.0146218994091223</t>
   </si>
   <si>
     <t>yes</t>
   </si>
   <si>
-    <t>15:36:36</t>
-  </si>
-  <si>
-    <t>101.41674304381013 , 3.1733475716637285</t>
-  </si>
-  <si>
-    <t>16:32:36</t>
+    <t>13:59:08</t>
+  </si>
+  <si>
+    <t>101.42896955832839 , 3.012157679127623</t>
+  </si>
+  <si>
+    <t>13:56:45</t>
+  </si>
+  <si>
+    <t>101.42913619056344 , 3.013162787065106</t>
+  </si>
+  <si>
+    <t>13:52:17</t>
+  </si>
+  <si>
+    <t>101.42979299649596 , 3.013455748050381</t>
+  </si>
+  <si>
+    <t>13:50:56</t>
+  </si>
+  <si>
+    <t>101.42968973144889 , 3.012987680057279</t>
+  </si>
+  <si>
+    <t>13:49:32</t>
+  </si>
+  <si>
+    <t>101.42970817163587 , 3.0129672564850427</t>
+  </si>
+  <si>
+    <t>13:46:43</t>
+  </si>
+  <si>
+    <t>101.4295938424766 , 3.0120866986763857</t>
+  </si>
+  <si>
+    <t>13:45:12</t>
+  </si>
+  <si>
+    <t>101.42948621883988 , 3.0120692884037017</t>
+  </si>
+  <si>
+    <t>13:42:52</t>
+  </si>
+  <si>
+    <t>101.43041862174869 , 3.0134215971761513</t>
+  </si>
+  <si>
+    <t>13:38:07</t>
+  </si>
+  <si>
+    <t>101.43016180023551 , 3.0119306759902784</t>
+  </si>
+  <si>
+    <t>13:36:05</t>
+  </si>
+  <si>
+    <t>101.4303052984178 , 3.0127305439093313</t>
+  </si>
+  <si>
+    <t>13:34:46</t>
+  </si>
+  <si>
+    <t>101.43027110025287 , 3.0127442712314005</t>
+  </si>
+  <si>
+    <t>13:29:49</t>
+  </si>
+  <si>
+    <t>101.43032675608993 , 3.0128731741253336</t>
+  </si>
+  <si>
+    <t>13:28:04</t>
+  </si>
+  <si>
+    <t>101.43038408830762 , 3.0133760626720667</t>
+  </si>
+  <si>
+    <t>14:05:37</t>
+  </si>
+  <si>
+    <t>101.42940374091268 , 3.0145957840608224</t>
+  </si>
+  <si>
+    <t>13:26:56</t>
+  </si>
+  <si>
+    <t>101.43040286377072 , 3.0133656834833786</t>
+  </si>
+  <si>
+    <t>13:24:51</t>
+  </si>
+  <si>
+    <t>101.43047695979476 , 3.013805627072262</t>
+  </si>
+  <si>
+    <t>13:23:22</t>
+  </si>
+  <si>
+    <t>101.43078139051795 , 3.0137621014587657</t>
+  </si>
+  <si>
+    <t>13:19:07</t>
+  </si>
+  <si>
+    <t>101.4308906905353 , 3.0137677932178386</t>
+  </si>
+  <si>
+    <t>13:16:08</t>
+  </si>
+  <si>
+    <t>101.43124071881175 , 3.0136867686620588</t>
+  </si>
+  <si>
+    <t>13:12:45</t>
+  </si>
+  <si>
+    <t>101.43097484484315 , 3.0132431420867727</t>
+  </si>
+  <si>
+    <t>13:07:08</t>
+  </si>
+  <si>
+    <t>101.43089504912496 , 3.012764025182377</t>
+  </si>
+  <si>
+    <t>13:03:16</t>
+  </si>
+  <si>
+    <t>101.43090611323714 , 3.012625747518065</t>
+  </si>
+  <si>
+    <t>12:59:47</t>
+  </si>
+  <si>
+    <t>101.4308806322515 , 3.012589922551321</t>
+  </si>
+  <si>
+    <t>12:56:11</t>
+  </si>
+  <si>
+    <t>101.4307582564652 , 3.0119444033224365</t>
+  </si>
+  <si>
+    <t>11:52:56</t>
+  </si>
+  <si>
+    <t>101.43140064552426 , 3.0120371465132036</t>
+  </si>
+  <si>
+    <t>11:51:18</t>
+  </si>
+  <si>
+    <t>101.43144926056266 , 3.012504545289377</t>
+  </si>
+  <si>
+    <t>11:49:32</t>
+  </si>
+  <si>
+    <t>101.43145294860005 , 3.012790140540199</t>
+  </si>
+  <si>
+    <t>11:47:54</t>
+  </si>
+  <si>
+    <t>101.43157800659537 , 3.0130874542269117</t>
+  </si>
+  <si>
+    <t>11:21:12</t>
+  </si>
+  <si>
+    <t>101.42553934827447 , 3.008054874021706</t>
+  </si>
+  <si>
+    <t>10:51:33</t>
   </si>
   <si>
     <t>400A</t>
   </si>
   <si>
-    <t>101.41586998477578 , 3.1829116770370947</t>
-  </si>
-  <si>
-    <t>17:24:10</t>
-  </si>
-  <si>
-    <t>101.42642548307776 , 3.162073393785821</t>
-  </si>
-  <si>
-    <t>16:37:19</t>
-  </si>
-  <si>
-    <t>101.41647985205054 , 3.1830044012638368</t>
-  </si>
-  <si>
-    <t>16:20:14</t>
-  </si>
-  <si>
-    <t>101.41523296013474 , 3.1830100941108377</t>
-  </si>
-  <si>
-    <t>16:17:05</t>
-  </si>
-  <si>
-    <t>101.41507202759385 , 3.1829150263312957</t>
-  </si>
-  <si>
-    <t>16:01:26</t>
-  </si>
-  <si>
-    <t>101.41385765746236 , 3.1719609864710208</t>
-  </si>
-  <si>
-    <t>14:09:17</t>
-  </si>
-  <si>
-    <t>101.42915463075042 , 3.175529213457761</t>
-  </si>
-  <si>
-    <t>ya</t>
-  </si>
-  <si>
-    <t>13:54:58</t>
-  </si>
-  <si>
-    <t>101.42927264794707 , 3.1755362430590903</t>
-  </si>
-  <si>
-    <t>13:12:13</t>
-  </si>
-  <si>
-    <t>101.42585886642337 , 3.186536776314854</t>
-  </si>
-  <si>
-    <t>13:02:06</t>
-  </si>
-  <si>
-    <t>101.42648147419095 , 3.18701815822955</t>
-  </si>
-  <si>
-    <t>11:20:49</t>
-  </si>
-  <si>
-    <t>101.4494981803 , 3.177454083372092</t>
+    <t>101.43037335947156 , 3.010543210111094</t>
+  </si>
+  <si>
+    <t>10:49:11</t>
+  </si>
+  <si>
+    <t>101.43034452572465 , 3.009887980074563</t>
+  </si>
+  <si>
+    <t>10:47:49</t>
+  </si>
+  <si>
+    <t>101.43035961315036 , 3.0098980244827978</t>
   </si>
 </sst>
 </file>
@@ -605,7 +824,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="H1" sqref="H1:H1048576"/>
@@ -758,24 +977,24 @@
         <v>21</v>
       </c>
       <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
         <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="L4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="M4" t="s">
         <v>26</v>
@@ -784,7 +1003,7 @@
         <v>27</v>
       </c>
       <c r="O4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P4" t="s">
         <v>27</v>
@@ -810,15 +1029,15 @@
         <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K5" t="s">
         <v>26</v>
@@ -836,7 +1055,7 @@
         <v>27</v>
       </c>
       <c r="P5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q5" t="s">
         <v>27</v>
@@ -859,15 +1078,15 @@
         <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="J6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K6" t="s">
         <v>26</v>
@@ -885,7 +1104,7 @@
         <v>27</v>
       </c>
       <c r="P6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q6" t="s">
         <v>27</v>
@@ -908,15 +1127,15 @@
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="J7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K7" t="s">
         <v>26</v>
@@ -937,7 +1156,7 @@
         <v>27</v>
       </c>
       <c r="Q7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -957,7 +1176,7 @@
         <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G8"/>
       <c r="H8"/>
@@ -965,7 +1184,7 @@
         <v>36</v>
       </c>
       <c r="J8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K8" t="s">
         <v>26</v>
@@ -980,10 +1199,10 @@
         <v>27</v>
       </c>
       <c r="O8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q8" t="s">
         <v>27</v>
@@ -1006,7 +1225,7 @@
         <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
@@ -1014,7 +1233,7 @@
         <v>36</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K9" t="s">
         <v>26</v>
@@ -1055,15 +1274,15 @@
         <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K10" t="s">
         <v>26</v>
@@ -1104,15 +1323,15 @@
         <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K11" t="s">
         <v>26</v>
@@ -1153,15 +1372,15 @@
         <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K12" t="s">
         <v>26</v>
@@ -1176,10 +1395,10 @@
         <v>27</v>
       </c>
       <c r="O12" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P12" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="Q12" t="s">
         <v>27</v>
@@ -1202,15 +1421,15 @@
         <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G13"/>
       <c r="H13"/>
       <c r="I13" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K13" t="s">
         <v>26</v>
@@ -1225,7 +1444,7 @@
         <v>27</v>
       </c>
       <c r="O13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P13" t="s">
         <v>27</v>
@@ -1251,15 +1470,15 @@
         <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K14" t="s">
         <v>26</v>
@@ -1274,7 +1493,7 @@
         <v>27</v>
       </c>
       <c r="O14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P14" t="s">
         <v>27</v>
@@ -1300,7 +1519,7 @@
         <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G15"/>
       <c r="H15"/>
@@ -1308,7 +1527,7 @@
         <v>36</v>
       </c>
       <c r="J15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K15" t="s">
         <v>26</v>
@@ -1320,13 +1539,13 @@
         <v>26</v>
       </c>
       <c r="N15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O15" t="s">
         <v>27</v>
       </c>
       <c r="P15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q15" t="s">
         <v>27</v>
@@ -1349,35 +1568,1848 @@
         <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J16" t="s">
+        <v>55</v>
+      </c>
+      <c r="K16" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16" t="s">
+        <v>27</v>
+      </c>
+      <c r="O16" t="s">
+        <v>27</v>
+      </c>
+      <c r="P16" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" t="s">
+        <v>57</v>
+      </c>
+      <c r="K17" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" t="s">
+        <v>27</v>
+      </c>
+      <c r="O17" t="s">
+        <v>30</v>
+      </c>
+      <c r="P17" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" t="s">
         <v>58</v>
       </c>
-      <c r="K16" t="s">
-        <v>26</v>
-      </c>
-      <c r="L16" t="s">
-        <v>26</v>
-      </c>
-      <c r="M16" t="s">
-        <v>26</v>
-      </c>
-      <c r="N16" t="s">
-        <v>27</v>
-      </c>
-      <c r="O16" t="s">
-        <v>27</v>
-      </c>
-      <c r="P16" t="s">
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" t="s">
+        <v>59</v>
+      </c>
+      <c r="K18" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" t="s">
+        <v>27</v>
+      </c>
+      <c r="O18" t="s">
+        <v>27</v>
+      </c>
+      <c r="P18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19" t="s">
+        <v>61</v>
+      </c>
+      <c r="K19" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" t="s">
+        <v>26</v>
+      </c>
+      <c r="M19" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19" t="s">
+        <v>27</v>
+      </c>
+      <c r="O19" t="s">
+        <v>27</v>
+      </c>
+      <c r="P19" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" t="s">
+        <v>63</v>
+      </c>
+      <c r="K20" t="s">
+        <v>26</v>
+      </c>
+      <c r="L20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20" t="s">
+        <v>26</v>
+      </c>
+      <c r="N20" t="s">
+        <v>27</v>
+      </c>
+      <c r="O20" t="s">
+        <v>30</v>
+      </c>
+      <c r="P20" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J21" t="s">
+        <v>65</v>
+      </c>
+      <c r="K21" t="s">
+        <v>66</v>
+      </c>
+      <c r="L21" t="s">
+        <v>26</v>
+      </c>
+      <c r="M21" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21" t="s">
+        <v>27</v>
+      </c>
+      <c r="O21" t="s">
+        <v>30</v>
+      </c>
+      <c r="P21" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" t="s">
+        <v>68</v>
+      </c>
+      <c r="K22" t="s">
+        <v>26</v>
+      </c>
+      <c r="L22" t="s">
+        <v>26</v>
+      </c>
+      <c r="M22" t="s">
+        <v>26</v>
+      </c>
+      <c r="N22" t="s">
+        <v>27</v>
+      </c>
+      <c r="O22" t="s">
+        <v>30</v>
+      </c>
+      <c r="P22" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" t="s">
+        <v>70</v>
+      </c>
+      <c r="K23" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" t="s">
+        <v>26</v>
+      </c>
+      <c r="M23" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23" t="s">
+        <v>27</v>
+      </c>
+      <c r="O23" t="s">
+        <v>30</v>
+      </c>
+      <c r="P23" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" t="s">
+        <v>71</v>
+      </c>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24" t="s">
+        <v>36</v>
+      </c>
+      <c r="J24" t="s">
+        <v>72</v>
+      </c>
+      <c r="K24" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" t="s">
+        <v>26</v>
+      </c>
+      <c r="M24" t="s">
+        <v>26</v>
+      </c>
+      <c r="N24" t="s">
+        <v>27</v>
+      </c>
+      <c r="O24" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25" t="s">
+        <v>36</v>
+      </c>
+      <c r="J25" t="s">
+        <v>74</v>
+      </c>
+      <c r="K25" t="s">
+        <v>26</v>
+      </c>
+      <c r="L25" t="s">
+        <v>26</v>
+      </c>
+      <c r="M25" t="s">
+        <v>26</v>
+      </c>
+      <c r="N25" t="s">
+        <v>27</v>
+      </c>
+      <c r="O25" t="s">
+        <v>30</v>
+      </c>
+      <c r="P25" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" t="s">
+        <v>75</v>
+      </c>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26" t="s">
+        <v>36</v>
+      </c>
+      <c r="J26" t="s">
+        <v>76</v>
+      </c>
+      <c r="K26" t="s">
+        <v>26</v>
+      </c>
+      <c r="L26" t="s">
+        <v>26</v>
+      </c>
+      <c r="M26" t="s">
+        <v>26</v>
+      </c>
+      <c r="N26" t="s">
+        <v>27</v>
+      </c>
+      <c r="O26" t="s">
+        <v>27</v>
+      </c>
+      <c r="P26" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27" t="s">
+        <v>36</v>
+      </c>
+      <c r="J27" t="s">
+        <v>78</v>
+      </c>
+      <c r="K27" t="s">
+        <v>26</v>
+      </c>
+      <c r="L27" t="s">
+        <v>26</v>
+      </c>
+      <c r="M27" t="s">
+        <v>26</v>
+      </c>
+      <c r="N27" t="s">
+        <v>27</v>
+      </c>
+      <c r="O27" t="s">
+        <v>27</v>
+      </c>
+      <c r="P27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" t="s">
+        <v>80</v>
+      </c>
+      <c r="K28" t="s">
+        <v>26</v>
+      </c>
+      <c r="L28" t="s">
+        <v>26</v>
+      </c>
+      <c r="M28" t="s">
+        <v>26</v>
+      </c>
+      <c r="N28" t="s">
+        <v>27</v>
+      </c>
+      <c r="O28" t="s">
+        <v>30</v>
+      </c>
+      <c r="P28" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" t="s">
+        <v>81</v>
+      </c>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29" t="s">
+        <v>36</v>
+      </c>
+      <c r="J29" t="s">
+        <v>82</v>
+      </c>
+      <c r="K29" t="s">
+        <v>26</v>
+      </c>
+      <c r="L29" t="s">
+        <v>26</v>
+      </c>
+      <c r="M29" t="s">
+        <v>26</v>
+      </c>
+      <c r="N29" t="s">
+        <v>27</v>
+      </c>
+      <c r="O29" t="s">
+        <v>27</v>
+      </c>
+      <c r="P29" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" t="s">
+        <v>83</v>
+      </c>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30" t="s">
+        <v>36</v>
+      </c>
+      <c r="J30" t="s">
+        <v>84</v>
+      </c>
+      <c r="K30" t="s">
+        <v>26</v>
+      </c>
+      <c r="L30" t="s">
+        <v>26</v>
+      </c>
+      <c r="M30" t="s">
+        <v>26</v>
+      </c>
+      <c r="N30" t="s">
+        <v>27</v>
+      </c>
+      <c r="O30" t="s">
+        <v>27</v>
+      </c>
+      <c r="P30" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" t="s">
+        <v>85</v>
+      </c>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31" t="s">
+        <v>36</v>
+      </c>
+      <c r="J31" t="s">
+        <v>86</v>
+      </c>
+      <c r="K31" t="s">
+        <v>26</v>
+      </c>
+      <c r="L31" t="s">
+        <v>26</v>
+      </c>
+      <c r="M31" t="s">
+        <v>26</v>
+      </c>
+      <c r="N31" t="s">
+        <v>27</v>
+      </c>
+      <c r="O31" t="s">
+        <v>27</v>
+      </c>
+      <c r="P31" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" t="s">
+        <v>87</v>
+      </c>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32" t="s">
+        <v>88</v>
+      </c>
+      <c r="K32" t="s">
+        <v>26</v>
+      </c>
+      <c r="L32" t="s">
+        <v>26</v>
+      </c>
+      <c r="M32" t="s">
+        <v>26</v>
+      </c>
+      <c r="N32" t="s">
+        <v>27</v>
+      </c>
+      <c r="O32" t="s">
+        <v>30</v>
+      </c>
+      <c r="P32" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33" t="s">
+        <v>36</v>
+      </c>
+      <c r="J33" t="s">
+        <v>90</v>
+      </c>
+      <c r="K33" t="s">
+        <v>26</v>
+      </c>
+      <c r="L33" t="s">
+        <v>66</v>
+      </c>
+      <c r="M33" t="s">
+        <v>26</v>
+      </c>
+      <c r="N33" t="s">
+        <v>27</v>
+      </c>
+      <c r="O33" t="s">
+        <v>30</v>
+      </c>
+      <c r="P33" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" t="s">
+        <v>91</v>
+      </c>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34" t="s">
+        <v>36</v>
+      </c>
+      <c r="J34" t="s">
+        <v>92</v>
+      </c>
+      <c r="K34" t="s">
+        <v>26</v>
+      </c>
+      <c r="L34" t="s">
+        <v>26</v>
+      </c>
+      <c r="M34" t="s">
+        <v>26</v>
+      </c>
+      <c r="N34" t="s">
+        <v>27</v>
+      </c>
+      <c r="O34" t="s">
+        <v>27</v>
+      </c>
+      <c r="P34" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" t="s">
+        <v>93</v>
+      </c>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35" t="s">
+        <v>36</v>
+      </c>
+      <c r="J35" t="s">
+        <v>94</v>
+      </c>
+      <c r="K35" t="s">
+        <v>26</v>
+      </c>
+      <c r="L35" t="s">
+        <v>26</v>
+      </c>
+      <c r="M35" t="s">
+        <v>26</v>
+      </c>
+      <c r="N35" t="s">
+        <v>27</v>
+      </c>
+      <c r="O35" t="s">
+        <v>27</v>
+      </c>
+      <c r="P35" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" t="s">
+        <v>95</v>
+      </c>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36" t="s">
+        <v>36</v>
+      </c>
+      <c r="J36" t="s">
+        <v>96</v>
+      </c>
+      <c r="K36" t="s">
+        <v>26</v>
+      </c>
+      <c r="L36" t="s">
+        <v>26</v>
+      </c>
+      <c r="M36" t="s">
+        <v>26</v>
+      </c>
+      <c r="N36" t="s">
+        <v>27</v>
+      </c>
+      <c r="O36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P36" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" t="s">
+        <v>97</v>
+      </c>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" t="s">
+        <v>98</v>
+      </c>
+      <c r="K37" t="s">
+        <v>26</v>
+      </c>
+      <c r="L37" t="s">
+        <v>26</v>
+      </c>
+      <c r="M37" t="s">
+        <v>26</v>
+      </c>
+      <c r="N37" t="s">
+        <v>27</v>
+      </c>
+      <c r="O37" t="s">
+        <v>27</v>
+      </c>
+      <c r="P37" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" t="s">
+        <v>99</v>
+      </c>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38" t="s">
+        <v>36</v>
+      </c>
+      <c r="J38" t="s">
+        <v>100</v>
+      </c>
+      <c r="K38" t="s">
+        <v>26</v>
+      </c>
+      <c r="L38" t="s">
+        <v>26</v>
+      </c>
+      <c r="M38" t="s">
+        <v>26</v>
+      </c>
+      <c r="N38" t="s">
+        <v>27</v>
+      </c>
+      <c r="O38" t="s">
+        <v>27</v>
+      </c>
+      <c r="P38" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" t="s">
+        <v>101</v>
+      </c>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39" t="s">
+        <v>36</v>
+      </c>
+      <c r="J39" t="s">
+        <v>102</v>
+      </c>
+      <c r="K39" t="s">
+        <v>26</v>
+      </c>
+      <c r="L39" t="s">
+        <v>66</v>
+      </c>
+      <c r="M39" t="s">
+        <v>26</v>
+      </c>
+      <c r="N39" t="s">
+        <v>27</v>
+      </c>
+      <c r="O39" t="s">
+        <v>30</v>
+      </c>
+      <c r="P39" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" t="s">
+        <v>103</v>
+      </c>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40" t="s">
+        <v>36</v>
+      </c>
+      <c r="J40" t="s">
+        <v>104</v>
+      </c>
+      <c r="K40" t="s">
+        <v>26</v>
+      </c>
+      <c r="L40" t="s">
+        <v>26</v>
+      </c>
+      <c r="M40" t="s">
+        <v>26</v>
+      </c>
+      <c r="N40" t="s">
+        <v>27</v>
+      </c>
+      <c r="O40" t="s">
+        <v>27</v>
+      </c>
+      <c r="P40" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" t="s">
+        <v>105</v>
+      </c>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41" t="s">
+        <v>24</v>
+      </c>
+      <c r="J41" t="s">
+        <v>106</v>
+      </c>
+      <c r="K41" t="s">
+        <v>26</v>
+      </c>
+      <c r="L41" t="s">
+        <v>26</v>
+      </c>
+      <c r="M41" t="s">
+        <v>26</v>
+      </c>
+      <c r="N41" t="s">
+        <v>27</v>
+      </c>
+      <c r="O41" t="s">
+        <v>27</v>
+      </c>
+      <c r="P41" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" t="s">
+        <v>22</v>
+      </c>
+      <c r="F42" t="s">
+        <v>107</v>
+      </c>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42" t="s">
+        <v>24</v>
+      </c>
+      <c r="J42" t="s">
+        <v>108</v>
+      </c>
+      <c r="K42" t="s">
+        <v>26</v>
+      </c>
+      <c r="L42" t="s">
+        <v>26</v>
+      </c>
+      <c r="M42" t="s">
+        <v>26</v>
+      </c>
+      <c r="N42" t="s">
+        <v>27</v>
+      </c>
+      <c r="O42" t="s">
+        <v>27</v>
+      </c>
+      <c r="P42" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" t="s">
+        <v>109</v>
+      </c>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43" t="s">
+        <v>24</v>
+      </c>
+      <c r="J43" t="s">
+        <v>110</v>
+      </c>
+      <c r="K43" t="s">
+        <v>26</v>
+      </c>
+      <c r="L43" t="s">
+        <v>26</v>
+      </c>
+      <c r="M43" t="s">
+        <v>26</v>
+      </c>
+      <c r="N43" t="s">
+        <v>27</v>
+      </c>
+      <c r="O43" t="s">
+        <v>27</v>
+      </c>
+      <c r="P43" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="B44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" t="s">
+        <v>111</v>
+      </c>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44" t="s">
+        <v>24</v>
+      </c>
+      <c r="J44" t="s">
+        <v>112</v>
+      </c>
+      <c r="K44" t="s">
+        <v>26</v>
+      </c>
+      <c r="L44" t="s">
+        <v>66</v>
+      </c>
+      <c r="M44" t="s">
+        <v>26</v>
+      </c>
+      <c r="N44" t="s">
+        <v>27</v>
+      </c>
+      <c r="O44" t="s">
+        <v>30</v>
+      </c>
+      <c r="P44" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="B45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45" t="s">
+        <v>113</v>
+      </c>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45" t="s">
+        <v>24</v>
+      </c>
+      <c r="J45" t="s">
+        <v>114</v>
+      </c>
+      <c r="K45" t="s">
+        <v>26</v>
+      </c>
+      <c r="L45" t="s">
+        <v>66</v>
+      </c>
+      <c r="M45" t="s">
+        <v>26</v>
+      </c>
+      <c r="N45" t="s">
+        <v>27</v>
+      </c>
+      <c r="O45" t="s">
+        <v>30</v>
+      </c>
+      <c r="P45" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="B46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" t="s">
+        <v>115</v>
+      </c>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J46" t="s">
+        <v>116</v>
+      </c>
+      <c r="K46" t="s">
+        <v>26</v>
+      </c>
+      <c r="L46" t="s">
+        <v>26</v>
+      </c>
+      <c r="M46" t="s">
+        <v>26</v>
+      </c>
+      <c r="N46" t="s">
+        <v>27</v>
+      </c>
+      <c r="O46" t="s">
+        <v>27</v>
+      </c>
+      <c r="P46" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47">
+        <v>44</v>
+      </c>
+      <c r="B47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47" t="s">
+        <v>117</v>
+      </c>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47" t="s">
+        <v>24</v>
+      </c>
+      <c r="J47" t="s">
+        <v>118</v>
+      </c>
+      <c r="K47" t="s">
+        <v>26</v>
+      </c>
+      <c r="L47" t="s">
+        <v>26</v>
+      </c>
+      <c r="M47" t="s">
+        <v>26</v>
+      </c>
+      <c r="N47" t="s">
+        <v>27</v>
+      </c>
+      <c r="O47" t="s">
+        <v>27</v>
+      </c>
+      <c r="P47" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="B48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" t="s">
+        <v>119</v>
+      </c>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48" t="s">
+        <v>24</v>
+      </c>
+      <c r="J48" t="s">
+        <v>120</v>
+      </c>
+      <c r="K48" t="s">
+        <v>26</v>
+      </c>
+      <c r="L48" t="s">
+        <v>26</v>
+      </c>
+      <c r="M48" t="s">
+        <v>26</v>
+      </c>
+      <c r="N48" t="s">
+        <v>27</v>
+      </c>
+      <c r="O48" t="s">
+        <v>30</v>
+      </c>
+      <c r="P48" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49">
+        <v>46</v>
+      </c>
+      <c r="B49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" t="s">
+        <v>22</v>
+      </c>
+      <c r="F49" t="s">
+        <v>121</v>
+      </c>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49" t="s">
+        <v>24</v>
+      </c>
+      <c r="J49" t="s">
+        <v>122</v>
+      </c>
+      <c r="K49" t="s">
+        <v>26</v>
+      </c>
+      <c r="L49" t="s">
+        <v>66</v>
+      </c>
+      <c r="M49" t="s">
+        <v>26</v>
+      </c>
+      <c r="N49" t="s">
+        <v>27</v>
+      </c>
+      <c r="O49" t="s">
+        <v>27</v>
+      </c>
+      <c r="P49" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50">
+        <v>47</v>
+      </c>
+      <c r="B50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" t="s">
+        <v>22</v>
+      </c>
+      <c r="F50" t="s">
+        <v>123</v>
+      </c>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50" t="s">
+        <v>36</v>
+      </c>
+      <c r="J50" t="s">
+        <v>124</v>
+      </c>
+      <c r="K50" t="s">
+        <v>26</v>
+      </c>
+      <c r="L50" t="s">
+        <v>26</v>
+      </c>
+      <c r="M50" t="s">
+        <v>26</v>
+      </c>
+      <c r="N50" t="s">
+        <v>27</v>
+      </c>
+      <c r="O50" t="s">
+        <v>27</v>
+      </c>
+      <c r="P50" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51">
+        <v>48</v>
+      </c>
+      <c r="B51" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" t="s">
+        <v>22</v>
+      </c>
+      <c r="F51" t="s">
+        <v>125</v>
+      </c>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51" t="s">
+        <v>126</v>
+      </c>
+      <c r="J51" t="s">
+        <v>127</v>
+      </c>
+      <c r="K51" t="s">
+        <v>66</v>
+      </c>
+      <c r="L51" t="s">
+        <v>26</v>
+      </c>
+      <c r="M51" t="s">
+        <v>26</v>
+      </c>
+      <c r="N51" t="s">
+        <v>27</v>
+      </c>
+      <c r="O51" t="s">
+        <v>30</v>
+      </c>
+      <c r="P51" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52">
+        <v>49</v>
+      </c>
+      <c r="B52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52" t="s">
+        <v>128</v>
+      </c>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52" t="s">
+        <v>36</v>
+      </c>
+      <c r="J52" t="s">
+        <v>129</v>
+      </c>
+      <c r="K52" t="s">
+        <v>66</v>
+      </c>
+      <c r="L52" t="s">
+        <v>26</v>
+      </c>
+      <c r="M52" t="s">
+        <v>26</v>
+      </c>
+      <c r="N52" t="s">
+        <v>27</v>
+      </c>
+      <c r="O52" t="s">
+        <v>27</v>
+      </c>
+      <c r="P52" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53">
         <v>50</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="B53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" t="s">
+        <v>22</v>
+      </c>
+      <c r="F53" t="s">
+        <v>130</v>
+      </c>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53" t="s">
+        <v>126</v>
+      </c>
+      <c r="J53" t="s">
+        <v>131</v>
+      </c>
+      <c r="K53" t="s">
+        <v>66</v>
+      </c>
+      <c r="L53" t="s">
+        <v>26</v>
+      </c>
+      <c r="M53" t="s">
+        <v>26</v>
+      </c>
+      <c r="N53" t="s">
+        <v>27</v>
+      </c>
+      <c r="O53" t="s">
+        <v>27</v>
+      </c>
+      <c r="P53" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q53" t="s">
         <v>27</v>
       </c>
     </row>

--- a/public/assets/updated-excels/qr-feeder-pillar.xlsx
+++ b/public/assets/updated-excels/qr-feeder-pillar.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="168">
   <si>
     <t>Pintu</t>
   </si>
@@ -74,112 +74,451 @@
     <t>Pembersihan Iklan haram/ banner</t>
   </si>
   <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>KLANG</t>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>PETALING JAYA</t>
+  </si>
+  <si>
+    <t>1970-01-01</t>
+  </si>
+  <si>
+    <t>14:52:41</t>
+  </si>
+  <si>
+    <t>3.103456694,101.6374091</t>
+  </si>
+  <si>
+    <t>3.111191352,101.6340835</t>
+  </si>
+  <si>
+    <t>3.103573584,101.6385964</t>
+  </si>
+  <si>
+    <t>3.107706456,101.6371808</t>
+  </si>
+  <si>
+    <t>3.103200325,101.6371044</t>
+  </si>
+  <si>
+    <t>3.111189226,101.6340847</t>
+  </si>
+  <si>
+    <t>3.102590686,101.6361466</t>
+  </si>
+  <si>
+    <t>3.111783287,101.6339307</t>
+  </si>
+  <si>
+    <t>3.111606397,101.633966</t>
+  </si>
+  <si>
+    <t>3.110100383,101.6353182</t>
+  </si>
+  <si>
+    <t>05:56:30</t>
+  </si>
+  <si>
+    <t>12:18:27</t>
+  </si>
+  <si>
+    <t>12:18:34</t>
+  </si>
+  <si>
+    <t>12:19:34</t>
+  </si>
+  <si>
+    <t>12:20:27</t>
+  </si>
+  <si>
+    <t>12:20:47</t>
+  </si>
+  <si>
+    <t>12:21:00</t>
+  </si>
+  <si>
+    <t>12:21:07</t>
   </si>
   <si>
     <t>aero</t>
   </si>
   <si>
+    <t>2023-11-29</t>
+  </si>
+  <si>
+    <t>12:21:23</t>
+  </si>
+  <si>
+    <t>1600A</t>
+  </si>
+  <si>
+    <t>101.6365587 , 3.109275464</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>ya</t>
+  </si>
+  <si>
+    <t>tidak</t>
+  </si>
+  <si>
+    <t>2023-12-01</t>
+  </si>
+  <si>
+    <t>19:01:12</t>
+  </si>
+  <si>
+    <t>101.61743363365531 , 3.0806967308153137</t>
+  </si>
+  <si>
+    <t>22:52:41</t>
+  </si>
+  <si>
+    <t>3.107528545,101.6371522</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>14:19:23</t>
+  </si>
+  <si>
+    <t>2023-12-04</t>
+  </si>
+  <si>
+    <t>10:46:58</t>
+  </si>
+  <si>
+    <t>101.62551714107394 , 3.078252414567163</t>
+  </si>
+  <si>
+    <t>10:52:59</t>
+  </si>
+  <si>
+    <t>101.62550842389464 , 3.078841983758352</t>
+  </si>
+  <si>
+    <t>10:51:45</t>
+  </si>
+  <si>
+    <t>101.62543566897511 , 3.078863410441289</t>
+  </si>
+  <si>
+    <t>10:50:54</t>
+  </si>
+  <si>
+    <t>101.62543466314673 , 3.0788131916141137</t>
+  </si>
+  <si>
+    <t>10:45:46</t>
+  </si>
+  <si>
+    <t>101.62542460486293 , 3.0782678149782816</t>
+  </si>
+  <si>
+    <t>10:08:21</t>
+  </si>
+  <si>
+    <t>101.62898255512118 , 3.080983647070669</t>
+  </si>
+  <si>
+    <t>15:34:50</t>
+  </si>
+  <si>
+    <t>16:01:19</t>
+  </si>
+  <si>
+    <t>2023-12-05</t>
+  </si>
+  <si>
+    <t>14:23:25</t>
+  </si>
+  <si>
+    <t>101.55873851850629 , 3.080409813755062</t>
+  </si>
+  <si>
+    <t>14:18:24</t>
+  </si>
+  <si>
+    <t>101.55878042802215 , 3.0801995651077663</t>
+  </si>
+  <si>
+    <t>2023-12-07</t>
+  </si>
+  <si>
+    <t>10:09:21</t>
+  </si>
+  <si>
+    <t>400A</t>
+  </si>
+  <si>
+    <t>101.63597071543336 , 3.0880909123173943</t>
+  </si>
+  <si>
+    <t>2023-12-06</t>
+  </si>
+  <si>
+    <t>19:35:00</t>
+  </si>
+  <si>
+    <t>101.63011813536286 , 3.0840168538345867</t>
+  </si>
+  <si>
     <t>2023-12-08</t>
   </si>
   <si>
-    <t>12:50:44</t>
-  </si>
-  <si>
-    <t>1600A</t>
-  </si>
-  <si>
-    <t>101.42582902684808 , 3.1871105506302753</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>tidak</t>
-  </si>
-  <si>
-    <t>15:36:36</t>
-  </si>
-  <si>
-    <t>800A</t>
-  </si>
-  <si>
-    <t>101.41674304381013 , 3.1733475716637285</t>
-  </si>
-  <si>
-    <t>16:32:36</t>
-  </si>
-  <si>
-    <t>400A</t>
-  </si>
-  <si>
-    <t>101.41586998477578 , 3.1829116770370947</t>
-  </si>
-  <si>
-    <t>17:24:10</t>
-  </si>
-  <si>
-    <t>101.42642548307776 , 3.162073393785821</t>
-  </si>
-  <si>
-    <t>16:37:19</t>
-  </si>
-  <si>
-    <t>101.41647985205054 , 3.1830044012638368</t>
-  </si>
-  <si>
-    <t>16:20:14</t>
-  </si>
-  <si>
-    <t>101.41523296013474 , 3.1830100941108377</t>
-  </si>
-  <si>
-    <t>16:17:05</t>
-  </si>
-  <si>
-    <t>101.41507202759385 , 3.1829150263312957</t>
-  </si>
-  <si>
-    <t>16:01:26</t>
-  </si>
-  <si>
-    <t>101.41385765746236 , 3.1719609864710208</t>
-  </si>
-  <si>
-    <t>14:09:17</t>
-  </si>
-  <si>
-    <t>101.42915463075042 , 3.175529213457761</t>
-  </si>
-  <si>
-    <t>ya</t>
-  </si>
-  <si>
-    <t>13:54:58</t>
-  </si>
-  <si>
-    <t>101.42927264794707 , 3.1755362430590903</t>
-  </si>
-  <si>
-    <t>13:12:13</t>
-  </si>
-  <si>
-    <t>101.42585886642337 , 3.186536776314854</t>
-  </si>
-  <si>
-    <t>13:02:06</t>
-  </si>
-  <si>
-    <t>101.42648147419095 , 3.18701815822955</t>
-  </si>
-  <si>
-    <t>11:20:49</t>
-  </si>
-  <si>
-    <t>101.4494981803 , 3.177454083372092</t>
+    <t>10:57:37</t>
+  </si>
+  <si>
+    <t>101.59968579187989 , 3.103458297970228</t>
+  </si>
+  <si>
+    <t>22:19:27</t>
+  </si>
+  <si>
+    <t>19:22:25</t>
+  </si>
+  <si>
+    <t>101.63075784221292 , 3.0836589627421125</t>
+  </si>
+  <si>
+    <t>19:23:52</t>
+  </si>
+  <si>
+    <t>101.63074912503362 , 3.083707172503039</t>
+  </si>
+  <si>
+    <t>19:40:03</t>
+  </si>
+  <si>
+    <t>101.62962393835187 , 3.0842358067261393</t>
+  </si>
+  <si>
+    <t>19:26:55</t>
+  </si>
+  <si>
+    <t>101.63023447617888 , 3.083988731402166</t>
+  </si>
+  <si>
+    <t>19:34:00</t>
+  </si>
+  <si>
+    <t>101.63014395162463 , 3.084003797002972</t>
+  </si>
+  <si>
+    <t>21:22:39</t>
+  </si>
+  <si>
+    <t>101.6341089271009 , 3.0737283557174866</t>
+  </si>
+  <si>
+    <t>21:20:47</t>
+  </si>
+  <si>
+    <t>101.63409249857068 , 3.073759826332899</t>
+  </si>
+  <si>
+    <t>22:42:48</t>
+  </si>
+  <si>
+    <t>101.6503875888884 , 3.079434565697966</t>
+  </si>
+  <si>
+    <t>22:20:46</t>
+  </si>
+  <si>
+    <t>101.63694402202964 , 3.081758689230962</t>
+  </si>
+  <si>
+    <t>22:46:31</t>
+  </si>
+  <si>
+    <t>101.65098370984197 , 3.079422178413995</t>
+  </si>
+  <si>
+    <t>10:11:15</t>
+  </si>
+  <si>
+    <t>101.63588119670749 , 3.088123386886883</t>
+  </si>
+  <si>
+    <t>11:06:33</t>
+  </si>
+  <si>
+    <t>101.62936242297292 , 3.0967445100578814</t>
+  </si>
+  <si>
+    <t>11:50:46</t>
+  </si>
+  <si>
+    <t>101.6308674775064 , 3.1001365612368894</t>
+  </si>
+  <si>
+    <t>17:19:29</t>
+  </si>
+  <si>
+    <t>101.65671223774552 , 3.080370978555514</t>
+  </si>
+  <si>
+    <t>09:56:49</t>
+  </si>
+  <si>
+    <t>101.65051432326436 , 3.0901883648033985</t>
+  </si>
+  <si>
+    <t>09:53:09</t>
+  </si>
+  <si>
+    <t>101.64815666154027 , 3.0876061372691885</t>
+  </si>
+  <si>
+    <t>11:04:47</t>
+  </si>
+  <si>
+    <t>101.64604676887393 , 3.099728122923544</t>
+  </si>
+  <si>
+    <t>10:47:29</t>
+  </si>
+  <si>
+    <t>101.64586404338479 , 3.097954427856548</t>
+  </si>
+  <si>
+    <t>10:30:10</t>
+  </si>
+  <si>
+    <t>101.64322977885604 , 3.097221245612981</t>
+  </si>
+  <si>
+    <t>10:52:48</t>
+  </si>
+  <si>
+    <t>101.59934816882014 , 3.1034479196533935</t>
+  </si>
+  <si>
+    <t>15:18:16</t>
+  </si>
+  <si>
+    <t>101.64983069524169 , 3.1037284686040976</t>
+  </si>
+  <si>
+    <t>15:44:48</t>
+  </si>
+  <si>
+    <t>101.65829105302691 , 3.103334761129044</t>
+  </si>
+  <si>
+    <t>15:39:50</t>
+  </si>
+  <si>
+    <t>101.65643496438861 , 3.1050334561880657</t>
+  </si>
+  <si>
+    <t>15:10:03</t>
+  </si>
+  <si>
+    <t>101.65034031495452 , 3.101578816298656</t>
+  </si>
+  <si>
+    <t>17:04:32</t>
+  </si>
+  <si>
+    <t>101.65139576420188 , 3.0787077320134646</t>
+  </si>
+  <si>
+    <t>17:11:48</t>
+  </si>
+  <si>
+    <t>101.65092403069139 , 3.078717775780774</t>
+  </si>
+  <si>
+    <t>17:09:17</t>
+  </si>
+  <si>
+    <t>101.65097231045365 , 3.0787696683107555</t>
+  </si>
+  <si>
+    <t>17:03:19</t>
+  </si>
+  <si>
+    <t>101.65179239585996 , 3.0786996970000997</t>
+  </si>
+  <si>
+    <t>17:06:13</t>
+  </si>
+  <si>
+    <t>101.65113994851708 , 3.0787515895971147</t>
+  </si>
+  <si>
+    <t>16:28:59</t>
+  </si>
+  <si>
+    <t>101.6540883667767 , 3.101556720355413</t>
+  </si>
+  <si>
+    <t>19:00:07</t>
+  </si>
+  <si>
+    <t>101.61745274439454 , 3.080710792009871</t>
+  </si>
+  <si>
+    <t>19:25:54</t>
+  </si>
+  <si>
+    <t>101.63021167740226 , 3.083988731402166</t>
+  </si>
+  <si>
+    <t>21:24:50</t>
+  </si>
+  <si>
+    <t>101.63474595174193 , 3.0738083714293105</t>
+  </si>
+  <si>
+    <t>19:38:25</t>
+  </si>
+  <si>
+    <t>101.62965444847941 , 3.0842147149254835</t>
+  </si>
+  <si>
+    <t>21:27:06</t>
+  </si>
+  <si>
+    <t>101.63476238027215 , 3.073767861383489</t>
+  </si>
+  <si>
+    <t>22:20:07</t>
+  </si>
+  <si>
+    <t>101.63694402202964 , 3.0817523281969526</t>
+  </si>
+  <si>
+    <t>22:22:06</t>
+  </si>
+  <si>
+    <t>101.55873047187924 , 3.0804041222963603</t>
+  </si>
+  <si>
+    <t>2023-12-13</t>
+  </si>
+  <si>
+    <t>06:29:00</t>
+  </si>
+  <si>
+    <t>3.12 , 101.62</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>06:34:00</t>
+  </si>
+  <si>
+    <t>3.11 , 101.61</t>
   </si>
 </sst>
 </file>
@@ -593,7 +932,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:Q77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="H1" sqref="H1:H1048576"/>
@@ -685,7 +1024,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -693,48 +1032,27 @@
       <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3"/>
+      <c r="E3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
-      <c r="I3" t="s">
-        <v>24</v>
-      </c>
+      <c r="I3"/>
       <c r="J3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -742,48 +1060,27 @@
       <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4"/>
+      <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
-      <c r="I4" t="s">
-        <v>29</v>
-      </c>
+      <c r="I4"/>
       <c r="J4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>27</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -791,48 +1088,27 @@
       <c r="C5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5"/>
+      <c r="E5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>31</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
-      <c r="I5" t="s">
-        <v>32</v>
-      </c>
+      <c r="I5"/>
       <c r="J5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O5" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>27</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -840,48 +1116,27 @@
       <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6"/>
+      <c r="E6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>34</v>
       </c>
       <c r="G6"/>
       <c r="H6"/>
-      <c r="I6" t="s">
-        <v>24</v>
-      </c>
+      <c r="I6"/>
       <c r="J6" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" t="s">
         <v>26</v>
       </c>
-      <c r="L6" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6" t="s">
-        <v>26</v>
-      </c>
-      <c r="N6" t="s">
-        <v>27</v>
-      </c>
-      <c r="O6" t="s">
-        <v>27</v>
-      </c>
-      <c r="P6" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>27</v>
-      </c>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
@@ -889,48 +1144,27 @@
       <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7"/>
+      <c r="E7" t="s">
         <v>21</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>36</v>
       </c>
       <c r="G7"/>
       <c r="H7"/>
-      <c r="I7" t="s">
-        <v>32</v>
-      </c>
+      <c r="I7"/>
       <c r="J7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M7" t="s">
-        <v>26</v>
-      </c>
-      <c r="N7" t="s">
         <v>27</v>
       </c>
-      <c r="O7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>27</v>
-      </c>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -938,48 +1172,27 @@
       <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8"/>
+      <c r="E8" t="s">
         <v>21</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>22</v>
-      </c>
-      <c r="F8" t="s">
-        <v>38</v>
       </c>
       <c r="G8"/>
       <c r="H8"/>
-      <c r="I8" t="s">
-        <v>32</v>
-      </c>
+      <c r="I8"/>
       <c r="J8" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8" t="s">
-        <v>26</v>
-      </c>
-      <c r="M8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O8" t="s">
-        <v>27</v>
-      </c>
-      <c r="P8" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>27</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
@@ -987,48 +1200,27 @@
       <c r="C9" t="s">
         <v>20</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9"/>
+      <c r="E9" t="s">
         <v>21</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>22</v>
-      </c>
-      <c r="F9" t="s">
-        <v>40</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
-      <c r="I9" t="s">
+      <c r="I9"/>
+      <c r="J9" t="s">
         <v>29</v>
       </c>
-      <c r="J9" t="s">
-        <v>41</v>
-      </c>
-      <c r="K9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L9" t="s">
-        <v>26</v>
-      </c>
-      <c r="M9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N9" t="s">
-        <v>27</v>
-      </c>
-      <c r="O9" t="s">
-        <v>27</v>
-      </c>
-      <c r="P9" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>27</v>
-      </c>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
@@ -1036,48 +1228,27 @@
       <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10"/>
+      <c r="E10" t="s">
         <v>21</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>22</v>
-      </c>
-      <c r="F10" t="s">
-        <v>42</v>
       </c>
       <c r="G10"/>
       <c r="H10"/>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
+      <c r="I10"/>
       <c r="J10" t="s">
-        <v>43</v>
-      </c>
-      <c r="K10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M10" t="s">
-        <v>26</v>
-      </c>
-      <c r="N10" t="s">
-        <v>27</v>
-      </c>
-      <c r="O10" t="s">
-        <v>27</v>
-      </c>
-      <c r="P10" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>27</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
@@ -1085,48 +1256,27 @@
       <c r="C11" t="s">
         <v>20</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11"/>
+      <c r="E11" t="s">
         <v>21</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>22</v>
-      </c>
-      <c r="F11" t="s">
-        <v>44</v>
       </c>
       <c r="G11"/>
       <c r="H11"/>
-      <c r="I11" t="s">
-        <v>29</v>
-      </c>
+      <c r="I11"/>
       <c r="J11" t="s">
-        <v>45</v>
-      </c>
-      <c r="K11" t="s">
-        <v>26</v>
-      </c>
-      <c r="L11" t="s">
-        <v>26</v>
-      </c>
-      <c r="M11" t="s">
-        <v>26</v>
-      </c>
-      <c r="N11" t="s">
-        <v>27</v>
-      </c>
-      <c r="O11" t="s">
-        <v>27</v>
-      </c>
-      <c r="P11" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>27</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
@@ -1134,190 +1284,2930 @@
       <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12"/>
+      <c r="E12" t="s">
         <v>21</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>22</v>
-      </c>
-      <c r="F12" t="s">
-        <v>47</v>
       </c>
       <c r="G12"/>
       <c r="H12"/>
-      <c r="I12" t="s">
-        <v>29</v>
-      </c>
+      <c r="I12"/>
       <c r="J12" t="s">
-        <v>48</v>
-      </c>
-      <c r="K12" t="s">
-        <v>26</v>
-      </c>
-      <c r="L12" t="s">
-        <v>26</v>
-      </c>
-      <c r="M12" t="s">
-        <v>26</v>
-      </c>
-      <c r="N12" t="s">
-        <v>27</v>
-      </c>
-      <c r="O12" t="s">
-        <v>27</v>
-      </c>
-      <c r="P12" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>27</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B13"/>
       <c r="C13" t="s">
         <v>20</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13"/>
+      <c r="E13" t="s">
         <v>21</v>
       </c>
-      <c r="E13" t="s">
-        <v>22</v>
-      </c>
       <c r="F13" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G13"/>
       <c r="H13"/>
-      <c r="I13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" t="s">
-        <v>50</v>
-      </c>
-      <c r="K13" t="s">
-        <v>26</v>
-      </c>
-      <c r="L13" t="s">
-        <v>26</v>
-      </c>
-      <c r="M13" t="s">
-        <v>26</v>
-      </c>
-      <c r="N13" t="s">
-        <v>27</v>
-      </c>
-      <c r="O13" t="s">
-        <v>27</v>
-      </c>
-      <c r="P13" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>27</v>
-      </c>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B14"/>
       <c r="C14" t="s">
         <v>20</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14"/>
+      <c r="E14" t="s">
         <v>21</v>
       </c>
-      <c r="E14" t="s">
-        <v>22</v>
-      </c>
       <c r="F14" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
-      <c r="I14" t="s">
-        <v>32</v>
-      </c>
-      <c r="J14" t="s">
-        <v>52</v>
-      </c>
-      <c r="K14" t="s">
-        <v>26</v>
-      </c>
-      <c r="L14" t="s">
-        <v>26</v>
-      </c>
-      <c r="M14" t="s">
-        <v>26</v>
-      </c>
-      <c r="N14" t="s">
-        <v>27</v>
-      </c>
-      <c r="O14" t="s">
-        <v>27</v>
-      </c>
-      <c r="P14" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>27</v>
-      </c>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B15"/>
       <c r="C15" t="s">
         <v>20</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15"/>
+      <c r="E15" t="s">
         <v>21</v>
       </c>
-      <c r="E15" t="s">
-        <v>22</v>
-      </c>
       <c r="F15" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="G15"/>
       <c r="H15"/>
-      <c r="I15" t="s">
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16">
+        <v>28</v>
+      </c>
+      <c r="B16"/>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17">
         <v>29</v>
       </c>
-      <c r="J15" t="s">
+      <c r="B17"/>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18">
+        <v>30</v>
+      </c>
+      <c r="B18"/>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19">
+        <v>31</v>
+      </c>
+      <c r="B19"/>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20">
+        <v>32</v>
+      </c>
+      <c r="B20"/>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J21" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21" t="s">
+        <v>46</v>
+      </c>
+      <c r="L21" t="s">
+        <v>47</v>
+      </c>
+      <c r="M21" t="s">
+        <v>46</v>
+      </c>
+      <c r="N21" t="s">
+        <v>48</v>
+      </c>
+      <c r="O21" t="s">
+        <v>49</v>
+      </c>
+      <c r="P21" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22">
+        <v>49</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22" t="s">
+        <v>44</v>
+      </c>
+      <c r="J22" t="s">
+        <v>52</v>
+      </c>
+      <c r="K22" t="s">
+        <v>46</v>
+      </c>
+      <c r="L22" t="s">
+        <v>46</v>
+      </c>
+      <c r="M22" t="s">
+        <v>46</v>
+      </c>
+      <c r="N22" t="s">
+        <v>49</v>
+      </c>
+      <c r="O22" t="s">
+        <v>49</v>
+      </c>
+      <c r="P22" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23">
+        <v>13</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23"/>
+      <c r="E23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23">
+        <v>800</v>
+      </c>
+      <c r="J23" t="s">
         <v>54</v>
       </c>
-      <c r="K15" t="s">
-        <v>26</v>
-      </c>
-      <c r="L15" t="s">
-        <v>26</v>
-      </c>
-      <c r="M15" t="s">
-        <v>26</v>
-      </c>
-      <c r="N15" t="s">
-        <v>27</v>
-      </c>
-      <c r="O15" t="s">
-        <v>27</v>
-      </c>
-      <c r="P15" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>27</v>
+      <c r="K23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L23" t="s">
+        <v>46</v>
+      </c>
+      <c r="M23" t="s">
+        <v>46</v>
+      </c>
+      <c r="N23" t="s">
+        <v>55</v>
+      </c>
+      <c r="O23" t="s">
+        <v>55</v>
+      </c>
+      <c r="P23" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24">
+        <v>227</v>
+      </c>
+      <c r="B24"/>
+      <c r="C24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24"/>
+      <c r="E24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25">
+        <v>88</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25" t="s">
+        <v>44</v>
+      </c>
+      <c r="J25" t="s">
+        <v>59</v>
+      </c>
+      <c r="K25" t="s">
+        <v>46</v>
+      </c>
+      <c r="L25" t="s">
+        <v>46</v>
+      </c>
+      <c r="M25" t="s">
+        <v>46</v>
+      </c>
+      <c r="N25" t="s">
+        <v>49</v>
+      </c>
+      <c r="O25" t="s">
+        <v>49</v>
+      </c>
+      <c r="P25" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26">
+        <v>94</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26" t="s">
+        <v>44</v>
+      </c>
+      <c r="J26" t="s">
+        <v>61</v>
+      </c>
+      <c r="K26" t="s">
+        <v>46</v>
+      </c>
+      <c r="L26" t="s">
+        <v>46</v>
+      </c>
+      <c r="M26" t="s">
+        <v>46</v>
+      </c>
+      <c r="N26" t="s">
+        <v>49</v>
+      </c>
+      <c r="O26" t="s">
+        <v>49</v>
+      </c>
+      <c r="P26" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27">
+        <v>92</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27" t="s">
+        <v>44</v>
+      </c>
+      <c r="J27" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27" t="s">
+        <v>46</v>
+      </c>
+      <c r="L27" t="s">
+        <v>46</v>
+      </c>
+      <c r="M27" t="s">
+        <v>46</v>
+      </c>
+      <c r="N27" t="s">
+        <v>49</v>
+      </c>
+      <c r="O27" t="s">
+        <v>49</v>
+      </c>
+      <c r="P27" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28">
+        <v>89</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28" t="s">
+        <v>44</v>
+      </c>
+      <c r="J28" t="s">
+        <v>65</v>
+      </c>
+      <c r="K28" t="s">
+        <v>46</v>
+      </c>
+      <c r="L28" t="s">
+        <v>46</v>
+      </c>
+      <c r="M28" t="s">
+        <v>46</v>
+      </c>
+      <c r="N28" t="s">
+        <v>49</v>
+      </c>
+      <c r="O28" t="s">
+        <v>49</v>
+      </c>
+      <c r="P28" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29">
+        <v>87</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" t="s">
+        <v>66</v>
+      </c>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29" t="s">
+        <v>44</v>
+      </c>
+      <c r="J29" t="s">
+        <v>67</v>
+      </c>
+      <c r="K29" t="s">
+        <v>46</v>
+      </c>
+      <c r="L29" t="s">
+        <v>46</v>
+      </c>
+      <c r="M29" t="s">
+        <v>46</v>
+      </c>
+      <c r="N29" t="s">
+        <v>49</v>
+      </c>
+      <c r="O29" t="s">
+        <v>49</v>
+      </c>
+      <c r="P29" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30">
+        <v>77</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" t="s">
+        <v>68</v>
+      </c>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30" t="s">
+        <v>44</v>
+      </c>
+      <c r="J30" t="s">
+        <v>69</v>
+      </c>
+      <c r="K30" t="s">
+        <v>46</v>
+      </c>
+      <c r="L30" t="s">
+        <v>46</v>
+      </c>
+      <c r="M30" t="s">
+        <v>46</v>
+      </c>
+      <c r="N30" t="s">
+        <v>49</v>
+      </c>
+      <c r="O30" t="s">
+        <v>49</v>
+      </c>
+      <c r="P30" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31">
+        <v>139</v>
+      </c>
+      <c r="B31"/>
+      <c r="C31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31"/>
+      <c r="E31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32">
+        <v>142</v>
+      </c>
+      <c r="B32"/>
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32"/>
+      <c r="E32" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" t="s">
+        <v>71</v>
+      </c>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33">
+        <v>233</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" t="s">
+        <v>73</v>
+      </c>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33" t="s">
+        <v>44</v>
+      </c>
+      <c r="J33" t="s">
+        <v>74</v>
+      </c>
+      <c r="K33" t="s">
+        <v>46</v>
+      </c>
+      <c r="L33" t="s">
+        <v>46</v>
+      </c>
+      <c r="M33" t="s">
+        <v>46</v>
+      </c>
+      <c r="N33" t="s">
+        <v>49</v>
+      </c>
+      <c r="O33" t="s">
+        <v>49</v>
+      </c>
+      <c r="P33" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34">
+        <v>226</v>
+      </c>
+      <c r="B34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" t="s">
+        <v>75</v>
+      </c>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34" t="s">
+        <v>44</v>
+      </c>
+      <c r="J34" t="s">
+        <v>76</v>
+      </c>
+      <c r="K34" t="s">
+        <v>46</v>
+      </c>
+      <c r="L34" t="s">
+        <v>46</v>
+      </c>
+      <c r="M34" t="s">
+        <v>46</v>
+      </c>
+      <c r="N34" t="s">
+        <v>49</v>
+      </c>
+      <c r="O34" t="s">
+        <v>49</v>
+      </c>
+      <c r="P34" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35">
+        <v>615</v>
+      </c>
+      <c r="B35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" t="s">
+        <v>77</v>
+      </c>
+      <c r="F35" t="s">
+        <v>78</v>
+      </c>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35" t="s">
+        <v>79</v>
+      </c>
+      <c r="J35" t="s">
+        <v>80</v>
+      </c>
+      <c r="K35" t="s">
+        <v>46</v>
+      </c>
+      <c r="L35" t="s">
+        <v>46</v>
+      </c>
+      <c r="M35" t="s">
+        <v>46</v>
+      </c>
+      <c r="N35" t="s">
+        <v>49</v>
+      </c>
+      <c r="O35" t="s">
+        <v>49</v>
+      </c>
+      <c r="P35" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36">
+        <v>385</v>
+      </c>
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" t="s">
+        <v>81</v>
+      </c>
+      <c r="F36" t="s">
+        <v>82</v>
+      </c>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36">
+        <v>800</v>
+      </c>
+      <c r="J36" t="s">
+        <v>83</v>
+      </c>
+      <c r="K36" t="s">
+        <v>46</v>
+      </c>
+      <c r="L36" t="s">
+        <v>46</v>
+      </c>
+      <c r="M36" t="s">
+        <v>46</v>
+      </c>
+      <c r="N36" t="s">
+        <v>49</v>
+      </c>
+      <c r="O36" t="s">
+        <v>49</v>
+      </c>
+      <c r="P36" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37">
+        <v>852</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" t="s">
+        <v>84</v>
+      </c>
+      <c r="F37" t="s">
+        <v>85</v>
+      </c>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37" t="s">
+        <v>79</v>
+      </c>
+      <c r="J37" t="s">
+        <v>86</v>
+      </c>
+      <c r="K37" t="s">
+        <v>47</v>
+      </c>
+      <c r="L37" t="s">
+        <v>46</v>
+      </c>
+      <c r="M37" t="s">
+        <v>46</v>
+      </c>
+      <c r="N37" t="s">
+        <v>49</v>
+      </c>
+      <c r="O37" t="s">
+        <v>49</v>
+      </c>
+      <c r="P37" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38">
+        <v>228</v>
+      </c>
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s">
+        <v>87</v>
+      </c>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38" t="s">
+        <v>44</v>
+      </c>
+      <c r="J38" t="s">
+        <v>76</v>
+      </c>
+      <c r="K38" t="s">
+        <v>46</v>
+      </c>
+      <c r="L38" t="s">
+        <v>46</v>
+      </c>
+      <c r="M38" t="s">
+        <v>46</v>
+      </c>
+      <c r="N38" t="s">
+        <v>49</v>
+      </c>
+      <c r="O38" t="s">
+        <v>49</v>
+      </c>
+      <c r="P38" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39">
+        <v>376</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" t="s">
+        <v>81</v>
+      </c>
+      <c r="F39" t="s">
+        <v>88</v>
+      </c>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39">
+        <v>800</v>
+      </c>
+      <c r="J39" t="s">
+        <v>89</v>
+      </c>
+      <c r="K39" t="s">
+        <v>46</v>
+      </c>
+      <c r="L39" t="s">
+        <v>46</v>
+      </c>
+      <c r="M39" t="s">
+        <v>46</v>
+      </c>
+      <c r="N39" t="s">
+        <v>49</v>
+      </c>
+      <c r="O39" t="s">
+        <v>49</v>
+      </c>
+      <c r="P39" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40">
+        <v>377</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" t="s">
+        <v>81</v>
+      </c>
+      <c r="F40" t="s">
+        <v>90</v>
+      </c>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40">
+        <v>800</v>
+      </c>
+      <c r="J40" t="s">
+        <v>91</v>
+      </c>
+      <c r="K40" t="s">
+        <v>46</v>
+      </c>
+      <c r="L40" t="s">
+        <v>46</v>
+      </c>
+      <c r="M40" t="s">
+        <v>46</v>
+      </c>
+      <c r="N40" t="s">
+        <v>49</v>
+      </c>
+      <c r="O40" t="s">
+        <v>49</v>
+      </c>
+      <c r="P40" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41">
+        <v>390</v>
+      </c>
+      <c r="B41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" t="s">
+        <v>81</v>
+      </c>
+      <c r="F41" t="s">
+        <v>92</v>
+      </c>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41">
+        <v>800</v>
+      </c>
+      <c r="J41" t="s">
+        <v>93</v>
+      </c>
+      <c r="K41" t="s">
+        <v>47</v>
+      </c>
+      <c r="L41" t="s">
+        <v>46</v>
+      </c>
+      <c r="M41" t="s">
+        <v>46</v>
+      </c>
+      <c r="N41" t="s">
+        <v>49</v>
+      </c>
+      <c r="O41" t="s">
+        <v>49</v>
+      </c>
+      <c r="P41" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42">
+        <v>380</v>
+      </c>
+      <c r="B42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>81</v>
+      </c>
+      <c r="F42" t="s">
+        <v>94</v>
+      </c>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42">
+        <v>800</v>
+      </c>
+      <c r="J42" t="s">
+        <v>95</v>
+      </c>
+      <c r="K42" t="s">
+        <v>47</v>
+      </c>
+      <c r="L42" t="s">
+        <v>46</v>
+      </c>
+      <c r="M42" t="s">
+        <v>46</v>
+      </c>
+      <c r="N42" t="s">
+        <v>49</v>
+      </c>
+      <c r="O42" t="s">
+        <v>49</v>
+      </c>
+      <c r="P42" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43">
+        <v>384</v>
+      </c>
+      <c r="B43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43" t="s">
+        <v>81</v>
+      </c>
+      <c r="F43" t="s">
+        <v>96</v>
+      </c>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43">
+        <v>800</v>
+      </c>
+      <c r="J43" t="s">
+        <v>97</v>
+      </c>
+      <c r="K43" t="s">
+        <v>46</v>
+      </c>
+      <c r="L43" t="s">
+        <v>46</v>
+      </c>
+      <c r="M43" t="s">
+        <v>46</v>
+      </c>
+      <c r="N43" t="s">
+        <v>49</v>
+      </c>
+      <c r="O43" t="s">
+        <v>49</v>
+      </c>
+      <c r="P43" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44">
+        <v>460</v>
+      </c>
+      <c r="B44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" t="s">
+        <v>81</v>
+      </c>
+      <c r="F44" t="s">
+        <v>98</v>
+      </c>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44">
+        <v>800</v>
+      </c>
+      <c r="J44" t="s">
+        <v>99</v>
+      </c>
+      <c r="K44" t="s">
+        <v>46</v>
+      </c>
+      <c r="L44" t="s">
+        <v>46</v>
+      </c>
+      <c r="M44" t="s">
+        <v>46</v>
+      </c>
+      <c r="N44" t="s">
+        <v>49</v>
+      </c>
+      <c r="O44" t="s">
+        <v>49</v>
+      </c>
+      <c r="P44" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45">
+        <v>457</v>
+      </c>
+      <c r="B45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" t="s">
+        <v>41</v>
+      </c>
+      <c r="E45" t="s">
+        <v>81</v>
+      </c>
+      <c r="F45" t="s">
+        <v>100</v>
+      </c>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45">
+        <v>800</v>
+      </c>
+      <c r="J45" t="s">
+        <v>101</v>
+      </c>
+      <c r="K45" t="s">
+        <v>46</v>
+      </c>
+      <c r="L45" t="s">
+        <v>46</v>
+      </c>
+      <c r="M45" t="s">
+        <v>46</v>
+      </c>
+      <c r="N45" t="s">
+        <v>49</v>
+      </c>
+      <c r="O45" t="s">
+        <v>49</v>
+      </c>
+      <c r="P45" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46">
+        <v>521</v>
+      </c>
+      <c r="B46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" t="s">
+        <v>41</v>
+      </c>
+      <c r="E46" t="s">
+        <v>81</v>
+      </c>
+      <c r="F46" t="s">
+        <v>102</v>
+      </c>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46">
+        <v>800</v>
+      </c>
+      <c r="J46" t="s">
+        <v>103</v>
+      </c>
+      <c r="K46" t="s">
+        <v>46</v>
+      </c>
+      <c r="L46" t="s">
+        <v>46</v>
+      </c>
+      <c r="M46" t="s">
+        <v>46</v>
+      </c>
+      <c r="N46" t="s">
+        <v>49</v>
+      </c>
+      <c r="O46" t="s">
+        <v>49</v>
+      </c>
+      <c r="P46" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47">
+        <v>496</v>
+      </c>
+      <c r="B47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" t="s">
+        <v>41</v>
+      </c>
+      <c r="E47" t="s">
+        <v>81</v>
+      </c>
+      <c r="F47" t="s">
+        <v>104</v>
+      </c>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47">
+        <v>800</v>
+      </c>
+      <c r="J47" t="s">
+        <v>105</v>
+      </c>
+      <c r="K47" t="s">
+        <v>46</v>
+      </c>
+      <c r="L47" t="s">
+        <v>46</v>
+      </c>
+      <c r="M47" t="s">
+        <v>46</v>
+      </c>
+      <c r="N47" t="s">
+        <v>49</v>
+      </c>
+      <c r="O47" t="s">
+        <v>49</v>
+      </c>
+      <c r="P47" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48">
+        <v>524</v>
+      </c>
+      <c r="B48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" t="s">
+        <v>41</v>
+      </c>
+      <c r="E48" t="s">
+        <v>81</v>
+      </c>
+      <c r="F48" t="s">
+        <v>106</v>
+      </c>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48">
+        <v>800</v>
+      </c>
+      <c r="J48" t="s">
+        <v>107</v>
+      </c>
+      <c r="K48" t="s">
+        <v>46</v>
+      </c>
+      <c r="L48" t="s">
+        <v>47</v>
+      </c>
+      <c r="M48" t="s">
+        <v>46</v>
+      </c>
+      <c r="N48" t="s">
+        <v>49</v>
+      </c>
+      <c r="O48" t="s">
+        <v>49</v>
+      </c>
+      <c r="P48" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49">
+        <v>618</v>
+      </c>
+      <c r="B49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" t="s">
+        <v>41</v>
+      </c>
+      <c r="E49" t="s">
+        <v>77</v>
+      </c>
+      <c r="F49" t="s">
+        <v>108</v>
+      </c>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49" t="s">
+        <v>79</v>
+      </c>
+      <c r="J49" t="s">
+        <v>109</v>
+      </c>
+      <c r="K49" t="s">
+        <v>46</v>
+      </c>
+      <c r="L49" t="s">
+        <v>46</v>
+      </c>
+      <c r="M49" t="s">
+        <v>46</v>
+      </c>
+      <c r="N49" t="s">
+        <v>49</v>
+      </c>
+      <c r="O49" t="s">
+        <v>49</v>
+      </c>
+      <c r="P49" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50">
+        <v>639</v>
+      </c>
+      <c r="B50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" t="s">
+        <v>41</v>
+      </c>
+      <c r="E50" t="s">
+        <v>77</v>
+      </c>
+      <c r="F50" t="s">
+        <v>110</v>
+      </c>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50" t="s">
+        <v>79</v>
+      </c>
+      <c r="J50" t="s">
+        <v>111</v>
+      </c>
+      <c r="K50" t="s">
+        <v>46</v>
+      </c>
+      <c r="L50" t="s">
+        <v>46</v>
+      </c>
+      <c r="M50" t="s">
+        <v>46</v>
+      </c>
+      <c r="N50" t="s">
+        <v>49</v>
+      </c>
+      <c r="O50" t="s">
+        <v>49</v>
+      </c>
+      <c r="P50" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51">
+        <v>643</v>
+      </c>
+      <c r="B51" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" t="s">
+        <v>41</v>
+      </c>
+      <c r="E51" t="s">
+        <v>77</v>
+      </c>
+      <c r="F51" t="s">
+        <v>112</v>
+      </c>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51" t="s">
+        <v>79</v>
+      </c>
+      <c r="J51" t="s">
+        <v>113</v>
+      </c>
+      <c r="K51" t="s">
+        <v>46</v>
+      </c>
+      <c r="L51" t="s">
+        <v>46</v>
+      </c>
+      <c r="M51" t="s">
+        <v>46</v>
+      </c>
+      <c r="N51" t="s">
+        <v>49</v>
+      </c>
+      <c r="O51" t="s">
+        <v>49</v>
+      </c>
+      <c r="P51" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52">
+        <v>789</v>
+      </c>
+      <c r="B52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" t="s">
+        <v>41</v>
+      </c>
+      <c r="E52" t="s">
+        <v>77</v>
+      </c>
+      <c r="F52" t="s">
+        <v>114</v>
+      </c>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52" t="s">
+        <v>79</v>
+      </c>
+      <c r="J52" t="s">
+        <v>115</v>
+      </c>
+      <c r="K52" t="s">
+        <v>46</v>
+      </c>
+      <c r="L52" t="s">
+        <v>46</v>
+      </c>
+      <c r="M52" t="s">
+        <v>46</v>
+      </c>
+      <c r="N52" t="s">
+        <v>49</v>
+      </c>
+      <c r="O52" t="s">
+        <v>49</v>
+      </c>
+      <c r="P52" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53">
+        <v>804</v>
+      </c>
+      <c r="B53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" t="s">
+        <v>41</v>
+      </c>
+      <c r="E53" t="s">
+        <v>84</v>
+      </c>
+      <c r="F53" t="s">
+        <v>116</v>
+      </c>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53" t="s">
+        <v>79</v>
+      </c>
+      <c r="J53" t="s">
+        <v>117</v>
+      </c>
+      <c r="K53" t="s">
+        <v>46</v>
+      </c>
+      <c r="L53" t="s">
+        <v>46</v>
+      </c>
+      <c r="M53" t="s">
+        <v>46</v>
+      </c>
+      <c r="N53" t="s">
+        <v>49</v>
+      </c>
+      <c r="O53" t="s">
+        <v>49</v>
+      </c>
+      <c r="P53" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54">
+        <v>802</v>
+      </c>
+      <c r="B54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" t="s">
+        <v>41</v>
+      </c>
+      <c r="E54" t="s">
+        <v>84</v>
+      </c>
+      <c r="F54" t="s">
+        <v>118</v>
+      </c>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54" t="s">
+        <v>79</v>
+      </c>
+      <c r="J54" t="s">
+        <v>119</v>
+      </c>
+      <c r="K54" t="s">
+        <v>46</v>
+      </c>
+      <c r="L54" t="s">
+        <v>46</v>
+      </c>
+      <c r="M54" t="s">
+        <v>46</v>
+      </c>
+      <c r="N54" t="s">
+        <v>49</v>
+      </c>
+      <c r="O54" t="s">
+        <v>49</v>
+      </c>
+      <c r="P54" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55">
+        <v>857</v>
+      </c>
+      <c r="B55" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" t="s">
+        <v>41</v>
+      </c>
+      <c r="E55" t="s">
+        <v>84</v>
+      </c>
+      <c r="F55" t="s">
+        <v>120</v>
+      </c>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55" t="s">
+        <v>79</v>
+      </c>
+      <c r="J55" t="s">
+        <v>121</v>
+      </c>
+      <c r="K55" t="s">
+        <v>46</v>
+      </c>
+      <c r="L55" t="s">
+        <v>46</v>
+      </c>
+      <c r="M55" t="s">
+        <v>46</v>
+      </c>
+      <c r="N55" t="s">
+        <v>49</v>
+      </c>
+      <c r="O55" t="s">
+        <v>49</v>
+      </c>
+      <c r="P55" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56">
+        <v>844</v>
+      </c>
+      <c r="B56" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" t="s">
+        <v>41</v>
+      </c>
+      <c r="E56" t="s">
+        <v>84</v>
+      </c>
+      <c r="F56" t="s">
+        <v>122</v>
+      </c>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56" t="s">
+        <v>79</v>
+      </c>
+      <c r="J56" t="s">
+        <v>123</v>
+      </c>
+      <c r="K56" t="s">
+        <v>46</v>
+      </c>
+      <c r="L56" t="s">
+        <v>46</v>
+      </c>
+      <c r="M56" t="s">
+        <v>46</v>
+      </c>
+      <c r="N56" t="s">
+        <v>49</v>
+      </c>
+      <c r="O56" t="s">
+        <v>49</v>
+      </c>
+      <c r="P56" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57">
+        <v>826</v>
+      </c>
+      <c r="B57" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" t="s">
+        <v>41</v>
+      </c>
+      <c r="E57" t="s">
+        <v>84</v>
+      </c>
+      <c r="F57" t="s">
+        <v>124</v>
+      </c>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57" t="s">
+        <v>79</v>
+      </c>
+      <c r="J57" t="s">
+        <v>125</v>
+      </c>
+      <c r="K57" t="s">
+        <v>46</v>
+      </c>
+      <c r="L57" t="s">
+        <v>46</v>
+      </c>
+      <c r="M57" t="s">
+        <v>46</v>
+      </c>
+      <c r="N57" t="s">
+        <v>49</v>
+      </c>
+      <c r="O57" t="s">
+        <v>49</v>
+      </c>
+      <c r="P57" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58">
+        <v>848</v>
+      </c>
+      <c r="B58" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" t="s">
+        <v>41</v>
+      </c>
+      <c r="E58" t="s">
+        <v>84</v>
+      </c>
+      <c r="F58" t="s">
+        <v>126</v>
+      </c>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58" t="s">
+        <v>79</v>
+      </c>
+      <c r="J58" t="s">
+        <v>127</v>
+      </c>
+      <c r="K58" t="s">
+        <v>47</v>
+      </c>
+      <c r="L58" t="s">
+        <v>46</v>
+      </c>
+      <c r="M58" t="s">
+        <v>46</v>
+      </c>
+      <c r="N58" t="s">
+        <v>48</v>
+      </c>
+      <c r="O58" t="s">
+        <v>49</v>
+      </c>
+      <c r="P58" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59">
+        <v>933</v>
+      </c>
+      <c r="B59" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" t="s">
+        <v>41</v>
+      </c>
+      <c r="E59" t="s">
+        <v>84</v>
+      </c>
+      <c r="F59" t="s">
+        <v>128</v>
+      </c>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59" t="s">
+        <v>79</v>
+      </c>
+      <c r="J59" t="s">
+        <v>129</v>
+      </c>
+      <c r="K59" t="s">
+        <v>46</v>
+      </c>
+      <c r="L59" t="s">
+        <v>46</v>
+      </c>
+      <c r="M59" t="s">
+        <v>46</v>
+      </c>
+      <c r="N59" t="s">
+        <v>49</v>
+      </c>
+      <c r="O59" t="s">
+        <v>49</v>
+      </c>
+      <c r="P59" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60">
+        <v>955</v>
+      </c>
+      <c r="B60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" t="s">
+        <v>41</v>
+      </c>
+      <c r="E60" t="s">
+        <v>84</v>
+      </c>
+      <c r="F60" t="s">
+        <v>130</v>
+      </c>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60" t="s">
+        <v>79</v>
+      </c>
+      <c r="J60" t="s">
+        <v>131</v>
+      </c>
+      <c r="K60" t="s">
+        <v>46</v>
+      </c>
+      <c r="L60" t="s">
+        <v>46</v>
+      </c>
+      <c r="M60" t="s">
+        <v>46</v>
+      </c>
+      <c r="N60" t="s">
+        <v>49</v>
+      </c>
+      <c r="O60" t="s">
+        <v>49</v>
+      </c>
+      <c r="P60" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61">
+        <v>948</v>
+      </c>
+      <c r="B61" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" t="s">
+        <v>41</v>
+      </c>
+      <c r="E61" t="s">
+        <v>84</v>
+      </c>
+      <c r="F61" t="s">
+        <v>132</v>
+      </c>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61" t="s">
+        <v>79</v>
+      </c>
+      <c r="J61" t="s">
+        <v>133</v>
+      </c>
+      <c r="K61" t="s">
+        <v>46</v>
+      </c>
+      <c r="L61" t="s">
+        <v>46</v>
+      </c>
+      <c r="M61" t="s">
+        <v>46</v>
+      </c>
+      <c r="N61" t="s">
+        <v>49</v>
+      </c>
+      <c r="O61" t="s">
+        <v>49</v>
+      </c>
+      <c r="P61" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="A62">
+        <v>927</v>
+      </c>
+      <c r="B62" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" t="s">
+        <v>41</v>
+      </c>
+      <c r="E62" t="s">
+        <v>84</v>
+      </c>
+      <c r="F62" t="s">
+        <v>134</v>
+      </c>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62" t="s">
+        <v>79</v>
+      </c>
+      <c r="J62" t="s">
+        <v>135</v>
+      </c>
+      <c r="K62" t="s">
+        <v>46</v>
+      </c>
+      <c r="L62" t="s">
+        <v>46</v>
+      </c>
+      <c r="M62" t="s">
+        <v>46</v>
+      </c>
+      <c r="N62" t="s">
+        <v>49</v>
+      </c>
+      <c r="O62" t="s">
+        <v>49</v>
+      </c>
+      <c r="P62" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="A63">
+        <v>980</v>
+      </c>
+      <c r="B63" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" t="s">
+        <v>20</v>
+      </c>
+      <c r="D63" t="s">
+        <v>41</v>
+      </c>
+      <c r="E63" t="s">
+        <v>84</v>
+      </c>
+      <c r="F63" t="s">
+        <v>136</v>
+      </c>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63" t="s">
+        <v>79</v>
+      </c>
+      <c r="J63" t="s">
+        <v>137</v>
+      </c>
+      <c r="K63" t="s">
+        <v>46</v>
+      </c>
+      <c r="L63" t="s">
+        <v>46</v>
+      </c>
+      <c r="M63" t="s">
+        <v>46</v>
+      </c>
+      <c r="N63" t="s">
+        <v>49</v>
+      </c>
+      <c r="O63" t="s">
+        <v>49</v>
+      </c>
+      <c r="P63" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="A64">
+        <v>983</v>
+      </c>
+      <c r="B64" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" t="s">
+        <v>20</v>
+      </c>
+      <c r="D64" t="s">
+        <v>41</v>
+      </c>
+      <c r="E64" t="s">
+        <v>84</v>
+      </c>
+      <c r="F64" t="s">
+        <v>138</v>
+      </c>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64" t="s">
+        <v>79</v>
+      </c>
+      <c r="J64" t="s">
+        <v>139</v>
+      </c>
+      <c r="K64" t="s">
+        <v>46</v>
+      </c>
+      <c r="L64" t="s">
+        <v>47</v>
+      </c>
+      <c r="M64" t="s">
+        <v>46</v>
+      </c>
+      <c r="N64" t="s">
+        <v>49</v>
+      </c>
+      <c r="O64" t="s">
+        <v>49</v>
+      </c>
+      <c r="P64" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="A65">
+        <v>982</v>
+      </c>
+      <c r="B65" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65" t="s">
+        <v>41</v>
+      </c>
+      <c r="E65" t="s">
+        <v>84</v>
+      </c>
+      <c r="F65" t="s">
+        <v>140</v>
+      </c>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65" t="s">
+        <v>79</v>
+      </c>
+      <c r="J65" t="s">
+        <v>141</v>
+      </c>
+      <c r="K65" t="s">
+        <v>47</v>
+      </c>
+      <c r="L65" t="s">
+        <v>46</v>
+      </c>
+      <c r="M65" t="s">
+        <v>47</v>
+      </c>
+      <c r="N65" t="s">
+        <v>49</v>
+      </c>
+      <c r="O65" t="s">
+        <v>49</v>
+      </c>
+      <c r="P65" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="A66">
+        <v>979</v>
+      </c>
+      <c r="B66" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" t="s">
+        <v>20</v>
+      </c>
+      <c r="D66" t="s">
+        <v>41</v>
+      </c>
+      <c r="E66" t="s">
+        <v>84</v>
+      </c>
+      <c r="F66" t="s">
+        <v>142</v>
+      </c>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66" t="s">
+        <v>79</v>
+      </c>
+      <c r="J66" t="s">
+        <v>143</v>
+      </c>
+      <c r="K66" t="s">
+        <v>46</v>
+      </c>
+      <c r="L66" t="s">
+        <v>46</v>
+      </c>
+      <c r="M66" t="s">
+        <v>46</v>
+      </c>
+      <c r="N66" t="s">
+        <v>49</v>
+      </c>
+      <c r="O66" t="s">
+        <v>49</v>
+      </c>
+      <c r="P66" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="A67">
+        <v>981</v>
+      </c>
+      <c r="B67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" t="s">
+        <v>20</v>
+      </c>
+      <c r="D67" t="s">
+        <v>41</v>
+      </c>
+      <c r="E67" t="s">
+        <v>84</v>
+      </c>
+      <c r="F67" t="s">
+        <v>144</v>
+      </c>
+      <c r="G67"/>
+      <c r="H67"/>
+      <c r="I67" t="s">
+        <v>79</v>
+      </c>
+      <c r="J67" t="s">
+        <v>145</v>
+      </c>
+      <c r="K67" t="s">
+        <v>46</v>
+      </c>
+      <c r="L67" t="s">
+        <v>46</v>
+      </c>
+      <c r="M67" t="s">
+        <v>46</v>
+      </c>
+      <c r="N67" t="s">
+        <v>49</v>
+      </c>
+      <c r="O67" t="s">
+        <v>49</v>
+      </c>
+      <c r="P67" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="A68">
+        <v>976</v>
+      </c>
+      <c r="B68" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68" t="s">
+        <v>20</v>
+      </c>
+      <c r="D68" t="s">
+        <v>41</v>
+      </c>
+      <c r="E68" t="s">
+        <v>84</v>
+      </c>
+      <c r="F68" t="s">
+        <v>146</v>
+      </c>
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68" t="s">
+        <v>79</v>
+      </c>
+      <c r="J68" t="s">
+        <v>147</v>
+      </c>
+      <c r="K68" t="s">
+        <v>46</v>
+      </c>
+      <c r="L68" t="s">
+        <v>46</v>
+      </c>
+      <c r="M68" t="s">
+        <v>46</v>
+      </c>
+      <c r="N68" t="s">
+        <v>49</v>
+      </c>
+      <c r="O68" t="s">
+        <v>49</v>
+      </c>
+      <c r="P68" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="A69">
+        <v>48</v>
+      </c>
+      <c r="B69" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" t="s">
+        <v>20</v>
+      </c>
+      <c r="D69" t="s">
+        <v>41</v>
+      </c>
+      <c r="E69" t="s">
+        <v>50</v>
+      </c>
+      <c r="F69" t="s">
+        <v>148</v>
+      </c>
+      <c r="G69"/>
+      <c r="H69"/>
+      <c r="I69" t="s">
+        <v>44</v>
+      </c>
+      <c r="J69" t="s">
+        <v>149</v>
+      </c>
+      <c r="K69" t="s">
+        <v>46</v>
+      </c>
+      <c r="L69" t="s">
+        <v>46</v>
+      </c>
+      <c r="M69" t="s">
+        <v>46</v>
+      </c>
+      <c r="N69" t="s">
+        <v>49</v>
+      </c>
+      <c r="O69" t="s">
+        <v>49</v>
+      </c>
+      <c r="P69" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="A70">
+        <v>378</v>
+      </c>
+      <c r="B70" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70" t="s">
+        <v>41</v>
+      </c>
+      <c r="E70" t="s">
+        <v>81</v>
+      </c>
+      <c r="F70" t="s">
+        <v>150</v>
+      </c>
+      <c r="G70"/>
+      <c r="H70"/>
+      <c r="I70">
+        <v>800</v>
+      </c>
+      <c r="J70" t="s">
+        <v>151</v>
+      </c>
+      <c r="K70" t="s">
+        <v>46</v>
+      </c>
+      <c r="L70" t="s">
+        <v>46</v>
+      </c>
+      <c r="M70" t="s">
+        <v>46</v>
+      </c>
+      <c r="N70" t="s">
+        <v>49</v>
+      </c>
+      <c r="O70" t="s">
+        <v>49</v>
+      </c>
+      <c r="P70" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="A71">
+        <v>463</v>
+      </c>
+      <c r="B71" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71" t="s">
+        <v>20</v>
+      </c>
+      <c r="D71" t="s">
+        <v>41</v>
+      </c>
+      <c r="E71" t="s">
+        <v>81</v>
+      </c>
+      <c r="F71" t="s">
+        <v>152</v>
+      </c>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71">
+        <v>800</v>
+      </c>
+      <c r="J71" t="s">
+        <v>153</v>
+      </c>
+      <c r="K71" t="s">
+        <v>46</v>
+      </c>
+      <c r="L71" t="s">
+        <v>46</v>
+      </c>
+      <c r="M71" t="s">
+        <v>46</v>
+      </c>
+      <c r="N71" t="s">
+        <v>49</v>
+      </c>
+      <c r="O71" t="s">
+        <v>49</v>
+      </c>
+      <c r="P71" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72">
+        <v>388</v>
+      </c>
+      <c r="B72" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72" t="s">
+        <v>41</v>
+      </c>
+      <c r="E72" t="s">
+        <v>81</v>
+      </c>
+      <c r="F72" t="s">
+        <v>154</v>
+      </c>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72">
+        <v>800</v>
+      </c>
+      <c r="J72" t="s">
+        <v>155</v>
+      </c>
+      <c r="K72" t="s">
+        <v>47</v>
+      </c>
+      <c r="L72" t="s">
+        <v>46</v>
+      </c>
+      <c r="M72" t="s">
+        <v>46</v>
+      </c>
+      <c r="N72" t="s">
+        <v>49</v>
+      </c>
+      <c r="O72" t="s">
+        <v>49</v>
+      </c>
+      <c r="P72" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="A73">
+        <v>465</v>
+      </c>
+      <c r="B73" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" t="s">
+        <v>41</v>
+      </c>
+      <c r="E73" t="s">
+        <v>81</v>
+      </c>
+      <c r="F73" t="s">
+        <v>156</v>
+      </c>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73">
+        <v>800</v>
+      </c>
+      <c r="J73" t="s">
+        <v>157</v>
+      </c>
+      <c r="K73" t="s">
+        <v>47</v>
+      </c>
+      <c r="L73" t="s">
+        <v>46</v>
+      </c>
+      <c r="M73" t="s">
+        <v>46</v>
+      </c>
+      <c r="N73" t="s">
+        <v>49</v>
+      </c>
+      <c r="O73" t="s">
+        <v>49</v>
+      </c>
+      <c r="P73" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="A74">
+        <v>495</v>
+      </c>
+      <c r="B74" t="s">
+        <v>19</v>
+      </c>
+      <c r="C74" t="s">
+        <v>20</v>
+      </c>
+      <c r="D74" t="s">
+        <v>41</v>
+      </c>
+      <c r="E74" t="s">
+        <v>81</v>
+      </c>
+      <c r="F74" t="s">
+        <v>158</v>
+      </c>
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="I74">
+        <v>800</v>
+      </c>
+      <c r="J74" t="s">
+        <v>159</v>
+      </c>
+      <c r="K74" t="s">
+        <v>46</v>
+      </c>
+      <c r="L74" t="s">
+        <v>46</v>
+      </c>
+      <c r="M74" t="s">
+        <v>46</v>
+      </c>
+      <c r="N74" t="s">
+        <v>49</v>
+      </c>
+      <c r="O74" t="s">
+        <v>49</v>
+      </c>
+      <c r="P74" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
+      <c r="A75">
+        <v>231</v>
+      </c>
+      <c r="B75" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75" t="s">
+        <v>20</v>
+      </c>
+      <c r="D75" t="s">
+        <v>41</v>
+      </c>
+      <c r="E75" t="s">
+        <v>72</v>
+      </c>
+      <c r="F75" t="s">
+        <v>160</v>
+      </c>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75">
+        <v>800</v>
+      </c>
+      <c r="J75" t="s">
+        <v>161</v>
+      </c>
+      <c r="K75" t="s">
+        <v>46</v>
+      </c>
+      <c r="L75" t="s">
+        <v>46</v>
+      </c>
+      <c r="M75" t="s">
+        <v>46</v>
+      </c>
+      <c r="N75" t="s">
+        <v>49</v>
+      </c>
+      <c r="O75" t="s">
+        <v>49</v>
+      </c>
+      <c r="P75" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="A76">
+        <v>987</v>
+      </c>
+      <c r="B76" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76" t="s">
+        <v>20</v>
+      </c>
+      <c r="D76" t="s">
+        <v>41</v>
+      </c>
+      <c r="E76" t="s">
+        <v>162</v>
+      </c>
+      <c r="F76" t="s">
+        <v>163</v>
+      </c>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76">
+        <v>400</v>
+      </c>
+      <c r="J76" t="s">
+        <v>164</v>
+      </c>
+      <c r="K76" t="s">
+        <v>47</v>
+      </c>
+      <c r="L76" t="s">
+        <v>47</v>
+      </c>
+      <c r="M76" t="s">
+        <v>47</v>
+      </c>
+      <c r="N76" t="s">
+        <v>165</v>
+      </c>
+      <c r="O76" t="s">
+        <v>55</v>
+      </c>
+      <c r="P76" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
+      <c r="A77">
+        <v>988</v>
+      </c>
+      <c r="B77" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77" t="s">
+        <v>20</v>
+      </c>
+      <c r="D77" t="s">
+        <v>41</v>
+      </c>
+      <c r="E77" t="s">
+        <v>162</v>
+      </c>
+      <c r="F77" t="s">
+        <v>166</v>
+      </c>
+      <c r="G77"/>
+      <c r="H77"/>
+      <c r="I77">
+        <v>400</v>
+      </c>
+      <c r="J77" t="s">
+        <v>167</v>
+      </c>
+      <c r="K77" t="s">
+        <v>47</v>
+      </c>
+      <c r="L77" t="s">
+        <v>47</v>
+      </c>
+      <c r="M77" t="s">
+        <v>47</v>
+      </c>
+      <c r="N77" t="s">
+        <v>165</v>
+      </c>
+      <c r="O77" t="s">
+        <v>55</v>
+      </c>
+      <c r="P77" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/public/assets/updated-excels/qr-feeder-pillar.xlsx
+++ b/public/assets/updated-excels/qr-feeder-pillar.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="137">
   <si>
     <t>Pintu</t>
   </si>
@@ -74,112 +74,358 @@
     <t>Pembersihan Iklan haram/ banner</t>
   </si>
   <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>KLANG</t>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>PETALING JAYA</t>
   </si>
   <si>
     <t>aero</t>
   </si>
   <si>
+    <t>2023-12-07</t>
+  </si>
+  <si>
+    <t>10:09:21</t>
+  </si>
+  <si>
+    <t>400A</t>
+  </si>
+  <si>
+    <t>101.63597071543336 , 3.0880909123173943</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>tidak</t>
+  </si>
+  <si>
     <t>2023-12-08</t>
   </si>
   <si>
-    <t>12:50:44</t>
-  </si>
-  <si>
-    <t>1600A</t>
-  </si>
-  <si>
-    <t>101.42582902684808 , 3.1871105506302753</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>tidak</t>
-  </si>
-  <si>
-    <t>15:36:36</t>
+    <t>10:57:37</t>
+  </si>
+  <si>
+    <t>101.59968579187989 , 3.103458297970228</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>10:11:15</t>
+  </si>
+  <si>
+    <t>101.63588119670749 , 3.088123386886883</t>
+  </si>
+  <si>
+    <t>11:06:33</t>
+  </si>
+  <si>
+    <t>101.62936242297292 , 3.0967445100578814</t>
+  </si>
+  <si>
+    <t>11:50:46</t>
+  </si>
+  <si>
+    <t>101.6308674775064 , 3.1001365612368894</t>
+  </si>
+  <si>
+    <t>17:19:29</t>
+  </si>
+  <si>
+    <t>101.65671223774552 , 3.080370978555514</t>
+  </si>
+  <si>
+    <t>ya</t>
+  </si>
+  <si>
+    <t>2023-12-12</t>
+  </si>
+  <si>
+    <t>01:53:16</t>
+  </si>
+  <si>
+    <t>101.2589973025024 , 3.337403718175246</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>09:56:49</t>
+  </si>
+  <si>
+    <t>101.65051432326436 , 3.0901883648033985</t>
+  </si>
+  <si>
+    <t>09:53:09</t>
+  </si>
+  <si>
+    <t>101.64815666154027 , 3.0876061372691885</t>
+  </si>
+  <si>
+    <t>11:04:47</t>
+  </si>
+  <si>
+    <t>101.64604676887393 , 3.099728122923544</t>
+  </si>
+  <si>
+    <t>10:47:29</t>
+  </si>
+  <si>
+    <t>101.64586404338479 , 3.097954427856548</t>
+  </si>
+  <si>
+    <t>10:30:10</t>
+  </si>
+  <si>
+    <t>101.64322977885604 , 3.097221245612981</t>
+  </si>
+  <si>
+    <t>10:52:48</t>
+  </si>
+  <si>
+    <t>101.59934816882014 , 3.1034479196533935</t>
+  </si>
+  <si>
+    <t>15:18:16</t>
+  </si>
+  <si>
+    <t>101.64983069524169 , 3.1037284686040976</t>
+  </si>
+  <si>
+    <t>15:44:48</t>
+  </si>
+  <si>
+    <t>101.65829105302691 , 3.103334761129044</t>
+  </si>
+  <si>
+    <t>15:39:50</t>
+  </si>
+  <si>
+    <t>101.65643496438861 , 3.1050334561880657</t>
+  </si>
+  <si>
+    <t>15:10:03</t>
+  </si>
+  <si>
+    <t>101.65034031495452 , 3.101578816298656</t>
+  </si>
+  <si>
+    <t>17:04:32</t>
+  </si>
+  <si>
+    <t>101.65139576420188 , 3.0787077320134646</t>
+  </si>
+  <si>
+    <t>17:11:48</t>
+  </si>
+  <si>
+    <t>101.65092403069139 , 3.078717775780774</t>
+  </si>
+  <si>
+    <t>17:09:17</t>
+  </si>
+  <si>
+    <t>101.65097231045365 , 3.0787696683107555</t>
+  </si>
+  <si>
+    <t>17:03:19</t>
+  </si>
+  <si>
+    <t>101.65179239585996 , 3.0786996970000997</t>
+  </si>
+  <si>
+    <t>17:06:13</t>
+  </si>
+  <si>
+    <t>101.65113994851708 , 3.0787515895971147</t>
+  </si>
+  <si>
+    <t>16:28:59</t>
+  </si>
+  <si>
+    <t>101.6540883667767 , 3.101556720355413</t>
+  </si>
+  <si>
+    <t>10:23:29</t>
   </si>
   <si>
     <t>800A</t>
   </si>
   <si>
-    <t>101.41674304381013 , 3.1733475716637285</t>
-  </si>
-  <si>
-    <t>16:32:36</t>
-  </si>
-  <si>
-    <t>400A</t>
-  </si>
-  <si>
-    <t>101.41586998477578 , 3.1829116770370947</t>
-  </si>
-  <si>
-    <t>17:24:10</t>
-  </si>
-  <si>
-    <t>101.42642548307776 , 3.162073393785821</t>
-  </si>
-  <si>
-    <t>16:37:19</t>
-  </si>
-  <si>
-    <t>101.41647985205054 , 3.1830044012638368</t>
-  </si>
-  <si>
-    <t>16:20:14</t>
-  </si>
-  <si>
-    <t>101.41523296013474 , 3.1830100941108377</t>
-  </si>
-  <si>
-    <t>16:17:05</t>
-  </si>
-  <si>
-    <t>101.41507202759385 , 3.1829150263312957</t>
-  </si>
-  <si>
-    <t>16:01:26</t>
-  </si>
-  <si>
-    <t>101.41385765746236 , 3.1719609864710208</t>
-  </si>
-  <si>
-    <t>14:09:17</t>
-  </si>
-  <si>
-    <t>101.42915463075042 , 3.175529213457761</t>
-  </si>
-  <si>
-    <t>ya</t>
-  </si>
-  <si>
-    <t>13:54:58</t>
-  </si>
-  <si>
-    <t>101.42927264794707 , 3.1755362430590903</t>
-  </si>
-  <si>
-    <t>13:12:13</t>
-  </si>
-  <si>
-    <t>101.42585886642337 , 3.186536776314854</t>
-  </si>
-  <si>
-    <t>13:02:06</t>
-  </si>
-  <si>
-    <t>101.42648147419095 , 3.18701815822955</t>
-  </si>
-  <si>
-    <t>11:20:49</t>
-  </si>
-  <si>
-    <t>101.4494981803 , 3.177454083372092</t>
+    <t>101.11554941162467 , 3.487189056836293</t>
+  </si>
+  <si>
+    <t>11:26:06</t>
+  </si>
+  <si>
+    <t>101.5969361923635 , 3.1149708015572135</t>
+  </si>
+  <si>
+    <t>12:34:46</t>
+  </si>
+  <si>
+    <t>101.6002088226378 , 3.1188026951384233</t>
+  </si>
+  <si>
+    <t>12:32:50</t>
+  </si>
+  <si>
+    <t>101.60028928890824 , 3.11919773492193</t>
+  </si>
+  <si>
+    <t>12:31:24</t>
+  </si>
+  <si>
+    <t>101.60016322508454 , 3.1192636864626815</t>
+  </si>
+  <si>
+    <t>12:30:20</t>
+  </si>
+  <si>
+    <t>101.6002275981009 , 3.119197065342304</t>
+  </si>
+  <si>
+    <t>12:25:37</t>
+  </si>
+  <si>
+    <t>101.60007974132895 , 3.119940944973674</t>
+  </si>
+  <si>
+    <t>12:22:56</t>
+  </si>
+  <si>
+    <t>101.60010723397136 , 3.1199617012824308</t>
+  </si>
+  <si>
+    <t>12:23:58</t>
+  </si>
+  <si>
+    <t>101.60010790452361 , 3.119985805382399</t>
+  </si>
+  <si>
+    <t>12:16:19</t>
+  </si>
+  <si>
+    <t>101.59925563260913 , 3.11721617370885</t>
+  </si>
+  <si>
+    <t>12:00:19</t>
+  </si>
+  <si>
+    <t>101.59584553912282 , 3.1190557884428465</t>
+  </si>
+  <si>
+    <t>11:17:54</t>
+  </si>
+  <si>
+    <t>101.59593204036355 , 3.1109935986386006</t>
+  </si>
+  <si>
+    <t>11:12:18</t>
+  </si>
+  <si>
+    <t>101.59542912617326 , 3.1105865036131934</t>
+  </si>
+  <si>
+    <t>11:11:09</t>
+  </si>
+  <si>
+    <t>101.59540163353086 , 3.1105972166419855</t>
+  </si>
+  <si>
+    <t>16:53:30</t>
+  </si>
+  <si>
+    <t>101.60572512075305 , 3.1320133474364886</t>
+  </si>
+  <si>
+    <t>16:00:31</t>
+  </si>
+  <si>
+    <t>101.59857703372836 , 3.120557942800417</t>
+  </si>
+  <si>
+    <t>16:50:46</t>
+  </si>
+  <si>
+    <t>101.60382511094213 , 3.132087332780289</t>
+  </si>
+  <si>
+    <t>16:46:12</t>
+  </si>
+  <si>
+    <t>101.60484401509166 , 3.130915618572379</t>
+  </si>
+  <si>
+    <t>16:38:41</t>
+  </si>
+  <si>
+    <t>101.60503646358848 , 3.12789895061948</t>
+  </si>
+  <si>
+    <t>15:58:57</t>
+  </si>
+  <si>
+    <t>101.59850226715207 , 3.1199151669246548</t>
+  </si>
+  <si>
+    <t>16:54:14</t>
+  </si>
+  <si>
+    <t>101.60650698468089 , 3.131966813680054</t>
+  </si>
+  <si>
+    <t>16:47:49</t>
+  </si>
+  <si>
+    <t>101.60375704988837 , 3.13092365318855</t>
+  </si>
+  <si>
+    <t>16:10:52</t>
+  </si>
+  <si>
+    <t>101.60029565915465 , 3.121930200932917</t>
+  </si>
+  <si>
+    <t>17:11:23</t>
+  </si>
+  <si>
+    <t>101.61265259608626 , 3.136019261294715</t>
+  </si>
+  <si>
+    <t>2023-12-13</t>
+  </si>
+  <si>
+    <t>09:58:22</t>
+  </si>
+  <si>
+    <t>101.5870619751513 , 3.093429113787373</t>
+  </si>
+  <si>
+    <t>09:56:34</t>
+  </si>
+  <si>
+    <t>101.58705761656165 , 3.0933906132144537</t>
+  </si>
+  <si>
+    <t>10:01:07</t>
+  </si>
+  <si>
+    <t>101.58627977594733 , 3.093024355427752</t>
+  </si>
+  <si>
+    <t>09:59:23</t>
+  </si>
+  <si>
+    <t>101.58665327355266 , 3.0932356065392685</t>
+  </si>
+  <si>
+    <t>09:58:21</t>
+  </si>
+  <si>
+    <t>101.58667305484414 , 3.093239623991007</t>
   </si>
 </sst>
 </file>
@@ -593,7 +839,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="H1" sqref="H1:H1048576"/>
@@ -746,21 +992,21 @@
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J4" t="s">
         <v>30</v>
       </c>
       <c r="K4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
@@ -798,12 +1044,12 @@
         <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J5" t="s">
         <v>33</v>
@@ -901,7 +1147,7 @@
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J7" t="s">
         <v>37</v>
@@ -950,7 +1196,7 @@
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J8" t="s">
         <v>39</v>
@@ -971,7 +1217,7 @@
         <v>27</v>
       </c>
       <c r="P8" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="Q8" t="s">
         <v>27</v>
@@ -991,39 +1237,39 @@
         <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="L9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M9" t="s">
         <v>26</v>
       </c>
       <c r="N9" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="O9" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="P9" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="Q9" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1040,18 +1286,18 @@
         <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K10" t="s">
         <v>26</v>
@@ -1089,18 +1335,18 @@
         <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K11" t="s">
         <v>26</v>
@@ -1118,7 +1364,7 @@
         <v>27</v>
       </c>
       <c r="P11" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="Q11" t="s">
         <v>27</v>
@@ -1138,18 +1384,18 @@
         <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K12" t="s">
         <v>26</v>
@@ -1187,18 +1433,18 @@
         <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G13"/>
       <c r="H13"/>
       <c r="I13" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K13" t="s">
         <v>26</v>
@@ -1236,18 +1482,18 @@
         <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K14" t="s">
         <v>26</v>
@@ -1285,38 +1531,1949 @@
         <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G15"/>
       <c r="H15"/>
       <c r="I15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" t="s">
+        <v>40</v>
+      </c>
+      <c r="O15" t="s">
+        <v>27</v>
+      </c>
+      <c r="P15" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" t="s">
+        <v>58</v>
+      </c>
+      <c r="K16" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16" t="s">
+        <v>27</v>
+      </c>
+      <c r="O16" t="s">
+        <v>27</v>
+      </c>
+      <c r="P16" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" t="s">
+        <v>60</v>
+      </c>
+      <c r="K17" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" t="s">
+        <v>27</v>
+      </c>
+      <c r="O17" t="s">
+        <v>27</v>
+      </c>
+      <c r="P17" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" t="s">
+        <v>62</v>
+      </c>
+      <c r="K18" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" t="s">
+        <v>27</v>
+      </c>
+      <c r="O18" t="s">
+        <v>27</v>
+      </c>
+      <c r="P18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" t="s">
+        <v>64</v>
+      </c>
+      <c r="K19" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" t="s">
+        <v>26</v>
+      </c>
+      <c r="M19" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19" t="s">
+        <v>27</v>
+      </c>
+      <c r="O19" t="s">
+        <v>27</v>
+      </c>
+      <c r="P19" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" t="s">
+        <v>66</v>
+      </c>
+      <c r="K20" t="s">
+        <v>26</v>
+      </c>
+      <c r="L20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20" t="s">
+        <v>26</v>
+      </c>
+      <c r="N20" t="s">
+        <v>27</v>
+      </c>
+      <c r="O20" t="s">
+        <v>27</v>
+      </c>
+      <c r="P20" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" t="s">
+        <v>68</v>
+      </c>
+      <c r="K21" t="s">
+        <v>26</v>
+      </c>
+      <c r="L21" t="s">
+        <v>31</v>
+      </c>
+      <c r="M21" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21" t="s">
+        <v>27</v>
+      </c>
+      <c r="O21" t="s">
+        <v>27</v>
+      </c>
+      <c r="P21" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" t="s">
+        <v>70</v>
+      </c>
+      <c r="K22" t="s">
+        <v>31</v>
+      </c>
+      <c r="L22" t="s">
+        <v>26</v>
+      </c>
+      <c r="M22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N22" t="s">
+        <v>27</v>
+      </c>
+      <c r="O22" t="s">
+        <v>27</v>
+      </c>
+      <c r="P22" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" t="s">
+        <v>72</v>
+      </c>
+      <c r="K23" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" t="s">
+        <v>26</v>
+      </c>
+      <c r="M23" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23" t="s">
+        <v>27</v>
+      </c>
+      <c r="O23" t="s">
+        <v>27</v>
+      </c>
+      <c r="P23" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" t="s">
+        <v>74</v>
+      </c>
+      <c r="K24" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" t="s">
+        <v>26</v>
+      </c>
+      <c r="M24" t="s">
+        <v>26</v>
+      </c>
+      <c r="N24" t="s">
+        <v>27</v>
+      </c>
+      <c r="O24" t="s">
+        <v>27</v>
+      </c>
+      <c r="P24" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" t="s">
+        <v>75</v>
+      </c>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" t="s">
+        <v>76</v>
+      </c>
+      <c r="K25" t="s">
+        <v>26</v>
+      </c>
+      <c r="L25" t="s">
+        <v>26</v>
+      </c>
+      <c r="M25" t="s">
+        <v>26</v>
+      </c>
+      <c r="N25" t="s">
+        <v>27</v>
+      </c>
+      <c r="O25" t="s">
+        <v>27</v>
+      </c>
+      <c r="P25" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26" t="s">
+        <v>78</v>
+      </c>
+      <c r="J26" t="s">
+        <v>79</v>
+      </c>
+      <c r="K26" t="s">
+        <v>31</v>
+      </c>
+      <c r="L26" t="s">
+        <v>26</v>
+      </c>
+      <c r="M26" t="s">
+        <v>26</v>
+      </c>
+      <c r="N26" t="s">
+        <v>44</v>
+      </c>
+      <c r="O26" t="s">
+        <v>44</v>
+      </c>
+      <c r="P26" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" t="s">
+        <v>80</v>
+      </c>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27" t="s">
+        <v>81</v>
+      </c>
+      <c r="K27" t="s">
+        <v>26</v>
+      </c>
+      <c r="L27" t="s">
+        <v>26</v>
+      </c>
+      <c r="M27" t="s">
+        <v>26</v>
+      </c>
+      <c r="N27" t="s">
+        <v>27</v>
+      </c>
+      <c r="O27" t="s">
+        <v>27</v>
+      </c>
+      <c r="P27" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" t="s">
+        <v>82</v>
+      </c>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" t="s">
+        <v>83</v>
+      </c>
+      <c r="K28" t="s">
+        <v>26</v>
+      </c>
+      <c r="L28" t="s">
+        <v>26</v>
+      </c>
+      <c r="M28" t="s">
+        <v>31</v>
+      </c>
+      <c r="N28" t="s">
+        <v>27</v>
+      </c>
+      <c r="O28" t="s">
+        <v>27</v>
+      </c>
+      <c r="P28" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" t="s">
+        <v>84</v>
+      </c>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" t="s">
+        <v>85</v>
+      </c>
+      <c r="K29" t="s">
+        <v>26</v>
+      </c>
+      <c r="L29" t="s">
+        <v>26</v>
+      </c>
+      <c r="M29" t="s">
+        <v>26</v>
+      </c>
+      <c r="N29" t="s">
+        <v>27</v>
+      </c>
+      <c r="O29" t="s">
+        <v>27</v>
+      </c>
+      <c r="P29" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" t="s">
+        <v>86</v>
+      </c>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" t="s">
+        <v>87</v>
+      </c>
+      <c r="K30" t="s">
+        <v>26</v>
+      </c>
+      <c r="L30" t="s">
+        <v>26</v>
+      </c>
+      <c r="M30" t="s">
+        <v>26</v>
+      </c>
+      <c r="N30" t="s">
+        <v>27</v>
+      </c>
+      <c r="O30" t="s">
+        <v>27</v>
+      </c>
+      <c r="P30" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" t="s">
+        <v>88</v>
+      </c>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31" t="s">
+        <v>89</v>
+      </c>
+      <c r="K31" t="s">
+        <v>26</v>
+      </c>
+      <c r="L31" t="s">
+        <v>26</v>
+      </c>
+      <c r="M31" t="s">
+        <v>26</v>
+      </c>
+      <c r="N31" t="s">
+        <v>27</v>
+      </c>
+      <c r="O31" t="s">
+        <v>27</v>
+      </c>
+      <c r="P31" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32">
         <v>29</v>
       </c>
-      <c r="J15" t="s">
-        <v>54</v>
-      </c>
-      <c r="K15" t="s">
-        <v>26</v>
-      </c>
-      <c r="L15" t="s">
-        <v>26</v>
-      </c>
-      <c r="M15" t="s">
-        <v>26</v>
-      </c>
-      <c r="N15" t="s">
-        <v>27</v>
-      </c>
-      <c r="O15" t="s">
-        <v>27</v>
-      </c>
-      <c r="P15" t="s">
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" t="s">
+        <v>90</v>
+      </c>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32" t="s">
+        <v>91</v>
+      </c>
+      <c r="K32" t="s">
+        <v>26</v>
+      </c>
+      <c r="L32" t="s">
+        <v>26</v>
+      </c>
+      <c r="M32" t="s">
+        <v>31</v>
+      </c>
+      <c r="N32" t="s">
+        <v>27</v>
+      </c>
+      <c r="O32" t="s">
+        <v>27</v>
+      </c>
+      <c r="P32" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" t="s">
+        <v>92</v>
+      </c>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33" t="s">
+        <v>24</v>
+      </c>
+      <c r="J33" t="s">
+        <v>93</v>
+      </c>
+      <c r="K33" t="s">
+        <v>26</v>
+      </c>
+      <c r="L33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M33" t="s">
+        <v>26</v>
+      </c>
+      <c r="N33" t="s">
+        <v>27</v>
+      </c>
+      <c r="O33" t="s">
+        <v>27</v>
+      </c>
+      <c r="P33" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" t="s">
+        <v>94</v>
+      </c>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J34" t="s">
+        <v>95</v>
+      </c>
+      <c r="K34" t="s">
+        <v>26</v>
+      </c>
+      <c r="L34" t="s">
+        <v>26</v>
+      </c>
+      <c r="M34" t="s">
+        <v>26</v>
+      </c>
+      <c r="N34" t="s">
+        <v>27</v>
+      </c>
+      <c r="O34" t="s">
+        <v>27</v>
+      </c>
+      <c r="P34" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" t="s">
+        <v>96</v>
+      </c>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35" t="s">
+        <v>24</v>
+      </c>
+      <c r="J35" t="s">
+        <v>97</v>
+      </c>
+      <c r="K35" t="s">
+        <v>26</v>
+      </c>
+      <c r="L35" t="s">
+        <v>26</v>
+      </c>
+      <c r="M35" t="s">
+        <v>26</v>
+      </c>
+      <c r="N35" t="s">
+        <v>27</v>
+      </c>
+      <c r="O35" t="s">
+        <v>27</v>
+      </c>
+      <c r="P35" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" t="s">
+        <v>41</v>
+      </c>
+      <c r="F36" t="s">
+        <v>98</v>
+      </c>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36" t="s">
+        <v>24</v>
+      </c>
+      <c r="J36" t="s">
+        <v>99</v>
+      </c>
+      <c r="K36" t="s">
+        <v>26</v>
+      </c>
+      <c r="L36" t="s">
+        <v>26</v>
+      </c>
+      <c r="M36" t="s">
+        <v>26</v>
+      </c>
+      <c r="N36" t="s">
+        <v>27</v>
+      </c>
+      <c r="O36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P36" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" t="s">
+        <v>41</v>
+      </c>
+      <c r="F37" t="s">
+        <v>100</v>
+      </c>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" t="s">
+        <v>101</v>
+      </c>
+      <c r="K37" t="s">
+        <v>26</v>
+      </c>
+      <c r="L37" t="s">
+        <v>26</v>
+      </c>
+      <c r="M37" t="s">
+        <v>26</v>
+      </c>
+      <c r="N37" t="s">
+        <v>27</v>
+      </c>
+      <c r="O37" t="s">
+        <v>27</v>
+      </c>
+      <c r="P37" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" t="s">
+        <v>102</v>
+      </c>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38" t="s">
+        <v>24</v>
+      </c>
+      <c r="J38" t="s">
+        <v>103</v>
+      </c>
+      <c r="K38" t="s">
+        <v>31</v>
+      </c>
+      <c r="L38" t="s">
+        <v>26</v>
+      </c>
+      <c r="M38" t="s">
+        <v>26</v>
+      </c>
+      <c r="N38" t="s">
+        <v>27</v>
+      </c>
+      <c r="O38" t="s">
+        <v>27</v>
+      </c>
+      <c r="P38" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" t="s">
+        <v>104</v>
+      </c>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39" t="s">
+        <v>24</v>
+      </c>
+      <c r="J39" t="s">
+        <v>105</v>
+      </c>
+      <c r="K39" t="s">
+        <v>26</v>
+      </c>
+      <c r="L39" t="s">
+        <v>26</v>
+      </c>
+      <c r="M39" t="s">
+        <v>26</v>
+      </c>
+      <c r="N39" t="s">
+        <v>27</v>
+      </c>
+      <c r="O39" t="s">
+        <v>27</v>
+      </c>
+      <c r="P39" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" t="s">
+        <v>41</v>
+      </c>
+      <c r="F40" t="s">
+        <v>106</v>
+      </c>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40" t="s">
+        <v>24</v>
+      </c>
+      <c r="J40" t="s">
+        <v>107</v>
+      </c>
+      <c r="K40" t="s">
+        <v>26</v>
+      </c>
+      <c r="L40" t="s">
+        <v>26</v>
+      </c>
+      <c r="M40" t="s">
+        <v>26</v>
+      </c>
+      <c r="N40" t="s">
+        <v>27</v>
+      </c>
+      <c r="O40" t="s">
+        <v>27</v>
+      </c>
+      <c r="P40" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" t="s">
+        <v>41</v>
+      </c>
+      <c r="F41" t="s">
+        <v>108</v>
+      </c>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41" t="s">
+        <v>24</v>
+      </c>
+      <c r="J41" t="s">
+        <v>109</v>
+      </c>
+      <c r="K41" t="s">
+        <v>26</v>
+      </c>
+      <c r="L41" t="s">
+        <v>26</v>
+      </c>
+      <c r="M41" t="s">
+        <v>26</v>
+      </c>
+      <c r="N41" t="s">
+        <v>27</v>
+      </c>
+      <c r="O41" t="s">
+        <v>27</v>
+      </c>
+      <c r="P41" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" t="s">
+        <v>41</v>
+      </c>
+      <c r="F42" t="s">
+        <v>110</v>
+      </c>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42" t="s">
+        <v>24</v>
+      </c>
+      <c r="J42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K42" t="s">
+        <v>31</v>
+      </c>
+      <c r="L42" t="s">
+        <v>26</v>
+      </c>
+      <c r="M42" t="s">
+        <v>26</v>
+      </c>
+      <c r="N42" t="s">
+        <v>27</v>
+      </c>
+      <c r="O42" t="s">
+        <v>27</v>
+      </c>
+      <c r="P42" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" t="s">
+        <v>41</v>
+      </c>
+      <c r="F43" t="s">
+        <v>112</v>
+      </c>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43" t="s">
+        <v>24</v>
+      </c>
+      <c r="J43" t="s">
+        <v>113</v>
+      </c>
+      <c r="K43" t="s">
+        <v>26</v>
+      </c>
+      <c r="L43" t="s">
+        <v>26</v>
+      </c>
+      <c r="M43" t="s">
+        <v>26</v>
+      </c>
+      <c r="N43" t="s">
+        <v>27</v>
+      </c>
+      <c r="O43" t="s">
+        <v>27</v>
+      </c>
+      <c r="P43" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="B44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" t="s">
+        <v>41</v>
+      </c>
+      <c r="F44" t="s">
+        <v>114</v>
+      </c>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44" t="s">
+        <v>24</v>
+      </c>
+      <c r="J44" t="s">
+        <v>115</v>
+      </c>
+      <c r="K44" t="s">
+        <v>26</v>
+      </c>
+      <c r="L44" t="s">
+        <v>26</v>
+      </c>
+      <c r="M44" t="s">
+        <v>26</v>
+      </c>
+      <c r="N44" t="s">
+        <v>27</v>
+      </c>
+      <c r="O44" t="s">
+        <v>27</v>
+      </c>
+      <c r="P44" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="B45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" t="s">
+        <v>41</v>
+      </c>
+      <c r="F45" t="s">
+        <v>116</v>
+      </c>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45" t="s">
+        <v>24</v>
+      </c>
+      <c r="J45" t="s">
+        <v>117</v>
+      </c>
+      <c r="K45" t="s">
+        <v>26</v>
+      </c>
+      <c r="L45" t="s">
+        <v>26</v>
+      </c>
+      <c r="M45" t="s">
+        <v>26</v>
+      </c>
+      <c r="N45" t="s">
+        <v>27</v>
+      </c>
+      <c r="O45" t="s">
+        <v>27</v>
+      </c>
+      <c r="P45" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="B46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" t="s">
+        <v>41</v>
+      </c>
+      <c r="F46" t="s">
+        <v>118</v>
+      </c>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J46" t="s">
+        <v>119</v>
+      </c>
+      <c r="K46" t="s">
+        <v>26</v>
+      </c>
+      <c r="L46" t="s">
+        <v>26</v>
+      </c>
+      <c r="M46" t="s">
+        <v>26</v>
+      </c>
+      <c r="N46" t="s">
+        <v>27</v>
+      </c>
+      <c r="O46" t="s">
+        <v>27</v>
+      </c>
+      <c r="P46" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47">
+        <v>44</v>
+      </c>
+      <c r="B47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" t="s">
+        <v>41</v>
+      </c>
+      <c r="F47" t="s">
+        <v>120</v>
+      </c>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47" t="s">
+        <v>24</v>
+      </c>
+      <c r="J47" t="s">
+        <v>121</v>
+      </c>
+      <c r="K47" t="s">
+        <v>26</v>
+      </c>
+      <c r="L47" t="s">
+        <v>26</v>
+      </c>
+      <c r="M47" t="s">
+        <v>26</v>
+      </c>
+      <c r="N47" t="s">
+        <v>27</v>
+      </c>
+      <c r="O47" t="s">
+        <v>27</v>
+      </c>
+      <c r="P47" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="B48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" t="s">
+        <v>41</v>
+      </c>
+      <c r="F48" t="s">
+        <v>122</v>
+      </c>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48" t="s">
+        <v>24</v>
+      </c>
+      <c r="J48" t="s">
+        <v>123</v>
+      </c>
+      <c r="K48" t="s">
+        <v>26</v>
+      </c>
+      <c r="L48" t="s">
+        <v>26</v>
+      </c>
+      <c r="M48" t="s">
+        <v>26</v>
+      </c>
+      <c r="N48" t="s">
+        <v>27</v>
+      </c>
+      <c r="O48" t="s">
+        <v>27</v>
+      </c>
+      <c r="P48" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49">
         <v>46</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="B49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" t="s">
+        <v>41</v>
+      </c>
+      <c r="F49" t="s">
+        <v>124</v>
+      </c>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49" t="s">
+        <v>24</v>
+      </c>
+      <c r="J49" t="s">
+        <v>125</v>
+      </c>
+      <c r="K49" t="s">
+        <v>26</v>
+      </c>
+      <c r="L49" t="s">
+        <v>26</v>
+      </c>
+      <c r="M49" t="s">
+        <v>26</v>
+      </c>
+      <c r="N49" t="s">
+        <v>27</v>
+      </c>
+      <c r="O49" t="s">
+        <v>27</v>
+      </c>
+      <c r="P49" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50">
+        <v>47</v>
+      </c>
+      <c r="B50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" t="s">
+        <v>126</v>
+      </c>
+      <c r="F50" t="s">
+        <v>127</v>
+      </c>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50" t="s">
+        <v>24</v>
+      </c>
+      <c r="J50" t="s">
+        <v>128</v>
+      </c>
+      <c r="K50" t="s">
+        <v>31</v>
+      </c>
+      <c r="L50" t="s">
+        <v>26</v>
+      </c>
+      <c r="M50" t="s">
+        <v>26</v>
+      </c>
+      <c r="N50" t="s">
+        <v>27</v>
+      </c>
+      <c r="O50" t="s">
+        <v>27</v>
+      </c>
+      <c r="P50" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51">
+        <v>48</v>
+      </c>
+      <c r="B51" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" t="s">
+        <v>126</v>
+      </c>
+      <c r="F51" t="s">
+        <v>129</v>
+      </c>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51" t="s">
+        <v>24</v>
+      </c>
+      <c r="J51" t="s">
+        <v>130</v>
+      </c>
+      <c r="K51" t="s">
+        <v>31</v>
+      </c>
+      <c r="L51" t="s">
+        <v>26</v>
+      </c>
+      <c r="M51" t="s">
+        <v>26</v>
+      </c>
+      <c r="N51" t="s">
+        <v>27</v>
+      </c>
+      <c r="O51" t="s">
+        <v>27</v>
+      </c>
+      <c r="P51" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52">
+        <v>49</v>
+      </c>
+      <c r="B52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52" t="s">
+        <v>126</v>
+      </c>
+      <c r="F52" t="s">
+        <v>131</v>
+      </c>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52" t="s">
+        <v>24</v>
+      </c>
+      <c r="J52" t="s">
+        <v>132</v>
+      </c>
+      <c r="K52" t="s">
+        <v>26</v>
+      </c>
+      <c r="L52" t="s">
+        <v>26</v>
+      </c>
+      <c r="M52" t="s">
+        <v>26</v>
+      </c>
+      <c r="N52" t="s">
+        <v>27</v>
+      </c>
+      <c r="O52" t="s">
+        <v>27</v>
+      </c>
+      <c r="P52" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53">
+        <v>50</v>
+      </c>
+      <c r="B53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" t="s">
+        <v>126</v>
+      </c>
+      <c r="F53" t="s">
+        <v>133</v>
+      </c>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53" t="s">
+        <v>24</v>
+      </c>
+      <c r="J53" t="s">
+        <v>134</v>
+      </c>
+      <c r="K53" t="s">
+        <v>26</v>
+      </c>
+      <c r="L53" t="s">
+        <v>26</v>
+      </c>
+      <c r="M53" t="s">
+        <v>26</v>
+      </c>
+      <c r="N53" t="s">
+        <v>27</v>
+      </c>
+      <c r="O53" t="s">
+        <v>27</v>
+      </c>
+      <c r="P53" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54">
+        <v>51</v>
+      </c>
+      <c r="B54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" t="s">
+        <v>126</v>
+      </c>
+      <c r="F54" t="s">
+        <v>135</v>
+      </c>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54" t="s">
+        <v>24</v>
+      </c>
+      <c r="J54" t="s">
+        <v>136</v>
+      </c>
+      <c r="K54" t="s">
+        <v>26</v>
+      </c>
+      <c r="L54" t="s">
+        <v>26</v>
+      </c>
+      <c r="M54" t="s">
+        <v>26</v>
+      </c>
+      <c r="N54" t="s">
+        <v>27</v>
+      </c>
+      <c r="O54" t="s">
+        <v>27</v>
+      </c>
+      <c r="P54" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q54" t="s">
         <v>27</v>
       </c>
     </row>

--- a/public/assets/updated-excels/qr-feeder-pillar.xlsx
+++ b/public/assets/updated-excels/qr-feeder-pillar.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>Pintu</t>
   </si>
@@ -86,37 +86,52 @@
     <t>2023-12-15</t>
   </si>
   <si>
-    <t>18:32:38</t>
+    <t>02:32:38</t>
   </si>
   <si>
     <t>1600A</t>
   </si>
   <si>
-    <t>101.76307054236531 , 3.190803589051665</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>18:31:00</t>
+  </si>
+  <si>
+    <t>800A</t>
+  </si>
+  <si>
+    <t>101.76298001781106 , 3.1898605805302966</t>
+  </si>
+  <si>
     <t>undefined</t>
   </si>
   <si>
-    <t>18:31:00</t>
-  </si>
-  <si>
-    <t>800A</t>
-  </si>
-  <si>
-    <t>101.76298001781106 , 3.1898605805302966</t>
-  </si>
-  <si>
     <t>18:28:57</t>
   </si>
   <si>
     <t>101.76225984469056 , 3.188714037686154</t>
+  </si>
+  <si>
+    <t>2023-12-16</t>
+  </si>
+  <si>
+    <t>17:54:46</t>
+  </si>
+  <si>
+    <t>101.76037592813373 , 3.1785631511761</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>17:57:22</t>
+  </si>
+  <si>
+    <t>101.76032932475209 , 3.178570181182085</t>
   </si>
 </sst>
 </file>
@@ -530,7 +545,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="H1" sqref="H1:H1048576"/>
@@ -644,29 +659,27 @@
       <c r="I3" t="s">
         <v>24</v>
       </c>
-      <c r="J3" t="s">
-        <v>25</v>
-      </c>
+      <c r="J3"/>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -686,36 +699,36 @@
         <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" t="s">
         <v>30</v>
       </c>
-      <c r="J4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" t="s">
-        <v>28</v>
-      </c>
       <c r="P4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -735,7 +748,7 @@
         <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
@@ -743,28 +756,126 @@
         <v>24</v>
       </c>
       <c r="J5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6">
+        <v>1908</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
         <v>33</v>
       </c>
-      <c r="K5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6" t="s">
         <v>28</v>
       </c>
-      <c r="P5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>27</v>
+      <c r="J6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7">
+        <v>1909</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/public/assets/updated-excels/qr-feeder-pillar.xlsx
+++ b/public/assets/updated-excels/qr-feeder-pillar.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
   <si>
     <t>Pintu</t>
   </si>
@@ -74,10 +74,10 @@
     <t>Pembersihan Iklan haram/ banner</t>
   </si>
   <si>
-    <t>W1</t>
-  </si>
-  <si>
-    <t>KUALA LUMPUR PUSAT</t>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>PUCHONG</t>
   </si>
   <si>
     <t>aero</t>
@@ -86,52 +86,118 @@
     <t>2023-12-15</t>
   </si>
   <si>
-    <t>02:32:38</t>
+    <t>16:38:21</t>
   </si>
   <si>
     <t>1600A</t>
   </si>
   <si>
+    <t>101.65346441790462 , 2.982159704393615</t>
+  </si>
+  <si>
     <t>no</t>
   </si>
   <si>
+    <t>yes</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
-    <t>18:31:00</t>
+    <t>undefined</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>16:16:00</t>
+  </si>
+  <si>
+    <t>101.64681321009994 , 2.9822042354759013</t>
+  </si>
+  <si>
+    <t>16:12:13</t>
+  </si>
+  <si>
+    <t>101.64610812440515 , 2.9820555744639323</t>
+  </si>
+  <si>
+    <t>16:29:29</t>
+  </si>
+  <si>
+    <t>101.64985416457057 , 2.9824285618714663</t>
+  </si>
+  <si>
+    <t>16:20:03</t>
+  </si>
+  <si>
+    <t>101.64778282865882 , 2.9823070231892643</t>
+  </si>
+  <si>
+    <t>16:08:41</t>
+  </si>
+  <si>
+    <t>101.64528066292405 , 2.9821824720034313</t>
+  </si>
+  <si>
+    <t>16:07:38</t>
+  </si>
+  <si>
+    <t>101.64537386968732 , 2.982072985176843</t>
+  </si>
+  <si>
+    <t>16:37:08</t>
+  </si>
+  <si>
+    <t>101.65333366021514 , 2.9822393918953507</t>
+  </si>
+  <si>
+    <t>16:33:33</t>
+  </si>
+  <si>
+    <t>101.65223697200418 , 2.9823120460535857</t>
+  </si>
+  <si>
+    <t>16:14:01</t>
+  </si>
+  <si>
+    <t>101.64599781855941 , 2.982150663942369</t>
+  </si>
+  <si>
+    <t>16:05:54</t>
+  </si>
+  <si>
+    <t>101.64537420496345 , 2.98137555048738</t>
+  </si>
+  <si>
+    <t>17:06:29</t>
   </si>
   <si>
     <t>800A</t>
   </si>
   <si>
-    <t>101.76298001781106 , 3.1898605805302966</t>
-  </si>
-  <si>
-    <t>undefined</t>
-  </si>
-  <si>
-    <t>18:28:57</t>
-  </si>
-  <si>
-    <t>101.76225984469056 , 3.188714037686154</t>
-  </si>
-  <si>
-    <t>2023-12-16</t>
-  </si>
-  <si>
-    <t>17:54:46</t>
-  </si>
-  <si>
-    <t>101.76037592813373 , 3.1785631511761</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>17:57:22</t>
-  </si>
-  <si>
-    <t>101.76032932475209 , 3.178570181182085</t>
+    <t>101.64676962420344 , 2.993416698448467</t>
+  </si>
+  <si>
+    <t>17:08:45</t>
+  </si>
+  <si>
+    <t>101.64715820923448 , 2.9936972753930204</t>
+  </si>
+  <si>
+    <t>17:10:10</t>
+  </si>
+  <si>
+    <t>101.64753941819072 , 2.9938579882950553</t>
+  </si>
+  <si>
+    <t>2023-12-18</t>
+  </si>
+  <si>
+    <t>18:34:54</t>
+  </si>
+  <si>
+    <t>101.64857609197497 , 3.003378179453647</t>
   </si>
 </sst>
 </file>
@@ -545,7 +611,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="H1" sqref="H1:H1048576"/>
@@ -637,7 +703,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3">
-        <v>1550</v>
+        <v>1724</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -659,32 +725,34 @@
       <c r="I3" t="s">
         <v>24</v>
       </c>
-      <c r="J3"/>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
       <c r="K3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4">
-        <v>1541</v>
+        <v>1719</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -699,41 +767,41 @@
         <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" t="s">
         <v>29</v>
       </c>
-      <c r="K4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>30</v>
       </c>
-      <c r="P4" t="s">
-        <v>26</v>
-      </c>
       <c r="Q4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5">
-        <v>1534</v>
+        <v>1717</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -748,7 +816,7 @@
         <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
@@ -756,33 +824,33 @@
         <v>24</v>
       </c>
       <c r="J5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6">
-        <v>1908</v>
+        <v>1721</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -794,44 +862,44 @@
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K6" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="L6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" t="s">
         <v>30</v>
       </c>
-      <c r="P6" t="s">
-        <v>26</v>
-      </c>
       <c r="Q6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7">
-        <v>1909</v>
+        <v>1720</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
@@ -843,7 +911,7 @@
         <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
         <v>37</v>
@@ -857,25 +925,515 @@
         <v>38</v>
       </c>
       <c r="K7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" t="s">
         <v>30</v>
       </c>
-      <c r="P7" t="s">
-        <v>26</v>
-      </c>
       <c r="Q7" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8">
+        <v>1716</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9">
+        <v>1715</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" t="s">
+        <v>28</v>
+      </c>
+      <c r="O9" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10">
+        <v>1723</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" t="s">
+        <v>28</v>
+      </c>
+      <c r="O10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11">
+        <v>1722</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O11" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12">
+        <v>1718</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N12" t="s">
+        <v>28</v>
+      </c>
+      <c r="O12" t="s">
+        <v>29</v>
+      </c>
+      <c r="P12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13">
+        <v>1714</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" t="s">
+        <v>28</v>
+      </c>
+      <c r="O13" t="s">
+        <v>29</v>
+      </c>
+      <c r="P13" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14">
+        <v>1725</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14" t="s">
+        <v>53</v>
+      </c>
+      <c r="K14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15">
+        <v>1726</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" t="s">
+        <v>55</v>
+      </c>
+      <c r="K15" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" t="s">
+        <v>28</v>
+      </c>
+      <c r="O15" t="s">
+        <v>29</v>
+      </c>
+      <c r="P15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16">
+        <v>1727</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16" t="s">
+        <v>52</v>
+      </c>
+      <c r="J16" t="s">
+        <v>57</v>
+      </c>
+      <c r="K16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16" t="s">
+        <v>27</v>
+      </c>
+      <c r="N16" t="s">
+        <v>28</v>
+      </c>
+      <c r="O16" t="s">
+        <v>29</v>
+      </c>
+      <c r="P16" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17">
+        <v>1958</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" t="s">
+        <v>60</v>
+      </c>
+      <c r="K17" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" t="s">
+        <v>28</v>
+      </c>
+      <c r="O17" t="s">
+        <v>29</v>
+      </c>
+      <c r="P17" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/public/assets/updated-excels/qr-feeder-pillar.xlsx
+++ b/public/assets/updated-excels/qr-feeder-pillar.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="200">
   <si>
     <t>Pintu</t>
   </si>
@@ -74,25 +74,25 @@
     <t>Pembersihan Iklan haram/ banner</t>
   </si>
   <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>PUCHONG</t>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>PETALING JAYA</t>
   </si>
   <si>
     <t>aero</t>
   </si>
   <si>
-    <t>2023-12-15</t>
-  </si>
-  <si>
-    <t>16:38:21</t>
+    <t>2023-11-29</t>
+  </si>
+  <si>
+    <t>20:21:23</t>
   </si>
   <si>
     <t>1600A</t>
   </si>
   <si>
-    <t>101.65346441790462 , 2.982159704393615</t>
+    <t>101.6365587 , 3.109275464</t>
   </si>
   <si>
     <t>no</t>
@@ -101,103 +101,520 @@
     <t>yes</t>
   </si>
   <si>
+    <t>ya</t>
+  </si>
+  <si>
+    <t>tidak</t>
+  </si>
+  <si>
+    <t>1970-01-01</t>
+  </si>
+  <si>
+    <t>06:52:41</t>
+  </si>
+  <si>
+    <t>3.107528545,101.6371522</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
-    <t>undefined</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>16:16:00</t>
-  </si>
-  <si>
-    <t>101.64681321009994 , 2.9822042354759013</t>
-  </si>
-  <si>
-    <t>16:12:13</t>
-  </si>
-  <si>
-    <t>101.64610812440515 , 2.9820555744639323</t>
-  </si>
-  <si>
-    <t>16:29:29</t>
-  </si>
-  <si>
-    <t>101.64985416457057 , 2.9824285618714663</t>
-  </si>
-  <si>
-    <t>16:20:03</t>
-  </si>
-  <si>
-    <t>101.64778282865882 , 2.9823070231892643</t>
-  </si>
-  <si>
-    <t>16:08:41</t>
-  </si>
-  <si>
-    <t>101.64528066292405 , 2.9821824720034313</t>
-  </si>
-  <si>
-    <t>16:07:38</t>
-  </si>
-  <si>
-    <t>101.64537386968732 , 2.982072985176843</t>
-  </si>
-  <si>
-    <t>16:37:08</t>
-  </si>
-  <si>
-    <t>101.65333366021514 , 2.9822393918953507</t>
-  </si>
-  <si>
-    <t>16:33:33</t>
-  </si>
-  <si>
-    <t>101.65223697200418 , 2.9823120460535857</t>
-  </si>
-  <si>
-    <t>16:14:01</t>
-  </si>
-  <si>
-    <t>101.64599781855941 , 2.982150663942369</t>
-  </si>
-  <si>
-    <t>16:05:54</t>
-  </si>
-  <si>
-    <t>101.64537420496345 , 2.98137555048738</t>
-  </si>
-  <si>
-    <t>17:06:29</t>
+    <t>2023-12-04</t>
+  </si>
+  <si>
+    <t>18:46:58</t>
+  </si>
+  <si>
+    <t>101.62551714107394 , 3.078252414567163</t>
+  </si>
+  <si>
+    <t>18:52:59</t>
+  </si>
+  <si>
+    <t>101.62550842389464 , 3.078841983758352</t>
+  </si>
+  <si>
+    <t>18:51:45</t>
+  </si>
+  <si>
+    <t>101.62543566897511 , 3.078863410441289</t>
+  </si>
+  <si>
+    <t>18:50:54</t>
+  </si>
+  <si>
+    <t>101.62543466314673 , 3.0788131916141137</t>
+  </si>
+  <si>
+    <t>18:45:46</t>
+  </si>
+  <si>
+    <t>101.62542460486293 , 3.0782678149782816</t>
+  </si>
+  <si>
+    <t>18:08:21</t>
+  </si>
+  <si>
+    <t>101.62898255512118 , 3.080983647070669</t>
+  </si>
+  <si>
+    <t>2023-12-05</t>
+  </si>
+  <si>
+    <t>22:23:25</t>
+  </si>
+  <si>
+    <t>101.55873851850629 , 3.080409813755062</t>
+  </si>
+  <si>
+    <t>22:18:24</t>
+  </si>
+  <si>
+    <t>101.55878042802215 , 3.0801995651077663</t>
+  </si>
+  <si>
+    <t>2023-12-07</t>
+  </si>
+  <si>
+    <t>18:09:21</t>
+  </si>
+  <si>
+    <t>400A</t>
+  </si>
+  <si>
+    <t>101.63597071543336 , 3.0880909123173943</t>
+  </si>
+  <si>
+    <t>2023-12-06</t>
+  </si>
+  <si>
+    <t>03:35:00</t>
+  </si>
+  <si>
+    <t>101.63011813536286 , 3.0840168538345867</t>
+  </si>
+  <si>
+    <t>2023-12-08</t>
+  </si>
+  <si>
+    <t>18:57:37</t>
+  </si>
+  <si>
+    <t>101.59968579187989 , 3.103458297970228</t>
+  </si>
+  <si>
+    <t>06:19:27</t>
+  </si>
+  <si>
+    <t>03:22:25</t>
+  </si>
+  <si>
+    <t>101.63075784221292 , 3.0836589627421125</t>
+  </si>
+  <si>
+    <t>03:23:52</t>
+  </si>
+  <si>
+    <t>101.63074912503362 , 3.083707172503039</t>
+  </si>
+  <si>
+    <t>03:40:03</t>
+  </si>
+  <si>
+    <t>101.62962393835187 , 3.0842358067261393</t>
+  </si>
+  <si>
+    <t>03:26:55</t>
+  </si>
+  <si>
+    <t>101.63023447617888 , 3.083988731402166</t>
+  </si>
+  <si>
+    <t>03:34:00</t>
+  </si>
+  <si>
+    <t>101.63014395162463 , 3.084003797002972</t>
+  </si>
+  <si>
+    <t>05:22:39</t>
+  </si>
+  <si>
+    <t>101.6341089271009 , 3.0737283557174866</t>
+  </si>
+  <si>
+    <t>05:20:47</t>
+  </si>
+  <si>
+    <t>101.63409249857068 , 3.073759826332899</t>
+  </si>
+  <si>
+    <t>06:42:48</t>
+  </si>
+  <si>
+    <t>101.6503875888884 , 3.079434565697966</t>
+  </si>
+  <si>
+    <t>06:20:46</t>
+  </si>
+  <si>
+    <t>101.63694402202964 , 3.081758689230962</t>
+  </si>
+  <si>
+    <t>06:46:31</t>
+  </si>
+  <si>
+    <t>101.65098370984197 , 3.079422178413995</t>
+  </si>
+  <si>
+    <t>18:11:15</t>
+  </si>
+  <si>
+    <t>101.63588119670749 , 3.088123386886883</t>
+  </si>
+  <si>
+    <t>19:06:33</t>
+  </si>
+  <si>
+    <t>101.62936242297292 , 3.0967445100578814</t>
+  </si>
+  <si>
+    <t>19:50:46</t>
+  </si>
+  <si>
+    <t>101.6308674775064 , 3.1001365612368894</t>
+  </si>
+  <si>
+    <t>01:19:29</t>
+  </si>
+  <si>
+    <t>101.65671223774552 , 3.080370978555514</t>
+  </si>
+  <si>
+    <t>17:56:49</t>
+  </si>
+  <si>
+    <t>101.65051432326436 , 3.0901883648033985</t>
+  </si>
+  <si>
+    <t>17:53:09</t>
+  </si>
+  <si>
+    <t>101.64815666154027 , 3.0876061372691885</t>
+  </si>
+  <si>
+    <t>19:04:47</t>
+  </si>
+  <si>
+    <t>101.64604676887393 , 3.099728122923544</t>
+  </si>
+  <si>
+    <t>18:47:29</t>
+  </si>
+  <si>
+    <t>101.64586404338479 , 3.097954427856548</t>
+  </si>
+  <si>
+    <t>18:30:10</t>
+  </si>
+  <si>
+    <t>101.64322977885604 , 3.097221245612981</t>
+  </si>
+  <si>
+    <t>18:52:48</t>
+  </si>
+  <si>
+    <t>101.59934816882014 , 3.1034479196533935</t>
+  </si>
+  <si>
+    <t>23:18:16</t>
+  </si>
+  <si>
+    <t>101.64983069524169 , 3.1037284686040976</t>
+  </si>
+  <si>
+    <t>23:44:48</t>
+  </si>
+  <si>
+    <t>101.65829105302691 , 3.103334761129044</t>
+  </si>
+  <si>
+    <t>23:39:50</t>
+  </si>
+  <si>
+    <t>101.65643496438861 , 3.1050334561880657</t>
+  </si>
+  <si>
+    <t>23:10:03</t>
+  </si>
+  <si>
+    <t>101.65034031495452 , 3.101578816298656</t>
+  </si>
+  <si>
+    <t>01:04:32</t>
+  </si>
+  <si>
+    <t>101.65139576420188 , 3.0787077320134646</t>
+  </si>
+  <si>
+    <t>01:11:48</t>
+  </si>
+  <si>
+    <t>101.65092403069139 , 3.078717775780774</t>
+  </si>
+  <si>
+    <t>01:09:17</t>
+  </si>
+  <si>
+    <t>101.65097231045365 , 3.0787696683107555</t>
+  </si>
+  <si>
+    <t>01:03:19</t>
+  </si>
+  <si>
+    <t>101.65179239585996 , 3.0786996970000997</t>
+  </si>
+  <si>
+    <t>01:06:13</t>
+  </si>
+  <si>
+    <t>101.65113994851708 , 3.0787515895971147</t>
+  </si>
+  <si>
+    <t>00:28:59</t>
+  </si>
+  <si>
+    <t>101.6540883667767 , 3.101556720355413</t>
+  </si>
+  <si>
+    <t>2023-12-01</t>
+  </si>
+  <si>
+    <t>05:35:33</t>
+  </si>
+  <si>
+    <t>101.61745274439454 , 3.080710792009871</t>
+  </si>
+  <si>
+    <t>2023-12-12</t>
+  </si>
+  <si>
+    <t>18:23:29</t>
   </si>
   <si>
     <t>800A</t>
   </si>
   <si>
-    <t>101.64676962420344 , 2.993416698448467</t>
-  </si>
-  <si>
-    <t>17:08:45</t>
-  </si>
-  <si>
-    <t>101.64715820923448 , 2.9936972753930204</t>
-  </si>
-  <si>
-    <t>17:10:10</t>
-  </si>
-  <si>
-    <t>101.64753941819072 , 2.9938579882950553</t>
-  </si>
-  <si>
-    <t>2023-12-18</t>
-  </si>
-  <si>
-    <t>18:34:54</t>
-  </si>
-  <si>
-    <t>101.64857609197497 , 3.003378179453647</t>
+    <t>101.11554941162467 , 3.487189056836293</t>
+  </si>
+  <si>
+    <t>03:25:54</t>
+  </si>
+  <si>
+    <t>101.63021167740226 , 3.083988731402166</t>
+  </si>
+  <si>
+    <t>05:24:50</t>
+  </si>
+  <si>
+    <t>101.63474595174193 , 3.0738083714293105</t>
+  </si>
+  <si>
+    <t>03:38:25</t>
+  </si>
+  <si>
+    <t>101.62965444847941 , 3.0842147149254835</t>
+  </si>
+  <si>
+    <t>05:27:06</t>
+  </si>
+  <si>
+    <t>101.63476238027215 , 3.073767861383489</t>
+  </si>
+  <si>
+    <t>06:20:07</t>
+  </si>
+  <si>
+    <t>101.63694402202964 , 3.0817523281969526</t>
+  </si>
+  <si>
+    <t>06:22:06</t>
+  </si>
+  <si>
+    <t>101.55873047187924 , 3.0804041222963603</t>
+  </si>
+  <si>
+    <t>19:26:06</t>
+  </si>
+  <si>
+    <t>101.5969361923635 , 3.1149708015572135</t>
+  </si>
+  <si>
+    <t>20:34:46</t>
+  </si>
+  <si>
+    <t>101.6002088226378 , 3.1188026951384233</t>
+  </si>
+  <si>
+    <t>20:32:50</t>
+  </si>
+  <si>
+    <t>101.60028928890824 , 3.11919773492193</t>
+  </si>
+  <si>
+    <t>20:31:24</t>
+  </si>
+  <si>
+    <t>101.60016322508454 , 3.1192636864626815</t>
+  </si>
+  <si>
+    <t>20:30:20</t>
+  </si>
+  <si>
+    <t>101.6002275981009 , 3.119197065342304</t>
+  </si>
+  <si>
+    <t>20:25:37</t>
+  </si>
+  <si>
+    <t>101.60007974132895 , 3.119940944973674</t>
+  </si>
+  <si>
+    <t>20:22:56</t>
+  </si>
+  <si>
+    <t>101.60010723397136 , 3.1199617012824308</t>
+  </si>
+  <si>
+    <t>20:23:58</t>
+  </si>
+  <si>
+    <t>101.60010790452361 , 3.119985805382399</t>
+  </si>
+  <si>
+    <t>20:16:19</t>
+  </si>
+  <si>
+    <t>101.59925563260913 , 3.11721617370885</t>
+  </si>
+  <si>
+    <t>20:00:19</t>
+  </si>
+  <si>
+    <t>101.59584553912282 , 3.1190557884428465</t>
+  </si>
+  <si>
+    <t>19:17:54</t>
+  </si>
+  <si>
+    <t>101.59593204036355 , 3.1109935986386006</t>
+  </si>
+  <si>
+    <t>19:12:18</t>
+  </si>
+  <si>
+    <t>101.59542912617326 , 3.1105865036131934</t>
+  </si>
+  <si>
+    <t>19:11:09</t>
+  </si>
+  <si>
+    <t>101.59540163353086 , 3.1105972166419855</t>
+  </si>
+  <si>
+    <t>00:53:30</t>
+  </si>
+  <si>
+    <t>101.60572512075305 , 3.1320133474364886</t>
+  </si>
+  <si>
+    <t>00:00:31</t>
+  </si>
+  <si>
+    <t>101.59857703372836 , 3.120557942800417</t>
+  </si>
+  <si>
+    <t>00:50:46</t>
+  </si>
+  <si>
+    <t>101.60382511094213 , 3.132087332780289</t>
+  </si>
+  <si>
+    <t>00:46:12</t>
+  </si>
+  <si>
+    <t>101.60484401509166 , 3.130915618572379</t>
+  </si>
+  <si>
+    <t>00:38:41</t>
+  </si>
+  <si>
+    <t>101.60503646358848 , 3.12789895061948</t>
+  </si>
+  <si>
+    <t>23:58:57</t>
+  </si>
+  <si>
+    <t>101.59850226715207 , 3.1199151669246548</t>
+  </si>
+  <si>
+    <t>00:54:14</t>
+  </si>
+  <si>
+    <t>101.60650698468089 , 3.131966813680054</t>
+  </si>
+  <si>
+    <t>00:47:49</t>
+  </si>
+  <si>
+    <t>101.60375704988837 , 3.13092365318855</t>
+  </si>
+  <si>
+    <t>00:10:52</t>
+  </si>
+  <si>
+    <t>101.60029565915465 , 3.121930200932917</t>
+  </si>
+  <si>
+    <t>01:11:23</t>
+  </si>
+  <si>
+    <t>101.61265259608626 , 3.136019261294715</t>
+  </si>
+  <si>
+    <t>2023-12-13</t>
+  </si>
+  <si>
+    <t>01:58:22</t>
+  </si>
+  <si>
+    <t>17:56:34</t>
+  </si>
+  <si>
+    <t>101.58705761656165 , 3.0933906132144537</t>
+  </si>
+  <si>
+    <t>18:01:07</t>
+  </si>
+  <si>
+    <t>101.58627977594733 , 3.093024355427752</t>
+  </si>
+  <si>
+    <t>17:59:23</t>
+  </si>
+  <si>
+    <t>101.58665327355266 , 3.0932356065392685</t>
+  </si>
+  <si>
+    <t>17:58:21</t>
+  </si>
+  <si>
+    <t>101.58667305484414 , 3.093239623991007</t>
+  </si>
+  <si>
+    <t>03:01:12</t>
+  </si>
+  <si>
+    <t>101.61743363365531 , 3.0806967308153137</t>
   </si>
 </sst>
 </file>
@@ -611,7 +1028,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="H1" sqref="H1:H1048576"/>
@@ -703,7 +1120,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3">
-        <v>1724</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -732,10 +1149,10 @@
         <v>26</v>
       </c>
       <c r="L3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -744,15 +1161,15 @@
         <v>29</v>
       </c>
       <c r="P3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4">
-        <v>1719</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -760,19 +1177,17 @@
       <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
+      <c r="D4"/>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
-      <c r="I4" t="s">
-        <v>24</v>
+      <c r="I4">
+        <v>800</v>
       </c>
       <c r="J4" t="s">
         <v>32</v>
@@ -787,21 +1202,21 @@
         <v>26</v>
       </c>
       <c r="N4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="O4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="P4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5">
-        <v>1717</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -813,10 +1228,10 @@
         <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
@@ -824,7 +1239,7 @@
         <v>24</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K5" t="s">
         <v>26</v>
@@ -833,24 +1248,24 @@
         <v>26</v>
       </c>
       <c r="M5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O5" t="s">
         <v>29</v>
       </c>
       <c r="P5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6">
-        <v>1721</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -862,10 +1277,10 @@
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G6"/>
       <c r="H6"/>
@@ -873,7 +1288,7 @@
         <v>24</v>
       </c>
       <c r="J6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K6" t="s">
         <v>26</v>
@@ -882,24 +1297,24 @@
         <v>26</v>
       </c>
       <c r="M6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O6" t="s">
         <v>29</v>
       </c>
       <c r="P6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7">
-        <v>1720</v>
+        <v>92</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
@@ -911,10 +1326,10 @@
         <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G7"/>
       <c r="H7"/>
@@ -922,7 +1337,7 @@
         <v>24</v>
       </c>
       <c r="J7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K7" t="s">
         <v>26</v>
@@ -934,21 +1349,21 @@
         <v>26</v>
       </c>
       <c r="N7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O7" t="s">
         <v>29</v>
       </c>
       <c r="P7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8">
-        <v>1716</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -960,10 +1375,10 @@
         <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G8"/>
       <c r="H8"/>
@@ -971,7 +1386,7 @@
         <v>24</v>
       </c>
       <c r="J8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K8" t="s">
         <v>26</v>
@@ -983,21 +1398,21 @@
         <v>26</v>
       </c>
       <c r="N8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O8" t="s">
         <v>29</v>
       </c>
       <c r="P8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9">
-        <v>1715</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
@@ -1009,10 +1424,10 @@
         <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
@@ -1020,7 +1435,7 @@
         <v>24</v>
       </c>
       <c r="J9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K9" t="s">
         <v>26</v>
@@ -1032,21 +1447,21 @@
         <v>26</v>
       </c>
       <c r="N9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O9" t="s">
         <v>29</v>
       </c>
       <c r="P9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10">
-        <v>1723</v>
+        <v>77</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
@@ -1058,10 +1473,10 @@
         <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G10"/>
       <c r="H10"/>
@@ -1069,10 +1484,10 @@
         <v>24</v>
       </c>
       <c r="J10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L10" t="s">
         <v>26</v>
@@ -1081,21 +1496,21 @@
         <v>26</v>
       </c>
       <c r="N10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O10" t="s">
         <v>29</v>
       </c>
       <c r="P10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11">
-        <v>1722</v>
+        <v>233</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
@@ -1107,10 +1522,10 @@
         <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G11"/>
       <c r="H11"/>
@@ -1118,7 +1533,7 @@
         <v>24</v>
       </c>
       <c r="J11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K11" t="s">
         <v>26</v>
@@ -1130,21 +1545,21 @@
         <v>26</v>
       </c>
       <c r="N11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O11" t="s">
         <v>29</v>
       </c>
       <c r="P11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12">
-        <v>1718</v>
+        <v>226</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
@@ -1156,10 +1571,10 @@
         <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G12"/>
       <c r="H12"/>
@@ -1167,7 +1582,7 @@
         <v>24</v>
       </c>
       <c r="J12" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K12" t="s">
         <v>26</v>
@@ -1176,24 +1591,24 @@
         <v>26</v>
       </c>
       <c r="M12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O12" t="s">
         <v>29</v>
       </c>
       <c r="P12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13">
-        <v>1714</v>
+        <v>615</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
@@ -1205,18 +1620,18 @@
         <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G13"/>
       <c r="H13"/>
       <c r="I13" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="J13" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K13" t="s">
         <v>26</v>
@@ -1228,21 +1643,21 @@
         <v>26</v>
       </c>
       <c r="N13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O13" t="s">
         <v>29</v>
       </c>
       <c r="P13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14">
-        <v>1725</v>
+        <v>385</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
@@ -1254,21 +1669,21 @@
         <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="F14" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
-      <c r="I14" t="s">
-        <v>52</v>
+      <c r="I14">
+        <v>800</v>
       </c>
       <c r="J14" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L14" t="s">
         <v>26</v>
@@ -1277,21 +1692,21 @@
         <v>26</v>
       </c>
       <c r="N14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O14" t="s">
         <v>29</v>
       </c>
       <c r="P14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15">
-        <v>1726</v>
+        <v>852</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
@@ -1303,18 +1718,18 @@
         <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G15"/>
       <c r="H15"/>
       <c r="I15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J15" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="K15" t="s">
         <v>27</v>
@@ -1326,21 +1741,21 @@
         <v>26</v>
       </c>
       <c r="N15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O15" t="s">
         <v>29</v>
       </c>
       <c r="P15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16">
-        <v>1727</v>
+        <v>228</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
@@ -1352,44 +1767,44 @@
         <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="J16" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="K16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L16" t="s">
         <v>26</v>
       </c>
       <c r="M16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O16" t="s">
         <v>29</v>
       </c>
       <c r="P16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17">
-        <v>1958</v>
+        <v>376</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
@@ -1401,39 +1816,3271 @@
         <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G17"/>
       <c r="H17"/>
-      <c r="I17" t="s">
+      <c r="I17">
+        <v>800</v>
+      </c>
+      <c r="J17" t="s">
+        <v>64</v>
+      </c>
+      <c r="K17" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" t="s">
+        <v>29</v>
+      </c>
+      <c r="O17" t="s">
+        <v>29</v>
+      </c>
+      <c r="P17" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18">
+        <v>377</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18">
+        <v>800</v>
+      </c>
+      <c r="J18" t="s">
+        <v>66</v>
+      </c>
+      <c r="K18" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" t="s">
+        <v>29</v>
+      </c>
+      <c r="O18" t="s">
+        <v>29</v>
+      </c>
+      <c r="P18" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19">
+        <v>390</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19">
+        <v>800</v>
+      </c>
+      <c r="J19" t="s">
+        <v>68</v>
+      </c>
+      <c r="K19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" t="s">
+        <v>26</v>
+      </c>
+      <c r="M19" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19" t="s">
+        <v>29</v>
+      </c>
+      <c r="O19" t="s">
+        <v>29</v>
+      </c>
+      <c r="P19" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20">
+        <v>380</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20">
+        <v>800</v>
+      </c>
+      <c r="J20" t="s">
+        <v>70</v>
+      </c>
+      <c r="K20" t="s">
+        <v>27</v>
+      </c>
+      <c r="L20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20" t="s">
+        <v>26</v>
+      </c>
+      <c r="N20" t="s">
+        <v>29</v>
+      </c>
+      <c r="O20" t="s">
+        <v>29</v>
+      </c>
+      <c r="P20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21">
+        <v>384</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21">
+        <v>800</v>
+      </c>
+      <c r="J21" t="s">
+        <v>72</v>
+      </c>
+      <c r="K21" t="s">
+        <v>26</v>
+      </c>
+      <c r="L21" t="s">
+        <v>26</v>
+      </c>
+      <c r="M21" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21" t="s">
+        <v>29</v>
+      </c>
+      <c r="O21" t="s">
+        <v>29</v>
+      </c>
+      <c r="P21" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22">
+        <v>460</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22">
+        <v>800</v>
+      </c>
+      <c r="J22" t="s">
+        <v>74</v>
+      </c>
+      <c r="K22" t="s">
+        <v>26</v>
+      </c>
+      <c r="L22" t="s">
+        <v>26</v>
+      </c>
+      <c r="M22" t="s">
+        <v>26</v>
+      </c>
+      <c r="N22" t="s">
+        <v>29</v>
+      </c>
+      <c r="O22" t="s">
+        <v>29</v>
+      </c>
+      <c r="P22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23">
+        <v>457</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23">
+        <v>800</v>
+      </c>
+      <c r="J23" t="s">
+        <v>76</v>
+      </c>
+      <c r="K23" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" t="s">
+        <v>26</v>
+      </c>
+      <c r="M23" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23" t="s">
+        <v>29</v>
+      </c>
+      <c r="O23" t="s">
+        <v>29</v>
+      </c>
+      <c r="P23" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24">
+        <v>521</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24">
+        <v>800</v>
+      </c>
+      <c r="J24" t="s">
+        <v>78</v>
+      </c>
+      <c r="K24" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" t="s">
+        <v>26</v>
+      </c>
+      <c r="M24" t="s">
+        <v>26</v>
+      </c>
+      <c r="N24" t="s">
+        <v>29</v>
+      </c>
+      <c r="O24" t="s">
+        <v>29</v>
+      </c>
+      <c r="P24" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25">
+        <v>496</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25">
+        <v>800</v>
+      </c>
+      <c r="J25" t="s">
+        <v>80</v>
+      </c>
+      <c r="K25" t="s">
+        <v>26</v>
+      </c>
+      <c r="L25" t="s">
+        <v>26</v>
+      </c>
+      <c r="M25" t="s">
+        <v>26</v>
+      </c>
+      <c r="N25" t="s">
+        <v>29</v>
+      </c>
+      <c r="O25" t="s">
+        <v>29</v>
+      </c>
+      <c r="P25" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26">
+        <v>524</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26">
+        <v>800</v>
+      </c>
+      <c r="J26" t="s">
+        <v>82</v>
+      </c>
+      <c r="K26" t="s">
+        <v>26</v>
+      </c>
+      <c r="L26" t="s">
+        <v>27</v>
+      </c>
+      <c r="M26" t="s">
+        <v>26</v>
+      </c>
+      <c r="N26" t="s">
+        <v>29</v>
+      </c>
+      <c r="O26" t="s">
+        <v>29</v>
+      </c>
+      <c r="P26" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27">
+        <v>618</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
+        <v>83</v>
+      </c>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27" t="s">
+        <v>54</v>
+      </c>
+      <c r="J27" t="s">
+        <v>84</v>
+      </c>
+      <c r="K27" t="s">
+        <v>26</v>
+      </c>
+      <c r="L27" t="s">
+        <v>26</v>
+      </c>
+      <c r="M27" t="s">
+        <v>26</v>
+      </c>
+      <c r="N27" t="s">
+        <v>29</v>
+      </c>
+      <c r="O27" t="s">
+        <v>29</v>
+      </c>
+      <c r="P27" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28">
+        <v>639</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" t="s">
+        <v>85</v>
+      </c>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28" t="s">
+        <v>54</v>
+      </c>
+      <c r="J28" t="s">
+        <v>86</v>
+      </c>
+      <c r="K28" t="s">
+        <v>26</v>
+      </c>
+      <c r="L28" t="s">
+        <v>26</v>
+      </c>
+      <c r="M28" t="s">
+        <v>26</v>
+      </c>
+      <c r="N28" t="s">
+        <v>29</v>
+      </c>
+      <c r="O28" t="s">
+        <v>29</v>
+      </c>
+      <c r="P28" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29">
+        <v>643</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" t="s">
+        <v>87</v>
+      </c>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29" t="s">
+        <v>54</v>
+      </c>
+      <c r="J29" t="s">
+        <v>88</v>
+      </c>
+      <c r="K29" t="s">
+        <v>26</v>
+      </c>
+      <c r="L29" t="s">
+        <v>26</v>
+      </c>
+      <c r="M29" t="s">
+        <v>26</v>
+      </c>
+      <c r="N29" t="s">
+        <v>29</v>
+      </c>
+      <c r="O29" t="s">
+        <v>29</v>
+      </c>
+      <c r="P29" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30">
+        <v>789</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" t="s">
+        <v>89</v>
+      </c>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30" t="s">
+        <v>54</v>
+      </c>
+      <c r="J30" t="s">
+        <v>90</v>
+      </c>
+      <c r="K30" t="s">
+        <v>26</v>
+      </c>
+      <c r="L30" t="s">
+        <v>26</v>
+      </c>
+      <c r="M30" t="s">
+        <v>26</v>
+      </c>
+      <c r="N30" t="s">
+        <v>29</v>
+      </c>
+      <c r="O30" t="s">
+        <v>29</v>
+      </c>
+      <c r="P30" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31">
+        <v>804</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" t="s">
+        <v>91</v>
+      </c>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31" t="s">
+        <v>54</v>
+      </c>
+      <c r="J31" t="s">
+        <v>92</v>
+      </c>
+      <c r="K31" t="s">
+        <v>26</v>
+      </c>
+      <c r="L31" t="s">
+        <v>26</v>
+      </c>
+      <c r="M31" t="s">
+        <v>26</v>
+      </c>
+      <c r="N31" t="s">
+        <v>29</v>
+      </c>
+      <c r="O31" t="s">
+        <v>29</v>
+      </c>
+      <c r="P31" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32">
+        <v>802</v>
+      </c>
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" t="s">
+        <v>93</v>
+      </c>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32" t="s">
+        <v>54</v>
+      </c>
+      <c r="J32" t="s">
+        <v>94</v>
+      </c>
+      <c r="K32" t="s">
+        <v>26</v>
+      </c>
+      <c r="L32" t="s">
+        <v>26</v>
+      </c>
+      <c r="M32" t="s">
+        <v>26</v>
+      </c>
+      <c r="N32" t="s">
+        <v>29</v>
+      </c>
+      <c r="O32" t="s">
+        <v>29</v>
+      </c>
+      <c r="P32" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33">
+        <v>857</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" t="s">
+        <v>95</v>
+      </c>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33" t="s">
+        <v>54</v>
+      </c>
+      <c r="J33" t="s">
+        <v>96</v>
+      </c>
+      <c r="K33" t="s">
+        <v>26</v>
+      </c>
+      <c r="L33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M33" t="s">
+        <v>26</v>
+      </c>
+      <c r="N33" t="s">
+        <v>29</v>
+      </c>
+      <c r="O33" t="s">
+        <v>29</v>
+      </c>
+      <c r="P33" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34">
+        <v>844</v>
+      </c>
+      <c r="B34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34" t="s">
+        <v>97</v>
+      </c>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34" t="s">
+        <v>54</v>
+      </c>
+      <c r="J34" t="s">
+        <v>98</v>
+      </c>
+      <c r="K34" t="s">
+        <v>26</v>
+      </c>
+      <c r="L34" t="s">
+        <v>26</v>
+      </c>
+      <c r="M34" t="s">
+        <v>26</v>
+      </c>
+      <c r="N34" t="s">
+        <v>29</v>
+      </c>
+      <c r="O34" t="s">
+        <v>29</v>
+      </c>
+      <c r="P34" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35">
+        <v>826</v>
+      </c>
+      <c r="B35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" t="s">
+        <v>99</v>
+      </c>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35" t="s">
+        <v>54</v>
+      </c>
+      <c r="J35" t="s">
+        <v>100</v>
+      </c>
+      <c r="K35" t="s">
+        <v>26</v>
+      </c>
+      <c r="L35" t="s">
+        <v>26</v>
+      </c>
+      <c r="M35" t="s">
+        <v>26</v>
+      </c>
+      <c r="N35" t="s">
+        <v>29</v>
+      </c>
+      <c r="O35" t="s">
+        <v>29</v>
+      </c>
+      <c r="P35" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36">
+        <v>848</v>
+      </c>
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" t="s">
+        <v>59</v>
+      </c>
+      <c r="F36" t="s">
+        <v>101</v>
+      </c>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36" t="s">
+        <v>54</v>
+      </c>
+      <c r="J36" t="s">
+        <v>102</v>
+      </c>
+      <c r="K36" t="s">
+        <v>27</v>
+      </c>
+      <c r="L36" t="s">
+        <v>26</v>
+      </c>
+      <c r="M36" t="s">
+        <v>26</v>
+      </c>
+      <c r="N36" t="s">
+        <v>28</v>
+      </c>
+      <c r="O36" t="s">
+        <v>29</v>
+      </c>
+      <c r="P36" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37">
+        <v>933</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" t="s">
+        <v>59</v>
+      </c>
+      <c r="F37" t="s">
+        <v>103</v>
+      </c>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37" t="s">
+        <v>54</v>
+      </c>
+      <c r="J37" t="s">
+        <v>104</v>
+      </c>
+      <c r="K37" t="s">
+        <v>26</v>
+      </c>
+      <c r="L37" t="s">
+        <v>26</v>
+      </c>
+      <c r="M37" t="s">
+        <v>26</v>
+      </c>
+      <c r="N37" t="s">
+        <v>29</v>
+      </c>
+      <c r="O37" t="s">
+        <v>29</v>
+      </c>
+      <c r="P37" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38">
+        <v>955</v>
+      </c>
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" t="s">
+        <v>59</v>
+      </c>
+      <c r="F38" t="s">
+        <v>105</v>
+      </c>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38" t="s">
+        <v>54</v>
+      </c>
+      <c r="J38" t="s">
+        <v>106</v>
+      </c>
+      <c r="K38" t="s">
+        <v>26</v>
+      </c>
+      <c r="L38" t="s">
+        <v>26</v>
+      </c>
+      <c r="M38" t="s">
+        <v>26</v>
+      </c>
+      <c r="N38" t="s">
+        <v>29</v>
+      </c>
+      <c r="O38" t="s">
+        <v>29</v>
+      </c>
+      <c r="P38" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39">
+        <v>948</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" t="s">
+        <v>59</v>
+      </c>
+      <c r="F39" t="s">
+        <v>107</v>
+      </c>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39" t="s">
+        <v>54</v>
+      </c>
+      <c r="J39" t="s">
+        <v>108</v>
+      </c>
+      <c r="K39" t="s">
+        <v>26</v>
+      </c>
+      <c r="L39" t="s">
+        <v>26</v>
+      </c>
+      <c r="M39" t="s">
+        <v>26</v>
+      </c>
+      <c r="N39" t="s">
+        <v>29</v>
+      </c>
+      <c r="O39" t="s">
+        <v>29</v>
+      </c>
+      <c r="P39" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40">
+        <v>927</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" t="s">
+        <v>59</v>
+      </c>
+      <c r="F40" t="s">
+        <v>109</v>
+      </c>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40" t="s">
+        <v>54</v>
+      </c>
+      <c r="J40" t="s">
+        <v>110</v>
+      </c>
+      <c r="K40" t="s">
+        <v>26</v>
+      </c>
+      <c r="L40" t="s">
+        <v>26</v>
+      </c>
+      <c r="M40" t="s">
+        <v>26</v>
+      </c>
+      <c r="N40" t="s">
+        <v>29</v>
+      </c>
+      <c r="O40" t="s">
+        <v>29</v>
+      </c>
+      <c r="P40" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41">
+        <v>980</v>
+      </c>
+      <c r="B41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" t="s">
+        <v>59</v>
+      </c>
+      <c r="F41" t="s">
+        <v>111</v>
+      </c>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41" t="s">
+        <v>54</v>
+      </c>
+      <c r="J41" t="s">
+        <v>112</v>
+      </c>
+      <c r="K41" t="s">
+        <v>26</v>
+      </c>
+      <c r="L41" t="s">
+        <v>26</v>
+      </c>
+      <c r="M41" t="s">
+        <v>26</v>
+      </c>
+      <c r="N41" t="s">
+        <v>29</v>
+      </c>
+      <c r="O41" t="s">
+        <v>29</v>
+      </c>
+      <c r="P41" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42">
+        <v>983</v>
+      </c>
+      <c r="B42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" t="s">
+        <v>59</v>
+      </c>
+      <c r="F42" t="s">
+        <v>113</v>
+      </c>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42" t="s">
+        <v>54</v>
+      </c>
+      <c r="J42" t="s">
+        <v>114</v>
+      </c>
+      <c r="K42" t="s">
+        <v>26</v>
+      </c>
+      <c r="L42" t="s">
+        <v>27</v>
+      </c>
+      <c r="M42" t="s">
+        <v>26</v>
+      </c>
+      <c r="N42" t="s">
+        <v>29</v>
+      </c>
+      <c r="O42" t="s">
+        <v>29</v>
+      </c>
+      <c r="P42" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43">
+        <v>982</v>
+      </c>
+      <c r="B43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" t="s">
+        <v>59</v>
+      </c>
+      <c r="F43" t="s">
+        <v>115</v>
+      </c>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43" t="s">
+        <v>54</v>
+      </c>
+      <c r="J43" t="s">
+        <v>116</v>
+      </c>
+      <c r="K43" t="s">
+        <v>27</v>
+      </c>
+      <c r="L43" t="s">
+        <v>26</v>
+      </c>
+      <c r="M43" t="s">
+        <v>27</v>
+      </c>
+      <c r="N43" t="s">
+        <v>29</v>
+      </c>
+      <c r="O43" t="s">
+        <v>29</v>
+      </c>
+      <c r="P43" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44">
+        <v>979</v>
+      </c>
+      <c r="B44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" t="s">
+        <v>59</v>
+      </c>
+      <c r="F44" t="s">
+        <v>117</v>
+      </c>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44" t="s">
+        <v>54</v>
+      </c>
+      <c r="J44" t="s">
+        <v>118</v>
+      </c>
+      <c r="K44" t="s">
+        <v>26</v>
+      </c>
+      <c r="L44" t="s">
+        <v>26</v>
+      </c>
+      <c r="M44" t="s">
+        <v>26</v>
+      </c>
+      <c r="N44" t="s">
+        <v>29</v>
+      </c>
+      <c r="O44" t="s">
+        <v>29</v>
+      </c>
+      <c r="P44" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45">
+        <v>981</v>
+      </c>
+      <c r="B45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" t="s">
+        <v>59</v>
+      </c>
+      <c r="F45" t="s">
+        <v>119</v>
+      </c>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45" t="s">
+        <v>54</v>
+      </c>
+      <c r="J45" t="s">
+        <v>120</v>
+      </c>
+      <c r="K45" t="s">
+        <v>26</v>
+      </c>
+      <c r="L45" t="s">
+        <v>26</v>
+      </c>
+      <c r="M45" t="s">
+        <v>26</v>
+      </c>
+      <c r="N45" t="s">
+        <v>29</v>
+      </c>
+      <c r="O45" t="s">
+        <v>29</v>
+      </c>
+      <c r="P45" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46">
+        <v>976</v>
+      </c>
+      <c r="B46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" t="s">
+        <v>59</v>
+      </c>
+      <c r="F46" t="s">
+        <v>121</v>
+      </c>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46" t="s">
+        <v>54</v>
+      </c>
+      <c r="J46" t="s">
+        <v>122</v>
+      </c>
+      <c r="K46" t="s">
+        <v>26</v>
+      </c>
+      <c r="L46" t="s">
+        <v>26</v>
+      </c>
+      <c r="M46" t="s">
+        <v>26</v>
+      </c>
+      <c r="N46" t="s">
+        <v>29</v>
+      </c>
+      <c r="O46" t="s">
+        <v>29</v>
+      </c>
+      <c r="P46" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47">
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" t="s">
+        <v>123</v>
+      </c>
+      <c r="F47" t="s">
+        <v>124</v>
+      </c>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47" t="s">
         <v>24</v>
       </c>
-      <c r="J17" t="s">
-        <v>60</v>
-      </c>
-      <c r="K17" t="s">
-        <v>26</v>
-      </c>
-      <c r="L17" t="s">
-        <v>26</v>
-      </c>
-      <c r="M17" t="s">
-        <v>26</v>
-      </c>
-      <c r="N17" t="s">
+      <c r="J47" t="s">
+        <v>125</v>
+      </c>
+      <c r="K47" t="s">
+        <v>26</v>
+      </c>
+      <c r="L47" t="s">
+        <v>26</v>
+      </c>
+      <c r="M47" t="s">
+        <v>26</v>
+      </c>
+      <c r="N47" t="s">
+        <v>29</v>
+      </c>
+      <c r="O47" t="s">
+        <v>29</v>
+      </c>
+      <c r="P47" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48">
+        <v>139</v>
+      </c>
+      <c r="B48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" t="s">
+        <v>126</v>
+      </c>
+      <c r="F48" t="s">
+        <v>127</v>
+      </c>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48" t="s">
+        <v>128</v>
+      </c>
+      <c r="J48" t="s">
+        <v>129</v>
+      </c>
+      <c r="K48" t="s">
+        <v>27</v>
+      </c>
+      <c r="L48" t="s">
+        <v>26</v>
+      </c>
+      <c r="M48" t="s">
+        <v>26</v>
+      </c>
+      <c r="N48" t="s">
+        <v>33</v>
+      </c>
+      <c r="O48" t="s">
+        <v>33</v>
+      </c>
+      <c r="P48" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49">
+        <v>378</v>
+      </c>
+      <c r="B49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" t="s">
+        <v>56</v>
+      </c>
+      <c r="F49" t="s">
+        <v>130</v>
+      </c>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49">
+        <v>800</v>
+      </c>
+      <c r="J49" t="s">
+        <v>131</v>
+      </c>
+      <c r="K49" t="s">
+        <v>26</v>
+      </c>
+      <c r="L49" t="s">
+        <v>26</v>
+      </c>
+      <c r="M49" t="s">
+        <v>26</v>
+      </c>
+      <c r="N49" t="s">
+        <v>29</v>
+      </c>
+      <c r="O49" t="s">
+        <v>29</v>
+      </c>
+      <c r="P49" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50">
+        <v>463</v>
+      </c>
+      <c r="B50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" t="s">
+        <v>56</v>
+      </c>
+      <c r="F50" t="s">
+        <v>132</v>
+      </c>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50">
+        <v>800</v>
+      </c>
+      <c r="J50" t="s">
+        <v>133</v>
+      </c>
+      <c r="K50" t="s">
+        <v>26</v>
+      </c>
+      <c r="L50" t="s">
+        <v>26</v>
+      </c>
+      <c r="M50" t="s">
+        <v>26</v>
+      </c>
+      <c r="N50" t="s">
+        <v>29</v>
+      </c>
+      <c r="O50" t="s">
+        <v>29</v>
+      </c>
+      <c r="P50" t="s">
         <v>28</v>
       </c>
-      <c r="O17" t="s">
-        <v>29</v>
-      </c>
-      <c r="P17" t="s">
+      <c r="Q50" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51">
+        <v>388</v>
+      </c>
+      <c r="B51" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" t="s">
+        <v>56</v>
+      </c>
+      <c r="F51" t="s">
+        <v>134</v>
+      </c>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51">
+        <v>800</v>
+      </c>
+      <c r="J51" t="s">
+        <v>135</v>
+      </c>
+      <c r="K51" t="s">
+        <v>27</v>
+      </c>
+      <c r="L51" t="s">
+        <v>26</v>
+      </c>
+      <c r="M51" t="s">
+        <v>26</v>
+      </c>
+      <c r="N51" t="s">
+        <v>29</v>
+      </c>
+      <c r="O51" t="s">
+        <v>29</v>
+      </c>
+      <c r="P51" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52">
+        <v>465</v>
+      </c>
+      <c r="B52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52" t="s">
+        <v>56</v>
+      </c>
+      <c r="F52" t="s">
+        <v>136</v>
+      </c>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52">
+        <v>800</v>
+      </c>
+      <c r="J52" t="s">
+        <v>137</v>
+      </c>
+      <c r="K52" t="s">
+        <v>27</v>
+      </c>
+      <c r="L52" t="s">
+        <v>26</v>
+      </c>
+      <c r="M52" t="s">
+        <v>26</v>
+      </c>
+      <c r="N52" t="s">
+        <v>29</v>
+      </c>
+      <c r="O52" t="s">
+        <v>29</v>
+      </c>
+      <c r="P52" t="s">
         <v>28</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="Q52" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53">
+        <v>495</v>
+      </c>
+      <c r="B53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" t="s">
+        <v>56</v>
+      </c>
+      <c r="F53" t="s">
+        <v>138</v>
+      </c>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53">
+        <v>800</v>
+      </c>
+      <c r="J53" t="s">
+        <v>139</v>
+      </c>
+      <c r="K53" t="s">
+        <v>26</v>
+      </c>
+      <c r="L53" t="s">
+        <v>26</v>
+      </c>
+      <c r="M53" t="s">
+        <v>26</v>
+      </c>
+      <c r="N53" t="s">
+        <v>29</v>
+      </c>
+      <c r="O53" t="s">
+        <v>29</v>
+      </c>
+      <c r="P53" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54">
+        <v>231</v>
+      </c>
+      <c r="B54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" t="s">
+        <v>47</v>
+      </c>
+      <c r="F54" t="s">
+        <v>140</v>
+      </c>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54">
+        <v>800</v>
+      </c>
+      <c r="J54" t="s">
+        <v>141</v>
+      </c>
+      <c r="K54" t="s">
+        <v>26</v>
+      </c>
+      <c r="L54" t="s">
+        <v>26</v>
+      </c>
+      <c r="M54" t="s">
+        <v>26</v>
+      </c>
+      <c r="N54" t="s">
+        <v>29</v>
+      </c>
+      <c r="O54" t="s">
+        <v>29</v>
+      </c>
+      <c r="P54" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55">
+        <v>1029</v>
+      </c>
+      <c r="B55" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55" t="s">
+        <v>126</v>
+      </c>
+      <c r="F55" t="s">
+        <v>142</v>
+      </c>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55" t="s">
+        <v>54</v>
+      </c>
+      <c r="J55" t="s">
+        <v>143</v>
+      </c>
+      <c r="K55" t="s">
+        <v>26</v>
+      </c>
+      <c r="L55" t="s">
+        <v>26</v>
+      </c>
+      <c r="M55" t="s">
+        <v>26</v>
+      </c>
+      <c r="N55" t="s">
+        <v>29</v>
+      </c>
+      <c r="O55" t="s">
+        <v>29</v>
+      </c>
+      <c r="P55" t="s">
         <v>28</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56">
+        <v>1116</v>
+      </c>
+      <c r="B56" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" t="s">
+        <v>21</v>
+      </c>
+      <c r="E56" t="s">
+        <v>126</v>
+      </c>
+      <c r="F56" t="s">
+        <v>144</v>
+      </c>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56" t="s">
+        <v>54</v>
+      </c>
+      <c r="J56" t="s">
+        <v>145</v>
+      </c>
+      <c r="K56" t="s">
+        <v>26</v>
+      </c>
+      <c r="L56" t="s">
+        <v>26</v>
+      </c>
+      <c r="M56" t="s">
+        <v>27</v>
+      </c>
+      <c r="N56" t="s">
+        <v>29</v>
+      </c>
+      <c r="O56" t="s">
+        <v>29</v>
+      </c>
+      <c r="P56" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57">
+        <v>1114</v>
+      </c>
+      <c r="B57" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" t="s">
+        <v>21</v>
+      </c>
+      <c r="E57" t="s">
+        <v>126</v>
+      </c>
+      <c r="F57" t="s">
+        <v>146</v>
+      </c>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57" t="s">
+        <v>54</v>
+      </c>
+      <c r="J57" t="s">
+        <v>147</v>
+      </c>
+      <c r="K57" t="s">
+        <v>26</v>
+      </c>
+      <c r="L57" t="s">
+        <v>26</v>
+      </c>
+      <c r="M57" t="s">
+        <v>26</v>
+      </c>
+      <c r="N57" t="s">
+        <v>29</v>
+      </c>
+      <c r="O57" t="s">
+        <v>29</v>
+      </c>
+      <c r="P57" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58">
+        <v>1111</v>
+      </c>
+      <c r="B58" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" t="s">
+        <v>21</v>
+      </c>
+      <c r="E58" t="s">
+        <v>126</v>
+      </c>
+      <c r="F58" t="s">
+        <v>148</v>
+      </c>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58" t="s">
+        <v>54</v>
+      </c>
+      <c r="J58" t="s">
+        <v>149</v>
+      </c>
+      <c r="K58" t="s">
+        <v>26</v>
+      </c>
+      <c r="L58" t="s">
+        <v>26</v>
+      </c>
+      <c r="M58" t="s">
+        <v>26</v>
+      </c>
+      <c r="N58" t="s">
+        <v>29</v>
+      </c>
+      <c r="O58" t="s">
+        <v>29</v>
+      </c>
+      <c r="P58" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59">
+        <v>1107</v>
+      </c>
+      <c r="B59" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" t="s">
+        <v>21</v>
+      </c>
+      <c r="E59" t="s">
+        <v>126</v>
+      </c>
+      <c r="F59" t="s">
+        <v>150</v>
+      </c>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59" t="s">
+        <v>54</v>
+      </c>
+      <c r="J59" t="s">
+        <v>151</v>
+      </c>
+      <c r="K59" t="s">
+        <v>26</v>
+      </c>
+      <c r="L59" t="s">
+        <v>26</v>
+      </c>
+      <c r="M59" t="s">
+        <v>26</v>
+      </c>
+      <c r="N59" t="s">
+        <v>29</v>
+      </c>
+      <c r="O59" t="s">
+        <v>29</v>
+      </c>
+      <c r="P59" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60">
+        <v>1095</v>
+      </c>
+      <c r="B60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" t="s">
+        <v>21</v>
+      </c>
+      <c r="E60" t="s">
+        <v>126</v>
+      </c>
+      <c r="F60" t="s">
+        <v>152</v>
+      </c>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60" t="s">
+        <v>54</v>
+      </c>
+      <c r="J60" t="s">
+        <v>153</v>
+      </c>
+      <c r="K60" t="s">
+        <v>26</v>
+      </c>
+      <c r="L60" t="s">
+        <v>26</v>
+      </c>
+      <c r="M60" t="s">
+        <v>27</v>
+      </c>
+      <c r="N60" t="s">
+        <v>29</v>
+      </c>
+      <c r="O60" t="s">
+        <v>29</v>
+      </c>
+      <c r="P60" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61">
+        <v>1088</v>
+      </c>
+      <c r="B61" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" t="s">
+        <v>21</v>
+      </c>
+      <c r="E61" t="s">
+        <v>126</v>
+      </c>
+      <c r="F61" t="s">
+        <v>154</v>
+      </c>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61" t="s">
+        <v>54</v>
+      </c>
+      <c r="J61" t="s">
+        <v>155</v>
+      </c>
+      <c r="K61" t="s">
+        <v>26</v>
+      </c>
+      <c r="L61" t="s">
+        <v>26</v>
+      </c>
+      <c r="M61" t="s">
+        <v>26</v>
+      </c>
+      <c r="N61" t="s">
+        <v>29</v>
+      </c>
+      <c r="O61" t="s">
+        <v>29</v>
+      </c>
+      <c r="P61" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="A62">
+        <v>1091</v>
+      </c>
+      <c r="B62" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" t="s">
+        <v>21</v>
+      </c>
+      <c r="E62" t="s">
+        <v>126</v>
+      </c>
+      <c r="F62" t="s">
+        <v>156</v>
+      </c>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62" t="s">
+        <v>54</v>
+      </c>
+      <c r="J62" t="s">
+        <v>157</v>
+      </c>
+      <c r="K62" t="s">
+        <v>26</v>
+      </c>
+      <c r="L62" t="s">
+        <v>26</v>
+      </c>
+      <c r="M62" t="s">
+        <v>26</v>
+      </c>
+      <c r="N62" t="s">
+        <v>29</v>
+      </c>
+      <c r="O62" t="s">
+        <v>29</v>
+      </c>
+      <c r="P62" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="A63">
+        <v>1083</v>
+      </c>
+      <c r="B63" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" t="s">
+        <v>20</v>
+      </c>
+      <c r="D63" t="s">
+        <v>21</v>
+      </c>
+      <c r="E63" t="s">
+        <v>126</v>
+      </c>
+      <c r="F63" t="s">
+        <v>158</v>
+      </c>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63" t="s">
+        <v>54</v>
+      </c>
+      <c r="J63" t="s">
+        <v>159</v>
+      </c>
+      <c r="K63" t="s">
+        <v>26</v>
+      </c>
+      <c r="L63" t="s">
+        <v>26</v>
+      </c>
+      <c r="M63" t="s">
+        <v>26</v>
+      </c>
+      <c r="N63" t="s">
+        <v>29</v>
+      </c>
+      <c r="O63" t="s">
+        <v>29</v>
+      </c>
+      <c r="P63" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="A64">
+        <v>1063</v>
+      </c>
+      <c r="B64" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" t="s">
+        <v>20</v>
+      </c>
+      <c r="D64" t="s">
+        <v>21</v>
+      </c>
+      <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
+        <v>160</v>
+      </c>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64" t="s">
+        <v>54</v>
+      </c>
+      <c r="J64" t="s">
+        <v>161</v>
+      </c>
+      <c r="K64" t="s">
+        <v>26</v>
+      </c>
+      <c r="L64" t="s">
+        <v>26</v>
+      </c>
+      <c r="M64" t="s">
+        <v>26</v>
+      </c>
+      <c r="N64" t="s">
+        <v>29</v>
+      </c>
+      <c r="O64" t="s">
+        <v>29</v>
+      </c>
+      <c r="P64" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="A65">
+        <v>1019</v>
+      </c>
+      <c r="B65" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65" t="s">
+        <v>21</v>
+      </c>
+      <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
+        <v>162</v>
+      </c>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65" t="s">
+        <v>54</v>
+      </c>
+      <c r="J65" t="s">
+        <v>163</v>
+      </c>
+      <c r="K65" t="s">
+        <v>26</v>
+      </c>
+      <c r="L65" t="s">
+        <v>26</v>
+      </c>
+      <c r="M65" t="s">
+        <v>26</v>
+      </c>
+      <c r="N65" t="s">
+        <v>29</v>
+      </c>
+      <c r="O65" t="s">
+        <v>29</v>
+      </c>
+      <c r="P65" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="A66">
+        <v>1015</v>
+      </c>
+      <c r="B66" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" t="s">
+        <v>20</v>
+      </c>
+      <c r="D66" t="s">
+        <v>21</v>
+      </c>
+      <c r="E66" t="s">
+        <v>126</v>
+      </c>
+      <c r="F66" t="s">
+        <v>164</v>
+      </c>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66" t="s">
+        <v>54</v>
+      </c>
+      <c r="J66" t="s">
+        <v>165</v>
+      </c>
+      <c r="K66" t="s">
+        <v>27</v>
+      </c>
+      <c r="L66" t="s">
+        <v>26</v>
+      </c>
+      <c r="M66" t="s">
+        <v>26</v>
+      </c>
+      <c r="N66" t="s">
+        <v>29</v>
+      </c>
+      <c r="O66" t="s">
+        <v>29</v>
+      </c>
+      <c r="P66" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="A67">
+        <v>1013</v>
+      </c>
+      <c r="B67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" t="s">
+        <v>20</v>
+      </c>
+      <c r="D67" t="s">
+        <v>21</v>
+      </c>
+      <c r="E67" t="s">
+        <v>126</v>
+      </c>
+      <c r="F67" t="s">
+        <v>166</v>
+      </c>
+      <c r="G67"/>
+      <c r="H67"/>
+      <c r="I67" t="s">
+        <v>54</v>
+      </c>
+      <c r="J67" t="s">
+        <v>167</v>
+      </c>
+      <c r="K67" t="s">
+        <v>26</v>
+      </c>
+      <c r="L67" t="s">
+        <v>26</v>
+      </c>
+      <c r="M67" t="s">
+        <v>26</v>
+      </c>
+      <c r="N67" t="s">
+        <v>29</v>
+      </c>
+      <c r="O67" t="s">
+        <v>29</v>
+      </c>
+      <c r="P67" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="A68">
+        <v>1321</v>
+      </c>
+      <c r="B68" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68" t="s">
+        <v>20</v>
+      </c>
+      <c r="D68" t="s">
+        <v>21</v>
+      </c>
+      <c r="E68" t="s">
+        <v>126</v>
+      </c>
+      <c r="F68" t="s">
+        <v>168</v>
+      </c>
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68" t="s">
+        <v>54</v>
+      </c>
+      <c r="J68" t="s">
+        <v>169</v>
+      </c>
+      <c r="K68" t="s">
+        <v>26</v>
+      </c>
+      <c r="L68" t="s">
+        <v>26</v>
+      </c>
+      <c r="M68" t="s">
+        <v>26</v>
+      </c>
+      <c r="N68" t="s">
+        <v>29</v>
+      </c>
+      <c r="O68" t="s">
+        <v>29</v>
+      </c>
+      <c r="P68" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="A69">
+        <v>1299</v>
+      </c>
+      <c r="B69" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" t="s">
+        <v>20</v>
+      </c>
+      <c r="D69" t="s">
+        <v>21</v>
+      </c>
+      <c r="E69" t="s">
+        <v>126</v>
+      </c>
+      <c r="F69" t="s">
+        <v>170</v>
+      </c>
+      <c r="G69"/>
+      <c r="H69"/>
+      <c r="I69" t="s">
+        <v>54</v>
+      </c>
+      <c r="J69" t="s">
+        <v>171</v>
+      </c>
+      <c r="K69" t="s">
+        <v>26</v>
+      </c>
+      <c r="L69" t="s">
+        <v>26</v>
+      </c>
+      <c r="M69" t="s">
+        <v>26</v>
+      </c>
+      <c r="N69" t="s">
+        <v>29</v>
+      </c>
+      <c r="O69" t="s">
+        <v>29</v>
+      </c>
+      <c r="P69" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="A70">
+        <v>1319</v>
+      </c>
+      <c r="B70" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70" t="s">
+        <v>21</v>
+      </c>
+      <c r="E70" t="s">
+        <v>126</v>
+      </c>
+      <c r="F70" t="s">
+        <v>172</v>
+      </c>
+      <c r="G70"/>
+      <c r="H70"/>
+      <c r="I70" t="s">
+        <v>54</v>
+      </c>
+      <c r="J70" t="s">
+        <v>173</v>
+      </c>
+      <c r="K70" t="s">
+        <v>27</v>
+      </c>
+      <c r="L70" t="s">
+        <v>26</v>
+      </c>
+      <c r="M70" t="s">
+        <v>26</v>
+      </c>
+      <c r="N70" t="s">
+        <v>29</v>
+      </c>
+      <c r="O70" t="s">
+        <v>29</v>
+      </c>
+      <c r="P70" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="A71">
+        <v>1313</v>
+      </c>
+      <c r="B71" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71" t="s">
+        <v>20</v>
+      </c>
+      <c r="D71" t="s">
+        <v>21</v>
+      </c>
+      <c r="E71" t="s">
+        <v>126</v>
+      </c>
+      <c r="F71" t="s">
+        <v>174</v>
+      </c>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71" t="s">
+        <v>54</v>
+      </c>
+      <c r="J71" t="s">
+        <v>175</v>
+      </c>
+      <c r="K71" t="s">
+        <v>26</v>
+      </c>
+      <c r="L71" t="s">
+        <v>26</v>
+      </c>
+      <c r="M71" t="s">
+        <v>26</v>
+      </c>
+      <c r="N71" t="s">
+        <v>29</v>
+      </c>
+      <c r="O71" t="s">
+        <v>29</v>
+      </c>
+      <c r="P71" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72">
+        <v>1311</v>
+      </c>
+      <c r="B72" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72" t="s">
+        <v>21</v>
+      </c>
+      <c r="E72" t="s">
+        <v>126</v>
+      </c>
+      <c r="F72" t="s">
+        <v>176</v>
+      </c>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72" t="s">
+        <v>54</v>
+      </c>
+      <c r="J72" t="s">
+        <v>177</v>
+      </c>
+      <c r="K72" t="s">
+        <v>26</v>
+      </c>
+      <c r="L72" t="s">
+        <v>26</v>
+      </c>
+      <c r="M72" t="s">
+        <v>26</v>
+      </c>
+      <c r="N72" t="s">
+        <v>29</v>
+      </c>
+      <c r="O72" t="s">
+        <v>29</v>
+      </c>
+      <c r="P72" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="A73">
+        <v>1298</v>
+      </c>
+      <c r="B73" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" t="s">
+        <v>21</v>
+      </c>
+      <c r="E73" t="s">
+        <v>126</v>
+      </c>
+      <c r="F73" t="s">
+        <v>178</v>
+      </c>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73" t="s">
+        <v>54</v>
+      </c>
+      <c r="J73" t="s">
+        <v>179</v>
+      </c>
+      <c r="K73" t="s">
+        <v>26</v>
+      </c>
+      <c r="L73" t="s">
+        <v>26</v>
+      </c>
+      <c r="M73" t="s">
+        <v>26</v>
+      </c>
+      <c r="N73" t="s">
+        <v>29</v>
+      </c>
+      <c r="O73" t="s">
+        <v>29</v>
+      </c>
+      <c r="P73" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="A74">
+        <v>1322</v>
+      </c>
+      <c r="B74" t="s">
+        <v>19</v>
+      </c>
+      <c r="C74" t="s">
+        <v>20</v>
+      </c>
+      <c r="D74" t="s">
+        <v>21</v>
+      </c>
+      <c r="E74" t="s">
+        <v>126</v>
+      </c>
+      <c r="F74" t="s">
+        <v>180</v>
+      </c>
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="I74" t="s">
+        <v>54</v>
+      </c>
+      <c r="J74" t="s">
+        <v>181</v>
+      </c>
+      <c r="K74" t="s">
+        <v>26</v>
+      </c>
+      <c r="L74" t="s">
+        <v>26</v>
+      </c>
+      <c r="M74" t="s">
+        <v>26</v>
+      </c>
+      <c r="N74" t="s">
+        <v>29</v>
+      </c>
+      <c r="O74" t="s">
+        <v>29</v>
+      </c>
+      <c r="P74" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
+      <c r="A75">
+        <v>1314</v>
+      </c>
+      <c r="B75" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75" t="s">
+        <v>20</v>
+      </c>
+      <c r="D75" t="s">
+        <v>21</v>
+      </c>
+      <c r="E75" t="s">
+        <v>126</v>
+      </c>
+      <c r="F75" t="s">
+        <v>182</v>
+      </c>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75" t="s">
+        <v>54</v>
+      </c>
+      <c r="J75" t="s">
+        <v>183</v>
+      </c>
+      <c r="K75" t="s">
+        <v>26</v>
+      </c>
+      <c r="L75" t="s">
+        <v>26</v>
+      </c>
+      <c r="M75" t="s">
+        <v>26</v>
+      </c>
+      <c r="N75" t="s">
+        <v>29</v>
+      </c>
+      <c r="O75" t="s">
+        <v>29</v>
+      </c>
+      <c r="P75" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="A76">
+        <v>1302</v>
+      </c>
+      <c r="B76" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76" t="s">
+        <v>20</v>
+      </c>
+      <c r="D76" t="s">
+        <v>21</v>
+      </c>
+      <c r="E76" t="s">
+        <v>126</v>
+      </c>
+      <c r="F76" t="s">
+        <v>184</v>
+      </c>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76" t="s">
+        <v>54</v>
+      </c>
+      <c r="J76" t="s">
+        <v>185</v>
+      </c>
+      <c r="K76" t="s">
+        <v>26</v>
+      </c>
+      <c r="L76" t="s">
+        <v>26</v>
+      </c>
+      <c r="M76" t="s">
+        <v>26</v>
+      </c>
+      <c r="N76" t="s">
+        <v>29</v>
+      </c>
+      <c r="O76" t="s">
+        <v>29</v>
+      </c>
+      <c r="P76" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
+      <c r="A77">
+        <v>1323</v>
+      </c>
+      <c r="B77" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77" t="s">
+        <v>20</v>
+      </c>
+      <c r="D77" t="s">
+        <v>21</v>
+      </c>
+      <c r="E77" t="s">
+        <v>126</v>
+      </c>
+      <c r="F77" t="s">
+        <v>186</v>
+      </c>
+      <c r="G77"/>
+      <c r="H77"/>
+      <c r="I77" t="s">
+        <v>54</v>
+      </c>
+      <c r="J77" t="s">
+        <v>187</v>
+      </c>
+      <c r="K77" t="s">
+        <v>26</v>
+      </c>
+      <c r="L77" t="s">
+        <v>26</v>
+      </c>
+      <c r="M77" t="s">
+        <v>26</v>
+      </c>
+      <c r="N77" t="s">
+        <v>29</v>
+      </c>
+      <c r="O77" t="s">
+        <v>29</v>
+      </c>
+      <c r="P77" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="A78">
+        <v>1347</v>
+      </c>
+      <c r="B78" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78" t="s">
+        <v>20</v>
+      </c>
+      <c r="D78" t="s">
+        <v>21</v>
+      </c>
+      <c r="E78" t="s">
+        <v>188</v>
+      </c>
+      <c r="F78" t="s">
+        <v>189</v>
+      </c>
+      <c r="G78"/>
+      <c r="H78"/>
+      <c r="I78" t="s">
+        <v>54</v>
+      </c>
+      <c r="J78"/>
+      <c r="K78" t="s">
+        <v>27</v>
+      </c>
+      <c r="L78" t="s">
+        <v>26</v>
+      </c>
+      <c r="M78" t="s">
+        <v>26</v>
+      </c>
+      <c r="N78" t="s">
+        <v>29</v>
+      </c>
+      <c r="O78" t="s">
+        <v>29</v>
+      </c>
+      <c r="P78" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
+      <c r="A79">
+        <v>1344</v>
+      </c>
+      <c r="B79" t="s">
+        <v>19</v>
+      </c>
+      <c r="C79" t="s">
+        <v>20</v>
+      </c>
+      <c r="D79" t="s">
+        <v>21</v>
+      </c>
+      <c r="E79" t="s">
+        <v>188</v>
+      </c>
+      <c r="F79" t="s">
+        <v>190</v>
+      </c>
+      <c r="G79"/>
+      <c r="H79"/>
+      <c r="I79" t="s">
+        <v>54</v>
+      </c>
+      <c r="J79" t="s">
+        <v>191</v>
+      </c>
+      <c r="K79" t="s">
+        <v>27</v>
+      </c>
+      <c r="L79" t="s">
+        <v>26</v>
+      </c>
+      <c r="M79" t="s">
+        <v>26</v>
+      </c>
+      <c r="N79" t="s">
+        <v>29</v>
+      </c>
+      <c r="O79" t="s">
+        <v>29</v>
+      </c>
+      <c r="P79" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
+      <c r="A80">
+        <v>1353</v>
+      </c>
+      <c r="B80" t="s">
+        <v>19</v>
+      </c>
+      <c r="C80" t="s">
+        <v>20</v>
+      </c>
+      <c r="D80" t="s">
+        <v>21</v>
+      </c>
+      <c r="E80" t="s">
+        <v>188</v>
+      </c>
+      <c r="F80" t="s">
+        <v>192</v>
+      </c>
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="I80" t="s">
+        <v>54</v>
+      </c>
+      <c r="J80" t="s">
+        <v>193</v>
+      </c>
+      <c r="K80" t="s">
+        <v>26</v>
+      </c>
+      <c r="L80" t="s">
+        <v>26</v>
+      </c>
+      <c r="M80" t="s">
+        <v>26</v>
+      </c>
+      <c r="N80" t="s">
+        <v>29</v>
+      </c>
+      <c r="O80" t="s">
+        <v>29</v>
+      </c>
+      <c r="P80" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17">
+      <c r="A81">
+        <v>1351</v>
+      </c>
+      <c r="B81" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81" t="s">
+        <v>20</v>
+      </c>
+      <c r="D81" t="s">
+        <v>21</v>
+      </c>
+      <c r="E81" t="s">
+        <v>188</v>
+      </c>
+      <c r="F81" t="s">
+        <v>194</v>
+      </c>
+      <c r="G81"/>
+      <c r="H81"/>
+      <c r="I81" t="s">
+        <v>54</v>
+      </c>
+      <c r="J81" t="s">
+        <v>195</v>
+      </c>
+      <c r="K81" t="s">
+        <v>26</v>
+      </c>
+      <c r="L81" t="s">
+        <v>26</v>
+      </c>
+      <c r="M81" t="s">
+        <v>26</v>
+      </c>
+      <c r="N81" t="s">
+        <v>29</v>
+      </c>
+      <c r="O81" t="s">
+        <v>29</v>
+      </c>
+      <c r="P81" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17">
+      <c r="A82">
+        <v>1348</v>
+      </c>
+      <c r="B82" t="s">
+        <v>19</v>
+      </c>
+      <c r="C82" t="s">
+        <v>20</v>
+      </c>
+      <c r="D82" t="s">
+        <v>21</v>
+      </c>
+      <c r="E82" t="s">
+        <v>188</v>
+      </c>
+      <c r="F82" t="s">
+        <v>196</v>
+      </c>
+      <c r="G82"/>
+      <c r="H82"/>
+      <c r="I82" t="s">
+        <v>54</v>
+      </c>
+      <c r="J82" t="s">
+        <v>197</v>
+      </c>
+      <c r="K82" t="s">
+        <v>26</v>
+      </c>
+      <c r="L82" t="s">
+        <v>26</v>
+      </c>
+      <c r="M82" t="s">
+        <v>26</v>
+      </c>
+      <c r="N82" t="s">
+        <v>29</v>
+      </c>
+      <c r="O82" t="s">
+        <v>29</v>
+      </c>
+      <c r="P82" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17">
+      <c r="A83">
+        <v>49</v>
+      </c>
+      <c r="B83" t="s">
+        <v>19</v>
+      </c>
+      <c r="C83" t="s">
+        <v>20</v>
+      </c>
+      <c r="D83" t="s">
+        <v>21</v>
+      </c>
+      <c r="E83" t="s">
+        <v>123</v>
+      </c>
+      <c r="F83" t="s">
+        <v>198</v>
+      </c>
+      <c r="G83"/>
+      <c r="H83"/>
+      <c r="I83" t="s">
+        <v>24</v>
+      </c>
+      <c r="J83" t="s">
+        <v>199</v>
+      </c>
+      <c r="K83" t="s">
+        <v>26</v>
+      </c>
+      <c r="L83" t="s">
+        <v>26</v>
+      </c>
+      <c r="M83" t="s">
+        <v>26</v>
+      </c>
+      <c r="N83" t="s">
+        <v>29</v>
+      </c>
+      <c r="O83" t="s">
+        <v>29</v>
+      </c>
+      <c r="P83" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/public/assets/updated-excels/qr-feeder-pillar.xlsx
+++ b/public/assets/updated-excels/qr-feeder-pillar.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="163">
   <si>
     <t>Pintu</t>
   </si>
@@ -74,244 +74,436 @@
     <t>Pembersihan Iklan haram/ banner</t>
   </si>
   <si>
-    <t>W1</t>
-  </si>
-  <si>
-    <t>KUALA LUMPUR PUSAT</t>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>CHERAS</t>
   </si>
   <si>
     <t>aero</t>
   </si>
   <si>
-    <t>2023-12-20</t>
-  </si>
-  <si>
-    <t>23:38:20</t>
+    <t>2023-12-18</t>
+  </si>
+  <si>
+    <t>22:12:31</t>
+  </si>
+  <si>
+    <t>800A</t>
+  </si>
+  <si>
+    <t>101.73855548724532 , 3.012178772373509</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>undefined</t>
+  </si>
+  <si>
+    <t>17:45:51</t>
   </si>
   <si>
     <t>400A</t>
   </si>
   <si>
-    <t>101.77451385185122 , 3.16313527119014</t>
+    <t>101.75409788265824 , 2.999770535163755</t>
+  </si>
+  <si>
+    <t>17:46:51</t>
+  </si>
+  <si>
+    <t>101.75395203754306 , 2.999777901377117</t>
+  </si>
+  <si>
+    <t>17:49:20</t>
+  </si>
+  <si>
+    <t>101.75391616299748 , 2.9997651783420505</t>
   </si>
   <si>
     <t>yes</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>undefined</t>
-  </si>
-  <si>
-    <t>23:35:37</t>
-  </si>
-  <si>
-    <t>101.77481425926089 , 3.164051523380617</t>
-  </si>
-  <si>
-    <t>23:29:18</t>
-  </si>
-  <si>
-    <t>101.77502246573567 , 3.164447215648295</t>
-  </si>
-  <si>
-    <t>23:42:27</t>
+    <t>23:40:58</t>
   </si>
   <si>
     <t>1600A</t>
   </si>
   <si>
-    <t>101.77428418770432 , 3.1625286762337574</t>
-  </si>
-  <si>
-    <t>23:31:08</t>
-  </si>
-  <si>
-    <t>101.77508717402816 , 3.1644147436014443</t>
-  </si>
-  <si>
-    <t>21:44:20</t>
-  </si>
-  <si>
-    <t>101.77218502387404 , 3.167871184704515</t>
-  </si>
-  <si>
-    <t>21:29:20</t>
-  </si>
-  <si>
-    <t>101.77318079397082 , 3.1660909101515515</t>
-  </si>
-  <si>
-    <t>23:43:59</t>
-  </si>
-  <si>
-    <t>101.77423289045691 , 3.1624359455997624</t>
-  </si>
-  <si>
-    <t>21:26:34</t>
-  </si>
-  <si>
-    <t>101.77290184423327 , 3.1652051230838243</t>
+    <t>101.76749819889665 , 3.025671983545706</t>
+  </si>
+  <si>
+    <t>17:51:48</t>
+  </si>
+  <si>
+    <t>101.75389671698213 , 2.9997400670881715</t>
+  </si>
+  <si>
+    <t>17:53:01</t>
+  </si>
+  <si>
+    <t>101.75386788323522 , 2.999727344052654</t>
+  </si>
+  <si>
+    <t>23:45:07</t>
+  </si>
+  <si>
+    <t>101.76856940612197 , 3.0241459241357216</t>
+  </si>
+  <si>
+    <t>17:56:00</t>
+  </si>
+  <si>
+    <t>101.75375958904624 , 2.998993425297174</t>
+  </si>
+  <si>
+    <t>17:56:45</t>
+  </si>
+  <si>
+    <t>101.7538340203464 , 2.998957599882862</t>
+  </si>
+  <si>
+    <t>19:35:32</t>
+  </si>
+  <si>
+    <t>101.73155860975385 , 3.0088758379852214</t>
+  </si>
+  <si>
+    <t>17:59:53</t>
+  </si>
+  <si>
+    <t>101.75481235608459 , 3.0013789934687742</t>
+  </si>
+  <si>
+    <t>23:50:46</t>
+  </si>
+  <si>
+    <t>101.7684661410749 , 3.024077957862321</t>
+  </si>
+  <si>
+    <t>18:02:17</t>
+  </si>
+  <si>
+    <t>101.753737796098 , 3.00167262755922</t>
+  </si>
+  <si>
+    <t>20:00:31</t>
+  </si>
+  <si>
+    <t>101.73047801479697 , 3.0079624638325013</t>
+  </si>
+  <si>
+    <t>18:03:28</t>
+  </si>
+  <si>
+    <t>101.75371868535878 , 3.0016575608332476</t>
+  </si>
+  <si>
+    <t>19:33:21</t>
+  </si>
+  <si>
+    <t>101.73163471743464 , 3.0089394526282227</t>
+  </si>
+  <si>
+    <t>18:04:34</t>
+  </si>
+  <si>
+    <t>101.75370896235108 , 3.0016404852102454</t>
+  </si>
+  <si>
+    <t>23:57:03</t>
+  </si>
+  <si>
+    <t>101.76880879327655 , 3.023233568656429</t>
+  </si>
+  <si>
+    <t>18:06:44</t>
+  </si>
+  <si>
+    <t>101.75402814522386 , 3.0004307938425177</t>
+  </si>
+  <si>
+    <t>18:07:53</t>
+  </si>
+  <si>
+    <t>101.75400065258145 , 3.000419075264583</t>
+  </si>
+  <si>
+    <t>00:06:37</t>
+  </si>
+  <si>
+    <t>101.76944749429822 , 3.021957608900623</t>
+  </si>
+  <si>
+    <t>18:10:37</t>
+  </si>
+  <si>
+    <t>101.75183175131679 , 3.000412044115519</t>
+  </si>
+  <si>
+    <t>18:12:23</t>
+  </si>
+  <si>
+    <t>101.73820612952113 , 3.0137698021559878</t>
+  </si>
+  <si>
+    <t>00:19:47</t>
+  </si>
+  <si>
+    <t>101.76908304914832 , 3.0198744197271346</t>
+  </si>
+  <si>
+    <t>18:15:28</t>
+  </si>
+  <si>
+    <t>101.75186393782496 , 3.000368183150997</t>
+  </si>
+  <si>
+    <t>18:14:10</t>
+  </si>
+  <si>
+    <t>101.75184549763799 , 3.0004023344365045</t>
+  </si>
+  <si>
+    <t>18:16:34</t>
+  </si>
+  <si>
+    <t>101.75185052677989 , 3.000394968473052</t>
+  </si>
+  <si>
+    <t>18:16:03</t>
+  </si>
+  <si>
+    <t>101.73770288005471 , 3.0143018189547592</t>
   </si>
   <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>21:24:26</t>
-  </si>
-  <si>
-    <t>101.77304467186332 , 3.165092307388519</t>
-  </si>
-  <si>
-    <t>23:45:17</t>
-  </si>
-  <si>
-    <t>800A</t>
-  </si>
-  <si>
-    <t>101.7742764763534 , 3.1622310690625888</t>
-  </si>
-  <si>
-    <t>21:11:18</t>
-  </si>
-  <si>
-    <t>101.76966777071357 , 3.165251320500685</t>
-  </si>
-  <si>
-    <t>21:34:24</t>
-  </si>
-  <si>
-    <t>101.77375478670001 , 3.1673767352627245</t>
-  </si>
-  <si>
-    <t>23:47:00</t>
-  </si>
-  <si>
-    <t>101.77424965426326 , 3.1614674688052427</t>
-  </si>
-  <si>
-    <t>23:52:41</t>
-  </si>
-  <si>
-    <t>101.77300108596683 , 3.1611568022416927</t>
-  </si>
-  <si>
-    <t>23:54:24</t>
-  </si>
-  <si>
-    <t>101.77300343289971 , 3.161043320637528</t>
-  </si>
-  <si>
-    <t>22:58:39</t>
-  </si>
-  <si>
-    <t>101.76630126312375 , 3.156145681511515</t>
-  </si>
-  <si>
-    <t>23:54:53</t>
-  </si>
-  <si>
-    <t>101.77287535741925 , 3.1610316039771877</t>
-  </si>
-  <si>
-    <t>23:55:49</t>
-  </si>
-  <si>
-    <t>101.77285121753812 , 3.161024908657092</t>
-  </si>
-  <si>
-    <t>00:00:17</t>
-  </si>
-  <si>
-    <t>101.77202677354217 , 3.161686405888121</t>
-  </si>
-  <si>
-    <t>00:05:58</t>
-  </si>
-  <si>
-    <t>101.77216524258256 , 3.1613469534701095</t>
-  </si>
-  <si>
-    <t>21:51:07</t>
-  </si>
-  <si>
-    <t>101.7671843804419 , 3.165502059469503</t>
-  </si>
-  <si>
-    <t>00:08:16</t>
-  </si>
-  <si>
-    <t>101.77208142355084 , 3.1607139100199513</t>
-  </si>
-  <si>
-    <t>00:14:40</t>
-  </si>
-  <si>
-    <t>101.77130626514554 , 3.1608695766404624</t>
-  </si>
-  <si>
-    <t>00:16:31</t>
-  </si>
-  <si>
-    <t>101.77124055102468 , 3.1612334672796294</t>
-  </si>
-  <si>
-    <t>00:20:34</t>
-  </si>
-  <si>
-    <t>101.77103636786342 , 3.1616556070424147</t>
-  </si>
-  <si>
-    <t>00:19:30</t>
-  </si>
-  <si>
-    <t>101.77075305953622 , 3.162172150546977</t>
-  </si>
-  <si>
-    <t>00:21:16</t>
-  </si>
-  <si>
-    <t>101.77064577117562 , 3.162609354375067</t>
-  </si>
-  <si>
-    <t>00:23:21</t>
-  </si>
-  <si>
-    <t>101.77163248881698 , 3.162510263180902</t>
-  </si>
-  <si>
-    <t>00:24:18</t>
-  </si>
-  <si>
-    <t>101.77153693512082 , 3.1624212163608068</t>
-  </si>
-  <si>
-    <t>00:26:03</t>
-  </si>
-  <si>
-    <t>101.77246430888772 , 3.162121266639197</t>
-  </si>
-  <si>
-    <t>00:27:02</t>
-  </si>
-  <si>
-    <t>101.77260546013713 , 3.1619957295010686</t>
-  </si>
-  <si>
-    <t>00:28:41</t>
-  </si>
-  <si>
-    <t>101.77390163764358 , 3.162206631712632</t>
-  </si>
-  <si>
-    <t>00:29:32</t>
-  </si>
-  <si>
-    <t>101.77407061681151 , 3.1621457043497525</t>
+    <t>20:30:56</t>
+  </si>
+  <si>
+    <t>101.74027444794774 , 3.0171262913966057</t>
+  </si>
+  <si>
+    <t>18:28:52</t>
+  </si>
+  <si>
+    <t>101.7380284331739 , 3.014729039254292</t>
+  </si>
+  <si>
+    <t>18:18:53</t>
+  </si>
+  <si>
+    <t>101.75290295854211 , 2.9995736632698975</t>
+  </si>
+  <si>
+    <t>20:26:42</t>
+  </si>
+  <si>
+    <t>101.74087492749095 , 3.01742929565567</t>
+  </si>
+  <si>
+    <t>18:19:51</t>
+  </si>
+  <si>
+    <t>101.75293246284127 , 2.9995760069873105</t>
+  </si>
+  <si>
+    <t>20:08:43</t>
+  </si>
+  <si>
+    <t>101.73981914296746 , 3.019239284028809</t>
+  </si>
+  <si>
+    <t>18:22:19</t>
+  </si>
+  <si>
+    <t>101.7525784112513 , 3.00191905224964</t>
+  </si>
+  <si>
+    <t>20:03:49</t>
+  </si>
+  <si>
+    <t>101.73970280215144 , 3.0195345870539576</t>
+  </si>
+  <si>
+    <t>19:50:16</t>
+  </si>
+  <si>
+    <t>101.73777664080262 , 3.0161807836912624</t>
+  </si>
+  <si>
+    <t>18:23:30</t>
+  </si>
+  <si>
+    <t>101.75260389223695 , 3.0019224004101837</t>
+  </si>
+  <si>
+    <t>19:48:57</t>
+  </si>
+  <si>
+    <t>101.7374856211245 , 3.0161734178227744</t>
+  </si>
+  <si>
+    <t>18:24:41</t>
+  </si>
+  <si>
+    <t>101.7526256851852 , 3.001924409306502</t>
+  </si>
+  <si>
+    <t>19:46:49</t>
+  </si>
+  <si>
+    <t>101.73733508214355 , 3.0165517549625687</t>
+  </si>
+  <si>
+    <t>18:26:38</t>
+  </si>
+  <si>
+    <t>101.73874726518989 , 3.014278716909116</t>
+  </si>
+  <si>
+    <t>19:41:52</t>
+  </si>
+  <si>
+    <t>101.73685496672988 , 3.0170127903823682</t>
+  </si>
+  <si>
+    <t>18:30:00</t>
+  </si>
+  <si>
+    <t>101.75264613702893 , 3.0021222855759215</t>
+  </si>
+  <si>
+    <t>22:11:45</t>
+  </si>
+  <si>
+    <t>101.73857090994716 , 3.0122688370412907</t>
+  </si>
+  <si>
+    <t>18:30:33</t>
+  </si>
+  <si>
+    <t>101.7383355461061 , 3.014663750935118</t>
+  </si>
+  <si>
+    <t>20:25:04</t>
+  </si>
+  <si>
+    <t>101.74096746370196 , 3.017116581866473</t>
+  </si>
+  <si>
+    <t>18:32:53</t>
+  </si>
+  <si>
+    <t>101.73917876556516 , 3.014888409853489</t>
+  </si>
+  <si>
+    <t>19:45:07</t>
+  </si>
+  <si>
+    <t>101.73686904832721 , 3.016784783783069</t>
+  </si>
+  <si>
+    <t>18:34:29</t>
+  </si>
+  <si>
+    <t>101.73887835815549 , 3.014934948730458</t>
+  </si>
+  <si>
+    <t>06:41:49</t>
+  </si>
+  <si>
+    <t>101.73706451430917 , 3.015116082040949</t>
+  </si>
+  <si>
+    <t>18:36:16</t>
+  </si>
+  <si>
+    <t>101.73913149163127 , 3.0150183169295435</t>
+  </si>
+  <si>
+    <t>18:38:37</t>
+  </si>
+  <si>
+    <t>101.75197357311845 , 3.0017884725049724</t>
+  </si>
+  <si>
+    <t>18:41:00</t>
+  </si>
+  <si>
+    <t>101.73915864899755 , 3.0160026638662076</t>
+  </si>
+  <si>
+    <t>18:48:37</t>
+  </si>
+  <si>
+    <t>101.73859538510442 , 3.0165628036935894</t>
+  </si>
+  <si>
+    <t>19:58:46</t>
+  </si>
+  <si>
+    <t>101.72975784167647 , 3.006715949851057</t>
+  </si>
+  <si>
+    <t>19:56:45</t>
+  </si>
+  <si>
+    <t>101.72855218872428 , 3.0068927329125152</t>
+  </si>
+  <si>
+    <t>19:52:14</t>
+  </si>
+  <si>
+    <t>101.72808649018407 , 3.007933670786989</t>
+  </si>
+  <si>
+    <t>18:55:03</t>
+  </si>
+  <si>
+    <t>101.73693811520934 , 3.0155560249284568</t>
+  </si>
+  <si>
+    <t>19:41:24</t>
+  </si>
+  <si>
+    <t>101.72908125445247 , 3.00920897785645</t>
+  </si>
+  <si>
+    <t>19:05:37</t>
+  </si>
+  <si>
+    <t>101.73703601583838 , 3.015803116027434</t>
+  </si>
+  <si>
+    <t>19:07:15</t>
+  </si>
+  <si>
+    <t>101.73637418076396 , 3.0164071162826698</t>
+  </si>
+  <si>
+    <t>19:07:24</t>
+  </si>
+  <si>
+    <t>101.74249799922107 , 2.998278256395004</t>
+  </si>
+  <si>
+    <t>19:24:18</t>
+  </si>
+  <si>
+    <t>101.73161258921027 , 3.009508635841847</t>
+  </si>
+  <si>
+    <t>19:30:03</t>
+  </si>
+  <si>
+    <t>101.73148149624467 , 3.0094788376888824</t>
   </si>
 </sst>
 </file>
@@ -725,7 +917,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="H1" sqref="H1:H1048576"/>
@@ -817,7 +1009,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3">
-        <v>2307</v>
+        <v>2045</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -846,27 +1038,27 @@
         <v>26</v>
       </c>
       <c r="L3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4">
-        <v>2304</v>
+        <v>1923</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -881,12 +1073,12 @@
         <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J4" t="s">
         <v>31</v>
@@ -895,27 +1087,27 @@
         <v>26</v>
       </c>
       <c r="L4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5">
-        <v>2293</v>
+        <v>1924</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -935,7 +1127,7 @@
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J5" t="s">
         <v>33</v>
@@ -944,27 +1136,27 @@
         <v>26</v>
       </c>
       <c r="L5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6">
-        <v>2309</v>
+        <v>1925</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -984,36 +1176,36 @@
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" t="s">
         <v>35</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" t="s">
         <v>36</v>
       </c>
-      <c r="K6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" t="s">
-        <v>27</v>
-      </c>
-      <c r="M6" t="s">
-        <v>27</v>
-      </c>
       <c r="N6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7">
-        <v>2296</v>
+        <v>2071</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
@@ -1033,36 +1225,36 @@
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="J7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K7" t="s">
         <v>26</v>
       </c>
       <c r="L7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M7" t="s">
         <v>26</v>
       </c>
       <c r="N7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8">
-        <v>2221</v>
+        <v>1926</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -1077,41 +1269,41 @@
         <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K8" t="s">
         <v>26</v>
       </c>
       <c r="L8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9">
-        <v>2219</v>
+        <v>1927</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
@@ -1126,7 +1318,7 @@
         <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
@@ -1134,33 +1326,33 @@
         <v>24</v>
       </c>
       <c r="J9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10">
-        <v>2312</v>
+        <v>2072</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
@@ -1175,41 +1367,41 @@
         <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M10" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11">
-        <v>2218</v>
+        <v>1928</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
@@ -1224,41 +1416,41 @@
         <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q11" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12">
-        <v>2217</v>
+        <v>1929</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
@@ -1278,36 +1470,36 @@
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J12" t="s">
         <v>49</v>
       </c>
       <c r="K12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q12" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13">
-        <v>2314</v>
+        <v>1984</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
@@ -1327,36 +1519,36 @@
       <c r="G13"/>
       <c r="H13"/>
       <c r="I13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" t="s">
         <v>51</v>
       </c>
-      <c r="J13" t="s">
-        <v>52</v>
-      </c>
       <c r="K13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M13" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14">
-        <v>2216</v>
+        <v>1930</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
@@ -1371,41 +1563,41 @@
         <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15">
-        <v>2220</v>
+        <v>2076</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
@@ -1420,41 +1612,41 @@
         <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G15"/>
       <c r="H15"/>
       <c r="I15" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="J15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16">
-        <v>2316</v>
+        <v>1931</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
@@ -1469,41 +1661,41 @@
         <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="J16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17">
-        <v>2322</v>
+        <v>1997</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
@@ -1518,41 +1710,41 @@
         <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="J17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K17" t="s">
         <v>26</v>
       </c>
       <c r="L17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18">
-        <v>2324</v>
+        <v>1932</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -1567,41 +1759,41 @@
         <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="J18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19">
-        <v>2253</v>
+        <v>1982</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -1616,41 +1808,41 @@
         <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M19" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20">
-        <v>2326</v>
+        <v>1933</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -1665,41 +1857,41 @@
         <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K20" t="s">
         <v>26</v>
       </c>
       <c r="L20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21">
-        <v>2328</v>
+        <v>2079</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -1714,41 +1906,41 @@
         <v>22</v>
       </c>
       <c r="F21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="J21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K21" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="L21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22">
-        <v>2329</v>
+        <v>1934</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -1763,41 +1955,41 @@
         <v>22</v>
       </c>
       <c r="F22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K22" t="s">
         <v>26</v>
       </c>
       <c r="L22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23">
-        <v>2334</v>
+        <v>1936</v>
       </c>
       <c r="B23" t="s">
         <v>19</v>
@@ -1812,41 +2004,41 @@
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G23"/>
       <c r="H23"/>
       <c r="I23" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K23" t="s">
         <v>26</v>
       </c>
       <c r="L23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24">
-        <v>2147</v>
+        <v>2081</v>
       </c>
       <c r="B24" t="s">
         <v>19</v>
@@ -1861,41 +2053,41 @@
         <v>22</v>
       </c>
       <c r="F24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M24" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25">
-        <v>2337</v>
+        <v>1939</v>
       </c>
       <c r="B25" t="s">
         <v>19</v>
@@ -1910,41 +2102,41 @@
         <v>22</v>
       </c>
       <c r="F25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="J25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K25" t="s">
         <v>26</v>
       </c>
       <c r="L25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="A26">
-        <v>2347</v>
+        <v>1940</v>
       </c>
       <c r="B26" t="s">
         <v>19</v>
@@ -1959,41 +2151,41 @@
         <v>22</v>
       </c>
       <c r="F26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G26"/>
       <c r="H26"/>
       <c r="I26" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K26" t="s">
         <v>26</v>
       </c>
       <c r="L26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27">
-        <v>2351</v>
+        <v>2086</v>
       </c>
       <c r="B27" t="s">
         <v>19</v>
@@ -2008,41 +2200,41 @@
         <v>22</v>
       </c>
       <c r="F27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K27" t="s">
         <v>26</v>
       </c>
       <c r="L27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="A28">
-        <v>2355</v>
+        <v>1941</v>
       </c>
       <c r="B28" t="s">
         <v>19</v>
@@ -2057,41 +2249,41 @@
         <v>22</v>
       </c>
       <c r="F28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K28" t="s">
         <v>26</v>
       </c>
       <c r="L28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="A29">
-        <v>2357</v>
+        <v>1942</v>
       </c>
       <c r="B29" t="s">
         <v>19</v>
@@ -2106,41 +2298,41 @@
         <v>22</v>
       </c>
       <c r="F29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="A30">
-        <v>2358</v>
+        <v>1943</v>
       </c>
       <c r="B30" t="s">
         <v>19</v>
@@ -2155,41 +2347,41 @@
         <v>22</v>
       </c>
       <c r="F30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="A31">
-        <v>2361</v>
+        <v>1945</v>
       </c>
       <c r="B31" t="s">
         <v>19</v>
@@ -2204,41 +2396,41 @@
         <v>22</v>
       </c>
       <c r="F31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J31" t="s">
+        <v>87</v>
+      </c>
+      <c r="K31" t="s">
+        <v>26</v>
+      </c>
+      <c r="L31" t="s">
+        <v>36</v>
+      </c>
+      <c r="M31" t="s">
+        <v>26</v>
+      </c>
+      <c r="N31" t="s">
+        <v>27</v>
+      </c>
+      <c r="O31" t="s">
+        <v>28</v>
+      </c>
+      <c r="P31" t="s">
         <v>88</v>
       </c>
-      <c r="K31" t="s">
-        <v>27</v>
-      </c>
-      <c r="L31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M31" t="s">
-        <v>27</v>
-      </c>
-      <c r="N31" t="s">
-        <v>28</v>
-      </c>
-      <c r="O31" t="s">
-        <v>29</v>
-      </c>
-      <c r="P31" t="s">
-        <v>28</v>
-      </c>
       <c r="Q31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="A32">
-        <v>2363</v>
+        <v>2009</v>
       </c>
       <c r="B32" t="s">
         <v>19</v>
@@ -2258,36 +2450,36 @@
       <c r="G32"/>
       <c r="H32"/>
       <c r="I32" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="J32" t="s">
         <v>90</v>
       </c>
       <c r="K32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:17">
       <c r="A33">
-        <v>2365</v>
+        <v>1946</v>
       </c>
       <c r="B33" t="s">
         <v>19</v>
@@ -2307,7 +2499,7 @@
       <c r="G33"/>
       <c r="H33"/>
       <c r="I33" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J33" t="s">
         <v>92</v>
@@ -2316,27 +2508,27 @@
         <v>26</v>
       </c>
       <c r="L33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:17">
       <c r="A34">
-        <v>2367</v>
+        <v>1947</v>
       </c>
       <c r="B34" t="s">
         <v>19</v>
@@ -2356,7 +2548,7 @@
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J34" t="s">
         <v>94</v>
@@ -2365,27 +2557,27 @@
         <v>26</v>
       </c>
       <c r="L34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M34" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:17">
       <c r="A35">
-        <v>2370</v>
+        <v>2004</v>
       </c>
       <c r="B35" t="s">
         <v>19</v>
@@ -2405,7 +2597,7 @@
       <c r="G35"/>
       <c r="H35"/>
       <c r="I35" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J35" t="s">
         <v>96</v>
@@ -2414,27 +2606,27 @@
         <v>26</v>
       </c>
       <c r="L35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:17">
       <c r="A36">
-        <v>2372</v>
+        <v>1948</v>
       </c>
       <c r="B36" t="s">
         <v>19</v>
@@ -2454,31 +2646,1599 @@
       <c r="G36"/>
       <c r="H36"/>
       <c r="I36" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J36" t="s">
         <v>98</v>
       </c>
       <c r="K36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M36" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q36" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37">
+        <v>1999</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" t="s">
+        <v>99</v>
+      </c>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37" t="s">
+        <v>38</v>
+      </c>
+      <c r="J37" t="s">
+        <v>100</v>
+      </c>
+      <c r="K37" t="s">
+        <v>26</v>
+      </c>
+      <c r="L37" t="s">
+        <v>26</v>
+      </c>
+      <c r="M37" t="s">
+        <v>26</v>
+      </c>
+      <c r="N37" t="s">
+        <v>27</v>
+      </c>
+      <c r="O37" t="s">
+        <v>28</v>
+      </c>
+      <c r="P37" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38">
+        <v>1949</v>
+      </c>
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" t="s">
+        <v>101</v>
+      </c>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38" t="s">
+        <v>30</v>
+      </c>
+      <c r="J38" t="s">
+        <v>102</v>
+      </c>
+      <c r="K38" t="s">
+        <v>26</v>
+      </c>
+      <c r="L38" t="s">
+        <v>26</v>
+      </c>
+      <c r="M38" t="s">
+        <v>26</v>
+      </c>
+      <c r="N38" t="s">
+        <v>27</v>
+      </c>
+      <c r="O38" t="s">
+        <v>28</v>
+      </c>
+      <c r="P38" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39">
+        <v>1998</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" t="s">
+        <v>103</v>
+      </c>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39" t="s">
+        <v>38</v>
+      </c>
+      <c r="J39" t="s">
+        <v>104</v>
+      </c>
+      <c r="K39" t="s">
+        <v>26</v>
+      </c>
+      <c r="L39" t="s">
+        <v>26</v>
+      </c>
+      <c r="M39" t="s">
+        <v>26</v>
+      </c>
+      <c r="N39" t="s">
+        <v>27</v>
+      </c>
+      <c r="O39" t="s">
+        <v>28</v>
+      </c>
+      <c r="P39" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40">
+        <v>1992</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" t="s">
+        <v>105</v>
+      </c>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40" t="s">
+        <v>38</v>
+      </c>
+      <c r="J40" t="s">
+        <v>106</v>
+      </c>
+      <c r="K40" t="s">
+        <v>26</v>
+      </c>
+      <c r="L40" t="s">
+        <v>26</v>
+      </c>
+      <c r="M40" t="s">
+        <v>26</v>
+      </c>
+      <c r="N40" t="s">
+        <v>27</v>
+      </c>
+      <c r="O40" t="s">
+        <v>28</v>
+      </c>
+      <c r="P40" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41">
+        <v>1950</v>
+      </c>
+      <c r="B41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" t="s">
+        <v>107</v>
+      </c>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41" t="s">
+        <v>24</v>
+      </c>
+      <c r="J41" t="s">
+        <v>108</v>
+      </c>
+      <c r="K41" t="s">
+        <v>26</v>
+      </c>
+      <c r="L41" t="s">
+        <v>26</v>
+      </c>
+      <c r="M41" t="s">
+        <v>26</v>
+      </c>
+      <c r="N41" t="s">
+        <v>27</v>
+      </c>
+      <c r="O41" t="s">
+        <v>28</v>
+      </c>
+      <c r="P41" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42">
+        <v>1991</v>
+      </c>
+      <c r="B42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" t="s">
+        <v>22</v>
+      </c>
+      <c r="F42" t="s">
+        <v>109</v>
+      </c>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42" t="s">
+        <v>38</v>
+      </c>
+      <c r="J42" t="s">
+        <v>110</v>
+      </c>
+      <c r="K42" t="s">
+        <v>26</v>
+      </c>
+      <c r="L42" t="s">
+        <v>26</v>
+      </c>
+      <c r="M42" t="s">
+        <v>26</v>
+      </c>
+      <c r="N42" t="s">
+        <v>27</v>
+      </c>
+      <c r="O42" t="s">
+        <v>28</v>
+      </c>
+      <c r="P42" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43">
+        <v>1951</v>
+      </c>
+      <c r="B43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" t="s">
+        <v>111</v>
+      </c>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43" t="s">
+        <v>30</v>
+      </c>
+      <c r="J43" t="s">
+        <v>112</v>
+      </c>
+      <c r="K43" t="s">
+        <v>26</v>
+      </c>
+      <c r="L43" t="s">
+        <v>26</v>
+      </c>
+      <c r="M43" t="s">
+        <v>26</v>
+      </c>
+      <c r="N43" t="s">
+        <v>27</v>
+      </c>
+      <c r="O43" t="s">
+        <v>28</v>
+      </c>
+      <c r="P43" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44">
+        <v>1990</v>
+      </c>
+      <c r="B44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" t="s">
+        <v>113</v>
+      </c>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44" t="s">
+        <v>38</v>
+      </c>
+      <c r="J44" t="s">
+        <v>114</v>
+      </c>
+      <c r="K44" t="s">
+        <v>26</v>
+      </c>
+      <c r="L44" t="s">
+        <v>26</v>
+      </c>
+      <c r="M44" t="s">
+        <v>26</v>
+      </c>
+      <c r="N44" t="s">
+        <v>27</v>
+      </c>
+      <c r="O44" t="s">
+        <v>28</v>
+      </c>
+      <c r="P44" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45">
+        <v>1952</v>
+      </c>
+      <c r="B45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45" t="s">
+        <v>115</v>
+      </c>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45" t="s">
+        <v>38</v>
+      </c>
+      <c r="J45" t="s">
+        <v>116</v>
+      </c>
+      <c r="K45" t="s">
+        <v>26</v>
+      </c>
+      <c r="L45" t="s">
+        <v>26</v>
+      </c>
+      <c r="M45" t="s">
+        <v>26</v>
+      </c>
+      <c r="N45" t="s">
+        <v>27</v>
+      </c>
+      <c r="O45" t="s">
+        <v>28</v>
+      </c>
+      <c r="P45" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46">
+        <v>1987</v>
+      </c>
+      <c r="B46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" t="s">
+        <v>117</v>
+      </c>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46" t="s">
+        <v>38</v>
+      </c>
+      <c r="J46" t="s">
+        <v>118</v>
+      </c>
+      <c r="K46" t="s">
+        <v>26</v>
+      </c>
+      <c r="L46" t="s">
+        <v>26</v>
+      </c>
+      <c r="M46" t="s">
+        <v>26</v>
+      </c>
+      <c r="N46" t="s">
+        <v>27</v>
+      </c>
+      <c r="O46" t="s">
+        <v>28</v>
+      </c>
+      <c r="P46" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47">
+        <v>1953</v>
+      </c>
+      <c r="B47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47" t="s">
+        <v>119</v>
+      </c>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47" t="s">
+        <v>38</v>
+      </c>
+      <c r="J47" t="s">
+        <v>120</v>
+      </c>
+      <c r="K47" t="s">
+        <v>26</v>
+      </c>
+      <c r="L47" t="s">
+        <v>26</v>
+      </c>
+      <c r="M47" t="s">
+        <v>26</v>
+      </c>
+      <c r="N47" t="s">
+        <v>27</v>
+      </c>
+      <c r="O47" t="s">
+        <v>28</v>
+      </c>
+      <c r="P47" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48">
+        <v>2044</v>
+      </c>
+      <c r="B48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" t="s">
+        <v>121</v>
+      </c>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48" t="s">
+        <v>24</v>
+      </c>
+      <c r="J48" t="s">
+        <v>122</v>
+      </c>
+      <c r="K48" t="s">
+        <v>26</v>
+      </c>
+      <c r="L48" t="s">
+        <v>26</v>
+      </c>
+      <c r="M48" t="s">
+        <v>26</v>
+      </c>
+      <c r="N48" t="s">
+        <v>27</v>
+      </c>
+      <c r="O48" t="s">
+        <v>28</v>
+      </c>
+      <c r="P48" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49">
+        <v>1954</v>
+      </c>
+      <c r="B49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" t="s">
+        <v>22</v>
+      </c>
+      <c r="F49" t="s">
+        <v>123</v>
+      </c>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49" t="s">
+        <v>38</v>
+      </c>
+      <c r="J49" t="s">
+        <v>124</v>
+      </c>
+      <c r="K49" t="s">
+        <v>26</v>
+      </c>
+      <c r="L49" t="s">
+        <v>36</v>
+      </c>
+      <c r="M49" t="s">
+        <v>26</v>
+      </c>
+      <c r="N49" t="s">
+        <v>27</v>
+      </c>
+      <c r="O49" t="s">
+        <v>28</v>
+      </c>
+      <c r="P49" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50">
+        <v>2002</v>
+      </c>
+      <c r="B50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" t="s">
+        <v>22</v>
+      </c>
+      <c r="F50" t="s">
+        <v>125</v>
+      </c>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50" t="s">
+        <v>24</v>
+      </c>
+      <c r="J50" t="s">
+        <v>126</v>
+      </c>
+      <c r="K50" t="s">
+        <v>26</v>
+      </c>
+      <c r="L50" t="s">
+        <v>26</v>
+      </c>
+      <c r="M50" t="s">
+        <v>26</v>
+      </c>
+      <c r="N50" t="s">
+        <v>27</v>
+      </c>
+      <c r="O50" t="s">
+        <v>28</v>
+      </c>
+      <c r="P50" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51">
+        <v>1955</v>
+      </c>
+      <c r="B51" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" t="s">
+        <v>22</v>
+      </c>
+      <c r="F51" t="s">
+        <v>127</v>
+      </c>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51" t="s">
+        <v>38</v>
+      </c>
+      <c r="J51" t="s">
+        <v>128</v>
+      </c>
+      <c r="K51" t="s">
+        <v>26</v>
+      </c>
+      <c r="L51" t="s">
+        <v>36</v>
+      </c>
+      <c r="M51" t="s">
+        <v>26</v>
+      </c>
+      <c r="N51" t="s">
+        <v>27</v>
+      </c>
+      <c r="O51" t="s">
+        <v>28</v>
+      </c>
+      <c r="P51" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52">
+        <v>1989</v>
+      </c>
+      <c r="B52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52" t="s">
+        <v>129</v>
+      </c>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52" t="s">
+        <v>38</v>
+      </c>
+      <c r="J52" t="s">
+        <v>130</v>
+      </c>
+      <c r="K52" t="s">
+        <v>26</v>
+      </c>
+      <c r="L52" t="s">
+        <v>26</v>
+      </c>
+      <c r="M52" t="s">
+        <v>26</v>
+      </c>
+      <c r="N52" t="s">
+        <v>27</v>
+      </c>
+      <c r="O52" t="s">
+        <v>28</v>
+      </c>
+      <c r="P52" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53">
+        <v>1956</v>
+      </c>
+      <c r="B53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" t="s">
+        <v>22</v>
+      </c>
+      <c r="F53" t="s">
+        <v>131</v>
+      </c>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53" t="s">
+        <v>38</v>
+      </c>
+      <c r="J53" t="s">
+        <v>132</v>
+      </c>
+      <c r="K53" t="s">
+        <v>26</v>
+      </c>
+      <c r="L53" t="s">
+        <v>26</v>
+      </c>
+      <c r="M53" t="s">
+        <v>26</v>
+      </c>
+      <c r="N53" t="s">
+        <v>27</v>
+      </c>
+      <c r="O53" t="s">
+        <v>28</v>
+      </c>
+      <c r="P53" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54">
+        <v>1970</v>
+      </c>
+      <c r="B54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" t="s">
+        <v>22</v>
+      </c>
+      <c r="F54" t="s">
+        <v>133</v>
+      </c>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54" t="s">
+        <v>24</v>
+      </c>
+      <c r="J54" t="s">
+        <v>134</v>
+      </c>
+      <c r="K54" t="s">
+        <v>26</v>
+      </c>
+      <c r="L54" t="s">
+        <v>26</v>
+      </c>
+      <c r="M54" t="s">
+        <v>26</v>
+      </c>
+      <c r="N54" t="s">
+        <v>27</v>
+      </c>
+      <c r="O54" t="s">
+        <v>28</v>
+      </c>
+      <c r="P54" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55">
+        <v>1960</v>
+      </c>
+      <c r="B55" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55" t="s">
+        <v>22</v>
+      </c>
+      <c r="F55" t="s">
+        <v>135</v>
+      </c>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55" t="s">
+        <v>38</v>
+      </c>
+      <c r="J55" t="s">
+        <v>136</v>
+      </c>
+      <c r="K55" t="s">
+        <v>26</v>
+      </c>
+      <c r="L55" t="s">
+        <v>26</v>
+      </c>
+      <c r="M55" t="s">
+        <v>26</v>
+      </c>
+      <c r="N55" t="s">
+        <v>27</v>
+      </c>
+      <c r="O55" t="s">
+        <v>28</v>
+      </c>
+      <c r="P55" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56">
+        <v>1961</v>
+      </c>
+      <c r="B56" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" t="s">
+        <v>21</v>
+      </c>
+      <c r="E56" t="s">
+        <v>22</v>
+      </c>
+      <c r="F56" t="s">
+        <v>137</v>
+      </c>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56" t="s">
+        <v>30</v>
+      </c>
+      <c r="J56" t="s">
+        <v>138</v>
+      </c>
+      <c r="K56" t="s">
+        <v>26</v>
+      </c>
+      <c r="L56" t="s">
+        <v>26</v>
+      </c>
+      <c r="M56" t="s">
+        <v>26</v>
+      </c>
+      <c r="N56" t="s">
+        <v>27</v>
+      </c>
+      <c r="O56" t="s">
+        <v>28</v>
+      </c>
+      <c r="P56" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57">
+        <v>1963</v>
+      </c>
+      <c r="B57" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" t="s">
+        <v>21</v>
+      </c>
+      <c r="E57" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57" t="s">
+        <v>139</v>
+      </c>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57" t="s">
+        <v>38</v>
+      </c>
+      <c r="J57" t="s">
+        <v>140</v>
+      </c>
+      <c r="K57" t="s">
+        <v>26</v>
+      </c>
+      <c r="L57" t="s">
+        <v>26</v>
+      </c>
+      <c r="M57" t="s">
+        <v>26</v>
+      </c>
+      <c r="N57" t="s">
+        <v>27</v>
+      </c>
+      <c r="O57" t="s">
+        <v>28</v>
+      </c>
+      <c r="P57" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58">
+        <v>1966</v>
+      </c>
+      <c r="B58" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" t="s">
+        <v>21</v>
+      </c>
+      <c r="E58" t="s">
+        <v>22</v>
+      </c>
+      <c r="F58" t="s">
+        <v>141</v>
+      </c>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58" t="s">
+        <v>38</v>
+      </c>
+      <c r="J58" t="s">
+        <v>142</v>
+      </c>
+      <c r="K58" t="s">
+        <v>26</v>
+      </c>
+      <c r="L58" t="s">
+        <v>36</v>
+      </c>
+      <c r="M58" t="s">
+        <v>26</v>
+      </c>
+      <c r="N58" t="s">
+        <v>27</v>
+      </c>
+      <c r="O58" t="s">
+        <v>28</v>
+      </c>
+      <c r="P58" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59">
+        <v>1996</v>
+      </c>
+      <c r="B59" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" t="s">
+        <v>21</v>
+      </c>
+      <c r="E59" t="s">
+        <v>22</v>
+      </c>
+      <c r="F59" t="s">
+        <v>143</v>
+      </c>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59" t="s">
+        <v>38</v>
+      </c>
+      <c r="J59" t="s">
+        <v>144</v>
+      </c>
+      <c r="K59" t="s">
+        <v>26</v>
+      </c>
+      <c r="L59" t="s">
+        <v>26</v>
+      </c>
+      <c r="M59" t="s">
+        <v>26</v>
+      </c>
+      <c r="N59" t="s">
+        <v>27</v>
+      </c>
+      <c r="O59" t="s">
+        <v>28</v>
+      </c>
+      <c r="P59" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60">
+        <v>1995</v>
+      </c>
+      <c r="B60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" t="s">
+        <v>21</v>
+      </c>
+      <c r="E60" t="s">
+        <v>22</v>
+      </c>
+      <c r="F60" t="s">
+        <v>145</v>
+      </c>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60" t="s">
+        <v>38</v>
+      </c>
+      <c r="J60" t="s">
+        <v>146</v>
+      </c>
+      <c r="K60" t="s">
+        <v>26</v>
+      </c>
+      <c r="L60" t="s">
+        <v>26</v>
+      </c>
+      <c r="M60" t="s">
+        <v>26</v>
+      </c>
+      <c r="N60" t="s">
+        <v>27</v>
+      </c>
+      <c r="O60" t="s">
+        <v>28</v>
+      </c>
+      <c r="P60" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61">
+        <v>1993</v>
+      </c>
+      <c r="B61" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" t="s">
+        <v>21</v>
+      </c>
+      <c r="E61" t="s">
+        <v>22</v>
+      </c>
+      <c r="F61" t="s">
+        <v>147</v>
+      </c>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61" t="s">
+        <v>38</v>
+      </c>
+      <c r="J61" t="s">
+        <v>148</v>
+      </c>
+      <c r="K61" t="s">
+        <v>26</v>
+      </c>
+      <c r="L61" t="s">
+        <v>26</v>
+      </c>
+      <c r="M61" t="s">
+        <v>26</v>
+      </c>
+      <c r="N61" t="s">
+        <v>27</v>
+      </c>
+      <c r="O61" t="s">
+        <v>28</v>
+      </c>
+      <c r="P61" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="A62">
+        <v>1969</v>
+      </c>
+      <c r="B62" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" t="s">
+        <v>21</v>
+      </c>
+      <c r="E62" t="s">
+        <v>22</v>
+      </c>
+      <c r="F62" t="s">
+        <v>149</v>
+      </c>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62" t="s">
+        <v>24</v>
+      </c>
+      <c r="J62" t="s">
+        <v>150</v>
+      </c>
+      <c r="K62" t="s">
+        <v>26</v>
+      </c>
+      <c r="L62" t="s">
+        <v>26</v>
+      </c>
+      <c r="M62" t="s">
+        <v>26</v>
+      </c>
+      <c r="N62" t="s">
+        <v>27</v>
+      </c>
+      <c r="O62" t="s">
+        <v>28</v>
+      </c>
+      <c r="P62" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="A63">
+        <v>1986</v>
+      </c>
+      <c r="B63" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" t="s">
+        <v>20</v>
+      </c>
+      <c r="D63" t="s">
+        <v>21</v>
+      </c>
+      <c r="E63" t="s">
+        <v>22</v>
+      </c>
+      <c r="F63" t="s">
+        <v>151</v>
+      </c>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63" t="s">
+        <v>38</v>
+      </c>
+      <c r="J63" t="s">
+        <v>152</v>
+      </c>
+      <c r="K63" t="s">
+        <v>26</v>
+      </c>
+      <c r="L63" t="s">
+        <v>26</v>
+      </c>
+      <c r="M63" t="s">
+        <v>26</v>
+      </c>
+      <c r="N63" t="s">
+        <v>27</v>
+      </c>
+      <c r="O63" t="s">
+        <v>28</v>
+      </c>
+      <c r="P63" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="A64">
+        <v>1972</v>
+      </c>
+      <c r="B64" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" t="s">
+        <v>20</v>
+      </c>
+      <c r="D64" t="s">
+        <v>21</v>
+      </c>
+      <c r="E64" t="s">
+        <v>22</v>
+      </c>
+      <c r="F64" t="s">
+        <v>153</v>
+      </c>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64" t="s">
+        <v>38</v>
+      </c>
+      <c r="J64" t="s">
+        <v>154</v>
+      </c>
+      <c r="K64" t="s">
+        <v>26</v>
+      </c>
+      <c r="L64" t="s">
+        <v>26</v>
+      </c>
+      <c r="M64" t="s">
+        <v>26</v>
+      </c>
+      <c r="N64" t="s">
+        <v>27</v>
+      </c>
+      <c r="O64" t="s">
+        <v>28</v>
+      </c>
+      <c r="P64" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="A65">
+        <v>1973</v>
+      </c>
+      <c r="B65" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65" t="s">
+        <v>21</v>
+      </c>
+      <c r="E65" t="s">
+        <v>22</v>
+      </c>
+      <c r="F65" t="s">
+        <v>155</v>
+      </c>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65" t="s">
+        <v>38</v>
+      </c>
+      <c r="J65" t="s">
+        <v>156</v>
+      </c>
+      <c r="K65" t="s">
+        <v>26</v>
+      </c>
+      <c r="L65" t="s">
+        <v>26</v>
+      </c>
+      <c r="M65" t="s">
+        <v>26</v>
+      </c>
+      <c r="N65" t="s">
+        <v>27</v>
+      </c>
+      <c r="O65" t="s">
+        <v>28</v>
+      </c>
+      <c r="P65" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="A66">
+        <v>1974</v>
+      </c>
+      <c r="B66" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" t="s">
+        <v>20</v>
+      </c>
+      <c r="D66" t="s">
+        <v>21</v>
+      </c>
+      <c r="E66" t="s">
+        <v>22</v>
+      </c>
+      <c r="F66" t="s">
+        <v>157</v>
+      </c>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66" t="s">
+        <v>38</v>
+      </c>
+      <c r="J66" t="s">
+        <v>158</v>
+      </c>
+      <c r="K66" t="s">
+        <v>26</v>
+      </c>
+      <c r="L66" t="s">
+        <v>26</v>
+      </c>
+      <c r="M66" t="s">
+        <v>26</v>
+      </c>
+      <c r="N66" t="s">
+        <v>27</v>
+      </c>
+      <c r="O66" t="s">
+        <v>28</v>
+      </c>
+      <c r="P66" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="A67">
+        <v>1978</v>
+      </c>
+      <c r="B67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" t="s">
+        <v>20</v>
+      </c>
+      <c r="D67" t="s">
+        <v>21</v>
+      </c>
+      <c r="E67" t="s">
+        <v>22</v>
+      </c>
+      <c r="F67" t="s">
+        <v>159</v>
+      </c>
+      <c r="G67"/>
+      <c r="H67"/>
+      <c r="I67" t="s">
+        <v>38</v>
+      </c>
+      <c r="J67" t="s">
+        <v>160</v>
+      </c>
+      <c r="K67" t="s">
+        <v>26</v>
+      </c>
+      <c r="L67" t="s">
+        <v>26</v>
+      </c>
+      <c r="M67" t="s">
+        <v>36</v>
+      </c>
+      <c r="N67" t="s">
+        <v>27</v>
+      </c>
+      <c r="O67" t="s">
+        <v>28</v>
+      </c>
+      <c r="P67" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="A68">
+        <v>1980</v>
+      </c>
+      <c r="B68" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68" t="s">
+        <v>20</v>
+      </c>
+      <c r="D68" t="s">
+        <v>21</v>
+      </c>
+      <c r="E68" t="s">
+        <v>22</v>
+      </c>
+      <c r="F68" t="s">
+        <v>161</v>
+      </c>
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68" t="s">
+        <v>30</v>
+      </c>
+      <c r="J68" t="s">
+        <v>162</v>
+      </c>
+      <c r="K68" t="s">
+        <v>26</v>
+      </c>
+      <c r="L68" t="s">
+        <v>26</v>
+      </c>
+      <c r="M68" t="s">
+        <v>26</v>
+      </c>
+      <c r="N68" t="s">
+        <v>27</v>
+      </c>
+      <c r="O68" t="s">
+        <v>28</v>
+      </c>
+      <c r="P68" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/public/assets/updated-excels/qr-feeder-pillar.xlsx
+++ b/public/assets/updated-excels/qr-feeder-pillar.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="318">
   <si>
     <t>Pintu</t>
   </si>
@@ -74,25 +74,25 @@
     <t>Pembersihan Iklan haram/ banner</t>
   </si>
   <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>PETALING JAYA</t>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>CHERAS</t>
   </si>
   <si>
     <t>aero</t>
   </si>
   <si>
-    <t>2023-12-01</t>
-  </si>
-  <si>
-    <t>05:35:33</t>
+    <t>2023-12-12</t>
+  </si>
+  <si>
+    <t>20:09:19</t>
   </si>
   <si>
     <t>1600A</t>
   </si>
   <si>
-    <t>101.61745274439454 , 3.080710792009871</t>
+    <t>101.76460677757859 , 3.010414306952997</t>
   </si>
   <si>
     <t>no</t>
@@ -101,10 +101,874 @@
     <t>tidak</t>
   </si>
   <si>
-    <t>03:01:12</t>
-  </si>
-  <si>
-    <t>101.61743363365531 , 3.0806967308153137</t>
+    <t>20:21:09</t>
+  </si>
+  <si>
+    <t>400A</t>
+  </si>
+  <si>
+    <t>101.76037659868598 , 3.0111137319702808</t>
+  </si>
+  <si>
+    <t>20:21:47</t>
+  </si>
+  <si>
+    <t>101.76035413518548 , 3.0111545791839047</t>
+  </si>
+  <si>
+    <t>20:30:46</t>
+  </si>
+  <si>
+    <t>101.76035581156611 , 3.0104139721268526</t>
+  </si>
+  <si>
+    <t>22:59:08</t>
+  </si>
+  <si>
+    <t>800A</t>
+  </si>
+  <si>
+    <t>101.76840411499143 , 3.007780996005849</t>
+  </si>
+  <si>
+    <t>20:32:28</t>
+  </si>
+  <si>
+    <t>101.76034541800618 , 3.0102914303980883</t>
+  </si>
+  <si>
+    <t>20:34:56</t>
+  </si>
+  <si>
+    <t>101.76035882905126 , 3.0102860733823134</t>
+  </si>
+  <si>
+    <t>20:41:21</t>
+  </si>
+  <si>
+    <t>101.75923196598887 , 3.010305827375323</t>
+  </si>
+  <si>
+    <t>20:41:55</t>
+  </si>
+  <si>
+    <t>101.75920749083161 , 3.0103091755101166</t>
+  </si>
+  <si>
+    <t>22:19:49</t>
+  </si>
+  <si>
+    <t>101.75851112231612 , 3.010383169286108</t>
+  </si>
+  <si>
+    <t>22:22:49</t>
+  </si>
+  <si>
+    <t>101.75843233242631 , 3.0102944437163357</t>
+  </si>
+  <si>
+    <t>18:56:40</t>
+  </si>
+  <si>
+    <t>101.75881488248706 , 3.003080193600975</t>
+  </si>
+  <si>
+    <t>23:05:13</t>
+  </si>
+  <si>
+    <t>101.76890837028623 , 3.0075077875327296</t>
+  </si>
+  <si>
+    <t>22:30:51</t>
+  </si>
+  <si>
+    <t>101.75922760739923 , 3.0099405458215807</t>
+  </si>
+  <si>
+    <t>18:47:13</t>
+  </si>
+  <si>
+    <t>101.76609640941024 , 3.012104109112518</t>
+  </si>
+  <si>
+    <t>20:18:00</t>
+  </si>
+  <si>
+    <t>101.7608811892569 , 3.0101076177388952</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>20:24:32</t>
+  </si>
+  <si>
+    <t>101.7590200714767 , 3.010825792596118</t>
+  </si>
+  <si>
+    <t>20:25:38</t>
+  </si>
+  <si>
+    <t>101.75045510753989 , 2.996939321537552</t>
+  </si>
+  <si>
+    <t>20:10:04</t>
+  </si>
+  <si>
+    <t>101.76025254651904 , 2.992838803141244</t>
+  </si>
+  <si>
+    <t>20:03:22</t>
+  </si>
+  <si>
+    <t>101.7593171261251 , 2.9928381332966896</t>
+  </si>
+  <si>
+    <t>19:57:56</t>
+  </si>
+  <si>
+    <t>101.75998231396079 , 2.991925416913089</t>
+  </si>
+  <si>
+    <t>19:49:28</t>
+  </si>
+  <si>
+    <t>101.76494942978024 , 3.007186365643318</t>
+  </si>
+  <si>
+    <t>19:45:35</t>
+  </si>
+  <si>
+    <t>101.76047114655375 , 2.992194276709176</t>
+  </si>
+  <si>
+    <t>19:38:15</t>
+  </si>
+  <si>
+    <t>101.75936071202159 , 2.9936430376748744</t>
+  </si>
+  <si>
+    <t>20:31:34</t>
+  </si>
+  <si>
+    <t>101.76037391647696 , 3.0104253557840144</t>
+  </si>
+  <si>
+    <t>20:39:33</t>
+  </si>
+  <si>
+    <t>101.75920883193612 , 3.0103861826077845</t>
+  </si>
+  <si>
+    <t>21:08:35</t>
+  </si>
+  <si>
+    <t>101.76121378317475 , 2.99234661921202</t>
+  </si>
+  <si>
+    <t>20:51:49</t>
+  </si>
+  <si>
+    <t>101.7509506456554 , 2.9943868368469384</t>
+  </si>
+  <si>
+    <t>20:38:21</t>
+  </si>
+  <si>
+    <t>101.7502973601222 , 2.9979007499784918</t>
+  </si>
+  <si>
+    <t>20:34:53</t>
+  </si>
+  <si>
+    <t>101.74974214285612 , 2.9974502532459963</t>
+  </si>
+  <si>
+    <t>20:29:31</t>
+  </si>
+  <si>
+    <t>101.75023147836328 , 2.996812593278731</t>
+  </si>
+  <si>
+    <t>22:19:02</t>
+  </si>
+  <si>
+    <t>101.75853392109275 , 3.010379821151538</t>
+  </si>
+  <si>
+    <t>22:24:03</t>
+  </si>
+  <si>
+    <t>101.75840450450778 , 3.0104374090648283</t>
+  </si>
+  <si>
+    <t>22:30:07</t>
+  </si>
+  <si>
+    <t>101.7592309601605 , 3.009917443683409</t>
+  </si>
+  <si>
+    <t>22:34:20</t>
+  </si>
+  <si>
+    <t>101.76034575328231 , 3.0098896541530307</t>
+  </si>
+  <si>
+    <t>22:35:37</t>
+  </si>
+  <si>
+    <t>101.75176234915853 , 2.994683988187931</t>
+  </si>
+  <si>
+    <t>22:25:02</t>
+  </si>
+  <si>
+    <t>101.75200341269374 , 2.9936507383328417</t>
+  </si>
+  <si>
+    <t>19:42:25</t>
+  </si>
+  <si>
+    <t>101.76090566441417 , 2.9925468410910723</t>
+  </si>
+  <si>
+    <t>22:50:36</t>
+  </si>
+  <si>
+    <t>101.75320671871305 , 2.993824509160901</t>
+  </si>
+  <si>
+    <t>03:30:10</t>
+  </si>
+  <si>
+    <t>101.75970604643226 , 2.994848383247254</t>
+  </si>
+  <si>
+    <t>23:18:24</t>
+  </si>
+  <si>
+    <t>101.76671834662557 , 3.008690685896682</t>
+  </si>
+  <si>
+    <t>23:25:27</t>
+  </si>
+  <si>
+    <t>101.75634289160371 , 2.9957544016012</t>
+  </si>
+  <si>
+    <t>23:11:29</t>
+  </si>
+  <si>
+    <t>101.75513053312898 , 2.9948785167657674</t>
+  </si>
+  <si>
+    <t>18:55:45</t>
+  </si>
+  <si>
+    <t>101.76746198907495 , 3.011469973241881</t>
+  </si>
+  <si>
+    <t>17:44:02</t>
+  </si>
+  <si>
+    <t>101.76870251074433 , 3.0199370289727243</t>
+  </si>
+  <si>
+    <t>17:48:18</t>
+  </si>
+  <si>
+    <t>101.76791561767459 , 3.0176636635329146</t>
+  </si>
+  <si>
+    <t>17:57:53</t>
+  </si>
+  <si>
+    <t>101.76355300471187 , 3.0155161823156487</t>
+  </si>
+  <si>
+    <t>18:22:44</t>
+  </si>
+  <si>
+    <t>101.76139885559678 , 3.0146838396674243</t>
+  </si>
+  <si>
+    <t>18:24:07</t>
+  </si>
+  <si>
+    <t>101.76134152337909 , 3.014702923958929</t>
+  </si>
+  <si>
+    <t>18:38:07</t>
+  </si>
+  <si>
+    <t>101.76533130928874 , 3.0150963281390744</t>
+  </si>
+  <si>
+    <t>18:52:50</t>
+  </si>
+  <si>
+    <t>101.76728965714574 , 3.0121613621217405</t>
+  </si>
+  <si>
+    <t>18:58:08</t>
+  </si>
+  <si>
+    <t>101.7665839008987 , 3.0115402839590493</t>
+  </si>
+  <si>
+    <t>19:00:05</t>
+  </si>
+  <si>
+    <t>101.76734430715442 , 3.0116541204237497</t>
+  </si>
+  <si>
+    <t>22:31:47</t>
+  </si>
+  <si>
+    <t>101.75915049389005 , 3.009934184363292</t>
+  </si>
+  <si>
+    <t>19:09:03</t>
+  </si>
+  <si>
+    <t>101.76354663446546 , 3.0118365935147455</t>
+  </si>
+  <si>
+    <t>ya</t>
+  </si>
+  <si>
+    <t>19:22:34</t>
+  </si>
+  <si>
+    <t>101.76028640940785 , 3.0094028350269024</t>
+  </si>
+  <si>
+    <t>19:25:16</t>
+  </si>
+  <si>
+    <t>101.75833677873015 , 3.0079102342980955</t>
+  </si>
+  <si>
+    <t>19:31:18</t>
+  </si>
+  <si>
+    <t>101.75832403823733 , 3.0075462911836306</t>
+  </si>
+  <si>
+    <t>19:45:47</t>
+  </si>
+  <si>
+    <t>101.76054826006293 , 3.0079346756916507</t>
+  </si>
+  <si>
+    <t>22:32:30</t>
+  </si>
+  <si>
+    <t>101.75915149971843 , 3.0099606346369954</t>
+  </si>
+  <si>
+    <t>23:10:52</t>
+  </si>
+  <si>
+    <t>101.76823614165187 , 3.0082681506402933</t>
+  </si>
+  <si>
+    <t>23:13:07</t>
+  </si>
+  <si>
+    <t>101.76803095266223 , 3.009134649119146</t>
+  </si>
+  <si>
+    <t>23:16:36</t>
+  </si>
+  <si>
+    <t>101.76708715036511 , 3.009158086091338</t>
+  </si>
+  <si>
+    <t>23:20:55</t>
+  </si>
+  <si>
+    <t>101.76725411787629 , 3.0079447199653924</t>
+  </si>
+  <si>
+    <t>21:03:19</t>
+  </si>
+  <si>
+    <t>101.76098445430398 , 2.992123964565415</t>
+  </si>
+  <si>
+    <t>23:27:26</t>
+  </si>
+  <si>
+    <t>101.75631808117032 , 2.995444694971634</t>
+  </si>
+  <si>
+    <t>23:26:36</t>
+  </si>
+  <si>
+    <t>101.75641531124711 , 2.9956228181526194</t>
+  </si>
+  <si>
+    <t>23:24:29</t>
+  </si>
+  <si>
+    <t>101.75619335845113 , 2.99580462429133</t>
+  </si>
+  <si>
+    <t>23:22:50</t>
+  </si>
+  <si>
+    <t>101.7561568133533 , 2.995832414178878</t>
+  </si>
+  <si>
+    <t>23:12:59</t>
+  </si>
+  <si>
+    <t>101.75496222451329 , 2.9950268419046235</t>
+  </si>
+  <si>
+    <t>06:47:49</t>
+  </si>
+  <si>
+    <t>101.75343034788966 , 2.9940679219781785</t>
+  </si>
+  <si>
+    <t>06:44:44</t>
+  </si>
+  <si>
+    <t>101.75189880654216 , 2.99462840833577</t>
+  </si>
+  <si>
+    <t>06:55:19</t>
+  </si>
+  <si>
+    <t>101.75172010436654 , 2.994943807119179</t>
+  </si>
+  <si>
+    <t>06:56:07</t>
+  </si>
+  <si>
+    <t>101.75171675160527 , 2.994968583664937</t>
+  </si>
+  <si>
+    <t>06:57:11</t>
+  </si>
+  <si>
+    <t>101.75169998779893 , 2.9951520640134035</t>
+  </si>
+  <si>
+    <t>07:01:30</t>
+  </si>
+  <si>
+    <t>101.75209762528539 , 2.9959633279596476</t>
+  </si>
+  <si>
+    <t>07:05:36</t>
+  </si>
+  <si>
+    <t>101.75208555534482 , 2.9961036167063364</t>
+  </si>
+  <si>
+    <t>07:07:28</t>
+  </si>
+  <si>
+    <t>101.75240842625499 , 2.9959713635065635</t>
+  </si>
+  <si>
+    <t>22:41:21</t>
+  </si>
+  <si>
+    <t>101.75176972523332 , 2.994665238346636</t>
+  </si>
+  <si>
+    <t>22:38:21</t>
+  </si>
+  <si>
+    <t>101.75169998779893 , 2.9947301930379706</t>
+  </si>
+  <si>
+    <t>22:37:40</t>
+  </si>
+  <si>
+    <t>101.75174525007606 , 2.9947322019474947</t>
+  </si>
+  <si>
+    <t>22:31:40</t>
+  </si>
+  <si>
+    <t>101.75212679430842 , 2.9941452649882714</t>
+  </si>
+  <si>
+    <t>22:28:40</t>
+  </si>
+  <si>
+    <t>101.74941608682275 , 2.99826385802697</t>
+  </si>
+  <si>
+    <t>22:26:26</t>
+  </si>
+  <si>
+    <t>101.75188506022096 , 2.993812455697447</t>
+  </si>
+  <si>
+    <t>22:23:42</t>
+  </si>
+  <si>
+    <t>101.75234405323863 , 2.993584108525459</t>
+  </si>
+  <si>
+    <t>22:20:52</t>
+  </si>
+  <si>
+    <t>101.75490288063884 , 2.992725633741662</t>
+  </si>
+  <si>
+    <t>21:02:19</t>
+  </si>
+  <si>
+    <t>101.76101563498378 , 2.992142379613089</t>
+  </si>
+  <si>
+    <t>21:01:30</t>
+  </si>
+  <si>
+    <t>101.76104748621583 , 2.9922274230970594</t>
+  </si>
+  <si>
+    <t>20:53:01</t>
+  </si>
+  <si>
+    <t>101.75128860399127 , 2.9943587121375526</t>
+  </si>
+  <si>
+    <t>20:50:03</t>
+  </si>
+  <si>
+    <t>101.75090370699763 , 2.9944286892134206</t>
+  </si>
+  <si>
+    <t>20:43:01</t>
+  </si>
+  <si>
+    <t>101.75067018717527 , 2.9958553491643407</t>
+  </si>
+  <si>
+    <t>20:37:47</t>
+  </si>
+  <si>
+    <t>101.75027573481202 , 2.9978897009550955</t>
+  </si>
+  <si>
+    <t>20:36:52</t>
+  </si>
+  <si>
+    <t>101.75016961991787 , 2.9975825061137704</t>
+  </si>
+  <si>
+    <t>20:35:33</t>
+  </si>
+  <si>
+    <t>101.74975052475929 , 2.99742447230411</t>
+  </si>
+  <si>
+    <t>20:33:08</t>
+  </si>
+  <si>
+    <t>101.75081519410014 , 2.9963790043442553</t>
+  </si>
+  <si>
+    <t>20:31:59</t>
+  </si>
+  <si>
+    <t>101.75076020881534 , 2.996613376744757</t>
+  </si>
+  <si>
+    <t>20:30:17</t>
+  </si>
+  <si>
+    <t>101.75024723634124 , 2.9967650491759095</t>
+  </si>
+  <si>
+    <t>20:28:29</t>
+  </si>
+  <si>
+    <t>101.75021404400468 , 2.996822805213931</t>
+  </si>
+  <si>
+    <t>20:27:15</t>
+  </si>
+  <si>
+    <t>101.75021940842271 , 2.996875873781245</t>
+  </si>
+  <si>
+    <t>20:15:22</t>
+  </si>
+  <si>
+    <t>101.75993537530303 , 2.9919860192527388</t>
+  </si>
+  <si>
+    <t>20:14:38</t>
+  </si>
+  <si>
+    <t>101.75994174554944 , 2.991970282755232</t>
+  </si>
+  <si>
+    <t>20:12:39</t>
+  </si>
+  <si>
+    <t>101.76015229895711 , 2.99265398314097</t>
+  </si>
+  <si>
+    <t>20:11:38</t>
+  </si>
+  <si>
+    <t>101.76014190539718 , 2.9926613491565144</t>
+  </si>
+  <si>
+    <t>20:07:57</t>
+  </si>
+  <si>
+    <t>101.75977176055312 , 2.993092260979764</t>
+  </si>
+  <si>
+    <t>20:06:35</t>
+  </si>
+  <si>
+    <t>101.75975600257516 , 2.9931829968587973</t>
+  </si>
+  <si>
+    <t>20:05:38</t>
+  </si>
+  <si>
+    <t>101.75976706668735 , 2.993164247009876</t>
+  </si>
+  <si>
+    <t>20:02:08</t>
+  </si>
+  <si>
+    <t>101.75902945920825 , 2.993131769579854</t>
+  </si>
+  <si>
+    <t>20:01:17</t>
+  </si>
+  <si>
+    <t>101.75901001319289 , 2.9931528631604998</t>
+  </si>
+  <si>
+    <t>19:58:46</t>
+  </si>
+  <si>
+    <t>101.75996923819184 , 2.991940483855065</t>
+  </si>
+  <si>
+    <t>19:56:48</t>
+  </si>
+  <si>
+    <t>101.7600684799254 , 2.991967938939502</t>
+  </si>
+  <si>
+    <t>19:55:16</t>
+  </si>
+  <si>
+    <t>101.75982506945729 , 2.991859121338233</t>
+  </si>
+  <si>
+    <t>19:46:33</t>
+  </si>
+  <si>
+    <t>101.7604617588222 , 2.992213696212754</t>
+  </si>
+  <si>
+    <t>19:44:23</t>
+  </si>
+  <si>
+    <t>101.76054390147328 , 2.9922120221176267</t>
+  </si>
+  <si>
+    <t>19:39:34</t>
+  </si>
+  <si>
+    <t>101.7593684233725 , 2.9936366761412314</t>
+  </si>
+  <si>
+    <t>19:36:37</t>
+  </si>
+  <si>
+    <t>101.75899827852845 , 2.993700291002024</t>
+  </si>
+  <si>
+    <t>19:34:14</t>
+  </si>
+  <si>
+    <t>101.75892954692245 , 2.993269045158341</t>
+  </si>
+  <si>
+    <t>19:22:59</t>
+  </si>
+  <si>
+    <t>101.75944888964295 , 2.994414124563151</t>
+  </si>
+  <si>
+    <t>19:21:14</t>
+  </si>
+  <si>
+    <t>101.75861405208707 , 2.994491802484558</t>
+  </si>
+  <si>
+    <t>19:20:31</t>
+  </si>
+  <si>
+    <t>101.75862846896052 , 2.9944988336694154</t>
+  </si>
+  <si>
+    <t>19:19:46</t>
+  </si>
+  <si>
+    <t>101.75864389166236 , 2.994504190762618</t>
+  </si>
+  <si>
+    <t>19:17:36</t>
+  </si>
+  <si>
+    <t>101.75915518775582 , 2.9949702574202037</t>
+  </si>
+  <si>
+    <t>19:15:56</t>
+  </si>
+  <si>
+    <t>101.75912400707603 , 2.995270589287927</t>
+  </si>
+  <si>
+    <t>18:45:07</t>
+  </si>
+  <si>
+    <t>101.75834013149142 , 3.003086555138104</t>
+  </si>
+  <si>
+    <t>18:30:01</t>
+  </si>
+  <si>
+    <t>101.75558449700475 , 3.005069331964788</t>
+  </si>
+  <si>
+    <t>04:47:55</t>
+  </si>
+  <si>
+    <t>101.75081133842468 , 2.9951617736563376</t>
+  </si>
+  <si>
+    <t>17:48:58</t>
+  </si>
+  <si>
+    <t>101.7678046412766 , 3.0079514163217067</t>
+  </si>
+  <si>
+    <t>18:29:11</t>
+  </si>
+  <si>
+    <t>101.75177911296487 , 2.994650506342436</t>
+  </si>
+  <si>
+    <t>06:52:55</t>
+  </si>
+  <si>
+    <t>101.75319666042924 , 2.9937927015481187</t>
+  </si>
+  <si>
+    <t>06:58:36</t>
+  </si>
+  <si>
+    <t>101.75145892426372 , 2.9960312960594555</t>
+  </si>
+  <si>
+    <t>19:52:19</t>
+  </si>
+  <si>
+    <t>101.76453972235322 , 3.008628410559851</t>
+  </si>
+  <si>
+    <t>19:59:24</t>
+  </si>
+  <si>
+    <t>101.76249688491225 , 3.009508970954331</t>
+  </si>
+  <si>
+    <t>22:35:13</t>
+  </si>
+  <si>
+    <t>101.76036151126027 , 3.0099094081557736</t>
+  </si>
+  <si>
+    <t>20:23:40</t>
+  </si>
+  <si>
+    <t>101.7589989490807 , 3.0108043645433478</t>
+  </si>
+  <si>
+    <t>20:25:13</t>
+  </si>
+  <si>
+    <t>101.7590375058353 , 3.0108418636354095</t>
+  </si>
+  <si>
+    <t>20:26:27</t>
+  </si>
+  <si>
+    <t>101.75889870151877 , 3.0109299195393815</t>
+  </si>
+  <si>
+    <t>20:27:48</t>
+  </si>
+  <si>
+    <t>101.75889065489173 , 3.0109617268013995</t>
+  </si>
+  <si>
+    <t>20:29:44</t>
+  </si>
+  <si>
+    <t>101.7603444121778 , 3.0103915396383174</t>
+  </si>
+  <si>
+    <t>20:38:51</t>
+  </si>
+  <si>
+    <t>101.75919642671943 , 3.0103811604059345</t>
+  </si>
+  <si>
+    <t>20:40:20</t>
+  </si>
+  <si>
+    <t>101.7592309601605 , 3.0103871870481544</t>
+  </si>
+  <si>
+    <t>22:20:36</t>
+  </si>
+  <si>
+    <t>101.75848698243499 , 3.0103841737264787</t>
+  </si>
+  <si>
+    <t>22:25:22</t>
+  </si>
+  <si>
+    <t>101.75844909623265 , 3.010494996975078</t>
+  </si>
+  <si>
+    <t>22:27:57</t>
+  </si>
+  <si>
+    <t>101.75845010206103 , 3.0098873104589634</t>
+  </si>
+  <si>
+    <t>22:29:24</t>
+  </si>
+  <si>
+    <t>101.75923263654113 , 3.009893671917526</t>
+  </si>
+  <si>
+    <t>17:59:22</t>
+  </si>
+  <si>
+    <t>101.76369046792388 , 3.015510155701825</t>
   </si>
 </sst>
 </file>
@@ -518,7 +1382,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="H1" sqref="H1:H1048576"/>
@@ -610,7 +1474,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3">
-        <v>48</v>
+        <v>1075</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -659,7 +1523,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4">
-        <v>49</v>
+        <v>1085</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -679,30 +1543,6988 @@
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5">
+        <v>1086</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6">
+        <v>1109</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7">
+        <v>1249</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8">
+        <v>1113</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9">
+        <v>1117</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" t="s">
+        <v>27</v>
+      </c>
+      <c r="O9" t="s">
+        <v>27</v>
+      </c>
+      <c r="P9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10">
+        <v>1128</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" t="s">
+        <v>27</v>
+      </c>
+      <c r="P10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11">
+        <v>1129</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O11" t="s">
+        <v>27</v>
+      </c>
+      <c r="P11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12">
+        <v>1202</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" t="s">
+        <v>27</v>
+      </c>
+      <c r="O12" t="s">
+        <v>27</v>
+      </c>
+      <c r="P12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13">
+        <v>1207</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" t="s">
+        <v>27</v>
+      </c>
+      <c r="O13" t="s">
+        <v>27</v>
+      </c>
+      <c r="P13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14">
+        <v>1008</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14" t="s">
         <v>24</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J14" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" t="s">
+        <v>27</v>
+      </c>
+      <c r="O14" t="s">
+        <v>27</v>
+      </c>
+      <c r="P14" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15">
+        <v>1252</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" t="s">
+        <v>27</v>
+      </c>
+      <c r="O15" t="s">
+        <v>27</v>
+      </c>
+      <c r="P15" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16">
+        <v>1225</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" t="s">
+        <v>55</v>
+      </c>
+      <c r="K16" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16" t="s">
+        <v>27</v>
+      </c>
+      <c r="O16" t="s">
+        <v>27</v>
+      </c>
+      <c r="P16" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17">
+        <v>1001</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" t="s">
+        <v>57</v>
+      </c>
+      <c r="K17" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" t="s">
+        <v>27</v>
+      </c>
+      <c r="O17" t="s">
+        <v>27</v>
+      </c>
+      <c r="P17" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18">
+        <v>1079</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" t="s">
+        <v>59</v>
+      </c>
+      <c r="K18" t="s">
+        <v>60</v>
+      </c>
+      <c r="L18" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" t="s">
+        <v>27</v>
+      </c>
+      <c r="O18" t="s">
+        <v>27</v>
+      </c>
+      <c r="P18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19">
+        <v>1092</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19" t="s">
         <v>29</v>
       </c>
-      <c r="K4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="J19" t="s">
+        <v>62</v>
+      </c>
+      <c r="K19" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" t="s">
+        <v>26</v>
+      </c>
+      <c r="M19" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19" t="s">
+        <v>27</v>
+      </c>
+      <c r="O19" t="s">
+        <v>27</v>
+      </c>
+      <c r="P19" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20">
+        <v>1096</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" t="s">
+        <v>64</v>
+      </c>
+      <c r="K20" t="s">
+        <v>26</v>
+      </c>
+      <c r="L20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20" t="s">
+        <v>26</v>
+      </c>
+      <c r="N20" t="s">
+        <v>27</v>
+      </c>
+      <c r="O20" t="s">
+        <v>27</v>
+      </c>
+      <c r="P20" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21">
+        <v>1076</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J21" t="s">
+        <v>66</v>
+      </c>
+      <c r="K21" t="s">
+        <v>26</v>
+      </c>
+      <c r="L21" t="s">
+        <v>26</v>
+      </c>
+      <c r="M21" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21" t="s">
+        <v>27</v>
+      </c>
+      <c r="O21" t="s">
+        <v>27</v>
+      </c>
+      <c r="P21" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22">
+        <v>1068</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22" t="s">
+        <v>36</v>
+      </c>
+      <c r="J22" t="s">
+        <v>68</v>
+      </c>
+      <c r="K22" t="s">
+        <v>26</v>
+      </c>
+      <c r="L22" t="s">
+        <v>26</v>
+      </c>
+      <c r="M22" t="s">
+        <v>60</v>
+      </c>
+      <c r="N22" t="s">
+        <v>27</v>
+      </c>
+      <c r="O22" t="s">
+        <v>27</v>
+      </c>
+      <c r="P22" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23">
+        <v>1059</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" t="s">
+        <v>70</v>
+      </c>
+      <c r="K23" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" t="s">
+        <v>26</v>
+      </c>
+      <c r="M23" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23" t="s">
+        <v>27</v>
+      </c>
+      <c r="O23" t="s">
+        <v>27</v>
+      </c>
+      <c r="P23" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24">
+        <v>1049</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" t="s">
+        <v>71</v>
+      </c>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" t="s">
+        <v>72</v>
+      </c>
+      <c r="K24" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" t="s">
+        <v>26</v>
+      </c>
+      <c r="M24" t="s">
+        <v>26</v>
+      </c>
+      <c r="N24" t="s">
+        <v>27</v>
+      </c>
+      <c r="O24" t="s">
+        <v>27</v>
+      </c>
+      <c r="P24" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25">
+        <v>1045</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25" t="s">
+        <v>36</v>
+      </c>
+      <c r="J25" t="s">
+        <v>74</v>
+      </c>
+      <c r="K25" t="s">
+        <v>26</v>
+      </c>
+      <c r="L25" t="s">
+        <v>26</v>
+      </c>
+      <c r="M25" t="s">
+        <v>60</v>
+      </c>
+      <c r="N25" t="s">
+        <v>27</v>
+      </c>
+      <c r="O25" t="s">
+        <v>27</v>
+      </c>
+      <c r="P25" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26">
+        <v>1037</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" t="s">
+        <v>75</v>
+      </c>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26" t="s">
+        <v>36</v>
+      </c>
+      <c r="J26" t="s">
+        <v>76</v>
+      </c>
+      <c r="K26" t="s">
+        <v>26</v>
+      </c>
+      <c r="L26" t="s">
+        <v>26</v>
+      </c>
+      <c r="M26" t="s">
+        <v>60</v>
+      </c>
+      <c r="N26" t="s">
+        <v>27</v>
+      </c>
+      <c r="O26" t="s">
+        <v>27</v>
+      </c>
+      <c r="P26" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27">
+        <v>1110</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" t="s">
+        <v>78</v>
+      </c>
+      <c r="K27" t="s">
+        <v>26</v>
+      </c>
+      <c r="L27" t="s">
+        <v>26</v>
+      </c>
+      <c r="M27" t="s">
+        <v>26</v>
+      </c>
+      <c r="N27" t="s">
+        <v>27</v>
+      </c>
+      <c r="O27" t="s">
+        <v>27</v>
+      </c>
+      <c r="P27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28">
+        <v>1125</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28" t="s">
+        <v>29</v>
+      </c>
+      <c r="J28" t="s">
+        <v>80</v>
+      </c>
+      <c r="K28" t="s">
+        <v>26</v>
+      </c>
+      <c r="L28" t="s">
+        <v>26</v>
+      </c>
+      <c r="M28" t="s">
+        <v>26</v>
+      </c>
+      <c r="N28" t="s">
+        <v>27</v>
+      </c>
+      <c r="O28" t="s">
+        <v>27</v>
+      </c>
+      <c r="P28" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29">
+        <v>1145</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" t="s">
+        <v>81</v>
+      </c>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29" t="s">
+        <v>29</v>
+      </c>
+      <c r="J29" t="s">
+        <v>82</v>
+      </c>
+      <c r="K29" t="s">
+        <v>26</v>
+      </c>
+      <c r="L29" t="s">
+        <v>26</v>
+      </c>
+      <c r="M29" t="s">
+        <v>60</v>
+      </c>
+      <c r="N29" t="s">
+        <v>27</v>
+      </c>
+      <c r="O29" t="s">
+        <v>27</v>
+      </c>
+      <c r="P29" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30">
+        <v>1133</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" t="s">
+        <v>83</v>
+      </c>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30" t="s">
+        <v>29</v>
+      </c>
+      <c r="J30" t="s">
+        <v>84</v>
+      </c>
+      <c r="K30" t="s">
+        <v>26</v>
+      </c>
+      <c r="L30" t="s">
+        <v>26</v>
+      </c>
+      <c r="M30" t="s">
+        <v>26</v>
+      </c>
+      <c r="N30" t="s">
+        <v>27</v>
+      </c>
+      <c r="O30" t="s">
+        <v>27</v>
+      </c>
+      <c r="P30" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31">
+        <v>1123</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" t="s">
+        <v>85</v>
+      </c>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31" t="s">
+        <v>29</v>
+      </c>
+      <c r="J31" t="s">
+        <v>86</v>
+      </c>
+      <c r="K31" t="s">
+        <v>26</v>
+      </c>
+      <c r="L31" t="s">
+        <v>26</v>
+      </c>
+      <c r="M31" t="s">
+        <v>26</v>
+      </c>
+      <c r="N31" t="s">
+        <v>27</v>
+      </c>
+      <c r="O31" t="s">
+        <v>27</v>
+      </c>
+      <c r="P31" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32">
+        <v>1118</v>
+      </c>
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" t="s">
+        <v>87</v>
+      </c>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32" t="s">
+        <v>29</v>
+      </c>
+      <c r="J32" t="s">
+        <v>88</v>
+      </c>
+      <c r="K32" t="s">
+        <v>26</v>
+      </c>
+      <c r="L32" t="s">
+        <v>26</v>
+      </c>
+      <c r="M32" t="s">
+        <v>26</v>
+      </c>
+      <c r="N32" t="s">
+        <v>27</v>
+      </c>
+      <c r="O32" t="s">
+        <v>27</v>
+      </c>
+      <c r="P32" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33">
+        <v>1104</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33" t="s">
+        <v>29</v>
+      </c>
+      <c r="J33" t="s">
+        <v>90</v>
+      </c>
+      <c r="K33" t="s">
+        <v>26</v>
+      </c>
+      <c r="L33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M33" t="s">
+        <v>26</v>
+      </c>
+      <c r="N33" t="s">
+        <v>27</v>
+      </c>
+      <c r="O33" t="s">
+        <v>27</v>
+      </c>
+      <c r="P33" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34">
+        <v>1200</v>
+      </c>
+      <c r="B34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" t="s">
+        <v>91</v>
+      </c>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34" t="s">
+        <v>29</v>
+      </c>
+      <c r="J34" t="s">
+        <v>92</v>
+      </c>
+      <c r="K34" t="s">
+        <v>26</v>
+      </c>
+      <c r="L34" t="s">
+        <v>26</v>
+      </c>
+      <c r="M34" t="s">
+        <v>26</v>
+      </c>
+      <c r="N34" t="s">
+        <v>27</v>
+      </c>
+      <c r="O34" t="s">
+        <v>27</v>
+      </c>
+      <c r="P34" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35">
+        <v>1211</v>
+      </c>
+      <c r="B35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" t="s">
+        <v>93</v>
+      </c>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35" t="s">
+        <v>36</v>
+      </c>
+      <c r="J35" t="s">
+        <v>94</v>
+      </c>
+      <c r="K35" t="s">
+        <v>26</v>
+      </c>
+      <c r="L35" t="s">
+        <v>26</v>
+      </c>
+      <c r="M35" t="s">
+        <v>26</v>
+      </c>
+      <c r="N35" t="s">
+        <v>27</v>
+      </c>
+      <c r="O35" t="s">
+        <v>27</v>
+      </c>
+      <c r="P35" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36">
+        <v>1223</v>
+      </c>
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" t="s">
+        <v>95</v>
+      </c>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36" t="s">
+        <v>29</v>
+      </c>
+      <c r="J36" t="s">
+        <v>96</v>
+      </c>
+      <c r="K36" t="s">
+        <v>26</v>
+      </c>
+      <c r="L36" t="s">
+        <v>26</v>
+      </c>
+      <c r="M36" t="s">
+        <v>26</v>
+      </c>
+      <c r="N36" t="s">
+        <v>27</v>
+      </c>
+      <c r="O36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P36" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37">
+        <v>1230</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" t="s">
+        <v>97</v>
+      </c>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37" t="s">
+        <v>29</v>
+      </c>
+      <c r="J37" t="s">
+        <v>98</v>
+      </c>
+      <c r="K37" t="s">
+        <v>26</v>
+      </c>
+      <c r="L37" t="s">
+        <v>26</v>
+      </c>
+      <c r="M37" t="s">
+        <v>26</v>
+      </c>
+      <c r="N37" t="s">
+        <v>27</v>
+      </c>
+      <c r="O37" t="s">
+        <v>27</v>
+      </c>
+      <c r="P37" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38">
+        <v>1232</v>
+      </c>
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" t="s">
+        <v>99</v>
+      </c>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38" t="s">
+        <v>36</v>
+      </c>
+      <c r="J38" t="s">
+        <v>100</v>
+      </c>
+      <c r="K38" t="s">
+        <v>26</v>
+      </c>
+      <c r="L38" t="s">
+        <v>26</v>
+      </c>
+      <c r="M38" t="s">
+        <v>26</v>
+      </c>
+      <c r="N38" t="s">
+        <v>27</v>
+      </c>
+      <c r="O38" t="s">
+        <v>27</v>
+      </c>
+      <c r="P38" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39">
+        <v>1215</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" t="s">
+        <v>101</v>
+      </c>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39" t="s">
+        <v>36</v>
+      </c>
+      <c r="J39" t="s">
+        <v>102</v>
+      </c>
+      <c r="K39" t="s">
+        <v>26</v>
+      </c>
+      <c r="L39" t="s">
+        <v>26</v>
+      </c>
+      <c r="M39" t="s">
+        <v>26</v>
+      </c>
+      <c r="N39" t="s">
+        <v>27</v>
+      </c>
+      <c r="O39" t="s">
+        <v>27</v>
+      </c>
+      <c r="P39" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40">
+        <v>1042</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" t="s">
+        <v>103</v>
+      </c>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40" t="s">
+        <v>36</v>
+      </c>
+      <c r="J40" t="s">
+        <v>104</v>
+      </c>
+      <c r="K40" t="s">
+        <v>26</v>
+      </c>
+      <c r="L40" t="s">
+        <v>26</v>
+      </c>
+      <c r="M40" t="s">
+        <v>26</v>
+      </c>
+      <c r="N40" t="s">
+        <v>27</v>
+      </c>
+      <c r="O40" t="s">
+        <v>27</v>
+      </c>
+      <c r="P40" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41">
+        <v>1241</v>
+      </c>
+      <c r="B41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" t="s">
+        <v>105</v>
+      </c>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41" t="s">
+        <v>36</v>
+      </c>
+      <c r="J41" t="s">
+        <v>106</v>
+      </c>
+      <c r="K41" t="s">
+        <v>60</v>
+      </c>
+      <c r="L41" t="s">
+        <v>26</v>
+      </c>
+      <c r="M41" t="s">
+        <v>26</v>
+      </c>
+      <c r="N41" t="s">
+        <v>27</v>
+      </c>
+      <c r="O41" t="s">
+        <v>27</v>
+      </c>
+      <c r="P41" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42">
+        <v>1032</v>
+      </c>
+      <c r="B42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" t="s">
+        <v>22</v>
+      </c>
+      <c r="F42" t="s">
+        <v>107</v>
+      </c>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42" t="s">
+        <v>36</v>
+      </c>
+      <c r="J42" t="s">
+        <v>108</v>
+      </c>
+      <c r="K42" t="s">
+        <v>60</v>
+      </c>
+      <c r="L42" t="s">
+        <v>26</v>
+      </c>
+      <c r="M42" t="s">
+        <v>26</v>
+      </c>
+      <c r="N42" t="s">
+        <v>27</v>
+      </c>
+      <c r="O42" t="s">
+        <v>27</v>
+      </c>
+      <c r="P42" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43">
+        <v>1270</v>
+      </c>
+      <c r="B43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" t="s">
+        <v>109</v>
+      </c>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43" t="s">
+        <v>36</v>
+      </c>
+      <c r="J43" t="s">
+        <v>110</v>
+      </c>
+      <c r="K43" t="s">
+        <v>26</v>
+      </c>
+      <c r="L43" t="s">
+        <v>26</v>
+      </c>
+      <c r="M43" t="s">
+        <v>26</v>
+      </c>
+      <c r="N43" t="s">
+        <v>27</v>
+      </c>
+      <c r="O43" t="s">
+        <v>27</v>
+      </c>
+      <c r="P43" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44">
+        <v>1280</v>
+      </c>
+      <c r="B44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" t="s">
+        <v>111</v>
+      </c>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44" t="s">
+        <v>29</v>
+      </c>
+      <c r="J44" t="s">
+        <v>112</v>
+      </c>
+      <c r="K44" t="s">
+        <v>26</v>
+      </c>
+      <c r="L44" t="s">
+        <v>26</v>
+      </c>
+      <c r="M44" t="s">
+        <v>26</v>
+      </c>
+      <c r="N44" t="s">
+        <v>27</v>
+      </c>
+      <c r="O44" t="s">
+        <v>27</v>
+      </c>
+      <c r="P44" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45">
+        <v>1260</v>
+      </c>
+      <c r="B45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45" t="s">
+        <v>113</v>
+      </c>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45" t="s">
+        <v>29</v>
+      </c>
+      <c r="J45" t="s">
+        <v>114</v>
+      </c>
+      <c r="K45" t="s">
+        <v>26</v>
+      </c>
+      <c r="L45" t="s">
+        <v>26</v>
+      </c>
+      <c r="M45" t="s">
+        <v>26</v>
+      </c>
+      <c r="N45" t="s">
+        <v>27</v>
+      </c>
+      <c r="O45" t="s">
+        <v>27</v>
+      </c>
+      <c r="P45" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46">
+        <v>1007</v>
+      </c>
+      <c r="B46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" t="s">
+        <v>115</v>
+      </c>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J46" t="s">
+        <v>116</v>
+      </c>
+      <c r="K46" t="s">
+        <v>26</v>
+      </c>
+      <c r="L46" t="s">
+        <v>26</v>
+      </c>
+      <c r="M46" t="s">
+        <v>26</v>
+      </c>
+      <c r="N46" t="s">
+        <v>27</v>
+      </c>
+      <c r="O46" t="s">
+        <v>27</v>
+      </c>
+      <c r="P46" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47">
+        <v>987</v>
+      </c>
+      <c r="B47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47" t="s">
+        <v>117</v>
+      </c>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47" t="s">
+        <v>24</v>
+      </c>
+      <c r="J47" t="s">
+        <v>118</v>
+      </c>
+      <c r="K47" t="s">
+        <v>26</v>
+      </c>
+      <c r="L47" t="s">
+        <v>26</v>
+      </c>
+      <c r="M47" t="s">
+        <v>26</v>
+      </c>
+      <c r="N47" t="s">
+        <v>27</v>
+      </c>
+      <c r="O47" t="s">
+        <v>27</v>
+      </c>
+      <c r="P47" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48">
+        <v>988</v>
+      </c>
+      <c r="B48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" t="s">
+        <v>119</v>
+      </c>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48" t="s">
+        <v>24</v>
+      </c>
+      <c r="J48" t="s">
+        <v>120</v>
+      </c>
+      <c r="K48" t="s">
+        <v>26</v>
+      </c>
+      <c r="L48" t="s">
+        <v>26</v>
+      </c>
+      <c r="M48" t="s">
+        <v>26</v>
+      </c>
+      <c r="N48" t="s">
+        <v>27</v>
+      </c>
+      <c r="O48" t="s">
+        <v>27</v>
+      </c>
+      <c r="P48" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49">
+        <v>990</v>
+      </c>
+      <c r="B49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" t="s">
+        <v>22</v>
+      </c>
+      <c r="F49" t="s">
+        <v>121</v>
+      </c>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49" t="s">
+        <v>36</v>
+      </c>
+      <c r="J49" t="s">
+        <v>122</v>
+      </c>
+      <c r="K49" t="s">
+        <v>26</v>
+      </c>
+      <c r="L49" t="s">
+        <v>26</v>
+      </c>
+      <c r="M49" t="s">
+        <v>26</v>
+      </c>
+      <c r="N49" t="s">
+        <v>27</v>
+      </c>
+      <c r="O49" t="s">
+        <v>27</v>
+      </c>
+      <c r="P49" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50">
+        <v>993</v>
+      </c>
+      <c r="B50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" t="s">
+        <v>22</v>
+      </c>
+      <c r="F50" t="s">
+        <v>123</v>
+      </c>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50" t="s">
+        <v>36</v>
+      </c>
+      <c r="J50" t="s">
+        <v>124</v>
+      </c>
+      <c r="K50" t="s">
+        <v>26</v>
+      </c>
+      <c r="L50" t="s">
+        <v>26</v>
+      </c>
+      <c r="M50" t="s">
+        <v>26</v>
+      </c>
+      <c r="N50" t="s">
+        <v>27</v>
+      </c>
+      <c r="O50" t="s">
+        <v>27</v>
+      </c>
+      <c r="P50" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51">
+        <v>994</v>
+      </c>
+      <c r="B51" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" t="s">
+        <v>22</v>
+      </c>
+      <c r="F51" t="s">
+        <v>125</v>
+      </c>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51" t="s">
+        <v>24</v>
+      </c>
+      <c r="J51" t="s">
+        <v>126</v>
+      </c>
+      <c r="K51" t="s">
+        <v>26</v>
+      </c>
+      <c r="L51" t="s">
+        <v>26</v>
+      </c>
+      <c r="M51" t="s">
+        <v>26</v>
+      </c>
+      <c r="N51" t="s">
+        <v>27</v>
+      </c>
+      <c r="O51" t="s">
+        <v>27</v>
+      </c>
+      <c r="P51" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52">
+        <v>999</v>
+      </c>
+      <c r="B52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52" t="s">
+        <v>127</v>
+      </c>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52" t="s">
+        <v>24</v>
+      </c>
+      <c r="J52" t="s">
+        <v>128</v>
+      </c>
+      <c r="K52" t="s">
+        <v>26</v>
+      </c>
+      <c r="L52" t="s">
+        <v>26</v>
+      </c>
+      <c r="M52" t="s">
+        <v>26</v>
+      </c>
+      <c r="N52" t="s">
+        <v>27</v>
+      </c>
+      <c r="O52" t="s">
+        <v>27</v>
+      </c>
+      <c r="P52" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53">
+        <v>1006</v>
+      </c>
+      <c r="B53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" t="s">
+        <v>22</v>
+      </c>
+      <c r="F53" t="s">
+        <v>129</v>
+      </c>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53" t="s">
+        <v>36</v>
+      </c>
+      <c r="J53" t="s">
+        <v>130</v>
+      </c>
+      <c r="K53" t="s">
+        <v>26</v>
+      </c>
+      <c r="L53" t="s">
+        <v>26</v>
+      </c>
+      <c r="M53" t="s">
+        <v>26</v>
+      </c>
+      <c r="N53" t="s">
+        <v>27</v>
+      </c>
+      <c r="O53" t="s">
+        <v>27</v>
+      </c>
+      <c r="P53" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54">
+        <v>1009</v>
+      </c>
+      <c r="B54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" t="s">
+        <v>22</v>
+      </c>
+      <c r="F54" t="s">
+        <v>131</v>
+      </c>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54" t="s">
+        <v>24</v>
+      </c>
+      <c r="J54" t="s">
+        <v>132</v>
+      </c>
+      <c r="K54" t="s">
+        <v>26</v>
+      </c>
+      <c r="L54" t="s">
+        <v>26</v>
+      </c>
+      <c r="M54" t="s">
+        <v>26</v>
+      </c>
+      <c r="N54" t="s">
+        <v>27</v>
+      </c>
+      <c r="O54" t="s">
+        <v>27</v>
+      </c>
+      <c r="P54" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55">
+        <v>1010</v>
+      </c>
+      <c r="B55" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55" t="s">
+        <v>22</v>
+      </c>
+      <c r="F55" t="s">
+        <v>133</v>
+      </c>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55" t="s">
+        <v>24</v>
+      </c>
+      <c r="J55" t="s">
+        <v>134</v>
+      </c>
+      <c r="K55" t="s">
+        <v>26</v>
+      </c>
+      <c r="L55" t="s">
+        <v>26</v>
+      </c>
+      <c r="M55" t="s">
+        <v>26</v>
+      </c>
+      <c r="N55" t="s">
+        <v>27</v>
+      </c>
+      <c r="O55" t="s">
+        <v>27</v>
+      </c>
+      <c r="P55" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56">
+        <v>1228</v>
+      </c>
+      <c r="B56" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" t="s">
+        <v>21</v>
+      </c>
+      <c r="E56" t="s">
+        <v>22</v>
+      </c>
+      <c r="F56" t="s">
+        <v>135</v>
+      </c>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56" t="s">
+        <v>29</v>
+      </c>
+      <c r="J56" t="s">
+        <v>136</v>
+      </c>
+      <c r="K56" t="s">
+        <v>26</v>
+      </c>
+      <c r="L56" t="s">
+        <v>26</v>
+      </c>
+      <c r="M56" t="s">
+        <v>26</v>
+      </c>
+      <c r="N56" t="s">
+        <v>27</v>
+      </c>
+      <c r="O56" t="s">
+        <v>27</v>
+      </c>
+      <c r="P56" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57">
+        <v>1012</v>
+      </c>
+      <c r="B57" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" t="s">
+        <v>21</v>
+      </c>
+      <c r="E57" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57" t="s">
+        <v>137</v>
+      </c>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57" t="s">
+        <v>29</v>
+      </c>
+      <c r="J57" t="s">
+        <v>138</v>
+      </c>
+      <c r="K57" t="s">
+        <v>26</v>
+      </c>
+      <c r="L57" t="s">
+        <v>26</v>
+      </c>
+      <c r="M57" t="s">
+        <v>26</v>
+      </c>
+      <c r="N57" t="s">
+        <v>27</v>
+      </c>
+      <c r="O57" t="s">
+        <v>27</v>
+      </c>
+      <c r="P57" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58">
+        <v>1026</v>
+      </c>
+      <c r="B58" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" t="s">
+        <v>21</v>
+      </c>
+      <c r="E58" t="s">
+        <v>22</v>
+      </c>
+      <c r="F58" t="s">
+        <v>140</v>
+      </c>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58" t="s">
+        <v>29</v>
+      </c>
+      <c r="J58" t="s">
+        <v>141</v>
+      </c>
+      <c r="K58" t="s">
+        <v>26</v>
+      </c>
+      <c r="L58" t="s">
+        <v>26</v>
+      </c>
+      <c r="M58" t="s">
+        <v>26</v>
+      </c>
+      <c r="N58" t="s">
+        <v>27</v>
+      </c>
+      <c r="O58" t="s">
+        <v>27</v>
+      </c>
+      <c r="P58" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59">
+        <v>1028</v>
+      </c>
+      <c r="B59" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" t="s">
+        <v>21</v>
+      </c>
+      <c r="E59" t="s">
+        <v>22</v>
+      </c>
+      <c r="F59" t="s">
+        <v>142</v>
+      </c>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59" t="s">
+        <v>29</v>
+      </c>
+      <c r="J59" t="s">
+        <v>143</v>
+      </c>
+      <c r="K59" t="s">
+        <v>60</v>
+      </c>
+      <c r="L59" t="s">
+        <v>26</v>
+      </c>
+      <c r="M59" t="s">
+        <v>26</v>
+      </c>
+      <c r="N59" t="s">
+        <v>27</v>
+      </c>
+      <c r="O59" t="s">
+        <v>27</v>
+      </c>
+      <c r="P59" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60">
+        <v>1033</v>
+      </c>
+      <c r="B60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" t="s">
+        <v>21</v>
+      </c>
+      <c r="E60" t="s">
+        <v>22</v>
+      </c>
+      <c r="F60" t="s">
+        <v>144</v>
+      </c>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60" t="s">
+        <v>36</v>
+      </c>
+      <c r="J60" t="s">
+        <v>145</v>
+      </c>
+      <c r="K60" t="s">
+        <v>26</v>
+      </c>
+      <c r="L60" t="s">
+        <v>26</v>
+      </c>
+      <c r="M60" t="s">
+        <v>26</v>
+      </c>
+      <c r="N60" t="s">
+        <v>27</v>
+      </c>
+      <c r="O60" t="s">
+        <v>27</v>
+      </c>
+      <c r="P60" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61">
+        <v>1046</v>
+      </c>
+      <c r="B61" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" t="s">
+        <v>21</v>
+      </c>
+      <c r="E61" t="s">
+        <v>22</v>
+      </c>
+      <c r="F61" t="s">
+        <v>146</v>
+      </c>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61" t="s">
+        <v>36</v>
+      </c>
+      <c r="J61" t="s">
+        <v>147</v>
+      </c>
+      <c r="K61" t="s">
+        <v>26</v>
+      </c>
+      <c r="L61" t="s">
+        <v>26</v>
+      </c>
+      <c r="M61" t="s">
+        <v>26</v>
+      </c>
+      <c r="N61" t="s">
+        <v>27</v>
+      </c>
+      <c r="O61" t="s">
+        <v>27</v>
+      </c>
+      <c r="P61" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="A62">
+        <v>1229</v>
+      </c>
+      <c r="B62" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" t="s">
+        <v>21</v>
+      </c>
+      <c r="E62" t="s">
+        <v>22</v>
+      </c>
+      <c r="F62" t="s">
+        <v>148</v>
+      </c>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62" t="s">
+        <v>29</v>
+      </c>
+      <c r="J62" t="s">
+        <v>149</v>
+      </c>
+      <c r="K62" t="s">
+        <v>26</v>
+      </c>
+      <c r="L62" t="s">
+        <v>26</v>
+      </c>
+      <c r="M62" t="s">
+        <v>26</v>
+      </c>
+      <c r="N62" t="s">
+        <v>27</v>
+      </c>
+      <c r="O62" t="s">
+        <v>27</v>
+      </c>
+      <c r="P62" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="A63">
+        <v>1259</v>
+      </c>
+      <c r="B63" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" t="s">
+        <v>20</v>
+      </c>
+      <c r="D63" t="s">
+        <v>21</v>
+      </c>
+      <c r="E63" t="s">
+        <v>22</v>
+      </c>
+      <c r="F63" t="s">
+        <v>150</v>
+      </c>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63" t="s">
+        <v>36</v>
+      </c>
+      <c r="J63" t="s">
+        <v>151</v>
+      </c>
+      <c r="K63" t="s">
+        <v>26</v>
+      </c>
+      <c r="L63" t="s">
+        <v>26</v>
+      </c>
+      <c r="M63" t="s">
+        <v>26</v>
+      </c>
+      <c r="N63" t="s">
+        <v>27</v>
+      </c>
+      <c r="O63" t="s">
+        <v>27</v>
+      </c>
+      <c r="P63" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="A64">
+        <v>1264</v>
+      </c>
+      <c r="B64" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" t="s">
+        <v>20</v>
+      </c>
+      <c r="D64" t="s">
+        <v>21</v>
+      </c>
+      <c r="E64" t="s">
+        <v>22</v>
+      </c>
+      <c r="F64" t="s">
+        <v>152</v>
+      </c>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64" t="s">
+        <v>36</v>
+      </c>
+      <c r="J64" t="s">
+        <v>153</v>
+      </c>
+      <c r="K64" t="s">
+        <v>26</v>
+      </c>
+      <c r="L64" t="s">
+        <v>26</v>
+      </c>
+      <c r="M64" t="s">
+        <v>26</v>
+      </c>
+      <c r="N64" t="s">
+        <v>27</v>
+      </c>
+      <c r="O64" t="s">
+        <v>27</v>
+      </c>
+      <c r="P64" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="A65">
+        <v>1268</v>
+      </c>
+      <c r="B65" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65" t="s">
+        <v>21</v>
+      </c>
+      <c r="E65" t="s">
+        <v>22</v>
+      </c>
+      <c r="F65" t="s">
+        <v>154</v>
+      </c>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65" t="s">
+        <v>36</v>
+      </c>
+      <c r="J65" t="s">
+        <v>155</v>
+      </c>
+      <c r="K65" t="s">
+        <v>26</v>
+      </c>
+      <c r="L65" t="s">
+        <v>26</v>
+      </c>
+      <c r="M65" t="s">
+        <v>26</v>
+      </c>
+      <c r="N65" t="s">
+        <v>27</v>
+      </c>
+      <c r="O65" t="s">
+        <v>27</v>
+      </c>
+      <c r="P65" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="A66">
+        <v>1274</v>
+      </c>
+      <c r="B66" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" t="s">
+        <v>20</v>
+      </c>
+      <c r="D66" t="s">
+        <v>21</v>
+      </c>
+      <c r="E66" t="s">
+        <v>22</v>
+      </c>
+      <c r="F66" t="s">
+        <v>156</v>
+      </c>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66" t="s">
+        <v>36</v>
+      </c>
+      <c r="J66" t="s">
+        <v>157</v>
+      </c>
+      <c r="K66" t="s">
+        <v>26</v>
+      </c>
+      <c r="L66" t="s">
+        <v>26</v>
+      </c>
+      <c r="M66" t="s">
+        <v>26</v>
+      </c>
+      <c r="N66" t="s">
+        <v>27</v>
+      </c>
+      <c r="O66" t="s">
+        <v>27</v>
+      </c>
+      <c r="P66" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="A67">
+        <v>1144</v>
+      </c>
+      <c r="B67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" t="s">
+        <v>20</v>
+      </c>
+      <c r="D67" t="s">
+        <v>21</v>
+      </c>
+      <c r="E67" t="s">
+        <v>22</v>
+      </c>
+      <c r="F67" t="s">
+        <v>158</v>
+      </c>
+      <c r="G67"/>
+      <c r="H67"/>
+      <c r="I67" t="s">
+        <v>29</v>
+      </c>
+      <c r="J67" t="s">
+        <v>159</v>
+      </c>
+      <c r="K67" t="s">
+        <v>26</v>
+      </c>
+      <c r="L67" t="s">
+        <v>26</v>
+      </c>
+      <c r="M67" t="s">
+        <v>26</v>
+      </c>
+      <c r="N67" t="s">
+        <v>27</v>
+      </c>
+      <c r="O67" t="s">
+        <v>27</v>
+      </c>
+      <c r="P67" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="A68">
+        <v>1282</v>
+      </c>
+      <c r="B68" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68" t="s">
+        <v>20</v>
+      </c>
+      <c r="D68" t="s">
+        <v>21</v>
+      </c>
+      <c r="E68" t="s">
+        <v>22</v>
+      </c>
+      <c r="F68" t="s">
+        <v>160</v>
+      </c>
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68" t="s">
+        <v>29</v>
+      </c>
+      <c r="J68" t="s">
+        <v>161</v>
+      </c>
+      <c r="K68" t="s">
+        <v>26</v>
+      </c>
+      <c r="L68" t="s">
+        <v>26</v>
+      </c>
+      <c r="M68" t="s">
+        <v>26</v>
+      </c>
+      <c r="N68" t="s">
+        <v>27</v>
+      </c>
+      <c r="O68" t="s">
+        <v>27</v>
+      </c>
+      <c r="P68" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="A69">
+        <v>1281</v>
+      </c>
+      <c r="B69" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" t="s">
+        <v>20</v>
+      </c>
+      <c r="D69" t="s">
+        <v>21</v>
+      </c>
+      <c r="E69" t="s">
+        <v>22</v>
+      </c>
+      <c r="F69" t="s">
+        <v>162</v>
+      </c>
+      <c r="G69"/>
+      <c r="H69"/>
+      <c r="I69" t="s">
+        <v>29</v>
+      </c>
+      <c r="J69" t="s">
+        <v>163</v>
+      </c>
+      <c r="K69" t="s">
+        <v>26</v>
+      </c>
+      <c r="L69" t="s">
+        <v>26</v>
+      </c>
+      <c r="M69" t="s">
+        <v>26</v>
+      </c>
+      <c r="N69" t="s">
+        <v>27</v>
+      </c>
+      <c r="O69" t="s">
+        <v>27</v>
+      </c>
+      <c r="P69" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="A70">
+        <v>1279</v>
+      </c>
+      <c r="B70" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70" t="s">
+        <v>21</v>
+      </c>
+      <c r="E70" t="s">
+        <v>22</v>
+      </c>
+      <c r="F70" t="s">
+        <v>164</v>
+      </c>
+      <c r="G70"/>
+      <c r="H70"/>
+      <c r="I70" t="s">
+        <v>36</v>
+      </c>
+      <c r="J70" t="s">
+        <v>165</v>
+      </c>
+      <c r="K70" t="s">
+        <v>26</v>
+      </c>
+      <c r="L70" t="s">
+        <v>26</v>
+      </c>
+      <c r="M70" t="s">
+        <v>26</v>
+      </c>
+      <c r="N70" t="s">
+        <v>27</v>
+      </c>
+      <c r="O70" t="s">
+        <v>27</v>
+      </c>
+      <c r="P70" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="A71">
+        <v>1278</v>
+      </c>
+      <c r="B71" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71" t="s">
+        <v>20</v>
+      </c>
+      <c r="D71" t="s">
+        <v>21</v>
+      </c>
+      <c r="E71" t="s">
+        <v>22</v>
+      </c>
+      <c r="F71" t="s">
+        <v>166</v>
+      </c>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71" t="s">
+        <v>36</v>
+      </c>
+      <c r="J71" t="s">
+        <v>167</v>
+      </c>
+      <c r="K71" t="s">
+        <v>26</v>
+      </c>
+      <c r="L71" t="s">
+        <v>26</v>
+      </c>
+      <c r="M71" t="s">
+        <v>26</v>
+      </c>
+      <c r="N71" t="s">
+        <v>27</v>
+      </c>
+      <c r="O71" t="s">
+        <v>27</v>
+      </c>
+      <c r="P71" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72">
+        <v>1263</v>
+      </c>
+      <c r="B72" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72" t="s">
+        <v>21</v>
+      </c>
+      <c r="E72" t="s">
+        <v>22</v>
+      </c>
+      <c r="F72" t="s">
+        <v>168</v>
+      </c>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72" t="s">
+        <v>29</v>
+      </c>
+      <c r="J72" t="s">
+        <v>169</v>
+      </c>
+      <c r="K72" t="s">
+        <v>26</v>
+      </c>
+      <c r="L72" t="s">
+        <v>26</v>
+      </c>
+      <c r="M72" t="s">
+        <v>26</v>
+      </c>
+      <c r="N72" t="s">
+        <v>27</v>
+      </c>
+      <c r="O72" t="s">
+        <v>27</v>
+      </c>
+      <c r="P72" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="A73">
+        <v>1238</v>
+      </c>
+      <c r="B73" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" t="s">
+        <v>21</v>
+      </c>
+      <c r="E73" t="s">
+        <v>22</v>
+      </c>
+      <c r="F73" t="s">
+        <v>170</v>
+      </c>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73" t="s">
+        <v>29</v>
+      </c>
+      <c r="J73" t="s">
+        <v>171</v>
+      </c>
+      <c r="K73" t="s">
+        <v>60</v>
+      </c>
+      <c r="L73" t="s">
+        <v>26</v>
+      </c>
+      <c r="M73" t="s">
+        <v>26</v>
+      </c>
+      <c r="N73" t="s">
+        <v>27</v>
+      </c>
+      <c r="O73" t="s">
+        <v>27</v>
+      </c>
+      <c r="P73" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="A74">
+        <v>1237</v>
+      </c>
+      <c r="B74" t="s">
+        <v>19</v>
+      </c>
+      <c r="C74" t="s">
+        <v>20</v>
+      </c>
+      <c r="D74" t="s">
+        <v>21</v>
+      </c>
+      <c r="E74" t="s">
+        <v>22</v>
+      </c>
+      <c r="F74" t="s">
+        <v>172</v>
+      </c>
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="I74" t="s">
+        <v>29</v>
+      </c>
+      <c r="J74" t="s">
+        <v>173</v>
+      </c>
+      <c r="K74" t="s">
+        <v>60</v>
+      </c>
+      <c r="L74" t="s">
+        <v>26</v>
+      </c>
+      <c r="M74" t="s">
+        <v>26</v>
+      </c>
+      <c r="N74" t="s">
+        <v>27</v>
+      </c>
+      <c r="O74" t="s">
+        <v>27</v>
+      </c>
+      <c r="P74" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
+      <c r="A75">
+        <v>1243</v>
+      </c>
+      <c r="B75" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75" t="s">
+        <v>20</v>
+      </c>
+      <c r="D75" t="s">
+        <v>21</v>
+      </c>
+      <c r="E75" t="s">
+        <v>22</v>
+      </c>
+      <c r="F75" t="s">
+        <v>174</v>
+      </c>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75" t="s">
+        <v>29</v>
+      </c>
+      <c r="J75" t="s">
+        <v>175</v>
+      </c>
+      <c r="K75" t="s">
+        <v>60</v>
+      </c>
+      <c r="L75" t="s">
+        <v>26</v>
+      </c>
+      <c r="M75" t="s">
+        <v>26</v>
+      </c>
+      <c r="N75" t="s">
+        <v>27</v>
+      </c>
+      <c r="O75" t="s">
+        <v>27</v>
+      </c>
+      <c r="P75" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="A76">
+        <v>1244</v>
+      </c>
+      <c r="B76" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76" t="s">
+        <v>20</v>
+      </c>
+      <c r="D76" t="s">
+        <v>21</v>
+      </c>
+      <c r="E76" t="s">
+        <v>22</v>
+      </c>
+      <c r="F76" t="s">
+        <v>176</v>
+      </c>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76" t="s">
+        <v>29</v>
+      </c>
+      <c r="J76" t="s">
+        <v>177</v>
+      </c>
+      <c r="K76" t="s">
+        <v>60</v>
+      </c>
+      <c r="L76" t="s">
+        <v>26</v>
+      </c>
+      <c r="M76" t="s">
+        <v>26</v>
+      </c>
+      <c r="N76" t="s">
+        <v>27</v>
+      </c>
+      <c r="O76" t="s">
+        <v>27</v>
+      </c>
+      <c r="P76" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
+      <c r="A77">
+        <v>1246</v>
+      </c>
+      <c r="B77" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77" t="s">
+        <v>20</v>
+      </c>
+      <c r="D77" t="s">
+        <v>21</v>
+      </c>
+      <c r="E77" t="s">
+        <v>22</v>
+      </c>
+      <c r="F77" t="s">
+        <v>178</v>
+      </c>
+      <c r="G77"/>
+      <c r="H77"/>
+      <c r="I77" t="s">
+        <v>29</v>
+      </c>
+      <c r="J77" t="s">
+        <v>179</v>
+      </c>
+      <c r="K77" t="s">
+        <v>60</v>
+      </c>
+      <c r="L77" t="s">
+        <v>26</v>
+      </c>
+      <c r="M77" t="s">
+        <v>26</v>
+      </c>
+      <c r="N77" t="s">
+        <v>27</v>
+      </c>
+      <c r="O77" t="s">
+        <v>27</v>
+      </c>
+      <c r="P77" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="A78">
+        <v>1251</v>
+      </c>
+      <c r="B78" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78" t="s">
+        <v>20</v>
+      </c>
+      <c r="D78" t="s">
+        <v>21</v>
+      </c>
+      <c r="E78" t="s">
+        <v>22</v>
+      </c>
+      <c r="F78" t="s">
+        <v>180</v>
+      </c>
+      <c r="G78"/>
+      <c r="H78"/>
+      <c r="I78" t="s">
+        <v>36</v>
+      </c>
+      <c r="J78" t="s">
+        <v>181</v>
+      </c>
+      <c r="K78" t="s">
+        <v>60</v>
+      </c>
+      <c r="L78" t="s">
+        <v>26</v>
+      </c>
+      <c r="M78" t="s">
+        <v>26</v>
+      </c>
+      <c r="N78" t="s">
+        <v>27</v>
+      </c>
+      <c r="O78" t="s">
+        <v>27</v>
+      </c>
+      <c r="P78" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
+      <c r="A79">
+        <v>1256</v>
+      </c>
+      <c r="B79" t="s">
+        <v>19</v>
+      </c>
+      <c r="C79" t="s">
+        <v>20</v>
+      </c>
+      <c r="D79" t="s">
+        <v>21</v>
+      </c>
+      <c r="E79" t="s">
+        <v>22</v>
+      </c>
+      <c r="F79" t="s">
+        <v>182</v>
+      </c>
+      <c r="G79"/>
+      <c r="H79"/>
+      <c r="I79" t="s">
+        <v>29</v>
+      </c>
+      <c r="J79" t="s">
+        <v>183</v>
+      </c>
+      <c r="K79" t="s">
+        <v>60</v>
+      </c>
+      <c r="L79" t="s">
+        <v>26</v>
+      </c>
+      <c r="M79" t="s">
+        <v>26</v>
+      </c>
+      <c r="N79" t="s">
+        <v>27</v>
+      </c>
+      <c r="O79" t="s">
+        <v>27</v>
+      </c>
+      <c r="P79" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
+      <c r="A80">
+        <v>1257</v>
+      </c>
+      <c r="B80" t="s">
+        <v>19</v>
+      </c>
+      <c r="C80" t="s">
+        <v>20</v>
+      </c>
+      <c r="D80" t="s">
+        <v>21</v>
+      </c>
+      <c r="E80" t="s">
+        <v>22</v>
+      </c>
+      <c r="F80" t="s">
+        <v>184</v>
+      </c>
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="I80" t="s">
+        <v>29</v>
+      </c>
+      <c r="J80" t="s">
+        <v>185</v>
+      </c>
+      <c r="K80" t="s">
+        <v>60</v>
+      </c>
+      <c r="L80" t="s">
+        <v>26</v>
+      </c>
+      <c r="M80" t="s">
+        <v>26</v>
+      </c>
+      <c r="N80" t="s">
+        <v>27</v>
+      </c>
+      <c r="O80" t="s">
+        <v>27</v>
+      </c>
+      <c r="P80" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17">
+      <c r="A81">
+        <v>1235</v>
+      </c>
+      <c r="B81" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81" t="s">
+        <v>20</v>
+      </c>
+      <c r="D81" t="s">
+        <v>21</v>
+      </c>
+      <c r="E81" t="s">
+        <v>22</v>
+      </c>
+      <c r="F81" t="s">
+        <v>186</v>
+      </c>
+      <c r="G81"/>
+      <c r="H81"/>
+      <c r="I81" t="s">
+        <v>36</v>
+      </c>
+      <c r="J81" t="s">
+        <v>187</v>
+      </c>
+      <c r="K81" t="s">
+        <v>26</v>
+      </c>
+      <c r="L81" t="s">
+        <v>26</v>
+      </c>
+      <c r="M81" t="s">
+        <v>26</v>
+      </c>
+      <c r="N81" t="s">
+        <v>27</v>
+      </c>
+      <c r="O81" t="s">
+        <v>27</v>
+      </c>
+      <c r="P81" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17">
+      <c r="A82">
+        <v>1234</v>
+      </c>
+      <c r="B82" t="s">
+        <v>19</v>
+      </c>
+      <c r="C82" t="s">
+        <v>20</v>
+      </c>
+      <c r="D82" t="s">
+        <v>21</v>
+      </c>
+      <c r="E82" t="s">
+        <v>22</v>
+      </c>
+      <c r="F82" t="s">
+        <v>188</v>
+      </c>
+      <c r="G82"/>
+      <c r="H82"/>
+      <c r="I82" t="s">
+        <v>24</v>
+      </c>
+      <c r="J82" t="s">
+        <v>189</v>
+      </c>
+      <c r="K82" t="s">
+        <v>26</v>
+      </c>
+      <c r="L82" t="s">
+        <v>26</v>
+      </c>
+      <c r="M82" t="s">
+        <v>60</v>
+      </c>
+      <c r="N82" t="s">
+        <v>27</v>
+      </c>
+      <c r="O82" t="s">
+        <v>27</v>
+      </c>
+      <c r="P82" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17">
+      <c r="A83">
+        <v>1233</v>
+      </c>
+      <c r="B83" t="s">
+        <v>19</v>
+      </c>
+      <c r="C83" t="s">
+        <v>20</v>
+      </c>
+      <c r="D83" t="s">
+        <v>21</v>
+      </c>
+      <c r="E83" t="s">
+        <v>22</v>
+      </c>
+      <c r="F83" t="s">
+        <v>190</v>
+      </c>
+      <c r="G83"/>
+      <c r="H83"/>
+      <c r="I83" t="s">
+        <v>29</v>
+      </c>
+      <c r="J83" t="s">
+        <v>191</v>
+      </c>
+      <c r="K83" t="s">
+        <v>26</v>
+      </c>
+      <c r="L83" t="s">
+        <v>26</v>
+      </c>
+      <c r="M83" t="s">
+        <v>26</v>
+      </c>
+      <c r="N83" t="s">
+        <v>27</v>
+      </c>
+      <c r="O83" t="s">
+        <v>27</v>
+      </c>
+      <c r="P83" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17">
+      <c r="A84">
+        <v>1227</v>
+      </c>
+      <c r="B84" t="s">
+        <v>19</v>
+      </c>
+      <c r="C84" t="s">
+        <v>20</v>
+      </c>
+      <c r="D84" t="s">
+        <v>21</v>
+      </c>
+      <c r="E84" t="s">
+        <v>22</v>
+      </c>
+      <c r="F84" t="s">
+        <v>192</v>
+      </c>
+      <c r="G84"/>
+      <c r="H84"/>
+      <c r="I84" t="s">
+        <v>29</v>
+      </c>
+      <c r="J84" t="s">
+        <v>193</v>
+      </c>
+      <c r="K84" t="s">
+        <v>26</v>
+      </c>
+      <c r="L84" t="s">
+        <v>26</v>
+      </c>
+      <c r="M84" t="s">
+        <v>26</v>
+      </c>
+      <c r="N84" t="s">
+        <v>27</v>
+      </c>
+      <c r="O84" t="s">
+        <v>27</v>
+      </c>
+      <c r="P84" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17">
+      <c r="A85">
+        <v>1221</v>
+      </c>
+      <c r="B85" t="s">
+        <v>19</v>
+      </c>
+      <c r="C85" t="s">
+        <v>20</v>
+      </c>
+      <c r="D85" t="s">
+        <v>21</v>
+      </c>
+      <c r="E85" t="s">
+        <v>22</v>
+      </c>
+      <c r="F85" t="s">
+        <v>194</v>
+      </c>
+      <c r="G85"/>
+      <c r="H85"/>
+      <c r="I85" t="s">
+        <v>36</v>
+      </c>
+      <c r="J85" t="s">
+        <v>195</v>
+      </c>
+      <c r="K85" t="s">
+        <v>26</v>
+      </c>
+      <c r="L85" t="s">
+        <v>26</v>
+      </c>
+      <c r="M85" t="s">
+        <v>60</v>
+      </c>
+      <c r="N85" t="s">
+        <v>27</v>
+      </c>
+      <c r="O85" t="s">
+        <v>27</v>
+      </c>
+      <c r="P85" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17">
+      <c r="A86">
+        <v>1217</v>
+      </c>
+      <c r="B86" t="s">
+        <v>19</v>
+      </c>
+      <c r="C86" t="s">
+        <v>20</v>
+      </c>
+      <c r="D86" t="s">
+        <v>21</v>
+      </c>
+      <c r="E86" t="s">
+        <v>22</v>
+      </c>
+      <c r="F86" t="s">
+        <v>196</v>
+      </c>
+      <c r="G86"/>
+      <c r="H86"/>
+      <c r="I86" t="s">
+        <v>36</v>
+      </c>
+      <c r="J86" t="s">
+        <v>197</v>
+      </c>
+      <c r="K86" t="s">
+        <v>26</v>
+      </c>
+      <c r="L86" t="s">
+        <v>26</v>
+      </c>
+      <c r="M86" t="s">
+        <v>26</v>
+      </c>
+      <c r="N86" t="s">
+        <v>27</v>
+      </c>
+      <c r="O86" t="s">
+        <v>27</v>
+      </c>
+      <c r="P86" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17">
+      <c r="A87">
+        <v>1210</v>
+      </c>
+      <c r="B87" t="s">
+        <v>19</v>
+      </c>
+      <c r="C87" t="s">
+        <v>20</v>
+      </c>
+      <c r="D87" t="s">
+        <v>21</v>
+      </c>
+      <c r="E87" t="s">
+        <v>22</v>
+      </c>
+      <c r="F87" t="s">
+        <v>198</v>
+      </c>
+      <c r="G87"/>
+      <c r="H87"/>
+      <c r="I87" t="s">
+        <v>29</v>
+      </c>
+      <c r="J87" t="s">
+        <v>199</v>
+      </c>
+      <c r="K87" t="s">
+        <v>26</v>
+      </c>
+      <c r="L87" t="s">
+        <v>26</v>
+      </c>
+      <c r="M87" t="s">
+        <v>26</v>
+      </c>
+      <c r="N87" t="s">
+        <v>27</v>
+      </c>
+      <c r="O87" t="s">
+        <v>27</v>
+      </c>
+      <c r="P87" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17">
+      <c r="A88">
+        <v>1205</v>
+      </c>
+      <c r="B88" t="s">
+        <v>19</v>
+      </c>
+      <c r="C88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D88" t="s">
+        <v>21</v>
+      </c>
+      <c r="E88" t="s">
+        <v>22</v>
+      </c>
+      <c r="F88" t="s">
+        <v>200</v>
+      </c>
+      <c r="G88"/>
+      <c r="H88"/>
+      <c r="I88" t="s">
+        <v>36</v>
+      </c>
+      <c r="J88" t="s">
+        <v>201</v>
+      </c>
+      <c r="K88" t="s">
+        <v>60</v>
+      </c>
+      <c r="L88" t="s">
+        <v>26</v>
+      </c>
+      <c r="M88" t="s">
+        <v>26</v>
+      </c>
+      <c r="N88" t="s">
+        <v>27</v>
+      </c>
+      <c r="O88" t="s">
+        <v>27</v>
+      </c>
+      <c r="P88" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17">
+      <c r="A89">
+        <v>1142</v>
+      </c>
+      <c r="B89" t="s">
+        <v>19</v>
+      </c>
+      <c r="C89" t="s">
+        <v>20</v>
+      </c>
+      <c r="D89" t="s">
+        <v>21</v>
+      </c>
+      <c r="E89" t="s">
+        <v>22</v>
+      </c>
+      <c r="F89" t="s">
+        <v>202</v>
+      </c>
+      <c r="G89"/>
+      <c r="H89"/>
+      <c r="I89" t="s">
+        <v>36</v>
+      </c>
+      <c r="J89" t="s">
+        <v>203</v>
+      </c>
+      <c r="K89" t="s">
+        <v>26</v>
+      </c>
+      <c r="L89" t="s">
+        <v>26</v>
+      </c>
+      <c r="M89" t="s">
+        <v>26</v>
+      </c>
+      <c r="N89" t="s">
+        <v>27</v>
+      </c>
+      <c r="O89" t="s">
+        <v>27</v>
+      </c>
+      <c r="P89" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17">
+      <c r="A90">
+        <v>1141</v>
+      </c>
+      <c r="B90" t="s">
+        <v>19</v>
+      </c>
+      <c r="C90" t="s">
+        <v>20</v>
+      </c>
+      <c r="D90" t="s">
+        <v>21</v>
+      </c>
+      <c r="E90" t="s">
+        <v>22</v>
+      </c>
+      <c r="F90" t="s">
+        <v>204</v>
+      </c>
+      <c r="G90"/>
+      <c r="H90"/>
+      <c r="I90" t="s">
+        <v>36</v>
+      </c>
+      <c r="J90" t="s">
+        <v>205</v>
+      </c>
+      <c r="K90" t="s">
+        <v>26</v>
+      </c>
+      <c r="L90" t="s">
+        <v>26</v>
+      </c>
+      <c r="M90" t="s">
+        <v>26</v>
+      </c>
+      <c r="N90" t="s">
+        <v>27</v>
+      </c>
+      <c r="O90" t="s">
+        <v>27</v>
+      </c>
+      <c r="P90" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17">
+      <c r="A91">
+        <v>1134</v>
+      </c>
+      <c r="B91" t="s">
+        <v>19</v>
+      </c>
+      <c r="C91" t="s">
+        <v>20</v>
+      </c>
+      <c r="D91" t="s">
+        <v>21</v>
+      </c>
+      <c r="E91" t="s">
+        <v>22</v>
+      </c>
+      <c r="F91" t="s">
+        <v>206</v>
+      </c>
+      <c r="G91"/>
+      <c r="H91"/>
+      <c r="I91" t="s">
+        <v>29</v>
+      </c>
+      <c r="J91" t="s">
+        <v>207</v>
+      </c>
+      <c r="K91" t="s">
+        <v>26</v>
+      </c>
+      <c r="L91" t="s">
+        <v>26</v>
+      </c>
+      <c r="M91" t="s">
+        <v>26</v>
+      </c>
+      <c r="N91" t="s">
+        <v>27</v>
+      </c>
+      <c r="O91" t="s">
+        <v>27</v>
+      </c>
+      <c r="P91" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17">
+      <c r="A92">
+        <v>1132</v>
+      </c>
+      <c r="B92" t="s">
+        <v>19</v>
+      </c>
+      <c r="C92" t="s">
+        <v>20</v>
+      </c>
+      <c r="D92" t="s">
+        <v>21</v>
+      </c>
+      <c r="E92" t="s">
+        <v>22</v>
+      </c>
+      <c r="F92" t="s">
+        <v>208</v>
+      </c>
+      <c r="G92"/>
+      <c r="H92"/>
+      <c r="I92" t="s">
+        <v>29</v>
+      </c>
+      <c r="J92" t="s">
+        <v>209</v>
+      </c>
+      <c r="K92" t="s">
+        <v>26</v>
+      </c>
+      <c r="L92" t="s">
+        <v>26</v>
+      </c>
+      <c r="M92" t="s">
+        <v>26</v>
+      </c>
+      <c r="N92" t="s">
+        <v>27</v>
+      </c>
+      <c r="O92" t="s">
+        <v>27</v>
+      </c>
+      <c r="P92" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17">
+      <c r="A93">
+        <v>1130</v>
+      </c>
+      <c r="B93" t="s">
+        <v>19</v>
+      </c>
+      <c r="C93" t="s">
+        <v>20</v>
+      </c>
+      <c r="D93" t="s">
+        <v>21</v>
+      </c>
+      <c r="E93" t="s">
+        <v>22</v>
+      </c>
+      <c r="F93" t="s">
+        <v>210</v>
+      </c>
+      <c r="G93"/>
+      <c r="H93"/>
+      <c r="I93" t="s">
+        <v>29</v>
+      </c>
+      <c r="J93" t="s">
+        <v>211</v>
+      </c>
+      <c r="K93" t="s">
+        <v>26</v>
+      </c>
+      <c r="L93" t="s">
+        <v>26</v>
+      </c>
+      <c r="M93" t="s">
+        <v>26</v>
+      </c>
+      <c r="N93" t="s">
+        <v>27</v>
+      </c>
+      <c r="O93" t="s">
+        <v>27</v>
+      </c>
+      <c r="P93" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17">
+      <c r="A94">
+        <v>1122</v>
+      </c>
+      <c r="B94" t="s">
+        <v>19</v>
+      </c>
+      <c r="C94" t="s">
+        <v>20</v>
+      </c>
+      <c r="D94" t="s">
+        <v>21</v>
+      </c>
+      <c r="E94" t="s">
+        <v>22</v>
+      </c>
+      <c r="F94" t="s">
+        <v>212</v>
+      </c>
+      <c r="G94"/>
+      <c r="H94"/>
+      <c r="I94" t="s">
+        <v>29</v>
+      </c>
+      <c r="J94" t="s">
+        <v>213</v>
+      </c>
+      <c r="K94" t="s">
+        <v>26</v>
+      </c>
+      <c r="L94" t="s">
+        <v>26</v>
+      </c>
+      <c r="M94" t="s">
+        <v>26</v>
+      </c>
+      <c r="N94" t="s">
+        <v>27</v>
+      </c>
+      <c r="O94" t="s">
+        <v>27</v>
+      </c>
+      <c r="P94" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17">
+      <c r="A95">
+        <v>1121</v>
+      </c>
+      <c r="B95" t="s">
+        <v>19</v>
+      </c>
+      <c r="C95" t="s">
+        <v>20</v>
+      </c>
+      <c r="D95" t="s">
+        <v>21</v>
+      </c>
+      <c r="E95" t="s">
+        <v>22</v>
+      </c>
+      <c r="F95" t="s">
+        <v>214</v>
+      </c>
+      <c r="G95"/>
+      <c r="H95"/>
+      <c r="I95" t="s">
+        <v>29</v>
+      </c>
+      <c r="J95" t="s">
+        <v>215</v>
+      </c>
+      <c r="K95" t="s">
+        <v>26</v>
+      </c>
+      <c r="L95" t="s">
+        <v>26</v>
+      </c>
+      <c r="M95" t="s">
+        <v>26</v>
+      </c>
+      <c r="N95" t="s">
+        <v>27</v>
+      </c>
+      <c r="O95" t="s">
+        <v>27</v>
+      </c>
+      <c r="P95" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17">
+      <c r="A96">
+        <v>1119</v>
+      </c>
+      <c r="B96" t="s">
+        <v>19</v>
+      </c>
+      <c r="C96" t="s">
+        <v>20</v>
+      </c>
+      <c r="D96" t="s">
+        <v>21</v>
+      </c>
+      <c r="E96" t="s">
+        <v>22</v>
+      </c>
+      <c r="F96" t="s">
+        <v>216</v>
+      </c>
+      <c r="G96"/>
+      <c r="H96"/>
+      <c r="I96" t="s">
+        <v>29</v>
+      </c>
+      <c r="J96" t="s">
+        <v>217</v>
+      </c>
+      <c r="K96" t="s">
+        <v>26</v>
+      </c>
+      <c r="L96" t="s">
+        <v>26</v>
+      </c>
+      <c r="M96" t="s">
+        <v>26</v>
+      </c>
+      <c r="N96" t="s">
+        <v>27</v>
+      </c>
+      <c r="O96" t="s">
+        <v>27</v>
+      </c>
+      <c r="P96" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17">
+      <c r="A97">
+        <v>1115</v>
+      </c>
+      <c r="B97" t="s">
+        <v>19</v>
+      </c>
+      <c r="C97" t="s">
+        <v>20</v>
+      </c>
+      <c r="D97" t="s">
+        <v>21</v>
+      </c>
+      <c r="E97" t="s">
+        <v>22</v>
+      </c>
+      <c r="F97" t="s">
+        <v>218</v>
+      </c>
+      <c r="G97"/>
+      <c r="H97"/>
+      <c r="I97" t="s">
+        <v>29</v>
+      </c>
+      <c r="J97" t="s">
+        <v>219</v>
+      </c>
+      <c r="K97" t="s">
+        <v>26</v>
+      </c>
+      <c r="L97" t="s">
+        <v>26</v>
+      </c>
+      <c r="M97" t="s">
+        <v>26</v>
+      </c>
+      <c r="N97" t="s">
+        <v>27</v>
+      </c>
+      <c r="O97" t="s">
+        <v>27</v>
+      </c>
+      <c r="P97" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17">
+      <c r="A98">
+        <v>1112</v>
+      </c>
+      <c r="B98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C98" t="s">
+        <v>20</v>
+      </c>
+      <c r="D98" t="s">
+        <v>21</v>
+      </c>
+      <c r="E98" t="s">
+        <v>22</v>
+      </c>
+      <c r="F98" t="s">
+        <v>220</v>
+      </c>
+      <c r="G98"/>
+      <c r="H98"/>
+      <c r="I98" t="s">
+        <v>29</v>
+      </c>
+      <c r="J98" t="s">
+        <v>221</v>
+      </c>
+      <c r="K98" t="s">
+        <v>26</v>
+      </c>
+      <c r="L98" t="s">
+        <v>26</v>
+      </c>
+      <c r="M98" t="s">
+        <v>26</v>
+      </c>
+      <c r="N98" t="s">
+        <v>27</v>
+      </c>
+      <c r="O98" t="s">
+        <v>27</v>
+      </c>
+      <c r="P98" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17">
+      <c r="A99">
+        <v>1106</v>
+      </c>
+      <c r="B99" t="s">
+        <v>19</v>
+      </c>
+      <c r="C99" t="s">
+        <v>20</v>
+      </c>
+      <c r="D99" t="s">
+        <v>21</v>
+      </c>
+      <c r="E99" t="s">
+        <v>22</v>
+      </c>
+      <c r="F99" t="s">
+        <v>222</v>
+      </c>
+      <c r="G99"/>
+      <c r="H99"/>
+      <c r="I99" t="s">
+        <v>24</v>
+      </c>
+      <c r="J99" t="s">
+        <v>223</v>
+      </c>
+      <c r="K99" t="s">
+        <v>26</v>
+      </c>
+      <c r="L99" t="s">
+        <v>26</v>
+      </c>
+      <c r="M99" t="s">
+        <v>26</v>
+      </c>
+      <c r="N99" t="s">
+        <v>27</v>
+      </c>
+      <c r="O99" t="s">
+        <v>27</v>
+      </c>
+      <c r="P99" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17">
+      <c r="A100">
+        <v>1102</v>
+      </c>
+      <c r="B100" t="s">
+        <v>19</v>
+      </c>
+      <c r="C100" t="s">
+        <v>20</v>
+      </c>
+      <c r="D100" t="s">
+        <v>21</v>
+      </c>
+      <c r="E100" t="s">
+        <v>22</v>
+      </c>
+      <c r="F100" t="s">
+        <v>224</v>
+      </c>
+      <c r="G100"/>
+      <c r="H100"/>
+      <c r="I100" t="s">
+        <v>29</v>
+      </c>
+      <c r="J100" t="s">
+        <v>225</v>
+      </c>
+      <c r="K100" t="s">
+        <v>26</v>
+      </c>
+      <c r="L100" t="s">
+        <v>26</v>
+      </c>
+      <c r="M100" t="s">
+        <v>26</v>
+      </c>
+      <c r="N100" t="s">
+        <v>27</v>
+      </c>
+      <c r="O100" t="s">
+        <v>27</v>
+      </c>
+      <c r="P100" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17">
+      <c r="A101">
+        <v>1100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>19</v>
+      </c>
+      <c r="C101" t="s">
+        <v>20</v>
+      </c>
+      <c r="D101" t="s">
+        <v>21</v>
+      </c>
+      <c r="E101" t="s">
+        <v>22</v>
+      </c>
+      <c r="F101" t="s">
+        <v>226</v>
+      </c>
+      <c r="G101"/>
+      <c r="H101"/>
+      <c r="I101" t="s">
+        <v>24</v>
+      </c>
+      <c r="J101" t="s">
+        <v>227</v>
+      </c>
+      <c r="K101" t="s">
+        <v>26</v>
+      </c>
+      <c r="L101" t="s">
+        <v>26</v>
+      </c>
+      <c r="M101" t="s">
+        <v>26</v>
+      </c>
+      <c r="N101" t="s">
+        <v>27</v>
+      </c>
+      <c r="O101" t="s">
+        <v>27</v>
+      </c>
+      <c r="P101" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17">
+      <c r="A102">
+        <v>1081</v>
+      </c>
+      <c r="B102" t="s">
+        <v>19</v>
+      </c>
+      <c r="C102" t="s">
+        <v>20</v>
+      </c>
+      <c r="D102" t="s">
+        <v>21</v>
+      </c>
+      <c r="E102" t="s">
+        <v>22</v>
+      </c>
+      <c r="F102" t="s">
+        <v>228</v>
+      </c>
+      <c r="G102"/>
+      <c r="H102"/>
+      <c r="I102" t="s">
+        <v>36</v>
+      </c>
+      <c r="J102" t="s">
+        <v>229</v>
+      </c>
+      <c r="K102" t="s">
+        <v>26</v>
+      </c>
+      <c r="L102" t="s">
+        <v>26</v>
+      </c>
+      <c r="M102" t="s">
+        <v>26</v>
+      </c>
+      <c r="N102" t="s">
+        <v>27</v>
+      </c>
+      <c r="O102" t="s">
+        <v>27</v>
+      </c>
+      <c r="P102" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17">
+      <c r="A103">
+        <v>1080</v>
+      </c>
+      <c r="B103" t="s">
+        <v>19</v>
+      </c>
+      <c r="C103" t="s">
+        <v>20</v>
+      </c>
+      <c r="D103" t="s">
+        <v>21</v>
+      </c>
+      <c r="E103" t="s">
+        <v>22</v>
+      </c>
+      <c r="F103" t="s">
+        <v>230</v>
+      </c>
+      <c r="G103"/>
+      <c r="H103"/>
+      <c r="I103" t="s">
+        <v>29</v>
+      </c>
+      <c r="J103" t="s">
+        <v>231</v>
+      </c>
+      <c r="K103" t="s">
+        <v>26</v>
+      </c>
+      <c r="L103" t="s">
+        <v>26</v>
+      </c>
+      <c r="M103" t="s">
+        <v>26</v>
+      </c>
+      <c r="N103" t="s">
+        <v>27</v>
+      </c>
+      <c r="O103" t="s">
+        <v>27</v>
+      </c>
+      <c r="P103" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17">
+      <c r="A104">
+        <v>1078</v>
+      </c>
+      <c r="B104" t="s">
+        <v>19</v>
+      </c>
+      <c r="C104" t="s">
+        <v>20</v>
+      </c>
+      <c r="D104" t="s">
+        <v>21</v>
+      </c>
+      <c r="E104" t="s">
+        <v>22</v>
+      </c>
+      <c r="F104" t="s">
+        <v>232</v>
+      </c>
+      <c r="G104"/>
+      <c r="H104"/>
+      <c r="I104" t="s">
+        <v>36</v>
+      </c>
+      <c r="J104" t="s">
+        <v>233</v>
+      </c>
+      <c r="K104" t="s">
+        <v>26</v>
+      </c>
+      <c r="L104" t="s">
+        <v>26</v>
+      </c>
+      <c r="M104" t="s">
+        <v>60</v>
+      </c>
+      <c r="N104" t="s">
+        <v>27</v>
+      </c>
+      <c r="O104" t="s">
+        <v>27</v>
+      </c>
+      <c r="P104" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17">
+      <c r="A105">
+        <v>1077</v>
+      </c>
+      <c r="B105" t="s">
+        <v>19</v>
+      </c>
+      <c r="C105" t="s">
+        <v>20</v>
+      </c>
+      <c r="D105" t="s">
+        <v>21</v>
+      </c>
+      <c r="E105" t="s">
+        <v>22</v>
+      </c>
+      <c r="F105" t="s">
+        <v>234</v>
+      </c>
+      <c r="G105"/>
+      <c r="H105"/>
+      <c r="I105" t="s">
+        <v>36</v>
+      </c>
+      <c r="J105" t="s">
+        <v>235</v>
+      </c>
+      <c r="K105" t="s">
+        <v>26</v>
+      </c>
+      <c r="L105" t="s">
+        <v>26</v>
+      </c>
+      <c r="M105" t="s">
+        <v>60</v>
+      </c>
+      <c r="N105" t="s">
+        <v>27</v>
+      </c>
+      <c r="O105" t="s">
+        <v>27</v>
+      </c>
+      <c r="P105" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17">
+      <c r="A106">
+        <v>1073</v>
+      </c>
+      <c r="B106" t="s">
+        <v>19</v>
+      </c>
+      <c r="C106" t="s">
+        <v>20</v>
+      </c>
+      <c r="D106" t="s">
+        <v>21</v>
+      </c>
+      <c r="E106" t="s">
+        <v>22</v>
+      </c>
+      <c r="F106" t="s">
+        <v>236</v>
+      </c>
+      <c r="G106"/>
+      <c r="H106"/>
+      <c r="I106" t="s">
+        <v>36</v>
+      </c>
+      <c r="J106" t="s">
+        <v>237</v>
+      </c>
+      <c r="K106" t="s">
+        <v>26</v>
+      </c>
+      <c r="L106" t="s">
+        <v>26</v>
+      </c>
+      <c r="M106" t="s">
+        <v>60</v>
+      </c>
+      <c r="N106" t="s">
+        <v>27</v>
+      </c>
+      <c r="O106" t="s">
+        <v>27</v>
+      </c>
+      <c r="P106" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17">
+      <c r="A107">
+        <v>1071</v>
+      </c>
+      <c r="B107" t="s">
+        <v>19</v>
+      </c>
+      <c r="C107" t="s">
+        <v>20</v>
+      </c>
+      <c r="D107" t="s">
+        <v>21</v>
+      </c>
+      <c r="E107" t="s">
+        <v>22</v>
+      </c>
+      <c r="F107" t="s">
+        <v>238</v>
+      </c>
+      <c r="G107"/>
+      <c r="H107"/>
+      <c r="I107" t="s">
+        <v>36</v>
+      </c>
+      <c r="J107" t="s">
+        <v>239</v>
+      </c>
+      <c r="K107" t="s">
+        <v>26</v>
+      </c>
+      <c r="L107" t="s">
+        <v>26</v>
+      </c>
+      <c r="M107" t="s">
+        <v>60</v>
+      </c>
+      <c r="N107" t="s">
+        <v>27</v>
+      </c>
+      <c r="O107" t="s">
+        <v>27</v>
+      </c>
+      <c r="P107" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17">
+      <c r="A108">
+        <v>1070</v>
+      </c>
+      <c r="B108" t="s">
+        <v>19</v>
+      </c>
+      <c r="C108" t="s">
+        <v>20</v>
+      </c>
+      <c r="D108" t="s">
+        <v>21</v>
+      </c>
+      <c r="E108" t="s">
+        <v>22</v>
+      </c>
+      <c r="F108" t="s">
+        <v>240</v>
+      </c>
+      <c r="G108"/>
+      <c r="H108"/>
+      <c r="I108" t="s">
+        <v>36</v>
+      </c>
+      <c r="J108" t="s">
+        <v>241</v>
+      </c>
+      <c r="K108" t="s">
+        <v>26</v>
+      </c>
+      <c r="L108" t="s">
+        <v>26</v>
+      </c>
+      <c r="M108" t="s">
+        <v>60</v>
+      </c>
+      <c r="N108" t="s">
+        <v>27</v>
+      </c>
+      <c r="O108" t="s">
+        <v>27</v>
+      </c>
+      <c r="P108" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17">
+      <c r="A109">
+        <v>1066</v>
+      </c>
+      <c r="B109" t="s">
+        <v>19</v>
+      </c>
+      <c r="C109" t="s">
+        <v>20</v>
+      </c>
+      <c r="D109" t="s">
+        <v>21</v>
+      </c>
+      <c r="E109" t="s">
+        <v>22</v>
+      </c>
+      <c r="F109" t="s">
+        <v>242</v>
+      </c>
+      <c r="G109"/>
+      <c r="H109"/>
+      <c r="I109" t="s">
+        <v>24</v>
+      </c>
+      <c r="J109" t="s">
+        <v>243</v>
+      </c>
+      <c r="K109" t="s">
+        <v>26</v>
+      </c>
+      <c r="L109" t="s">
+        <v>26</v>
+      </c>
+      <c r="M109" t="s">
+        <v>26</v>
+      </c>
+      <c r="N109" t="s">
+        <v>27</v>
+      </c>
+      <c r="O109" t="s">
+        <v>27</v>
+      </c>
+      <c r="P109" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17">
+      <c r="A110">
+        <v>1065</v>
+      </c>
+      <c r="B110" t="s">
+        <v>19</v>
+      </c>
+      <c r="C110" t="s">
+        <v>20</v>
+      </c>
+      <c r="D110" t="s">
+        <v>21</v>
+      </c>
+      <c r="E110" t="s">
+        <v>22</v>
+      </c>
+      <c r="F110" t="s">
+        <v>244</v>
+      </c>
+      <c r="G110"/>
+      <c r="H110"/>
+      <c r="I110" t="s">
+        <v>24</v>
+      </c>
+      <c r="J110" t="s">
+        <v>245</v>
+      </c>
+      <c r="K110" t="s">
+        <v>26</v>
+      </c>
+      <c r="L110" t="s">
+        <v>26</v>
+      </c>
+      <c r="M110" t="s">
+        <v>26</v>
+      </c>
+      <c r="N110" t="s">
+        <v>27</v>
+      </c>
+      <c r="O110" t="s">
+        <v>27</v>
+      </c>
+      <c r="P110" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17">
+      <c r="A111">
+        <v>1060</v>
+      </c>
+      <c r="B111" t="s">
+        <v>19</v>
+      </c>
+      <c r="C111" t="s">
+        <v>20</v>
+      </c>
+      <c r="D111" t="s">
+        <v>21</v>
+      </c>
+      <c r="E111" t="s">
+        <v>22</v>
+      </c>
+      <c r="F111" t="s">
+        <v>246</v>
+      </c>
+      <c r="G111"/>
+      <c r="H111"/>
+      <c r="I111" t="s">
+        <v>24</v>
+      </c>
+      <c r="J111" t="s">
+        <v>247</v>
+      </c>
+      <c r="K111" t="s">
+        <v>26</v>
+      </c>
+      <c r="L111" t="s">
+        <v>26</v>
+      </c>
+      <c r="M111" t="s">
+        <v>26</v>
+      </c>
+      <c r="N111" t="s">
+        <v>27</v>
+      </c>
+      <c r="O111" t="s">
+        <v>27</v>
+      </c>
+      <c r="P111" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17">
+      <c r="A112">
+        <v>1058</v>
+      </c>
+      <c r="B112" t="s">
+        <v>19</v>
+      </c>
+      <c r="C112" t="s">
+        <v>20</v>
+      </c>
+      <c r="D112" t="s">
+        <v>21</v>
+      </c>
+      <c r="E112" t="s">
+        <v>22</v>
+      </c>
+      <c r="F112" t="s">
+        <v>248</v>
+      </c>
+      <c r="G112"/>
+      <c r="H112"/>
+      <c r="I112" t="s">
+        <v>36</v>
+      </c>
+      <c r="J112" t="s">
+        <v>249</v>
+      </c>
+      <c r="K112" t="s">
+        <v>26</v>
+      </c>
+      <c r="L112" t="s">
+        <v>26</v>
+      </c>
+      <c r="M112" t="s">
+        <v>60</v>
+      </c>
+      <c r="N112" t="s">
+        <v>27</v>
+      </c>
+      <c r="O112" t="s">
+        <v>27</v>
+      </c>
+      <c r="P112" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17">
+      <c r="A113">
+        <v>1057</v>
+      </c>
+      <c r="B113" t="s">
+        <v>19</v>
+      </c>
+      <c r="C113" t="s">
+        <v>20</v>
+      </c>
+      <c r="D113" t="s">
+        <v>21</v>
+      </c>
+      <c r="E113" t="s">
+        <v>22</v>
+      </c>
+      <c r="F113" t="s">
+        <v>250</v>
+      </c>
+      <c r="G113"/>
+      <c r="H113"/>
+      <c r="I113" t="s">
+        <v>36</v>
+      </c>
+      <c r="J113" t="s">
+        <v>251</v>
+      </c>
+      <c r="K113" t="s">
+        <v>26</v>
+      </c>
+      <c r="L113" t="s">
+        <v>26</v>
+      </c>
+      <c r="M113" t="s">
+        <v>26</v>
+      </c>
+      <c r="N113" t="s">
+        <v>27</v>
+      </c>
+      <c r="O113" t="s">
+        <v>27</v>
+      </c>
+      <c r="P113" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17">
+      <c r="A114">
+        <v>1047</v>
+      </c>
+      <c r="B114" t="s">
+        <v>19</v>
+      </c>
+      <c r="C114" t="s">
+        <v>20</v>
+      </c>
+      <c r="D114" t="s">
+        <v>21</v>
+      </c>
+      <c r="E114" t="s">
+        <v>22</v>
+      </c>
+      <c r="F114" t="s">
+        <v>252</v>
+      </c>
+      <c r="G114"/>
+      <c r="H114"/>
+      <c r="I114" t="s">
+        <v>36</v>
+      </c>
+      <c r="J114" t="s">
+        <v>253</v>
+      </c>
+      <c r="K114" t="s">
+        <v>26</v>
+      </c>
+      <c r="L114" t="s">
+        <v>26</v>
+      </c>
+      <c r="M114" t="s">
+        <v>60</v>
+      </c>
+      <c r="N114" t="s">
+        <v>27</v>
+      </c>
+      <c r="O114" t="s">
+        <v>27</v>
+      </c>
+      <c r="P114" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17">
+      <c r="A115">
+        <v>1044</v>
+      </c>
+      <c r="B115" t="s">
+        <v>19</v>
+      </c>
+      <c r="C115" t="s">
+        <v>20</v>
+      </c>
+      <c r="D115" t="s">
+        <v>21</v>
+      </c>
+      <c r="E115" t="s">
+        <v>22</v>
+      </c>
+      <c r="F115" t="s">
+        <v>254</v>
+      </c>
+      <c r="G115"/>
+      <c r="H115"/>
+      <c r="I115" t="s">
+        <v>36</v>
+      </c>
+      <c r="J115" t="s">
+        <v>255</v>
+      </c>
+      <c r="K115" t="s">
+        <v>26</v>
+      </c>
+      <c r="L115" t="s">
+        <v>26</v>
+      </c>
+      <c r="M115" t="s">
+        <v>26</v>
+      </c>
+      <c r="N115" t="s">
+        <v>27</v>
+      </c>
+      <c r="O115" t="s">
+        <v>27</v>
+      </c>
+      <c r="P115" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17">
+      <c r="A116">
+        <v>1038</v>
+      </c>
+      <c r="B116" t="s">
+        <v>19</v>
+      </c>
+      <c r="C116" t="s">
+        <v>20</v>
+      </c>
+      <c r="D116" t="s">
+        <v>21</v>
+      </c>
+      <c r="E116" t="s">
+        <v>22</v>
+      </c>
+      <c r="F116" t="s">
+        <v>256</v>
+      </c>
+      <c r="G116"/>
+      <c r="H116"/>
+      <c r="I116" t="s">
+        <v>36</v>
+      </c>
+      <c r="J116" t="s">
+        <v>257</v>
+      </c>
+      <c r="K116" t="s">
+        <v>26</v>
+      </c>
+      <c r="L116" t="s">
+        <v>26</v>
+      </c>
+      <c r="M116" t="s">
+        <v>60</v>
+      </c>
+      <c r="N116" t="s">
+        <v>27</v>
+      </c>
+      <c r="O116" t="s">
+        <v>27</v>
+      </c>
+      <c r="P116" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17">
+      <c r="A117">
+        <v>1036</v>
+      </c>
+      <c r="B117" t="s">
+        <v>19</v>
+      </c>
+      <c r="C117" t="s">
+        <v>20</v>
+      </c>
+      <c r="D117" t="s">
+        <v>21</v>
+      </c>
+      <c r="E117" t="s">
+        <v>22</v>
+      </c>
+      <c r="F117" t="s">
+        <v>258</v>
+      </c>
+      <c r="G117"/>
+      <c r="H117"/>
+      <c r="I117" t="s">
+        <v>36</v>
+      </c>
+      <c r="J117" t="s">
+        <v>259</v>
+      </c>
+      <c r="K117" t="s">
+        <v>26</v>
+      </c>
+      <c r="L117" t="s">
+        <v>26</v>
+      </c>
+      <c r="M117" t="s">
+        <v>26</v>
+      </c>
+      <c r="N117" t="s">
+        <v>27</v>
+      </c>
+      <c r="O117" t="s">
+        <v>27</v>
+      </c>
+      <c r="P117" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17">
+      <c r="A118">
+        <v>1035</v>
+      </c>
+      <c r="B118" t="s">
+        <v>19</v>
+      </c>
+      <c r="C118" t="s">
+        <v>20</v>
+      </c>
+      <c r="D118" t="s">
+        <v>21</v>
+      </c>
+      <c r="E118" t="s">
+        <v>22</v>
+      </c>
+      <c r="F118" t="s">
+        <v>260</v>
+      </c>
+      <c r="G118"/>
+      <c r="H118"/>
+      <c r="I118" t="s">
+        <v>36</v>
+      </c>
+      <c r="J118" t="s">
+        <v>261</v>
+      </c>
+      <c r="K118" t="s">
+        <v>26</v>
+      </c>
+      <c r="L118" t="s">
+        <v>26</v>
+      </c>
+      <c r="M118" t="s">
+        <v>60</v>
+      </c>
+      <c r="N118" t="s">
+        <v>27</v>
+      </c>
+      <c r="O118" t="s">
+        <v>27</v>
+      </c>
+      <c r="P118" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17">
+      <c r="A119">
+        <v>1027</v>
+      </c>
+      <c r="B119" t="s">
+        <v>19</v>
+      </c>
+      <c r="C119" t="s">
+        <v>20</v>
+      </c>
+      <c r="D119" t="s">
+        <v>21</v>
+      </c>
+      <c r="E119" t="s">
+        <v>22</v>
+      </c>
+      <c r="F119" t="s">
+        <v>262</v>
+      </c>
+      <c r="G119"/>
+      <c r="H119"/>
+      <c r="I119" t="s">
+        <v>36</v>
+      </c>
+      <c r="J119" t="s">
+        <v>263</v>
+      </c>
+      <c r="K119" t="s">
+        <v>26</v>
+      </c>
+      <c r="L119" t="s">
+        <v>26</v>
+      </c>
+      <c r="M119" t="s">
+        <v>26</v>
+      </c>
+      <c r="N119" t="s">
+        <v>27</v>
+      </c>
+      <c r="O119" t="s">
+        <v>27</v>
+      </c>
+      <c r="P119" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17">
+      <c r="A120">
+        <v>1025</v>
+      </c>
+      <c r="B120" t="s">
+        <v>19</v>
+      </c>
+      <c r="C120" t="s">
+        <v>20</v>
+      </c>
+      <c r="D120" t="s">
+        <v>21</v>
+      </c>
+      <c r="E120" t="s">
+        <v>22</v>
+      </c>
+      <c r="F120" t="s">
+        <v>264</v>
+      </c>
+      <c r="G120"/>
+      <c r="H120"/>
+      <c r="I120" t="s">
+        <v>36</v>
+      </c>
+      <c r="J120" t="s">
+        <v>265</v>
+      </c>
+      <c r="K120" t="s">
+        <v>26</v>
+      </c>
+      <c r="L120" t="s">
+        <v>26</v>
+      </c>
+      <c r="M120" t="s">
+        <v>26</v>
+      </c>
+      <c r="N120" t="s">
+        <v>27</v>
+      </c>
+      <c r="O120" t="s">
+        <v>27</v>
+      </c>
+      <c r="P120" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17">
+      <c r="A121">
+        <v>1023</v>
+      </c>
+      <c r="B121" t="s">
+        <v>19</v>
+      </c>
+      <c r="C121" t="s">
+        <v>20</v>
+      </c>
+      <c r="D121" t="s">
+        <v>21</v>
+      </c>
+      <c r="E121" t="s">
+        <v>22</v>
+      </c>
+      <c r="F121" t="s">
+        <v>266</v>
+      </c>
+      <c r="G121"/>
+      <c r="H121"/>
+      <c r="I121" t="s">
+        <v>36</v>
+      </c>
+      <c r="J121" t="s">
+        <v>267</v>
+      </c>
+      <c r="K121" t="s">
+        <v>26</v>
+      </c>
+      <c r="L121" t="s">
+        <v>26</v>
+      </c>
+      <c r="M121" t="s">
+        <v>26</v>
+      </c>
+      <c r="N121" t="s">
+        <v>27</v>
+      </c>
+      <c r="O121" t="s">
+        <v>27</v>
+      </c>
+      <c r="P121" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17">
+      <c r="A122">
+        <v>1021</v>
+      </c>
+      <c r="B122" t="s">
+        <v>19</v>
+      </c>
+      <c r="C122" t="s">
+        <v>20</v>
+      </c>
+      <c r="D122" t="s">
+        <v>21</v>
+      </c>
+      <c r="E122" t="s">
+        <v>22</v>
+      </c>
+      <c r="F122" t="s">
+        <v>268</v>
+      </c>
+      <c r="G122"/>
+      <c r="H122"/>
+      <c r="I122" t="s">
+        <v>36</v>
+      </c>
+      <c r="J122" t="s">
+        <v>269</v>
+      </c>
+      <c r="K122" t="s">
+        <v>26</v>
+      </c>
+      <c r="L122" t="s">
+        <v>26</v>
+      </c>
+      <c r="M122" t="s">
+        <v>26</v>
+      </c>
+      <c r="N122" t="s">
+        <v>27</v>
+      </c>
+      <c r="O122" t="s">
+        <v>27</v>
+      </c>
+      <c r="P122" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17">
+      <c r="A123">
+        <v>1018</v>
+      </c>
+      <c r="B123" t="s">
+        <v>19</v>
+      </c>
+      <c r="C123" t="s">
+        <v>20</v>
+      </c>
+      <c r="D123" t="s">
+        <v>21</v>
+      </c>
+      <c r="E123" t="s">
+        <v>22</v>
+      </c>
+      <c r="F123" t="s">
+        <v>270</v>
+      </c>
+      <c r="G123"/>
+      <c r="H123"/>
+      <c r="I123" t="s">
+        <v>36</v>
+      </c>
+      <c r="J123" t="s">
+        <v>271</v>
+      </c>
+      <c r="K123" t="s">
+        <v>26</v>
+      </c>
+      <c r="L123" t="s">
+        <v>26</v>
+      </c>
+      <c r="M123" t="s">
+        <v>26</v>
+      </c>
+      <c r="N123" t="s">
+        <v>27</v>
+      </c>
+      <c r="O123" t="s">
+        <v>27</v>
+      </c>
+      <c r="P123" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17">
+      <c r="A124">
+        <v>1017</v>
+      </c>
+      <c r="B124" t="s">
+        <v>19</v>
+      </c>
+      <c r="C124" t="s">
+        <v>20</v>
+      </c>
+      <c r="D124" t="s">
+        <v>21</v>
+      </c>
+      <c r="E124" t="s">
+        <v>22</v>
+      </c>
+      <c r="F124" t="s">
+        <v>272</v>
+      </c>
+      <c r="G124"/>
+      <c r="H124"/>
+      <c r="I124" t="s">
+        <v>36</v>
+      </c>
+      <c r="J124" t="s">
+        <v>273</v>
+      </c>
+      <c r="K124" t="s">
+        <v>26</v>
+      </c>
+      <c r="L124" t="s">
+        <v>26</v>
+      </c>
+      <c r="M124" t="s">
+        <v>26</v>
+      </c>
+      <c r="N124" t="s">
+        <v>27</v>
+      </c>
+      <c r="O124" t="s">
+        <v>27</v>
+      </c>
+      <c r="P124" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17">
+      <c r="A125">
+        <v>1000</v>
+      </c>
+      <c r="B125" t="s">
+        <v>19</v>
+      </c>
+      <c r="C125" t="s">
+        <v>20</v>
+      </c>
+      <c r="D125" t="s">
+        <v>21</v>
+      </c>
+      <c r="E125" t="s">
+        <v>22</v>
+      </c>
+      <c r="F125" t="s">
+        <v>274</v>
+      </c>
+      <c r="G125"/>
+      <c r="H125"/>
+      <c r="I125" t="s">
+        <v>36</v>
+      </c>
+      <c r="J125" t="s">
+        <v>275</v>
+      </c>
+      <c r="K125" t="s">
+        <v>26</v>
+      </c>
+      <c r="L125" t="s">
+        <v>26</v>
+      </c>
+      <c r="M125" t="s">
+        <v>26</v>
+      </c>
+      <c r="N125" t="s">
+        <v>27</v>
+      </c>
+      <c r="O125" t="s">
+        <v>27</v>
+      </c>
+      <c r="P125" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17">
+      <c r="A126">
+        <v>998</v>
+      </c>
+      <c r="B126" t="s">
+        <v>19</v>
+      </c>
+      <c r="C126" t="s">
+        <v>20</v>
+      </c>
+      <c r="D126" t="s">
+        <v>21</v>
+      </c>
+      <c r="E126" t="s">
+        <v>22</v>
+      </c>
+      <c r="F126" t="s">
+        <v>276</v>
+      </c>
+      <c r="G126"/>
+      <c r="H126"/>
+      <c r="I126" t="s">
+        <v>24</v>
+      </c>
+      <c r="J126" t="s">
+        <v>277</v>
+      </c>
+      <c r="K126" t="s">
+        <v>60</v>
+      </c>
+      <c r="L126" t="s">
+        <v>26</v>
+      </c>
+      <c r="M126" t="s">
+        <v>60</v>
+      </c>
+      <c r="N126" t="s">
+        <v>27</v>
+      </c>
+      <c r="O126" t="s">
+        <v>27</v>
+      </c>
+      <c r="P126" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17">
+      <c r="A127">
+        <v>1131</v>
+      </c>
+      <c r="B127" t="s">
+        <v>19</v>
+      </c>
+      <c r="C127" t="s">
+        <v>20</v>
+      </c>
+      <c r="D127" t="s">
+        <v>21</v>
+      </c>
+      <c r="E127" t="s">
+        <v>22</v>
+      </c>
+      <c r="F127" t="s">
+        <v>278</v>
+      </c>
+      <c r="G127"/>
+      <c r="H127"/>
+      <c r="I127" t="s">
+        <v>29</v>
+      </c>
+      <c r="J127" t="s">
+        <v>279</v>
+      </c>
+      <c r="K127" t="s">
+        <v>60</v>
+      </c>
+      <c r="L127" t="s">
+        <v>26</v>
+      </c>
+      <c r="M127" t="s">
+        <v>26</v>
+      </c>
+      <c r="N127" t="s">
+        <v>27</v>
+      </c>
+      <c r="O127" t="s">
+        <v>27</v>
+      </c>
+      <c r="P127" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17">
+      <c r="A128">
+        <v>1240</v>
+      </c>
+      <c r="B128" t="s">
+        <v>19</v>
+      </c>
+      <c r="C128" t="s">
+        <v>20</v>
+      </c>
+      <c r="D128" t="s">
+        <v>21</v>
+      </c>
+      <c r="E128" t="s">
+        <v>22</v>
+      </c>
+      <c r="F128" t="s">
+        <v>280</v>
+      </c>
+      <c r="G128"/>
+      <c r="H128"/>
+      <c r="I128" t="s">
+        <v>36</v>
+      </c>
+      <c r="J128" t="s">
+        <v>281</v>
+      </c>
+      <c r="K128" t="s">
+        <v>26</v>
+      </c>
+      <c r="L128" t="s">
+        <v>26</v>
+      </c>
+      <c r="M128" t="s">
+        <v>26</v>
+      </c>
+      <c r="N128" t="s">
+        <v>27</v>
+      </c>
+      <c r="O128" t="s">
+        <v>27</v>
+      </c>
+      <c r="P128" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17">
+      <c r="A129">
+        <v>1236</v>
+      </c>
+      <c r="B129" t="s">
+        <v>19</v>
+      </c>
+      <c r="C129" t="s">
+        <v>20</v>
+      </c>
+      <c r="D129" t="s">
+        <v>21</v>
+      </c>
+      <c r="E129" t="s">
+        <v>22</v>
+      </c>
+      <c r="F129" t="s">
+        <v>282</v>
+      </c>
+      <c r="G129"/>
+      <c r="H129"/>
+      <c r="I129" t="s">
+        <v>29</v>
+      </c>
+      <c r="J129" t="s">
+        <v>283</v>
+      </c>
+      <c r="K129" t="s">
+        <v>60</v>
+      </c>
+      <c r="L129" t="s">
+        <v>26</v>
+      </c>
+      <c r="M129" t="s">
+        <v>60</v>
+      </c>
+      <c r="N129" t="s">
+        <v>27</v>
+      </c>
+      <c r="O129" t="s">
+        <v>27</v>
+      </c>
+      <c r="P129" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q129" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17">
+      <c r="A130">
+        <v>1242</v>
+      </c>
+      <c r="B130" t="s">
+        <v>19</v>
+      </c>
+      <c r="C130" t="s">
+        <v>20</v>
+      </c>
+      <c r="D130" t="s">
+        <v>21</v>
+      </c>
+      <c r="E130" t="s">
+        <v>22</v>
+      </c>
+      <c r="F130" t="s">
+        <v>284</v>
+      </c>
+      <c r="G130"/>
+      <c r="H130"/>
+      <c r="I130" t="s">
+        <v>29</v>
+      </c>
+      <c r="J130" t="s">
+        <v>285</v>
+      </c>
+      <c r="K130" t="s">
+        <v>60</v>
+      </c>
+      <c r="L130" t="s">
+        <v>26</v>
+      </c>
+      <c r="M130" t="s">
+        <v>26</v>
+      </c>
+      <c r="N130" t="s">
+        <v>27</v>
+      </c>
+      <c r="O130" t="s">
+        <v>27</v>
+      </c>
+      <c r="P130" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q130" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17">
+      <c r="A131">
+        <v>1247</v>
+      </c>
+      <c r="B131" t="s">
+        <v>19</v>
+      </c>
+      <c r="C131" t="s">
+        <v>20</v>
+      </c>
+      <c r="D131" t="s">
+        <v>21</v>
+      </c>
+      <c r="E131" t="s">
+        <v>22</v>
+      </c>
+      <c r="F131" t="s">
+        <v>286</v>
+      </c>
+      <c r="G131"/>
+      <c r="H131"/>
+      <c r="I131" t="s">
+        <v>29</v>
+      </c>
+      <c r="J131" t="s">
+        <v>287</v>
+      </c>
+      <c r="K131" t="s">
+        <v>60</v>
+      </c>
+      <c r="L131" t="s">
+        <v>26</v>
+      </c>
+      <c r="M131" t="s">
+        <v>26</v>
+      </c>
+      <c r="N131" t="s">
+        <v>27</v>
+      </c>
+      <c r="O131" t="s">
+        <v>27</v>
+      </c>
+      <c r="P131" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17">
+      <c r="A132">
+        <v>1054</v>
+      </c>
+      <c r="B132" t="s">
+        <v>19</v>
+      </c>
+      <c r="C132" t="s">
+        <v>20</v>
+      </c>
+      <c r="D132" t="s">
+        <v>21</v>
+      </c>
+      <c r="E132" t="s">
+        <v>22</v>
+      </c>
+      <c r="F132" t="s">
+        <v>288</v>
+      </c>
+      <c r="G132"/>
+      <c r="H132"/>
+      <c r="I132" t="s">
+        <v>24</v>
+      </c>
+      <c r="J132" t="s">
+        <v>289</v>
+      </c>
+      <c r="K132" t="s">
+        <v>26</v>
+      </c>
+      <c r="L132" t="s">
+        <v>26</v>
+      </c>
+      <c r="M132" t="s">
+        <v>26</v>
+      </c>
+      <c r="N132" t="s">
+        <v>27</v>
+      </c>
+      <c r="O132" t="s">
+        <v>27</v>
+      </c>
+      <c r="P132" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q132" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17">
+      <c r="A133">
+        <v>1062</v>
+      </c>
+      <c r="B133" t="s">
+        <v>19</v>
+      </c>
+      <c r="C133" t="s">
+        <v>20</v>
+      </c>
+      <c r="D133" t="s">
+        <v>21</v>
+      </c>
+      <c r="E133" t="s">
+        <v>22</v>
+      </c>
+      <c r="F133" t="s">
+        <v>290</v>
+      </c>
+      <c r="G133"/>
+      <c r="H133"/>
+      <c r="I133" t="s">
+        <v>24</v>
+      </c>
+      <c r="J133" t="s">
+        <v>291</v>
+      </c>
+      <c r="K133" t="s">
+        <v>26</v>
+      </c>
+      <c r="L133" t="s">
+        <v>26</v>
+      </c>
+      <c r="M133" t="s">
+        <v>26</v>
+      </c>
+      <c r="N133" t="s">
+        <v>27</v>
+      </c>
+      <c r="O133" t="s">
+        <v>27</v>
+      </c>
+      <c r="P133" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q133" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17">
+      <c r="A134">
+        <v>1231</v>
+      </c>
+      <c r="B134" t="s">
+        <v>19</v>
+      </c>
+      <c r="C134" t="s">
+        <v>20</v>
+      </c>
+      <c r="D134" t="s">
+        <v>21</v>
+      </c>
+      <c r="E134" t="s">
+        <v>22</v>
+      </c>
+      <c r="F134" t="s">
+        <v>292</v>
+      </c>
+      <c r="G134"/>
+      <c r="H134"/>
+      <c r="I134" t="s">
+        <v>29</v>
+      </c>
+      <c r="J134" t="s">
+        <v>293</v>
+      </c>
+      <c r="K134" t="s">
+        <v>26</v>
+      </c>
+      <c r="L134" t="s">
+        <v>26</v>
+      </c>
+      <c r="M134" t="s">
+        <v>26</v>
+      </c>
+      <c r="N134" t="s">
+        <v>27</v>
+      </c>
+      <c r="O134" t="s">
+        <v>27</v>
+      </c>
+      <c r="P134" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q134" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17">
+      <c r="A135">
+        <v>1090</v>
+      </c>
+      <c r="B135" t="s">
+        <v>19</v>
+      </c>
+      <c r="C135" t="s">
+        <v>20</v>
+      </c>
+      <c r="D135" t="s">
+        <v>21</v>
+      </c>
+      <c r="E135" t="s">
+        <v>22</v>
+      </c>
+      <c r="F135" t="s">
+        <v>294</v>
+      </c>
+      <c r="G135"/>
+      <c r="H135"/>
+      <c r="I135" t="s">
+        <v>36</v>
+      </c>
+      <c r="J135" t="s">
+        <v>295</v>
+      </c>
+      <c r="K135" t="s">
+        <v>26</v>
+      </c>
+      <c r="L135" t="s">
+        <v>26</v>
+      </c>
+      <c r="M135" t="s">
+        <v>26</v>
+      </c>
+      <c r="N135" t="s">
+        <v>27</v>
+      </c>
+      <c r="O135" t="s">
+        <v>27</v>
+      </c>
+      <c r="P135" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q135" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17">
+      <c r="A136">
+        <v>1094</v>
+      </c>
+      <c r="B136" t="s">
+        <v>19</v>
+      </c>
+      <c r="C136" t="s">
+        <v>20</v>
+      </c>
+      <c r="D136" t="s">
+        <v>21</v>
+      </c>
+      <c r="E136" t="s">
+        <v>22</v>
+      </c>
+      <c r="F136" t="s">
+        <v>296</v>
+      </c>
+      <c r="G136"/>
+      <c r="H136"/>
+      <c r="I136" t="s">
+        <v>29</v>
+      </c>
+      <c r="J136" t="s">
+        <v>297</v>
+      </c>
+      <c r="K136" t="s">
+        <v>26</v>
+      </c>
+      <c r="L136" t="s">
+        <v>26</v>
+      </c>
+      <c r="M136" t="s">
+        <v>26</v>
+      </c>
+      <c r="N136" t="s">
+        <v>27</v>
+      </c>
+      <c r="O136" t="s">
+        <v>27</v>
+      </c>
+      <c r="P136" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q136" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17">
+      <c r="A137">
+        <v>1097</v>
+      </c>
+      <c r="B137" t="s">
+        <v>19</v>
+      </c>
+      <c r="C137" t="s">
+        <v>20</v>
+      </c>
+      <c r="D137" t="s">
+        <v>21</v>
+      </c>
+      <c r="E137" t="s">
+        <v>22</v>
+      </c>
+      <c r="F137" t="s">
+        <v>298</v>
+      </c>
+      <c r="G137"/>
+      <c r="H137"/>
+      <c r="I137" t="s">
+        <v>29</v>
+      </c>
+      <c r="J137" t="s">
+        <v>299</v>
+      </c>
+      <c r="K137" t="s">
+        <v>26</v>
+      </c>
+      <c r="L137" t="s">
+        <v>26</v>
+      </c>
+      <c r="M137" t="s">
+        <v>26</v>
+      </c>
+      <c r="N137" t="s">
+        <v>27</v>
+      </c>
+      <c r="O137" t="s">
+        <v>27</v>
+      </c>
+      <c r="P137" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q137" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17">
+      <c r="A138">
+        <v>1099</v>
+      </c>
+      <c r="B138" t="s">
+        <v>19</v>
+      </c>
+      <c r="C138" t="s">
+        <v>20</v>
+      </c>
+      <c r="D138" t="s">
+        <v>21</v>
+      </c>
+      <c r="E138" t="s">
+        <v>22</v>
+      </c>
+      <c r="F138" t="s">
+        <v>300</v>
+      </c>
+      <c r="G138"/>
+      <c r="H138"/>
+      <c r="I138" t="s">
+        <v>29</v>
+      </c>
+      <c r="J138" t="s">
+        <v>301</v>
+      </c>
+      <c r="K138" t="s">
+        <v>26</v>
+      </c>
+      <c r="L138" t="s">
+        <v>26</v>
+      </c>
+      <c r="M138" t="s">
+        <v>26</v>
+      </c>
+      <c r="N138" t="s">
+        <v>27</v>
+      </c>
+      <c r="O138" t="s">
+        <v>27</v>
+      </c>
+      <c r="P138" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q138" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17">
+      <c r="A139">
+        <v>1105</v>
+      </c>
+      <c r="B139" t="s">
+        <v>19</v>
+      </c>
+      <c r="C139" t="s">
+        <v>20</v>
+      </c>
+      <c r="D139" t="s">
+        <v>21</v>
+      </c>
+      <c r="E139" t="s">
+        <v>22</v>
+      </c>
+      <c r="F139" t="s">
+        <v>302</v>
+      </c>
+      <c r="G139"/>
+      <c r="H139"/>
+      <c r="I139" t="s">
+        <v>36</v>
+      </c>
+      <c r="J139" t="s">
+        <v>303</v>
+      </c>
+      <c r="K139" t="s">
+        <v>26</v>
+      </c>
+      <c r="L139" t="s">
+        <v>26</v>
+      </c>
+      <c r="M139" t="s">
+        <v>26</v>
+      </c>
+      <c r="N139" t="s">
+        <v>27</v>
+      </c>
+      <c r="O139" t="s">
+        <v>27</v>
+      </c>
+      <c r="P139" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q139" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17">
+      <c r="A140">
+        <v>1124</v>
+      </c>
+      <c r="B140" t="s">
+        <v>19</v>
+      </c>
+      <c r="C140" t="s">
+        <v>20</v>
+      </c>
+      <c r="D140" t="s">
+        <v>21</v>
+      </c>
+      <c r="E140" t="s">
+        <v>22</v>
+      </c>
+      <c r="F140" t="s">
+        <v>304</v>
+      </c>
+      <c r="G140"/>
+      <c r="H140"/>
+      <c r="I140" t="s">
+        <v>36</v>
+      </c>
+      <c r="J140" t="s">
+        <v>305</v>
+      </c>
+      <c r="K140" t="s">
+        <v>26</v>
+      </c>
+      <c r="L140" t="s">
+        <v>26</v>
+      </c>
+      <c r="M140" t="s">
+        <v>26</v>
+      </c>
+      <c r="N140" t="s">
+        <v>27</v>
+      </c>
+      <c r="O140" t="s">
+        <v>27</v>
+      </c>
+      <c r="P140" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q140" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17">
+      <c r="A141">
+        <v>1127</v>
+      </c>
+      <c r="B141" t="s">
+        <v>19</v>
+      </c>
+      <c r="C141" t="s">
+        <v>20</v>
+      </c>
+      <c r="D141" t="s">
+        <v>21</v>
+      </c>
+      <c r="E141" t="s">
+        <v>22</v>
+      </c>
+      <c r="F141" t="s">
+        <v>306</v>
+      </c>
+      <c r="G141"/>
+      <c r="H141"/>
+      <c r="I141" t="s">
+        <v>29</v>
+      </c>
+      <c r="J141" t="s">
+        <v>307</v>
+      </c>
+      <c r="K141" t="s">
+        <v>26</v>
+      </c>
+      <c r="L141" t="s">
+        <v>26</v>
+      </c>
+      <c r="M141" t="s">
+        <v>26</v>
+      </c>
+      <c r="N141" t="s">
+        <v>27</v>
+      </c>
+      <c r="O141" t="s">
+        <v>27</v>
+      </c>
+      <c r="P141" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q141" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17">
+      <c r="A142">
+        <v>1204</v>
+      </c>
+      <c r="B142" t="s">
+        <v>19</v>
+      </c>
+      <c r="C142" t="s">
+        <v>20</v>
+      </c>
+      <c r="D142" t="s">
+        <v>21</v>
+      </c>
+      <c r="E142" t="s">
+        <v>22</v>
+      </c>
+      <c r="F142" t="s">
+        <v>308</v>
+      </c>
+      <c r="G142"/>
+      <c r="H142"/>
+      <c r="I142" t="s">
+        <v>36</v>
+      </c>
+      <c r="J142" t="s">
+        <v>309</v>
+      </c>
+      <c r="K142" t="s">
+        <v>26</v>
+      </c>
+      <c r="L142" t="s">
+        <v>26</v>
+      </c>
+      <c r="M142" t="s">
+        <v>26</v>
+      </c>
+      <c r="N142" t="s">
+        <v>27</v>
+      </c>
+      <c r="O142" t="s">
+        <v>27</v>
+      </c>
+      <c r="P142" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q142" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17">
+      <c r="A143">
+        <v>1216</v>
+      </c>
+      <c r="B143" t="s">
+        <v>19</v>
+      </c>
+      <c r="C143" t="s">
+        <v>20</v>
+      </c>
+      <c r="D143" t="s">
+        <v>21</v>
+      </c>
+      <c r="E143" t="s">
+        <v>22</v>
+      </c>
+      <c r="F143" t="s">
+        <v>310</v>
+      </c>
+      <c r="G143"/>
+      <c r="H143"/>
+      <c r="I143" t="s">
+        <v>36</v>
+      </c>
+      <c r="J143" t="s">
+        <v>311</v>
+      </c>
+      <c r="K143" t="s">
+        <v>26</v>
+      </c>
+      <c r="L143" t="s">
+        <v>26</v>
+      </c>
+      <c r="M143" t="s">
+        <v>26</v>
+      </c>
+      <c r="N143" t="s">
+        <v>27</v>
+      </c>
+      <c r="O143" t="s">
+        <v>27</v>
+      </c>
+      <c r="P143" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q143" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17">
+      <c r="A144">
+        <v>1219</v>
+      </c>
+      <c r="B144" t="s">
+        <v>19</v>
+      </c>
+      <c r="C144" t="s">
+        <v>20</v>
+      </c>
+      <c r="D144" t="s">
+        <v>21</v>
+      </c>
+      <c r="E144" t="s">
+        <v>22</v>
+      </c>
+      <c r="F144" t="s">
+        <v>312</v>
+      </c>
+      <c r="G144"/>
+      <c r="H144"/>
+      <c r="I144" t="s">
+        <v>29</v>
+      </c>
+      <c r="J144" t="s">
+        <v>313</v>
+      </c>
+      <c r="K144" t="s">
+        <v>26</v>
+      </c>
+      <c r="L144" t="s">
+        <v>26</v>
+      </c>
+      <c r="M144" t="s">
+        <v>26</v>
+      </c>
+      <c r="N144" t="s">
+        <v>27</v>
+      </c>
+      <c r="O144" t="s">
+        <v>27</v>
+      </c>
+      <c r="P144" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17">
+      <c r="A145">
+        <v>1222</v>
+      </c>
+      <c r="B145" t="s">
+        <v>19</v>
+      </c>
+      <c r="C145" t="s">
+        <v>20</v>
+      </c>
+      <c r="D145" t="s">
+        <v>21</v>
+      </c>
+      <c r="E145" t="s">
+        <v>22</v>
+      </c>
+      <c r="F145" t="s">
+        <v>314</v>
+      </c>
+      <c r="G145"/>
+      <c r="H145"/>
+      <c r="I145" t="s">
+        <v>29</v>
+      </c>
+      <c r="J145" t="s">
+        <v>315</v>
+      </c>
+      <c r="K145" t="s">
+        <v>26</v>
+      </c>
+      <c r="L145" t="s">
+        <v>26</v>
+      </c>
+      <c r="M145" t="s">
+        <v>26</v>
+      </c>
+      <c r="N145" t="s">
+        <v>27</v>
+      </c>
+      <c r="O145" t="s">
+        <v>27</v>
+      </c>
+      <c r="P145" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q145" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17">
+      <c r="A146">
+        <v>991</v>
+      </c>
+      <c r="B146" t="s">
+        <v>19</v>
+      </c>
+      <c r="C146" t="s">
+        <v>20</v>
+      </c>
+      <c r="D146" t="s">
+        <v>21</v>
+      </c>
+      <c r="E146" t="s">
+        <v>22</v>
+      </c>
+      <c r="F146" t="s">
+        <v>316</v>
+      </c>
+      <c r="G146"/>
+      <c r="H146"/>
+      <c r="I146" t="s">
+        <v>24</v>
+      </c>
+      <c r="J146" t="s">
+        <v>317</v>
+      </c>
+      <c r="K146" t="s">
+        <v>26</v>
+      </c>
+      <c r="L146" t="s">
+        <v>26</v>
+      </c>
+      <c r="M146" t="s">
+        <v>26</v>
+      </c>
+      <c r="N146" t="s">
+        <v>27</v>
+      </c>
+      <c r="O146" t="s">
+        <v>27</v>
+      </c>
+      <c r="P146" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q146" t="s">
         <v>27</v>
       </c>
     </row>
